--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1486,7 +1486,7 @@
     <t>17.3.1 Official development assistance (ODA) as a proportion of total domestic budget</t>
   </si>
   <si>
-    <t>Ministry of Finance Republic of Poland / Ministry of Foreign Affairs Republic of Poland</t>
+    <t>Ministry of Finance Republic of Poland / Ministry of Foreign Affairs Republic  of Poland</t>
   </si>
   <si>
     <t>17.3.2 Volume of remittances (in United States dollars) as a proportion of total GDP</t>
@@ -1534,10 +1534,10 @@
     <t>macroeconomic indicator</t>
   </si>
   <si>
-    <t>GDP per capita in EUR (current prices)</t>
-  </si>
-  <si>
-    <t>euro</t>
+    <t>GDP per capita in PLN (current prices)</t>
+  </si>
+  <si>
+    <t>PLN, [-], percent [%]</t>
   </si>
   <si>
     <t>indices of GDP (constant prices)</t>
@@ -1591,7 +1591,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 07-04-2020, 13:55</t>
+    <t>Last update: 21-04-2020, 13:22</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2139,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3196,7 +3196,9 @@
       <c r="M24" s="4">
         <v>63.3</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="4">
+        <v>62.6</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
         <v>22</v>
@@ -3242,7 +3244,9 @@
       <c r="M25" s="4">
         <v>11.4</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="4">
+        <v>11.6</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="2" t="s">
         <v>22</v>
@@ -3288,7 +3292,9 @@
       <c r="M26" s="4">
         <v>11.9</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="4">
+        <v>12</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="2" t="s">
         <v>22</v>
@@ -3334,7 +3340,9 @@
       <c r="M27" s="4">
         <v>40</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="4">
+        <v>39</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="2" t="s">
         <v>22</v>
@@ -3866,7 +3874,9 @@
       <c r="M39" s="5">
         <v>0.36</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="N39" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="2" t="s">
         <v>76</v>
@@ -3954,7 +3964,9 @@
       <c r="M41" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="N41" s="4">
+        <v>1.3</v>
+      </c>
       <c r="O41" s="3"/>
       <c r="P41" s="2" t="s">
         <v>22</v>
@@ -4243,7 +4255,9 @@
       <c r="N47" s="6">
         <v>28</v>
       </c>
-      <c r="O47" s="3"/>
+      <c r="O47" s="6">
+        <v>25</v>
+      </c>
       <c r="P47" s="2" t="s">
         <v>86</v>
       </c>
@@ -4384,7 +4398,9 @@
       <c r="M50" s="4">
         <v>434.8</v>
       </c>
-      <c r="N50" s="3"/>
+      <c r="N50" s="4">
+        <v>437.2</v>
+      </c>
       <c r="O50" s="3"/>
       <c r="P50" s="2" t="s">
         <v>22</v>
@@ -4430,7 +4446,9 @@
       <c r="M51" s="4">
         <v>22.9</v>
       </c>
-      <c r="N51" s="3"/>
+      <c r="N51" s="4">
+        <v>23.5</v>
+      </c>
       <c r="O51" s="3"/>
       <c r="P51" s="2" t="s">
         <v>22</v>
@@ -4476,7 +4494,9 @@
       <c r="M52" s="4">
         <v>259.3</v>
       </c>
-      <c r="N52" s="3"/>
+      <c r="N52" s="4">
+        <v>263.89999999999998</v>
+      </c>
       <c r="O52" s="3"/>
       <c r="P52" s="2" t="s">
         <v>22</v>
@@ -4522,7 +4542,9 @@
       <c r="M53" s="4">
         <v>26.4</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="N53" s="4">
+        <v>24.6</v>
+      </c>
       <c r="O53" s="3"/>
       <c r="P53" s="2" t="s">
         <v>22</v>
@@ -4568,7 +4590,9 @@
       <c r="M54" s="4">
         <v>11.7</v>
       </c>
-      <c r="N54" s="3"/>
+      <c r="N54" s="4">
+        <v>11.6</v>
+      </c>
       <c r="O54" s="3"/>
       <c r="P54" s="2" t="s">
         <v>22</v>
@@ -4614,7 +4638,9 @@
       <c r="M55" s="4">
         <v>20.9</v>
       </c>
-      <c r="N55" s="3"/>
+      <c r="N55" s="4">
+        <v>20.8</v>
+      </c>
       <c r="O55" s="3"/>
       <c r="P55" s="2" t="s">
         <v>22</v>
@@ -4660,7 +4686,9 @@
       <c r="M56" s="4">
         <v>3</v>
       </c>
-      <c r="N56" s="3"/>
+      <c r="N56" s="4">
+        <v>2.9</v>
+      </c>
       <c r="O56" s="3"/>
       <c r="P56" s="2" t="s">
         <v>22</v>
@@ -4980,7 +5008,9 @@
       <c r="M63" s="4">
         <v>0.6</v>
       </c>
-      <c r="N63" s="3"/>
+      <c r="N63" s="4">
+        <v>0.8</v>
+      </c>
       <c r="O63" s="3"/>
       <c r="P63" s="2" t="s">
         <v>22</v>
@@ -9259,8 +9289,12 @@
       <c r="L175" s="6">
         <v>145185</v>
       </c>
-      <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
+      <c r="M175" s="6">
+        <v>153374</v>
+      </c>
+      <c r="N175" s="6">
+        <v>153374</v>
+      </c>
       <c r="O175" s="3"/>
       <c r="P175" s="2" t="s">
         <v>225</v>
@@ -9904,7 +9938,9 @@
         <v>26.37</v>
       </c>
       <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
+      <c r="N190" s="5">
+        <v>27.79</v>
+      </c>
       <c r="O190" s="3"/>
       <c r="P190" s="2" t="s">
         <v>22</v>
@@ -9942,7 +9978,9 @@
         <v>27.79</v>
       </c>
       <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
+      <c r="N191" s="5">
+        <v>29.47</v>
+      </c>
       <c r="O191" s="3"/>
       <c r="P191" s="2" t="s">
         <v>22</v>
@@ -9980,7 +10018,9 @@
         <v>24.79</v>
       </c>
       <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
+      <c r="N192" s="5">
+        <v>25.94</v>
+      </c>
       <c r="O192" s="3"/>
       <c r="P192" s="2" t="s">
         <v>22</v>
@@ -10018,7 +10058,9 @@
         <v>52.11</v>
       </c>
       <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
+      <c r="N193" s="5">
+        <v>51.95</v>
+      </c>
       <c r="O193" s="3"/>
       <c r="P193" s="2" t="s">
         <v>22</v>
@@ -10056,7 +10098,9 @@
         <v>36.17</v>
       </c>
       <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
+      <c r="N194" s="5">
+        <v>37.49</v>
+      </c>
       <c r="O194" s="3"/>
       <c r="P194" s="2" t="s">
         <v>22</v>
@@ -10094,7 +10138,9 @@
         <v>26.12</v>
       </c>
       <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
+      <c r="N195" s="5">
+        <v>26.78</v>
+      </c>
       <c r="O195" s="3"/>
       <c r="P195" s="2" t="s">
         <v>22</v>
@@ -10132,7 +10178,9 @@
         <v>20.8</v>
       </c>
       <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
+      <c r="N196" s="5">
+        <v>21.85</v>
+      </c>
       <c r="O196" s="3"/>
       <c r="P196" s="2" t="s">
         <v>22</v>
@@ -10170,7 +10218,9 @@
         <v>15.93</v>
       </c>
       <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
+      <c r="N197" s="5">
+        <v>16.91</v>
+      </c>
       <c r="O197" s="3"/>
       <c r="P197" s="2" t="s">
         <v>22</v>
@@ -10208,7 +10258,9 @@
         <v>17.29</v>
       </c>
       <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
+      <c r="N198" s="5">
+        <v>18.309999999999999</v>
+      </c>
       <c r="O198" s="3"/>
       <c r="P198" s="2" t="s">
         <v>22</v>
@@ -10246,7 +10298,9 @@
         <v>19.84</v>
       </c>
       <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
+      <c r="N199" s="5">
+        <v>21.98</v>
+      </c>
       <c r="O199" s="3"/>
       <c r="P199" s="2" t="s">
         <v>22</v>
@@ -10284,7 +10338,9 @@
         <v>20.2</v>
       </c>
       <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
+      <c r="N200" s="5">
+        <v>21.7</v>
+      </c>
       <c r="O200" s="3"/>
       <c r="P200" s="2" t="s">
         <v>22</v>
@@ -10322,7 +10378,9 @@
         <v>15.35</v>
       </c>
       <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
+      <c r="N201" s="5">
+        <v>16.22</v>
+      </c>
       <c r="O201" s="3"/>
       <c r="P201" s="2" t="s">
         <v>22</v>
@@ -10360,7 +10418,9 @@
         <v>17.14</v>
       </c>
       <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
+      <c r="N202" s="5">
+        <v>18.809999999999999</v>
+      </c>
       <c r="O202" s="3"/>
       <c r="P202" s="2" t="s">
         <v>22</v>
@@ -10398,7 +10458,9 @@
         <v>24.29</v>
       </c>
       <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
+      <c r="N203" s="5">
+        <v>25.91</v>
+      </c>
       <c r="O203" s="3"/>
       <c r="P203" s="2" t="s">
         <v>22</v>
@@ -10436,7 +10498,9 @@
         <v>28.98</v>
       </c>
       <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
+      <c r="N204" s="5">
+        <v>30.29</v>
+      </c>
       <c r="O204" s="3"/>
       <c r="P204" s="2" t="s">
         <v>22</v>
@@ -10474,7 +10538,9 @@
         <v>27.63</v>
       </c>
       <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
+      <c r="N205" s="5">
+        <v>29.02</v>
+      </c>
       <c r="O205" s="3"/>
       <c r="P205" s="2" t="s">
         <v>22</v>
@@ -10512,7 +10578,9 @@
         <v>25.87</v>
       </c>
       <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
+      <c r="N206" s="5">
+        <v>26.84</v>
+      </c>
       <c r="O206" s="3"/>
       <c r="P206" s="2" t="s">
         <v>22</v>
@@ -10550,7 +10618,9 @@
         <v>27.61</v>
       </c>
       <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
+      <c r="N207" s="5">
+        <v>28.28</v>
+      </c>
       <c r="O207" s="3"/>
       <c r="P207" s="2" t="s">
         <v>22</v>
@@ -10588,7 +10658,9 @@
         <v>34.18</v>
       </c>
       <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
+      <c r="N208" s="5">
+        <v>38.65</v>
+      </c>
       <c r="O208" s="3"/>
       <c r="P208" s="2" t="s">
         <v>22</v>
@@ -10637,7 +10709,9 @@
       <c r="N209" s="4">
         <v>3.8</v>
       </c>
-      <c r="O209" s="3"/>
+      <c r="O209" s="4">
+        <v>3.3</v>
+      </c>
       <c r="P209" s="2" t="s">
         <v>22</v>
       </c>
@@ -10685,7 +10759,9 @@
       <c r="N210" s="4">
         <v>3.8</v>
       </c>
-      <c r="O210" s="3"/>
+      <c r="O210" s="4">
+        <v>3</v>
+      </c>
       <c r="P210" s="2" t="s">
         <v>22</v>
       </c>
@@ -10733,7 +10809,9 @@
       <c r="N211" s="4">
         <v>3.8</v>
       </c>
-      <c r="O211" s="3"/>
+      <c r="O211" s="4">
+        <v>3.6</v>
+      </c>
       <c r="P211" s="2" t="s">
         <v>22</v>
       </c>
@@ -10781,7 +10859,9 @@
       <c r="N212" s="4">
         <v>11.7</v>
       </c>
-      <c r="O212" s="3"/>
+      <c r="O212" s="4">
+        <v>9.9</v>
+      </c>
       <c r="P212" s="2" t="s">
         <v>22</v>
       </c>
@@ -10829,7 +10909,9 @@
       <c r="N213" s="4">
         <v>4.3</v>
       </c>
-      <c r="O213" s="3"/>
+      <c r="O213" s="4">
+        <v>3.7</v>
+      </c>
       <c r="P213" s="2" t="s">
         <v>22</v>
       </c>
@@ -10877,7 +10959,9 @@
       <c r="N214" s="4">
         <v>2.9</v>
       </c>
-      <c r="O214" s="3"/>
+      <c r="O214" s="4">
+        <v>2.6</v>
+      </c>
       <c r="P214" s="2" t="s">
         <v>22</v>
       </c>
@@ -10925,7 +11009,9 @@
       <c r="N215" s="4">
         <v>2.9</v>
       </c>
-      <c r="O215" s="3"/>
+      <c r="O215" s="4">
+        <v>2.4</v>
+      </c>
       <c r="P215" s="2" t="s">
         <v>22</v>
       </c>
@@ -10973,7 +11059,9 @@
       <c r="N216" s="4">
         <v>2.5</v>
       </c>
-      <c r="O216" s="3"/>
+      <c r="O216" s="4">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="P216" s="2" t="s">
         <v>22</v>
       </c>
@@ -11021,7 +11109,9 @@
       <c r="N217" s="4">
         <v>6.5</v>
       </c>
-      <c r="O217" s="3"/>
+      <c r="O217" s="4">
+        <v>6.5</v>
+      </c>
       <c r="P217" s="2" t="s">
         <v>22</v>
       </c>
@@ -14175,7 +14265,9 @@
       <c r="N287" s="5">
         <v>6.19</v>
       </c>
-      <c r="O287" s="3"/>
+      <c r="O287" s="5">
+        <v>9.5299999999999994</v>
+      </c>
       <c r="P287" s="2" t="s">
         <v>337</v>
       </c>
@@ -14223,7 +14315,9 @@
       <c r="N288" s="5">
         <v>766.04</v>
       </c>
-      <c r="O288" s="3"/>
+      <c r="O288" s="5">
+        <v>684.46</v>
+      </c>
       <c r="P288" s="2" t="s">
         <v>341</v>
       </c>
@@ -14271,7 +14365,9 @@
       <c r="N289" s="5">
         <v>244.93</v>
       </c>
-      <c r="O289" s="3"/>
+      <c r="O289" s="5">
+        <v>144.66999999999999</v>
+      </c>
       <c r="P289" s="2" t="s">
         <v>341</v>
       </c>
@@ -17822,7 +17918,9 @@
       <c r="M364" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N364" s="3"/>
+      <c r="N364" s="7">
+        <v>0.19800000000000001</v>
+      </c>
       <c r="O364" s="3"/>
       <c r="P364" s="2" t="s">
         <v>429</v>
@@ -18318,7 +18416,9 @@
       <c r="M377" s="5">
         <v>0.68</v>
       </c>
-      <c r="N377" s="3"/>
+      <c r="N377" s="5">
+        <v>0.53</v>
+      </c>
       <c r="O377" s="3"/>
       <c r="P377" s="2" t="s">
         <v>22</v>
@@ -18479,15 +18579,17 @@
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
       <c r="L381" s="6">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="M381" s="6">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="N381" s="6">
         <v>1475</v>
       </c>
-      <c r="O381" s="3"/>
+      <c r="O381" s="6">
+        <v>1603</v>
+      </c>
       <c r="P381" s="2" t="s">
         <v>451</v>
       </c>
@@ -18518,12 +18620,14 @@
         <v>212</v>
       </c>
       <c r="M382" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N382" s="6">
-        <v>198</v>
-      </c>
-      <c r="O382" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="O382" s="6">
+        <v>236</v>
+      </c>
       <c r="P382" s="2" t="s">
         <v>451</v>
       </c>
@@ -18551,15 +18655,17 @@
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
       <c r="L383" s="6">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="M383" s="6">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="N383" s="6">
-        <v>1233</v>
-      </c>
-      <c r="O383" s="3"/>
+        <v>1264</v>
+      </c>
+      <c r="O383" s="6">
+        <v>1359</v>
+      </c>
       <c r="P383" s="2" t="s">
         <v>451</v>
       </c>
@@ -18587,15 +18693,17 @@
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
       <c r="L384" s="6">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="M384" s="6">
-        <v>1193</v>
+        <v>1211</v>
       </c>
       <c r="N384" s="6">
+        <v>1270</v>
+      </c>
+      <c r="O384" s="6">
         <v>1379</v>
       </c>
-      <c r="O384" s="3"/>
       <c r="P384" s="2" t="s">
         <v>451</v>
       </c>
@@ -18626,12 +18734,14 @@
         <v>153</v>
       </c>
       <c r="M385" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N385" s="6">
-        <v>195</v>
-      </c>
-      <c r="O385" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="O385" s="6">
+        <v>196</v>
+      </c>
       <c r="P385" s="2" t="s">
         <v>451</v>
       </c>
@@ -18662,12 +18772,14 @@
         <v>879</v>
       </c>
       <c r="M386" s="6">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="N386" s="6">
-        <v>1178</v>
-      </c>
-      <c r="O386" s="3"/>
+        <v>1078</v>
+      </c>
+      <c r="O386" s="6">
+        <v>1175</v>
+      </c>
       <c r="P386" s="2" t="s">
         <v>451</v>
       </c>
@@ -18695,7 +18807,7 @@
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
       <c r="L387" s="6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M387" s="6">
         <v>116</v>
@@ -18703,7 +18815,9 @@
       <c r="N387" s="6">
         <v>159</v>
       </c>
-      <c r="O387" s="3"/>
+      <c r="O387" s="6">
+        <v>110</v>
+      </c>
       <c r="P387" s="2" t="s">
         <v>451</v>
       </c>
@@ -18731,7 +18845,7 @@
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
       <c r="L388" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M388" s="3"/>
       <c r="N388" s="3"/>
@@ -18763,15 +18877,17 @@
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
       <c r="L389" s="6">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="M389" s="6">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="N389" s="6">
         <v>1259</v>
       </c>
-      <c r="O389" s="3"/>
+      <c r="O389" s="6">
+        <v>1400</v>
+      </c>
       <c r="P389" s="2" t="s">
         <v>451</v>
       </c>
@@ -18802,12 +18918,14 @@
         <v>67</v>
       </c>
       <c r="M390" s="6">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N390" s="6">
         <v>57</v>
       </c>
-      <c r="O390" s="3"/>
+      <c r="O390" s="6">
+        <v>93</v>
+      </c>
       <c r="P390" s="2" t="s">
         <v>451</v>
       </c>
@@ -18903,7 +19021,9 @@
       <c r="N392" s="6">
         <v>13407</v>
       </c>
-      <c r="O392" s="3"/>
+      <c r="O392" s="6">
+        <v>9367</v>
+      </c>
       <c r="P392" s="2" t="s">
         <v>467</v>
       </c>
@@ -19657,7 +19777,9 @@
       <c r="N411" s="4">
         <v>0.7</v>
       </c>
-      <c r="O411" s="3"/>
+      <c r="O411" s="4">
+        <v>0.7</v>
+      </c>
       <c r="P411" s="2" t="s">
         <v>487</v>
       </c>
@@ -19753,7 +19875,9 @@
       <c r="N413" s="4">
         <v>2.5</v>
       </c>
-      <c r="O413" s="3"/>
+      <c r="O413" s="4">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="P413" s="2" t="s">
         <v>490</v>
       </c>
@@ -19776,7 +19900,7 @@
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H414" s="6">
         <v>2</v>
@@ -19799,7 +19923,9 @@
       <c r="N414" s="6">
         <v>1</v>
       </c>
-      <c r="O414" s="3"/>
+      <c r="O414" s="6">
+        <v>2</v>
+      </c>
       <c r="P414" s="2" t="s">
         <v>492</v>
       </c>
@@ -19980,10 +20106,10 @@
         <v>62.3</v>
       </c>
       <c r="I418" s="4">
-        <v>63.9</v>
+        <v>62.8</v>
       </c>
       <c r="J418" s="4">
-        <v>67.2</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K418" s="4">
         <v>68</v>
@@ -19994,8 +20120,12 @@
       <c r="M418" s="4">
         <v>76</v>
       </c>
-      <c r="N418" s="3"/>
-      <c r="O418" s="3"/>
+      <c r="N418" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="O418" s="4">
+        <v>80.400000000000006</v>
+      </c>
       <c r="P418" s="2" t="s">
         <v>22</v>
       </c>
@@ -20043,7 +20173,9 @@
       <c r="N419" s="4">
         <v>766</v>
       </c>
-      <c r="O419" s="3"/>
+      <c r="O419" s="4">
+        <v>684.5</v>
+      </c>
       <c r="P419" s="2" t="s">
         <v>79</v>
       </c>
@@ -20091,7 +20223,9 @@
       <c r="N420" s="5">
         <v>1.27</v>
       </c>
-      <c r="O420" s="3"/>
+      <c r="O420" s="5">
+        <v>1.26</v>
+      </c>
       <c r="P420" s="2" t="s">
         <v>441</v>
       </c>
@@ -20113,35 +20247,35 @@
         <v>504</v>
       </c>
       <c r="F421" s="6">
-        <v>9400</v>
+        <v>37524</v>
       </c>
       <c r="G421" s="6">
-        <v>9900</v>
+        <v>40669</v>
       </c>
       <c r="H421" s="6">
-        <v>10100</v>
+        <v>42285</v>
       </c>
       <c r="I421" s="6">
-        <v>10300</v>
+        <v>43034</v>
       </c>
       <c r="J421" s="6">
-        <v>10700</v>
+        <v>44705</v>
       </c>
       <c r="K421" s="6">
-        <v>11200</v>
+        <v>46814</v>
       </c>
       <c r="L421" s="6">
-        <v>11100</v>
+        <v>48433</v>
       </c>
       <c r="M421" s="6">
-        <v>12200</v>
+        <v>51776</v>
       </c>
       <c r="N421" s="6">
-        <v>12900</v>
+        <v>55066</v>
       </c>
       <c r="O421" s="3"/>
       <c r="P421" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:16" ht="27" x14ac:dyDescent="0.25">
@@ -20182,14 +20316,16 @@
         <v>103.1</v>
       </c>
       <c r="M422" s="4">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="N422" s="4">
         <v>105.1</v>
       </c>
-      <c r="O422" s="3"/>
+      <c r="O422" s="4">
+        <v>104.1</v>
+      </c>
       <c r="P422" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -20230,14 +20366,14 @@
         <v>18</v>
       </c>
       <c r="M423" s="4">
-        <v>17.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="N423" s="4">
         <v>18.2</v>
       </c>
       <c r="O423" s="3"/>
       <c r="P423" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -20280,10 +20416,14 @@
       <c r="M424" s="4">
         <v>102</v>
       </c>
-      <c r="N424" s="3"/>
-      <c r="O424" s="3"/>
+      <c r="N424" s="4">
+        <v>101.6</v>
+      </c>
+      <c r="O424" s="4">
+        <v>102.3</v>
+      </c>
       <c r="P424" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -20331,7 +20471,7 @@
       </c>
       <c r="O425" s="3"/>
       <c r="P425" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="426" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -20351,35 +20491,35 @@
         <v>504</v>
       </c>
       <c r="F426" s="4">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="G426" s="4">
-        <v>-4.8</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="H426" s="4">
         <v>-3.7</v>
       </c>
       <c r="I426" s="4">
-        <v>-4.0999999999999996</v>
+        <v>-4.2</v>
       </c>
       <c r="J426" s="4">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="K426" s="4">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="L426" s="4">
-        <v>-2.2000000000000002</v>
+        <v>-2.4</v>
       </c>
       <c r="M426" s="4">
         <v>-1.5</v>
       </c>
       <c r="N426" s="4">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="O426" s="3"/>
       <c r="P426" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="427" spans="1:16" ht="18" x14ac:dyDescent="0.25">

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1591,7 +1591,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 21-04-2020, 13:22</t>
+    <t>Last update: 21-04-2020, 15:41</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2139,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1591,7 +1591,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 21-04-2020, 15:41</t>
+    <t>Last update: 28-04-2020, 11:11</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2139,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7019,7 +7019,9 @@
       <c r="N117" s="6">
         <v>1</v>
       </c>
-      <c r="O117" s="3"/>
+      <c r="O117" s="6">
+        <v>1</v>
+      </c>
       <c r="P117" s="2" t="s">
         <v>158</v>
       </c>
@@ -7067,7 +7069,9 @@
       <c r="N118" s="6">
         <v>100</v>
       </c>
-      <c r="O118" s="3"/>
+      <c r="O118" s="6">
+        <v>100</v>
+      </c>
       <c r="P118" s="2" t="s">
         <v>158</v>
       </c>
@@ -7179,7 +7183,9 @@
       <c r="N121" s="6">
         <v>100</v>
       </c>
-      <c r="O121" s="3"/>
+      <c r="O121" s="6">
+        <v>100</v>
+      </c>
       <c r="P121" s="2" t="s">
         <v>158</v>
       </c>
@@ -7227,7 +7233,9 @@
       <c r="N122" s="6">
         <v>100</v>
       </c>
-      <c r="O122" s="3"/>
+      <c r="O122" s="6">
+        <v>100</v>
+      </c>
       <c r="P122" s="2" t="s">
         <v>158</v>
       </c>
@@ -7275,7 +7283,9 @@
       <c r="N123" s="6">
         <v>100</v>
       </c>
-      <c r="O123" s="3"/>
+      <c r="O123" s="6">
+        <v>100</v>
+      </c>
       <c r="P123" s="2" t="s">
         <v>158</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -211,7 +211,7 @@
     <t>pieces</t>
   </si>
   <si>
-    <t>Ministry of Agriculture and Rural Development / Plant Breeding and Acclimatization Institute - NRI in Radzików / Research Institute of Horticulture in Skierniewice</t>
+    <t>Ministry of Agriculture and Rural Development / Plant Breeding and  Acclimatization Institute - NRI in Radzików / Research Institute of  Horticulture in Skierniewice/ National Research Institute of Animal Production</t>
   </si>
   <si>
     <t>animal genetic resources</t>
@@ -877,7 +877,7 @@
     <t>railway transport</t>
   </si>
   <si>
-    <t xml:space="preserve">thous. passengers </t>
+    <t>thous. passengers, thous. tonnes</t>
   </si>
   <si>
     <t>road transport</t>
@@ -1204,10 +1204,10 @@
     <t>by type of treatment</t>
   </si>
   <si>
-    <t>kilogram per capita [kg per capita]</t>
-  </si>
-  <si>
-    <t>Ministry of the Environment, Eurostat</t>
+    <t>kilogram per capita [kg per capita], percent [%]</t>
+  </si>
+  <si>
+    <t>Ministry of Climate, Eurostat</t>
   </si>
   <si>
     <t>recovery of hazarodus waste</t>
@@ -1591,7 +1591,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 28-04-2020, 11:11</t>
+    <t>Last update: 12-05-2020, 07:42</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2139,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,7 +3454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="81" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="81" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="81" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="81" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="81" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="81" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>386</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>386</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>386</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="522">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -1246,6 +1246,9 @@
     <t>13.1.1 Number of deaths or affected by disaster per 1 million people - PROXY!</t>
   </si>
   <si>
+    <t>Building Disaster Register / The General Office of Building Control</t>
+  </si>
+  <si>
     <t>13.2.1 Number of countries that have communicated the establishment or operationalisation of an integrated policy/strategy/plan which increases their ability to adapt to the adverse impacts of climate change, and foster climate resilience and low greenhouse gas emissions development in a manner that does not threaten food production (including a national adaptation plan, nationally determined contribution, national communication, biennial update report or other)</t>
   </si>
   <si>
@@ -1585,7 +1588,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 26-05-2020, 08:22</t>
+    <t>Last update: 02-06-2020, 12:45</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2136,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3367,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="L28" s="4">
         <v>6</v>
@@ -3372,7 +3375,9 @@
       <c r="M28" s="4">
         <v>5.3</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="4">
+        <v>4.2</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="2" t="s">
         <v>56</v>
@@ -3400,7 +3405,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L29" s="4">
         <v>1.1000000000000001</v>
@@ -3408,7 +3413,9 @@
       <c r="M29" s="4">
         <v>0.7</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="4">
+        <v>0.5</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="2" t="s">
         <v>56</v>
@@ -17307,7 +17314,7 @@
       </c>
       <c r="O351" s="3"/>
       <c r="P351" s="2" t="s">
-        <v>45</v>
+        <v>407</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="27" x14ac:dyDescent="0.25">
@@ -17355,7 +17362,7 @@
       </c>
       <c r="O352" s="3"/>
       <c r="P352" s="2" t="s">
-        <v>45</v>
+        <v>407</v>
       </c>
     </row>
     <row r="353" spans="1:16" ht="81" x14ac:dyDescent="0.25">
@@ -17363,7 +17370,7 @@
         <v>405</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>19</v>
@@ -17405,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="P353" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="354" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -17413,7 +17420,7 @@
         <v>405</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>19</v>
@@ -17455,7 +17462,7 @@
         <v>1</v>
       </c>
       <c r="P354" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="355" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -17463,7 +17470,7 @@
         <v>405</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>19</v>
@@ -17502,16 +17509,16 @@
     </row>
     <row r="356" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>21</v>
@@ -17545,21 +17552,21 @@
       </c>
       <c r="O356" s="3"/>
       <c r="P356" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="357" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>21</v>
@@ -17593,21 +17600,21 @@
       </c>
       <c r="O357" s="3"/>
       <c r="P357" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="358" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E358" s="3" t="s">
         <v>21</v>
@@ -17641,21 +17648,21 @@
       </c>
       <c r="O358" s="3"/>
       <c r="P358" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="359" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E359" s="3" t="s">
         <v>21</v>
@@ -17689,15 +17696,15 @@
       </c>
       <c r="O359" s="3"/>
       <c r="P359" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>19</v>
@@ -17737,15 +17744,15 @@
       </c>
       <c r="O360" s="3"/>
       <c r="P360" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="361" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>19</v>
@@ -17754,7 +17761,7 @@
         <v>20</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="6">
@@ -17783,15 +17790,15 @@
       </c>
       <c r="O361" s="3"/>
       <c r="P361" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>19</v>
@@ -17836,10 +17843,10 @@
     </row>
     <row r="363" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>19</v>
@@ -17884,10 +17891,10 @@
     </row>
     <row r="364" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>19</v>
@@ -17927,18 +17934,18 @@
       </c>
       <c r="O364" s="3"/>
       <c r="P364" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="365" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>20</v>
@@ -17959,21 +17966,21 @@
         <v>95</v>
       </c>
       <c r="P365" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="366" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>21</v>
@@ -17989,21 +17996,21 @@
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
       <c r="P366" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="367" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>21</v>
@@ -18019,21 +18026,21 @@
       <c r="N367" s="3"/>
       <c r="O367" s="3"/>
       <c r="P367" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="368" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>21</v>
@@ -18049,21 +18056,21 @@
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
       <c r="P368" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="369" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>21</v>
@@ -18081,21 +18088,21 @@
         <v>67.099999999999994</v>
       </c>
       <c r="P369" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="370" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>21</v>
@@ -18113,21 +18120,21 @@
         <v>99.2</v>
       </c>
       <c r="P370" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="371" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>21</v>
@@ -18145,15 +18152,15 @@
         <v>95.3</v>
       </c>
       <c r="P371" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="372" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>19</v>
@@ -18195,15 +18202,15 @@
         <v>1</v>
       </c>
       <c r="P372" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="373" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>19</v>
@@ -18243,15 +18250,15 @@
       </c>
       <c r="O373" s="3"/>
       <c r="P373" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="374" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>19</v>
@@ -18293,15 +18300,15 @@
         <v>1</v>
       </c>
       <c r="P374" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="375" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>19</v>
@@ -18340,10 +18347,10 @@
     </row>
     <row r="376" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>19</v>
@@ -18382,10 +18389,10 @@
     </row>
     <row r="377" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>19</v>
@@ -18430,10 +18437,10 @@
     </row>
     <row r="378" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>19</v>
@@ -18475,15 +18482,15 @@
         <v>1</v>
       </c>
       <c r="P378" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="379" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>19</v>
@@ -18518,10 +18525,10 @@
     </row>
     <row r="380" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>19</v>
@@ -18557,24 +18564,24 @@
       </c>
       <c r="O380" s="3"/>
       <c r="P380" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="381" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -18595,24 +18602,24 @@
         <v>1603</v>
       </c>
       <c r="P381" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="382" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -18633,24 +18640,24 @@
         <v>236</v>
       </c>
       <c r="P382" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="383" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D383" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E383" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="E383" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -18671,24 +18678,24 @@
         <v>1359</v>
       </c>
       <c r="P383" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="384" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -18709,24 +18716,24 @@
         <v>1379</v>
       </c>
       <c r="P384" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="385" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -18747,24 +18754,24 @@
         <v>196</v>
       </c>
       <c r="P385" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="386" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C386" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D386" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D386" s="3" t="s">
+      <c r="E386" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="E386" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -18785,24 +18792,24 @@
         <v>1175</v>
       </c>
       <c r="P386" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="387" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -18823,24 +18830,24 @@
         <v>110</v>
       </c>
       <c r="P387" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="388" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -18855,24 +18862,24 @@
       <c r="N388" s="3"/>
       <c r="O388" s="3"/>
       <c r="P388" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="389" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -18893,24 +18900,24 @@
         <v>1400</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="390" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -18931,15 +18938,15 @@
         <v>93</v>
       </c>
       <c r="P390" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="391" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>19</v>
@@ -18979,15 +18986,15 @@
       </c>
       <c r="O391" s="3"/>
       <c r="P391" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="392" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>19</v>
@@ -18996,7 +19003,7 @@
         <v>20</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F392" s="6">
         <v>12487</v>
@@ -19029,18 +19036,18 @@
         <v>9367</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="393" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>188</v>
@@ -19065,18 +19072,18 @@
         <v>28.7</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="394" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>190</v>
@@ -19101,21 +19108,21 @@
         <v>24</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="395" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>21</v>
@@ -19137,21 +19144,21 @@
         <v>3</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="396" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>21</v>
@@ -19173,21 +19180,21 @@
         <v>17.399999999999999</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="397" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>21</v>
@@ -19209,21 +19216,21 @@
         <v>26.1</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="398" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>21</v>
@@ -19245,18 +19252,18 @@
         <v>29.8</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="399" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>35</v>
@@ -19281,21 +19288,21 @@
         <v>23.7</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="400" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>21</v>
@@ -19317,21 +19324,21 @@
         <v>0</v>
       </c>
       <c r="P400" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>21</v>
@@ -19353,21 +19360,21 @@
         <v>4</v>
       </c>
       <c r="P401" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="402" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>21</v>
@@ -19389,21 +19396,21 @@
         <v>18</v>
       </c>
       <c r="P402" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="403" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C403" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>21</v>
@@ -19425,18 +19432,18 @@
         <v>31</v>
       </c>
       <c r="P403" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="404" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>35</v>
@@ -19461,15 +19468,15 @@
         <v>47</v>
       </c>
       <c r="P404" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="405" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>19</v>
@@ -19511,15 +19518,15 @@
         <v>100</v>
       </c>
       <c r="P405" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="406" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>19</v>
@@ -19552,10 +19559,10 @@
     </row>
     <row r="407" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>19</v>
@@ -19595,15 +19602,15 @@
       </c>
       <c r="O407" s="3"/>
       <c r="P407" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="408" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>19</v>
@@ -19643,18 +19650,18 @@
       </c>
       <c r="O408" s="3"/>
       <c r="P408" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="409" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>20</v>
@@ -19694,16 +19701,16 @@
     </row>
     <row r="410" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>21</v>
@@ -19740,10 +19747,10 @@
     </row>
     <row r="411" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>19</v>
@@ -19785,15 +19792,15 @@
         <v>0.7</v>
       </c>
       <c r="P411" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="412" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>19</v>
@@ -19838,10 +19845,10 @@
     </row>
     <row r="413" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>19</v>
@@ -19883,15 +19890,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P413" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="414" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>19</v>
@@ -19900,7 +19907,7 @@
         <v>20</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="6">
@@ -19931,21 +19938,21 @@
         <v>2</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="415" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>44</v>
@@ -19986,16 +19993,16 @@
     </row>
     <row r="416" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>44</v>
@@ -20036,16 +20043,16 @@
     </row>
     <row r="417" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E417" s="3" t="s">
         <v>44</v>
@@ -20086,10 +20093,10 @@
     </row>
     <row r="418" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>19</v>
@@ -20136,10 +20143,10 @@
     </row>
     <row r="419" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>19</v>
@@ -20186,10 +20193,10 @@
     </row>
     <row r="420" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>19</v>
@@ -20231,21 +20238,21 @@
         <v>1.26</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>245</v>
@@ -20284,16 +20291,16 @@
     </row>
     <row r="422" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>245</v>
@@ -20334,16 +20341,16 @@
     </row>
     <row r="423" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>245</v>
@@ -20384,16 +20391,16 @@
     </row>
     <row r="424" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>245</v>
@@ -20432,16 +20439,16 @@
     </row>
     <row r="425" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>245</v>
@@ -20480,16 +20487,16 @@
     </row>
     <row r="426" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>245</v>
@@ -20528,10 +20535,10 @@
     </row>
     <row r="427" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>19</v>
@@ -20564,10 +20571,10 @@
     </row>
     <row r="428" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>19</v>
@@ -20614,10 +20621,10 @@
     </row>
     <row r="429" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>19</v>
@@ -20664,10 +20671,10 @@
     </row>
     <row r="430" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>19</v>
@@ -20676,7 +20683,7 @@
         <v>20</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -20701,21 +20708,21 @@
       </c>
       <c r="O430" s="3"/>
       <c r="P430" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="431" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>157</v>
@@ -20733,21 +20740,21 @@
       <c r="N431" s="3"/>
       <c r="O431" s="3"/>
       <c r="P431" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="432" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>157</v>
@@ -20783,21 +20790,21 @@
         <v>1</v>
       </c>
       <c r="P432" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="433" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>157</v>
@@ -20833,14 +20840,14 @@
         <v>1</v>
       </c>
       <c r="P433" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="434" spans="1:16" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="435" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="436" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B436" s="9"/>
     </row>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,7 +496,7 @@
     <t>numeracy - by age group</t>
   </si>
   <si>
-    <t>4.7.1 Extent to which (i) global citizenship education and (ii) education for sustainable development, including gender equality and human rights, are mainstreamed at all levels in (a) national education policies, (b) curricula, (c) teacher education and (d) student assessment</t>
+    <t>4.7.1 Extent to which (i) global citizenship education and (ii) education for sustainable development are mainstreamed in (a) national education policies; (b) curricula; (c) teacher education; and (d) student assessment</t>
   </si>
   <si>
     <t>{ 0 , 1 }</t>
@@ -1258,7 +1258,7 @@
     <t>The Public Procurement Office</t>
   </si>
   <si>
-    <t>12.8.1 Extent to which (i) global citizenship education and (ii) education for sustainable development (including climate change education) are mainstreamed in (a) national education policies (b) curricula (c) teacher education and (d) student assessment</t>
+    <t>12.8.1 Extent to which (i) global citizenship education and (ii) education for sustainable development are mainstreamed in (a) national education policies; (b) curricula; (c) teacher education; and (d) student assessment</t>
   </si>
   <si>
     <t>Goal 13. Climate action</t>
@@ -1609,7 +1609,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 21-07-2020, 12:06</t>
+    <t>Last update: 04-08-2020, 09:17</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2157,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7131,7 +7131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>120</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="356" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>393</v>
       </c>
@@ -17956,9 +17956,7 @@
       <c r="O356" s="6">
         <v>1</v>
       </c>
-      <c r="P356" s="6">
-        <v>1</v>
-      </c>
+      <c r="P356" s="3"/>
       <c r="Q356" s="2" t="s">
         <v>159</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1609,7 +1609,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 04-08-2020, 09:17</t>
+    <t>Last update: 11-08-2020, 08:52</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2157,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13581,10 +13581,12 @@
       <c r="N266" s="4">
         <v>100</v>
       </c>
-      <c r="O266" s="3"/>
+      <c r="O266" s="4">
+        <v>100</v>
+      </c>
       <c r="P266" s="3"/>
       <c r="Q266" s="2" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
     </row>
     <row r="267" spans="1:17" ht="36" x14ac:dyDescent="0.25">
@@ -13622,10 +13624,12 @@
       <c r="N267" s="4">
         <v>100</v>
       </c>
-      <c r="O267" s="3"/>
+      <c r="O267" s="4">
+        <v>99.9</v>
+      </c>
       <c r="P267" s="3"/>
       <c r="Q267" s="2" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
     </row>
     <row r="268" spans="1:17" ht="18" x14ac:dyDescent="0.25">

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -13,12 +13,14 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'SDGs_1-17'!$1:$2</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'SDGs_1-17'!$A$3:$B$439</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'SDGs_1-17'!$1:$2</definedName>
+    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">'SDGs_1-17'!$A$3:$B$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Titles" vbProcedure="false">'SDGs_1-17'!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm_Print_Titles" vbProcedure="false">'SDGs_1-17'!$1:$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1608,24 +1610,22 @@
     <t xml:space="preserve">100% deaths registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 25-08-2020, 10:08</t>
+    <t xml:space="preserve">Last update: 27-10-2020, 08:10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$zł-415];[RED]\-#,##0.00\ [$zł-415]"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="0.0;\-0.0;0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00;\-0.00;0.00"/>
-    <numFmt numFmtId="169" formatCode="0;\-0;0"/>
-    <numFmt numFmtId="170" formatCode="0.000;\-0.000;0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000;\-0.0000;0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00;\-0.00;0.00"/>
+    <numFmt numFmtId="167" formatCode="0;\-0;0"/>
+    <numFmt numFmtId="168" formatCode="0.000;\-0.000;0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1651,46 +1651,33 @@
       <charset val="238"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
-      <family val="0"/>
-      <charset val="238"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
-      <family val="0"/>
-      <charset val="238"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
-      <family val="0"/>
-      <charset val="238"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1719,7 +1706,7 @@
       <top style="thin">
         <color rgb="FFD3D3D3"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FFD3D3D3"/>
       </bottom>
       <diagonal/>
@@ -1740,7 +1727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1764,15 +1751,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1786,59 +1765,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Wynik" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Wynik2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nagłówek" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nagłówek1" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1914,9 +1889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1567800</xdr:colOff>
+      <xdr:colOff>1576080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1930,7 +1905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="2497680" cy="458640"/>
+          <a:ext cx="2505240" cy="457920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1952,29 +1927,29 @@
   </sheetPr>
   <dimension ref="A1:Q442"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1987,7 +1962,7 @@
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2185,7 +2160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2234,7 +2209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2283,7 +2258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -2332,7 +2307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -2430,7 +2405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -2479,7 +2454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2528,7 +2503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2577,7 +2552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2626,7 +2601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -2710,7 +2685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2804,7 +2779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2851,7 +2826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2898,7 +2873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2941,13 +2916,15 @@
       <c r="N22" s="7" t="n">
         <v>2.73</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="7" t="n">
+        <v>2.37</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2990,13 +2967,15 @@
       <c r="N23" s="7" t="n">
         <v>0.62</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="7" t="n">
+        <v>0.73</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -3045,7 +3024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -3094,7 +3073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -3143,7 +3122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -3192,7 +3171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
@@ -3231,7 +3210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>52</v>
       </c>
@@ -3270,7 +3249,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
@@ -3303,7 +3282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
@@ -3354,7 +3333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
@@ -3405,7 +3384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>52</v>
       </c>
@@ -3456,7 +3435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
@@ -3507,7 +3486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>52</v>
       </c>
@@ -3558,7 +3537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -3609,7 +3588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
@@ -3650,7 +3629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -3691,7 +3670,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
@@ -3738,7 +3717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -3781,7 +3760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -3828,7 +3807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
@@ -3877,7 +3856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
@@ -3926,7 +3905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
@@ -3975,7 +3954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -4022,7 +4001,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -4069,7 +4048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
@@ -4118,7 +4097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>80</v>
       </c>
@@ -4165,7 +4144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>80</v>
       </c>
@@ -4212,7 +4191,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
@@ -4261,7 +4240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
@@ -4310,7 +4289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>80</v>
       </c>
@@ -4359,7 +4338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>80</v>
       </c>
@@ -4408,7 +4387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
@@ -4457,7 +4436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>80</v>
       </c>
@@ -4506,7 +4485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>80</v>
       </c>
@@ -4555,7 +4534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>80</v>
       </c>
@@ -4596,13 +4575,15 @@
       <c r="N57" s="6" t="n">
         <v>10.7</v>
       </c>
-      <c r="O57" s="5"/>
+      <c r="O57" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>80</v>
       </c>
@@ -4649,7 +4630,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>80</v>
       </c>
@@ -4682,7 +4663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>80</v>
       </c>
@@ -4733,7 +4714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>80</v>
       </c>
@@ -4784,7 +4765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>80</v>
       </c>
@@ -4835,7 +4816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>80</v>
       </c>
@@ -4882,7 +4863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>80</v>
       </c>
@@ -4915,7 +4896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>80</v>
       </c>
@@ -4958,7 +4939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>80</v>
       </c>
@@ -5007,7 +4988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -5056,7 +5037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>80</v>
       </c>
@@ -5105,7 +5086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>80</v>
       </c>
@@ -5148,7 +5129,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
@@ -5183,7 +5164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>119</v>
       </c>
@@ -5218,7 +5199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>119</v>
       </c>
@@ -5253,7 +5234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
@@ -5292,7 +5273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>119</v>
       </c>
@@ -5331,7 +5312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>119</v>
       </c>
@@ -5370,7 +5351,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>119</v>
       </c>
@@ -5409,7 +5390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>119</v>
       </c>
@@ -5448,7 +5429,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>119</v>
       </c>
@@ -5487,7 +5468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>119</v>
       </c>
@@ -5518,7 +5499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>119</v>
       </c>
@@ -5567,7 +5548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>119</v>
       </c>
@@ -5616,7 +5597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>119</v>
       </c>
@@ -5665,7 +5646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>119</v>
       </c>
@@ -5700,7 +5681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>119</v>
       </c>
@@ -5735,7 +5716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>119</v>
       </c>
@@ -5770,7 +5751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>119</v>
       </c>
@@ -5803,13 +5784,15 @@
       <c r="N86" s="6" t="n">
         <v>49.9</v>
       </c>
-      <c r="O86" s="5"/>
+      <c r="O86" s="6" t="n">
+        <v>51.3</v>
+      </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>119</v>
       </c>
@@ -5842,13 +5825,15 @@
       <c r="N87" s="6" t="n">
         <v>28.9</v>
       </c>
-      <c r="O87" s="5"/>
+      <c r="O87" s="6" t="n">
+        <v>27.9</v>
+      </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>119</v>
       </c>
@@ -5881,13 +5866,15 @@
       <c r="N88" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="O88" s="5"/>
+      <c r="O88" s="6" t="n">
+        <v>48.4</v>
+      </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -5920,13 +5907,15 @@
       <c r="N89" s="6" t="n">
         <v>31.5</v>
       </c>
-      <c r="O89" s="5"/>
+      <c r="O89" s="6" t="n">
+        <v>31.6</v>
+      </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>119</v>
       </c>
@@ -5959,13 +5948,15 @@
       <c r="N90" s="6" t="n">
         <v>26.9</v>
       </c>
-      <c r="O90" s="5"/>
+      <c r="O90" s="6" t="n">
+        <v>23.6</v>
+      </c>
       <c r="P90" s="5"/>
       <c r="Q90" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>119</v>
       </c>
@@ -5998,13 +5989,15 @@
       <c r="N91" s="6" t="n">
         <v>60.7</v>
       </c>
-      <c r="O91" s="5"/>
+      <c r="O91" s="6" t="n">
+        <v>64.8</v>
+      </c>
       <c r="P91" s="5"/>
       <c r="Q91" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>119</v>
       </c>
@@ -6037,13 +6030,15 @@
       <c r="N92" s="6" t="n">
         <v>84.1</v>
       </c>
-      <c r="O92" s="5"/>
+      <c r="O92" s="6" t="n">
+        <v>84.2</v>
+      </c>
       <c r="P92" s="5"/>
       <c r="Q92" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>119</v>
       </c>
@@ -6076,13 +6071,15 @@
       <c r="N93" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="O93" s="5"/>
+      <c r="O93" s="6" t="n">
+        <v>52</v>
+      </c>
       <c r="P93" s="5"/>
       <c r="Q93" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>119</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>119</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
@@ -6199,7 +6196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>119</v>
       </c>
@@ -6238,7 +6235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>119</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>119</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>119</v>
       </c>
@@ -6361,7 +6358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>119</v>
       </c>
@@ -6394,7 +6391,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>119</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>119</v>
       </c>
@@ -6460,7 +6457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>119</v>
       </c>
@@ -6493,7 +6490,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>119</v>
       </c>
@@ -6526,7 +6523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>119</v>
       </c>
@@ -6559,7 +6556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>119</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>119</v>
       </c>
@@ -6625,7 +6622,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>119</v>
       </c>
@@ -6658,7 +6655,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>119</v>
       </c>
@@ -6691,7 +6688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>119</v>
       </c>
@@ -6724,7 +6721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>119</v>
       </c>
@@ -6757,7 +6754,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>119</v>
       </c>
@@ -6790,7 +6787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>119</v>
       </c>
@@ -6823,7 +6820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>119</v>
       </c>
@@ -6856,7 +6853,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>119</v>
       </c>
@@ -6889,7 +6886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>119</v>
       </c>
@@ -6938,7 +6935,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>119</v>
       </c>
@@ -6989,7 +6986,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>119</v>
       </c>
@@ -7022,7 +7019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
@@ -7055,7 +7052,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>119</v>
       </c>
@@ -7157,7 +7154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>119</v>
       </c>
@@ -7208,7 +7205,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>119</v>
       </c>
@@ -7251,7 +7248,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>119</v>
       </c>
@@ -7298,7 +7295,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>119</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>119</v>
       </c>
@@ -7392,7 +7389,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>119</v>
       </c>
@@ -7439,7 +7436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>174</v>
       </c>
@@ -7470,7 +7467,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>174</v>
       </c>
@@ -7517,7 +7514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>174</v>
       </c>
@@ -7550,7 +7547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>174</v>
       </c>
@@ -7583,7 +7580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>174</v>
       </c>
@@ -7616,7 +7613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>174</v>
       </c>
@@ -7649,7 +7646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>174</v>
       </c>
@@ -7682,7 +7679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>174</v>
       </c>
@@ -7715,7 +7712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>174</v>
       </c>
@@ -7748,7 +7745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>174</v>
       </c>
@@ -7781,7 +7778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>174</v>
       </c>
@@ -7814,7 +7811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>174</v>
       </c>
@@ -7847,7 +7844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>174</v>
       </c>
@@ -7880,7 +7877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>174</v>
       </c>
@@ -7913,7 +7910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>174</v>
       </c>
@@ -7946,7 +7943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>174</v>
       </c>
@@ -7983,7 +7980,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>174</v>
       </c>
@@ -8020,7 +8017,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>174</v>
       </c>
@@ -8071,7 +8068,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>174</v>
       </c>
@@ -8122,7 +8119,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>174</v>
       </c>
@@ -8173,7 +8170,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>174</v>
       </c>
@@ -8224,7 +8221,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>174</v>
       </c>
@@ -8275,7 +8272,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>174</v>
       </c>
@@ -8316,7 +8313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>174</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>174</v>
       </c>
@@ -8398,7 +8395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>174</v>
       </c>
@@ -8439,7 +8436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>174</v>
       </c>
@@ -8480,7 +8477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>174</v>
       </c>
@@ -8521,7 +8518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>174</v>
       </c>
@@ -8562,7 +8559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>174</v>
       </c>
@@ -8599,7 +8596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>174</v>
       </c>
@@ -8636,7 +8633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>174</v>
       </c>
@@ -8673,7 +8670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>174</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>174</v>
       </c>
@@ -8747,7 +8744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>174</v>
       </c>
@@ -8784,7 +8781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>174</v>
       </c>
@@ -8821,7 +8818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>174</v>
       </c>
@@ -8858,7 +8855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>174</v>
       </c>
@@ -8895,7 +8892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>174</v>
       </c>
@@ -8932,7 +8929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>174</v>
       </c>
@@ -8969,7 +8966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
         <v>174</v>
       </c>
@@ -9006,7 +9003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>174</v>
       </c>
@@ -9041,7 +9038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>174</v>
       </c>
@@ -9086,7 +9083,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
         <v>174</v>
       </c>
@@ -9131,7 +9128,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
         <v>214</v>
       </c>
@@ -9172,13 +9169,15 @@
       <c r="N173" s="6" t="n">
         <v>92.1</v>
       </c>
-      <c r="O173" s="5"/>
+      <c r="O173" s="6" t="n">
+        <v>92.2</v>
+      </c>
       <c r="P173" s="5"/>
       <c r="Q173" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>214</v>
       </c>
@@ -9219,13 +9218,15 @@
       <c r="N174" s="6" t="n">
         <v>70.8</v>
       </c>
-      <c r="O174" s="5"/>
+      <c r="O174" s="6" t="n">
+        <v>71.2</v>
+      </c>
       <c r="P174" s="5"/>
       <c r="Q174" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
         <v>214</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>214</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>214</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>214</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>214</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
         <v>214</v>
       </c>
@@ -9471,7 +9472,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
         <v>214</v>
       </c>
@@ -9518,7 +9519,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
         <v>214</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>214</v>
       </c>
@@ -9608,7 +9609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>235</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
         <v>235</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
         <v>235</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>235</v>
       </c>
@@ -9776,7 +9777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>241</v>
       </c>
@@ -9791,39 +9792,41 @@
         <v>21</v>
       </c>
       <c r="F188" s="6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G188" s="6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H188" s="6" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="I188" s="6" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J188" s="6" t="n">
         <v>3.4</v>
       </c>
       <c r="K188" s="6" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L188" s="6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M188" s="6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="N188" s="6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O188" s="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="O188" s="6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="P188" s="5"/>
       <c r="Q188" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>241</v>
       </c>
@@ -9838,39 +9841,41 @@
         <v>21</v>
       </c>
       <c r="F189" s="6" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="G189" s="6" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H189" s="6" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I189" s="6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J189" s="6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K189" s="6" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L189" s="6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M189" s="6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="N189" s="6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O189" s="5"/>
+        <v>6.9</v>
+      </c>
+      <c r="O189" s="6" t="n">
+        <v>5.9</v>
+      </c>
       <c r="P189" s="5"/>
       <c r="Q189" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>241</v>
       </c>
@@ -9907,7 +9912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
         <v>241</v>
       </c>
@@ -9944,7 +9949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>241</v>
       </c>
@@ -9981,7 +9986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
         <v>241</v>
       </c>
@@ -10030,7 +10035,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
         <v>241</v>
       </c>
@@ -10079,7 +10084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>241</v>
       </c>
@@ -10128,7 +10133,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>241</v>
       </c>
@@ -10169,7 +10174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>241</v>
       </c>
@@ -10210,7 +10215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
         <v>241</v>
       </c>
@@ -10251,7 +10256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>241</v>
       </c>
@@ -10292,7 +10297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>241</v>
       </c>
@@ -10333,7 +10338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
         <v>241</v>
       </c>
@@ -10374,7 +10379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>241</v>
       </c>
@@ -10415,7 +10420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
         <v>241</v>
       </c>
@@ -10456,7 +10461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
         <v>241</v>
       </c>
@@ -10497,7 +10502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
         <v>241</v>
       </c>
@@ -10538,7 +10543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
         <v>241</v>
       </c>
@@ -10579,7 +10584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
         <v>241</v>
       </c>
@@ -10620,7 +10625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>241</v>
       </c>
@@ -10661,7 +10666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
         <v>241</v>
       </c>
@@ -10702,7 +10707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>241</v>
       </c>
@@ -10743,7 +10748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
         <v>241</v>
       </c>
@@ -10784,7 +10789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
         <v>241</v>
       </c>
@@ -10825,7 +10830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
         <v>241</v>
       </c>
@@ -10866,7 +10871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
         <v>241</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
         <v>241</v>
       </c>
@@ -10958,7 +10963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
         <v>241</v>
       </c>
@@ -11009,7 +11014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
         <v>241</v>
       </c>
@@ -11060,7 +11065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
         <v>241</v>
       </c>
@@ -11111,7 +11116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
         <v>241</v>
       </c>
@@ -11162,7 +11167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
         <v>241</v>
       </c>
@@ -11213,7 +11218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
         <v>241</v>
       </c>
@@ -11264,7 +11269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
         <v>241</v>
       </c>
@@ -11315,7 +11320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
         <v>241</v>
       </c>
@@ -11366,7 +11371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
         <v>241</v>
       </c>
@@ -11415,7 +11420,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
         <v>241</v>
       </c>
@@ -11464,7 +11469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
         <v>241</v>
       </c>
@@ -11513,7 +11518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
         <v>241</v>
       </c>
@@ -11552,7 +11557,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
         <v>241</v>
       </c>
@@ -11591,7 +11596,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
         <v>241</v>
       </c>
@@ -11630,7 +11635,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
         <v>241</v>
       </c>
@@ -11657,7 +11662,7 @@
         <v>0.1</v>
       </c>
       <c r="J230" s="7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K230" s="7" t="n">
         <v>0.1</v>
@@ -11671,13 +11676,15 @@
       <c r="N230" s="7" t="n">
         <v>0.11</v>
       </c>
-      <c r="O230" s="5"/>
+      <c r="O230" s="7" t="n">
+        <v>0.11</v>
+      </c>
       <c r="P230" s="5"/>
       <c r="Q230" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
         <v>241</v>
       </c>
@@ -11718,13 +11725,15 @@
       <c r="N231" s="6" t="n">
         <v>90.1</v>
       </c>
-      <c r="O231" s="5"/>
+      <c r="O231" s="6" t="n">
+        <v>88.2</v>
+      </c>
       <c r="P231" s="5"/>
       <c r="Q231" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
         <v>241</v>
       </c>
@@ -11757,7 +11766,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
         <v>241</v>
       </c>
@@ -11790,7 +11799,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
         <v>241</v>
       </c>
@@ -11823,7 +11832,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
         <v>241</v>
       </c>
@@ -11856,7 +11865,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>241</v>
       </c>
@@ -11889,7 +11898,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
         <v>241</v>
       </c>
@@ -11922,7 +11931,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>241</v>
       </c>
@@ -11955,7 +11964,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -11988,7 +11997,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>241</v>
       </c>
@@ -12031,7 +12040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
         <v>286</v>
       </c>
@@ -12074,13 +12083,15 @@
       <c r="N241" s="8" t="n">
         <v>309722</v>
       </c>
-      <c r="O241" s="5"/>
+      <c r="O241" s="8" t="n">
+        <v>335264</v>
+      </c>
       <c r="P241" s="5"/>
       <c r="Q241" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
         <v>286</v>
       </c>
@@ -12123,13 +12134,15 @@
       <c r="N242" s="8" t="n">
         <v>336511</v>
       </c>
-      <c r="O242" s="5"/>
+      <c r="O242" s="8" t="n">
+        <v>327494</v>
+      </c>
       <c r="P242" s="5"/>
       <c r="Q242" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
         <v>286</v>
       </c>
@@ -12172,13 +12185,15 @@
       <c r="N243" s="8" t="n">
         <v>632</v>
       </c>
-      <c r="O243" s="5"/>
+      <c r="O243" s="8" t="n">
+        <v>754</v>
+      </c>
       <c r="P243" s="5"/>
       <c r="Q243" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
         <v>286</v>
       </c>
@@ -12221,13 +12236,15 @@
       <c r="N244" s="8" t="n">
         <v>1395</v>
       </c>
-      <c r="O244" s="5"/>
+      <c r="O244" s="8" t="n">
+        <v>1362</v>
+      </c>
       <c r="P244" s="5"/>
       <c r="Q244" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
         <v>286</v>
       </c>
@@ -12270,13 +12287,15 @@
       <c r="N245" s="8" t="n">
         <v>13850</v>
       </c>
-      <c r="O245" s="5"/>
+      <c r="O245" s="8" t="n">
+        <v>21883</v>
+      </c>
       <c r="P245" s="5"/>
       <c r="Q245" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
         <v>286</v>
       </c>
@@ -12319,13 +12338,15 @@
       <c r="N246" s="8" t="n">
         <v>249260</v>
       </c>
-      <c r="O246" s="5"/>
+      <c r="O246" s="8" t="n">
+        <v>233744</v>
+      </c>
       <c r="P246" s="5"/>
       <c r="Q246" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>286</v>
       </c>
@@ -12368,13 +12389,15 @@
       <c r="N247" s="8" t="n">
         <v>1873022</v>
       </c>
-      <c r="O247" s="5"/>
+      <c r="O247" s="8" t="n">
+        <v>1921073</v>
+      </c>
       <c r="P247" s="5"/>
       <c r="Q247" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
         <v>286</v>
       </c>
@@ -12417,13 +12440,15 @@
       <c r="N248" s="8" t="n">
         <v>55287</v>
       </c>
-      <c r="O248" s="5"/>
+      <c r="O248" s="8" t="n">
+        <v>52376</v>
+      </c>
       <c r="P248" s="5"/>
       <c r="Q248" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
         <v>286</v>
       </c>
@@ -12466,13 +12491,15 @@
       <c r="N249" s="8" t="n">
         <v>9149</v>
       </c>
-      <c r="O249" s="5"/>
+      <c r="O249" s="8" t="n">
+        <v>8727</v>
+      </c>
       <c r="P249" s="5"/>
       <c r="Q249" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
         <v>286</v>
       </c>
@@ -12513,15 +12540,17 @@
         <v>5778</v>
       </c>
       <c r="N250" s="8" t="n">
-        <v>5107</v>
-      </c>
-      <c r="O250" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="O250" s="8" t="n">
+        <v>4681</v>
+      </c>
       <c r="P250" s="5"/>
       <c r="Q250" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
         <v>286</v>
       </c>
@@ -12564,13 +12593,15 @@
       <c r="N251" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="O251" s="5"/>
+      <c r="O251" s="8" t="n">
+        <v>77</v>
+      </c>
       <c r="P251" s="5"/>
       <c r="Q251" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
         <v>286</v>
       </c>
@@ -12585,39 +12616,41 @@
         <v>21</v>
       </c>
       <c r="F252" s="6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I252" s="6" t="n">
         <v>15.6</v>
       </c>
-      <c r="G252" s="6" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H252" s="6" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="I252" s="6" t="n">
-        <v>15.9</v>
-      </c>
       <c r="J252" s="6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L252" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="M252" s="6" t="n">
         <v>16.8</v>
-      </c>
-      <c r="K252" s="6" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L252" s="6" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="M252" s="6" t="n">
-        <v>16.9</v>
       </c>
       <c r="N252" s="6" t="n">
         <v>16.7</v>
       </c>
-      <c r="O252" s="5"/>
+      <c r="O252" s="6" t="n">
+        <v>16.6</v>
+      </c>
       <c r="P252" s="5"/>
       <c r="Q252" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
         <v>286</v>
       </c>
@@ -12664,7 +12697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
         <v>286</v>
       </c>
@@ -12711,7 +12744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
         <v>286</v>
       </c>
@@ -12760,7 +12793,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
         <v>286</v>
       </c>
@@ -12809,7 +12842,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
         <v>286</v>
       </c>
@@ -12858,7 +12891,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
         <v>286</v>
       </c>
@@ -12907,7 +12940,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
         <v>286</v>
       </c>
@@ -12956,7 +12989,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
         <v>286</v>
       </c>
@@ -13005,7 +13038,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
         <v>286</v>
       </c>
@@ -13052,7 +13085,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
         <v>286</v>
       </c>
@@ -13099,7 +13132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
         <v>286</v>
       </c>
@@ -13146,7 +13179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
         <v>286</v>
       </c>
@@ -13189,7 +13222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
         <v>286</v>
       </c>
@@ -13234,7 +13267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
         <v>286</v>
       </c>
@@ -13277,7 +13310,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
         <v>286</v>
       </c>
@@ -13320,7 +13353,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
         <v>318</v>
       </c>
@@ -13363,13 +13396,15 @@
       <c r="N268" s="6" t="n">
         <v>4.7</v>
       </c>
-      <c r="O268" s="5"/>
+      <c r="O268" s="6" t="n">
+        <v>3.2</v>
+      </c>
       <c r="P268" s="5"/>
       <c r="Q268" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
         <v>318</v>
       </c>
@@ -13412,13 +13447,15 @@
       <c r="N269" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="O269" s="5"/>
+      <c r="O269" s="6" t="n">
+        <v>8.3</v>
+      </c>
       <c r="P269" s="5"/>
       <c r="Q269" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
         <v>318</v>
       </c>
@@ -13461,13 +13498,15 @@
       <c r="N270" s="6" t="n">
         <v>14.8</v>
       </c>
-      <c r="O270" s="5"/>
+      <c r="O270" s="6" t="n">
+        <v>15.4</v>
+      </c>
       <c r="P270" s="5"/>
       <c r="Q270" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
         <v>318</v>
       </c>
@@ -13510,13 +13549,15 @@
       <c r="N271" s="6" t="n">
         <v>14.6</v>
       </c>
-      <c r="O271" s="5"/>
+      <c r="O271" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="P271" s="5"/>
       <c r="Q271" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
         <v>318</v>
       </c>
@@ -13559,13 +13600,15 @@
       <c r="N272" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="O272" s="5"/>
+      <c r="O272" s="6" t="n">
+        <v>15.8</v>
+      </c>
       <c r="P272" s="5"/>
       <c r="Q272" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
         <v>318</v>
       </c>
@@ -13608,13 +13651,15 @@
       <c r="N273" s="6" t="n">
         <v>10.7</v>
       </c>
-      <c r="O273" s="5"/>
+      <c r="O273" s="6" t="n">
+        <v>12.5</v>
+      </c>
       <c r="P273" s="5"/>
       <c r="Q273" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
         <v>318</v>
       </c>
@@ -13657,13 +13702,15 @@
       <c r="N274" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="O274" s="5"/>
+      <c r="O274" s="6" t="n">
+        <v>13.4</v>
+      </c>
       <c r="P274" s="5"/>
       <c r="Q274" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
         <v>318</v>
       </c>
@@ -13706,13 +13753,15 @@
       <c r="N275" s="6" t="n">
         <v>21.1</v>
       </c>
-      <c r="O275" s="5"/>
+      <c r="O275" s="6" t="n">
+        <v>22.1</v>
+      </c>
       <c r="P275" s="5"/>
       <c r="Q275" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
         <v>318</v>
       </c>
@@ -13755,13 +13804,15 @@
       <c r="N276" s="6" t="n">
         <v>15.2</v>
       </c>
-      <c r="O276" s="5"/>
+      <c r="O276" s="6" t="n">
+        <v>15.5</v>
+      </c>
       <c r="P276" s="5"/>
       <c r="Q276" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
         <v>318</v>
       </c>
@@ -13804,13 +13855,15 @@
       <c r="N277" s="6" t="n">
         <v>16.2</v>
       </c>
-      <c r="O277" s="5"/>
+      <c r="O277" s="6" t="n">
+        <v>17.4</v>
+      </c>
       <c r="P277" s="5"/>
       <c r="Q277" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
         <v>318</v>
       </c>
@@ -13853,13 +13906,15 @@
       <c r="N278" s="6" t="n">
         <v>15.5</v>
       </c>
-      <c r="O278" s="5"/>
+      <c r="O278" s="6" t="n">
+        <v>17.7</v>
+      </c>
       <c r="P278" s="5"/>
       <c r="Q278" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
         <v>318</v>
       </c>
@@ -13894,7 +13949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
         <v>318</v>
       </c>
@@ -13941,7 +13996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
         <v>318</v>
       </c>
@@ -13984,13 +14039,15 @@
       <c r="N281" s="6" t="n">
         <v>18.3</v>
       </c>
-      <c r="O281" s="5"/>
+      <c r="O281" s="6" t="n">
+        <v>18.6</v>
+      </c>
       <c r="P281" s="5"/>
       <c r="Q281" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
         <v>318</v>
       </c>
@@ -14019,13 +14076,13 @@
         <v>-0.1</v>
       </c>
       <c r="J282" s="6" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K282" s="6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L282" s="6" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M282" s="6" t="n">
         <v>0.4</v>
@@ -14033,13 +14090,15 @@
       <c r="N282" s="6" t="n">
         <v>0.1</v>
       </c>
-      <c r="O282" s="5"/>
+      <c r="O282" s="6" t="n">
+        <v>0.2</v>
+      </c>
       <c r="P282" s="5"/>
       <c r="Q282" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
         <v>318</v>
       </c>
@@ -14082,13 +14141,15 @@
       <c r="N283" s="6" t="n">
         <v>16.3</v>
       </c>
-      <c r="O283" s="5"/>
+      <c r="O283" s="6" t="n">
+        <v>16.4</v>
+      </c>
       <c r="P283" s="5"/>
       <c r="Q283" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
         <v>318</v>
       </c>
@@ -14131,13 +14192,15 @@
       <c r="N284" s="6" t="n">
         <v>9.4</v>
       </c>
-      <c r="O284" s="5"/>
+      <c r="O284" s="6" t="n">
+        <v>8.9</v>
+      </c>
       <c r="P284" s="5"/>
       <c r="Q284" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
         <v>318</v>
       </c>
@@ -14180,13 +14243,15 @@
       <c r="N285" s="6" t="n">
         <v>3.9</v>
       </c>
-      <c r="O285" s="5"/>
+      <c r="O285" s="6" t="n">
+        <v>3.8</v>
+      </c>
       <c r="P285" s="5"/>
       <c r="Q285" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
         <v>318</v>
       </c>
@@ -14229,13 +14294,15 @@
       <c r="N286" s="6" t="n">
         <v>96.1</v>
       </c>
-      <c r="O286" s="5"/>
+      <c r="O286" s="6" t="n">
+        <v>96.5</v>
+      </c>
       <c r="P286" s="5"/>
       <c r="Q286" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
         <v>318</v>
       </c>
@@ -14278,13 +14345,15 @@
       <c r="N287" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="O287" s="5"/>
+      <c r="O287" s="6" t="n">
+        <v>0.7</v>
+      </c>
       <c r="P287" s="5"/>
       <c r="Q287" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
         <v>318</v>
       </c>
@@ -14327,13 +14396,15 @@
       <c r="N288" s="6" t="n">
         <v>7.5</v>
       </c>
-      <c r="O288" s="5"/>
+      <c r="O288" s="6" t="n">
+        <v>7.9</v>
+      </c>
       <c r="P288" s="5"/>
       <c r="Q288" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
         <v>318</v>
       </c>
@@ -14376,13 +14447,15 @@
       <c r="N289" s="6" t="n">
         <v>62.8</v>
       </c>
-      <c r="O289" s="5"/>
+      <c r="O289" s="6" t="n">
+        <v>62.8</v>
+      </c>
       <c r="P289" s="5"/>
       <c r="Q289" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
         <v>318</v>
       </c>
@@ -14425,13 +14498,15 @@
       <c r="N290" s="6" t="n">
         <v>60.2</v>
       </c>
-      <c r="O290" s="5"/>
+      <c r="O290" s="6" t="n">
+        <v>60</v>
+      </c>
       <c r="P290" s="5"/>
       <c r="Q290" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
         <v>318</v>
       </c>
@@ -14474,13 +14549,15 @@
       <c r="N291" s="6" t="n">
         <v>14.4</v>
       </c>
-      <c r="O291" s="5"/>
+      <c r="O291" s="6" t="n">
+        <v>15.1</v>
+      </c>
       <c r="P291" s="5"/>
       <c r="Q291" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
         <v>318</v>
       </c>
@@ -14523,13 +14600,15 @@
       <c r="N292" s="6" t="n">
         <v>25.2</v>
       </c>
-      <c r="O292" s="5"/>
+      <c r="O292" s="6" t="n">
+        <v>26.2</v>
+      </c>
       <c r="P292" s="5"/>
       <c r="Q292" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
         <v>318</v>
       </c>
@@ -14578,7 +14657,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
         <v>318</v>
       </c>
@@ -14629,7 +14708,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
         <v>318</v>
       </c>
@@ -14680,7 +14759,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
         <v>318</v>
       </c>
@@ -14731,7 +14810,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
         <v>318</v>
       </c>
@@ -14782,7 +14861,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
         <v>318</v>
       </c>
@@ -14833,7 +14912,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
         <v>318</v>
       </c>
@@ -14884,7 +14963,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
         <v>318</v>
       </c>
@@ -14919,21 +14998,23 @@
         <v>4994.75</v>
       </c>
       <c r="L300" s="7" t="n">
-        <v>8073.06</v>
+        <v>11599.05</v>
       </c>
       <c r="M300" s="7" t="n">
-        <v>2760.33</v>
+        <v>2170.4</v>
       </c>
       <c r="N300" s="7" t="n">
-        <v>-405.7</v>
-      </c>
-      <c r="O300" s="5"/>
+        <v>890.6</v>
+      </c>
+      <c r="O300" s="7" t="n">
+        <v>1290.2</v>
+      </c>
       <c r="P300" s="5"/>
       <c r="Q300" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
         <v>318</v>
       </c>
@@ -14968,21 +15049,23 @@
         <v>-2.07</v>
       </c>
       <c r="L301" s="7" t="n">
-        <v>-0.91</v>
+        <v>-3.73</v>
       </c>
       <c r="M301" s="7" t="n">
-        <v>-1.46</v>
+        <v>-1.3</v>
       </c>
       <c r="N301" s="7" t="n">
-        <v>-35.5</v>
-      </c>
-      <c r="O301" s="5"/>
+        <v>-35.7</v>
+      </c>
+      <c r="O301" s="7" t="n">
+        <v>5.3</v>
+      </c>
       <c r="P301" s="5"/>
       <c r="Q301" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
         <v>318</v>
       </c>
@@ -15020,18 +15103,20 @@
         <v>-0.38</v>
       </c>
       <c r="M302" s="7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N302" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O302" s="5"/>
+      <c r="O302" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="P302" s="5"/>
       <c r="Q302" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
         <v>318</v>
       </c>
@@ -15066,21 +15151,23 @@
         <v>-34.53</v>
       </c>
       <c r="L303" s="7" t="n">
-        <v>37.84</v>
+        <v>40.96</v>
       </c>
       <c r="M303" s="7" t="n">
-        <v>201.76</v>
+        <v>190.4</v>
       </c>
       <c r="N303" s="7" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="O303" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="O303" s="7" t="n">
+        <v>123.9</v>
+      </c>
       <c r="P303" s="5"/>
       <c r="Q303" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
         <v>318</v>
       </c>
@@ -15115,21 +15202,23 @@
         <v>110.69</v>
       </c>
       <c r="L304" s="7" t="n">
-        <v>360.93</v>
+        <v>446.86</v>
       </c>
       <c r="M304" s="7" t="n">
-        <v>234.59</v>
+        <v>245.2</v>
       </c>
       <c r="N304" s="7" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="O304" s="5"/>
+        <v>65.1</v>
+      </c>
+      <c r="O304" s="7" t="n">
+        <v>60.9</v>
+      </c>
       <c r="P304" s="5"/>
       <c r="Q304" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
         <v>359</v>
       </c>
@@ -15178,7 +15267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
         <v>359</v>
       </c>
@@ -15227,7 +15316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
         <v>359</v>
       </c>
@@ -15276,7 +15365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
         <v>359</v>
       </c>
@@ -15319,13 +15408,15 @@
       <c r="N308" s="7" t="n">
         <v>2.73</v>
       </c>
-      <c r="O308" s="5"/>
+      <c r="O308" s="7" t="n">
+        <v>2.37</v>
+      </c>
       <c r="P308" s="5"/>
       <c r="Q308" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
         <v>359</v>
       </c>
@@ -15368,13 +15459,15 @@
       <c r="N309" s="7" t="n">
         <v>0.62</v>
       </c>
-      <c r="O309" s="5"/>
+      <c r="O309" s="7" t="n">
+        <v>0.73</v>
+      </c>
       <c r="P309" s="5"/>
       <c r="Q309" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
         <v>359</v>
       </c>
@@ -15417,13 +15510,15 @@
       <c r="N310" s="7" t="n">
         <v>26.18</v>
       </c>
-      <c r="O310" s="5"/>
+      <c r="O310" s="7" t="n">
+        <v>25.03</v>
+      </c>
       <c r="P310" s="5"/>
       <c r="Q310" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
         <v>359</v>
       </c>
@@ -15466,13 +15561,15 @@
       <c r="N311" s="7" t="n">
         <v>8.11</v>
       </c>
-      <c r="O311" s="5"/>
+      <c r="O311" s="7" t="n">
+        <v>9.04</v>
+      </c>
       <c r="P311" s="5"/>
       <c r="Q311" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
         <v>359</v>
       </c>
@@ -15515,13 +15612,15 @@
       <c r="N312" s="7" t="n">
         <v>24.13</v>
       </c>
-      <c r="O312" s="5"/>
+      <c r="O312" s="7" t="n">
+        <v>22.9</v>
+      </c>
       <c r="P312" s="5"/>
       <c r="Q312" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
         <v>359</v>
       </c>
@@ -15564,13 +15663,15 @@
       <c r="N313" s="7" t="n">
         <v>41.58</v>
       </c>
-      <c r="O313" s="5"/>
+      <c r="O313" s="7" t="n">
+        <v>43.03</v>
+      </c>
       <c r="P313" s="5"/>
       <c r="Q313" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
         <v>359</v>
       </c>
@@ -15619,7 +15720,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
         <v>359</v>
       </c>
@@ -15668,7 +15769,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
         <v>359</v>
       </c>
@@ -15717,7 +15818,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
         <v>359</v>
       </c>
@@ -15766,7 +15867,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
         <v>359</v>
       </c>
@@ -15815,7 +15916,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
         <v>359</v>
       </c>
@@ -15864,7 +15965,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
         <v>359</v>
       </c>
@@ -15913,7 +16014,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
         <v>359</v>
       </c>
@@ -15962,7 +16063,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
         <v>359</v>
       </c>
@@ -16011,7 +16112,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
         <v>359</v>
       </c>
@@ -16060,7 +16161,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
         <v>359</v>
       </c>
@@ -16109,7 +16210,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
         <v>359</v>
       </c>
@@ -16158,7 +16259,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
         <v>359</v>
       </c>
@@ -16207,7 +16308,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
         <v>359</v>
       </c>
@@ -16256,7 +16357,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
         <v>359</v>
       </c>
@@ -16305,7 +16406,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
         <v>359</v>
       </c>
@@ -16354,7 +16455,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
         <v>359</v>
       </c>
@@ -16403,7 +16504,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
         <v>359</v>
       </c>
@@ -16452,7 +16553,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
         <v>359</v>
       </c>
@@ -16499,7 +16600,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
         <v>359</v>
       </c>
@@ -16548,7 +16649,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
         <v>359</v>
       </c>
@@ -16597,7 +16698,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
         <v>359</v>
       </c>
@@ -16646,7 +16747,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
         <v>359</v>
       </c>
@@ -16695,7 +16796,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
         <v>359</v>
       </c>
@@ -16744,7 +16845,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
         <v>359</v>
       </c>
@@ -16787,13 +16888,15 @@
       <c r="N338" s="7" t="n">
         <v>98.08</v>
       </c>
-      <c r="O338" s="5"/>
+      <c r="O338" s="7" t="n">
+        <v>98.17</v>
+      </c>
       <c r="P338" s="5"/>
       <c r="Q338" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
         <v>359</v>
       </c>
@@ -16836,13 +16939,15 @@
       <c r="N339" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="O339" s="5"/>
+      <c r="O339" s="7" t="n">
+        <v>100</v>
+      </c>
       <c r="P339" s="5"/>
       <c r="Q339" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
         <v>359</v>
       </c>
@@ -16885,13 +16990,15 @@
       <c r="N340" s="7" t="n">
         <v>94.04</v>
       </c>
-      <c r="O340" s="5"/>
+      <c r="O340" s="7" t="n">
+        <v>94.4</v>
+      </c>
       <c r="P340" s="5"/>
       <c r="Q340" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
         <v>359</v>
       </c>
@@ -16934,13 +17041,15 @@
       <c r="N341" s="7" t="n">
         <v>99.07</v>
       </c>
-      <c r="O341" s="5"/>
+      <c r="O341" s="7" t="n">
+        <v>98.97</v>
+      </c>
       <c r="P341" s="5"/>
       <c r="Q341" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
         <v>359</v>
       </c>
@@ -16983,13 +17092,15 @@
       <c r="N342" s="6" t="n">
         <v>99.9</v>
       </c>
-      <c r="O342" s="5"/>
+      <c r="O342" s="6" t="n">
+        <v>99.9</v>
+      </c>
       <c r="P342" s="5"/>
       <c r="Q342" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
         <v>359</v>
       </c>
@@ -17032,13 +17143,15 @@
       <c r="N343" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="O343" s="5"/>
+      <c r="O343" s="6" t="n">
+        <v>99.9</v>
+      </c>
       <c r="P343" s="5"/>
       <c r="Q343" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
         <v>359</v>
       </c>
@@ -17081,13 +17194,15 @@
       <c r="N344" s="6" t="n">
         <v>99.8</v>
       </c>
-      <c r="O344" s="5"/>
+      <c r="O344" s="6" t="n">
+        <v>99.8</v>
+      </c>
       <c r="P344" s="5"/>
       <c r="Q344" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
         <v>359</v>
       </c>
@@ -17128,15 +17243,17 @@
         <v>100</v>
       </c>
       <c r="N345" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="O345" s="5"/>
+        <v>99.8</v>
+      </c>
+      <c r="O345" s="6" t="n">
+        <v>99.8</v>
+      </c>
       <c r="P345" s="5"/>
       <c r="Q345" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
         <v>392</v>
       </c>
@@ -17185,7 +17302,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
         <v>392</v>
       </c>
@@ -17234,7 +17351,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
         <v>392</v>
       </c>
@@ -17283,7 +17400,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
         <v>392</v>
       </c>
@@ -17327,12 +17444,14 @@
       <c r="O349" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P349" s="5"/>
+      <c r="P349" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q349" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
         <v>392</v>
       </c>
@@ -17363,13 +17482,15 @@
       </c>
       <c r="M350" s="5"/>
       <c r="N350" s="5"/>
-      <c r="O350" s="5"/>
+      <c r="O350" s="8" t="n">
+        <v>100</v>
+      </c>
       <c r="P350" s="5"/>
       <c r="Q350" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
         <v>392</v>
       </c>
@@ -17400,13 +17521,15 @@
       </c>
       <c r="M351" s="5"/>
       <c r="N351" s="5"/>
-      <c r="O351" s="5"/>
+      <c r="O351" s="8" t="n">
+        <v>46</v>
+      </c>
       <c r="P351" s="5"/>
       <c r="Q351" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
         <v>392</v>
       </c>
@@ -17437,13 +17560,15 @@
       </c>
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
-      <c r="O352" s="5"/>
+      <c r="O352" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P352" s="5"/>
       <c r="Q352" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
         <v>392</v>
       </c>
@@ -17492,7 +17617,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
         <v>392</v>
       </c>
@@ -17527,7 +17652,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
         <v>392</v>
       </c>
@@ -17578,7 +17703,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
         <v>392</v>
       </c>
@@ -17627,7 +17752,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
         <v>411</v>
       </c>
@@ -17670,13 +17795,15 @@
       <c r="N357" s="7" t="n">
         <v>2.73</v>
       </c>
-      <c r="O357" s="5"/>
+      <c r="O357" s="7" t="n">
+        <v>2.37</v>
+      </c>
       <c r="P357" s="5"/>
       <c r="Q357" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
         <v>411</v>
       </c>
@@ -17719,13 +17846,15 @@
       <c r="N358" s="7" t="n">
         <v>0.62</v>
       </c>
-      <c r="O358" s="5"/>
+      <c r="O358" s="7" t="n">
+        <v>0.73</v>
+      </c>
       <c r="P358" s="5"/>
       <c r="Q358" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
         <v>411</v>
       </c>
@@ -17776,7 +17905,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
         <v>411</v>
       </c>
@@ -17827,7 +17956,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
         <v>411</v>
       </c>
@@ -17870,7 +17999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
         <v>419</v>
       </c>
@@ -17921,7 +18050,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
         <v>419</v>
       </c>
@@ -17972,7 +18101,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
         <v>419</v>
       </c>
@@ -18023,7 +18152,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
         <v>419</v>
       </c>
@@ -18074,7 +18203,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
         <v>419</v>
       </c>
@@ -18121,7 +18250,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
         <v>419</v>
       </c>
@@ -18168,7 +18297,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
         <v>432</v>
       </c>
@@ -18217,7 +18346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
         <v>432</v>
       </c>
@@ -18266,7 +18395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
         <v>432</v>
       </c>
@@ -18307,13 +18436,15 @@
       <c r="N370" s="9" t="n">
         <v>0.198</v>
       </c>
-      <c r="O370" s="5"/>
+      <c r="O370" s="9" t="n">
+        <v>0.199</v>
+      </c>
       <c r="P370" s="5"/>
       <c r="Q370" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
         <v>432</v>
       </c>
@@ -18348,7 +18479,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
         <v>432</v>
       </c>
@@ -18379,7 +18510,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
         <v>432</v>
       </c>
@@ -18410,7 +18541,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
         <v>432</v>
       </c>
@@ -18441,7 +18572,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
         <v>432</v>
       </c>
@@ -18476,7 +18607,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
         <v>432</v>
       </c>
@@ -18511,7 +18642,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
         <v>432</v>
       </c>
@@ -18546,7 +18677,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
         <v>432</v>
       </c>
@@ -18597,7 +18728,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
         <v>432</v>
       </c>
@@ -18636,15 +18767,17 @@
         <v>3597</v>
       </c>
       <c r="N379" s="8" t="n">
-        <v>14533</v>
-      </c>
-      <c r="O379" s="5"/>
+        <v>13811</v>
+      </c>
+      <c r="O379" s="8" t="n">
+        <v>368631</v>
+      </c>
       <c r="P379" s="5"/>
       <c r="Q379" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
         <v>432</v>
       </c>
@@ -18695,7 +18828,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
         <v>432</v>
       </c>
@@ -18738,7 +18871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
         <v>432</v>
       </c>
@@ -18781,7 +18914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
         <v>452</v>
       </c>
@@ -18828,7 +18961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
         <v>452</v>
       </c>
@@ -18877,7 +19010,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
         <v>452</v>
       </c>
@@ -18908,13 +19041,15 @@
       <c r="N385" s="6" t="n">
         <v>92.1</v>
       </c>
-      <c r="O385" s="5"/>
+      <c r="O385" s="6" t="n">
+        <v>92.3</v>
+      </c>
       <c r="P385" s="5"/>
       <c r="Q385" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
         <v>452</v>
       </c>
@@ -18957,7 +19092,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
         <v>452</v>
       </c>
@@ -18996,7 +19131,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
         <v>452</v>
       </c>
@@ -19035,7 +19170,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
         <v>452</v>
       </c>
@@ -19074,7 +19209,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
         <v>452</v>
       </c>
@@ -19113,7 +19248,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
         <v>452</v>
       </c>
@@ -19152,7 +19287,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
         <v>452</v>
       </c>
@@ -19191,7 +19326,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
         <v>452</v>
       </c>
@@ -19230,7 +19365,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
         <v>452</v>
       </c>
@@ -19263,7 +19398,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
         <v>452</v>
       </c>
@@ -19302,7 +19437,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
         <v>452</v>
       </c>
@@ -19341,7 +19476,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
         <v>452</v>
       </c>
@@ -19388,7 +19523,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
         <v>452</v>
       </c>
@@ -19437,7 +19572,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
         <v>452</v>
       </c>
@@ -19474,7 +19609,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
         <v>452</v>
       </c>
@@ -19511,7 +19646,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
         <v>452</v>
       </c>
@@ -19548,7 +19683,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
         <v>452</v>
       </c>
@@ -19585,7 +19720,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
         <v>452</v>
       </c>
@@ -19622,7 +19757,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
         <v>452</v>
       </c>
@@ -19659,7 +19794,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
         <v>452</v>
       </c>
@@ -19696,7 +19831,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
         <v>452</v>
       </c>
@@ -19733,7 +19868,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
         <v>452</v>
       </c>
@@ -19770,7 +19905,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
         <v>452</v>
       </c>
@@ -19807,7 +19942,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
         <v>452</v>
       </c>
@@ -19844,7 +19979,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
         <v>452</v>
       </c>
@@ -19881,7 +20016,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
         <v>452</v>
       </c>
@@ -19930,7 +20065,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
         <v>452</v>
       </c>
@@ -19965,7 +20100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
         <v>487</v>
       </c>
@@ -20014,7 +20149,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
         <v>487</v>
       </c>
@@ -20063,7 +20198,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
         <v>487</v>
       </c>
@@ -20114,7 +20249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
         <v>487</v>
       </c>
@@ -20165,7 +20300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
         <v>487</v>
       </c>
@@ -20214,7 +20349,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
         <v>487</v>
       </c>
@@ -20263,7 +20398,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
         <v>487</v>
       </c>
@@ -20312,7 +20447,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
         <v>487</v>
       </c>
@@ -20359,7 +20494,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
         <v>487</v>
       </c>
@@ -20410,7 +20545,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
         <v>487</v>
       </c>
@@ -20461,7 +20596,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
         <v>487</v>
       </c>
@@ -20512,7 +20647,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
         <v>487</v>
       </c>
@@ -20561,7 +20696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
         <v>487</v>
       </c>
@@ -20610,7 +20745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
         <v>487</v>
       </c>
@@ -20659,7 +20794,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
         <v>487</v>
       </c>
@@ -20708,7 +20843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
         <v>487</v>
       </c>
@@ -20757,7 +20892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
         <v>487</v>
       </c>
@@ -20806,7 +20941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
         <v>487</v>
       </c>
@@ -20855,7 +20990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
         <v>487</v>
       </c>
@@ -20904,7 +21039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
         <v>487</v>
       </c>
@@ -20953,7 +21088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
         <v>487</v>
       </c>
@@ -20988,7 +21123,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
         <v>487</v>
       </c>
@@ -21037,7 +21172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
         <v>487</v>
       </c>
@@ -21086,7 +21221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
         <v>487</v>
       </c>
@@ -21129,7 +21264,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
         <v>487</v>
       </c>
@@ -21162,7 +21297,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
         <v>487</v>
       </c>
@@ -21215,7 +21350,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
         <v>487</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1609,7 +1609,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 10-11-2020, 11:04</t>
+    <t>Last update: 15-12-2020, 08:05</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2157,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1612,7 +1612,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 02-02-2021, 09:08</t>
+    <t>Last update: 09-02-2021, 08:30</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2160,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7276,7 +7276,9 @@
       <c r="O117" s="6">
         <v>100</v>
       </c>
-      <c r="P117" s="3"/>
+      <c r="P117" s="6">
+        <v>100</v>
+      </c>
       <c r="Q117" s="2" t="s">
         <v>160</v>
       </c>
@@ -18130,7 +18132,9 @@
       <c r="O353" s="6">
         <v>127</v>
       </c>
-      <c r="P353" s="3"/>
+      <c r="P353" s="6">
+        <v>144</v>
+      </c>
       <c r="Q353" s="2" t="s">
         <v>407</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1654,7 +1654,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 16-03-2021, 19:56</t>
+    <t>Last update: 30-03-2021, 09:23</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2202,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,20 +5237,14 @@
       <c r="E64" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F64" s="6">
-        <v>72</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="6">
-        <v>74</v>
-      </c>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="6">
-        <v>75</v>
-      </c>
+      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1351,7 +1351,7 @@
     <t>proportion of stocks fully exploited on the Baltic Sea</t>
   </si>
   <si>
-    <t>Ministry of  Maritime Economy and Inland Navigation</t>
+    <t>Ministry of Agriculture and Rural Development</t>
   </si>
   <si>
     <t>proportion of stocks non-fully exploited on the Baltic Sea</t>
@@ -1663,7 +1663,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 13-04-2021, 10:04</t>
+    <t>Last update: 20-04-2021, 08:15</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">100% deaths registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 27-04-2021, 10:09</t>
+    <t xml:space="preserve">Last update: 29-04-2021, 07:01</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1987,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7769,9 +7769,15 @@
       <c r="M133" s="6" t="n">
         <v>98.3</v>
       </c>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
+      <c r="N133" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="O133" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P133" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="Q133" s="4" t="s">
         <v>177</v>
       </c>
@@ -7816,9 +7822,15 @@
       <c r="M134" s="6" t="n">
         <v>99.5</v>
       </c>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
+      <c r="N134" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="O134" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P134" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="Q134" s="4" t="s">
         <v>177</v>
       </c>
@@ -7863,9 +7875,15 @@
       <c r="M135" s="7" t="n">
         <v>99.2</v>
       </c>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
+      <c r="N135" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="O135" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P135" s="7" t="n">
+        <v>100</v>
+      </c>
       <c r="Q135" s="4" t="s">
         <v>177</v>
       </c>
@@ -7910,9 +7928,15 @@
       <c r="M136" s="6" t="n">
         <v>98.3</v>
       </c>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
+      <c r="N136" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="O136" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P136" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="Q136" s="4" t="s">
         <v>177</v>
       </c>
@@ -21552,26 +21576,24 @@
         <v>42770</v>
       </c>
       <c r="J437" s="8" t="n">
-        <v>44705</v>
+        <v>44466</v>
       </c>
       <c r="K437" s="8" t="n">
-        <v>44466</v>
+        <v>46837</v>
       </c>
       <c r="L437" s="8" t="n">
-        <v>46837</v>
+        <v>48494</v>
       </c>
       <c r="M437" s="8" t="n">
-        <v>48494</v>
+        <v>51789</v>
       </c>
       <c r="N437" s="8" t="n">
-        <v>51789</v>
+        <v>55230</v>
       </c>
       <c r="O437" s="8" t="n">
-        <v>55230</v>
-      </c>
-      <c r="P437" s="8" t="n">
         <v>59598</v>
       </c>
+      <c r="P437" s="5"/>
       <c r="Q437" s="4" t="s">
         <v>22</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">100% deaths registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 29-04-2021, 07:01</t>
+    <t xml:space="preserve">Last update: 29-04-2021, 10:32</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1987,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15223,7 +15223,9 @@
       <c r="O301" s="7" t="n">
         <v>9.53</v>
       </c>
-      <c r="P301" s="5"/>
+      <c r="P301" s="7" t="n">
+        <v>8.21</v>
+      </c>
       <c r="Q301" s="4" t="s">
         <v>359</v>
       </c>
@@ -21544,7 +21546,9 @@
       <c r="O436" s="7" t="n">
         <v>1.26</v>
       </c>
-      <c r="P436" s="5"/>
+      <c r="P436" s="7" t="n">
+        <v>1.26</v>
+      </c>
       <c r="Q436" s="4" t="s">
         <v>466</v>
       </c>
@@ -21591,7 +21595,7 @@
         <v>55230</v>
       </c>
       <c r="O437" s="8" t="n">
-        <v>59598</v>
+        <v>59741</v>
       </c>
       <c r="P437" s="5"/>
       <c r="Q437" s="4" t="s">

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1666,7 +1666,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 18-05-2021, 10:34</t>
+    <t>Last update: 25-05-2021, 10:57</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2214,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">100% deaths registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 08-06-2021, 08:32</t>
+    <t xml:space="preserve">Last update: 13-07-2021, 08:08</t>
   </si>
 </sst>
 </file>
@@ -4002,7 +4002,9 @@
       <c r="O43" s="6" t="n">
         <v>99.8</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="6" t="n">
+        <v>99.7</v>
+      </c>
       <c r="Q43" s="4" t="s">
         <v>22</v>
       </c>
@@ -4051,7 +4053,9 @@
       <c r="O44" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="P44" s="5"/>
+      <c r="P44" s="6" t="n">
+        <v>4.2</v>
+      </c>
       <c r="Q44" s="4" t="s">
         <v>22</v>
       </c>
@@ -4100,7 +4104,9 @@
       <c r="O45" s="6" t="n">
         <v>2.7</v>
       </c>
-      <c r="P45" s="5"/>
+      <c r="P45" s="6" t="n">
+        <v>2.6</v>
+      </c>
       <c r="Q45" s="4" t="s">
         <v>22</v>
       </c>
@@ -4890,7 +4896,9 @@
       <c r="O61" s="6" t="n">
         <v>4.5</v>
       </c>
-      <c r="P61" s="5"/>
+      <c r="P61" s="6" t="n">
+        <v>3.8</v>
+      </c>
       <c r="Q61" s="4" t="s">
         <v>22</v>
       </c>
@@ -4941,7 +4949,9 @@
       <c r="O62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P62" s="5"/>
+      <c r="P62" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="Q62" s="4" t="s">
         <v>22</v>
       </c>
@@ -4990,9 +5000,11 @@
         <v>10.2</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P63" s="5"/>
+        <v>9.3</v>
+      </c>
+      <c r="P63" s="6" t="n">
+        <v>8.1</v>
+      </c>
       <c r="Q63" s="4" t="s">
         <v>22</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1663,7 +1663,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 10-08-2021, 12:23</t>
+    <t>Last update: 24-08-2021, 09:56</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2211,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23168,7 +23168,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="549">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -1237,7 +1237,7 @@
     <t>Wroclaw Agglomeration</t>
   </si>
   <si>
-    <t>PM 2.5 - by agglomeration</t>
+    <t xml:space="preserve"> PM 2.5 - by agglomeration</t>
   </si>
   <si>
     <t>11.a.1 Proportion of population living in gminas that have valid local spatial development plans or valid study of local spatial planning directions and determinants, by type of gminas - PROXY!</t>
@@ -1306,7 +1306,7 @@
     <t>12.6.1 The number of the signatories of the Partnership for the Implementation of the SDGs in Poland - PROXY!</t>
   </si>
   <si>
-    <t>the Ministry of Economic Development, Labour and Technology</t>
+    <t>the Ministry of Economic Development and Technology</t>
   </si>
   <si>
     <t>12.7.1 Number of countries implementing sustainable public procurement policies and action plans</t>
@@ -1636,9 +1636,6 @@
     <t>17.14.1 Number of countries with mechanisms in place to enhance policy coherence of sustainable development</t>
   </si>
   <si>
-    <t>the Ministry of Economic Development and Technology</t>
-  </si>
-  <si>
     <t>17.18.2 Number of countries that have national statistical legislation that complies with the Fundamental Principles of Official Statistics</t>
   </si>
   <si>
@@ -1672,7 +1669,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 07-09-2021, 13:39</t>
+    <t>Last update: 21-09-2021, 08:24</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2221,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22900,7 +22897,7 @@
       </c>
       <c r="Q443" s="3"/>
       <c r="R443" s="2" t="s">
-        <v>537</v>
+        <v>427</v>
       </c>
     </row>
     <row r="444" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -22908,7 +22905,7 @@
         <v>510</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>21</v>
@@ -22962,7 +22959,7 @@
         <v>510</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>21</v>
@@ -23016,7 +23013,7 @@
         <v>510</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>21</v>
@@ -23025,7 +23022,7 @@
         <v>22</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
@@ -23056,7 +23053,7 @@
       </c>
       <c r="Q446" s="3"/>
       <c r="R446" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="447" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -23064,13 +23061,13 @@
         <v>510</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="D447" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>176</v>
@@ -23092,7 +23089,7 @@
         <v>1</v>
       </c>
       <c r="R447" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="448" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -23100,13 +23097,13 @@
         <v>510</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="D448" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>176</v>
@@ -23148,7 +23145,7 @@
         <v>1</v>
       </c>
       <c r="R448" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="449" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -23156,13 +23153,13 @@
         <v>510</v>
       </c>
       <c r="B449" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="D449" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>176</v>
@@ -23204,13 +23201,13 @@
         <v>1</v>
       </c>
       <c r="R449" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="450" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B451" s="10"/>
     </row>
@@ -23225,7 +23222,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1669,7 +1669,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 12-10-2021, 14:03</t>
+    <t>Last update: 19-10-2021, 08:27</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2221,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23222,7 +23222,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1447,7 +1447,7 @@
     <t>15.b.1 Official development assistance and public expenditure on conservation and sustainable use of biodiversity and ecosystems</t>
   </si>
   <si>
-    <t>15.c.1 Proportion of traded wildlife that was poached or illicitly trafficked</t>
+    <t>15.c.1 The number of CITES individuals detained by custom officers</t>
   </si>
   <si>
     <t>Goal 16. Peace, justice and strong institutions</t>
@@ -1669,7 +1669,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 09-11-2021, 11:05</t>
+    <t>Last update: 24-11-2021, 11:15</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2221,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20718,7 +20718,7 @@
         <v>22</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F393" s="7">
         <v>8495</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="Q393" s="3"/>
       <c r="R393" s="2" t="s">
-        <v>21</v>
+        <v>470</v>
       </c>
     </row>
     <row r="394" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -21472,7 +21472,9 @@
       <c r="O409" s="7">
         <v>9367</v>
       </c>
-      <c r="P409" s="3"/>
+      <c r="P409" s="7">
+        <v>10438</v>
+      </c>
       <c r="Q409" s="3"/>
       <c r="R409" s="2" t="s">
         <v>497</v>
@@ -23414,7 +23416,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1669,7 +1669,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 24-11-2021, 11:15</t>
+    <t>Last update: 07-12-2021, 09:35</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2221,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2400,9 @@
       <c r="O5" s="4">
         <v>15.4</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="4">
+        <v>14.8</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
         <v>24</v>
@@ -2452,7 +2454,9 @@
       <c r="O6" s="4">
         <v>11.1</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="2" t="s">
         <v>24</v>
@@ -2504,7 +2508,9 @@
       <c r="O7" s="4">
         <v>21.9</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="4">
+        <v>21.9</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2" t="s">
         <v>24</v>
@@ -2556,7 +2562,9 @@
       <c r="O8" s="4">
         <v>15</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="4">
+        <v>13.9</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="2" t="s">
         <v>24</v>
@@ -2608,7 +2616,9 @@
       <c r="O9" s="4">
         <v>15.8</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="4">
+        <v>15.7</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
         <v>24</v>
@@ -2660,7 +2670,9 @@
       <c r="O10" s="4">
         <v>12.5</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="4">
+        <v>12.1</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="2" t="s">
         <v>24</v>
@@ -2712,7 +2724,9 @@
       <c r="O11" s="4">
         <v>13.4</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="4">
+        <v>13.5</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="2" t="s">
         <v>24</v>
@@ -2764,7 +2778,9 @@
       <c r="O12" s="4">
         <v>22.1</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="4">
+        <v>19.5</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="2" t="s">
         <v>24</v>
@@ -2816,7 +2832,9 @@
       <c r="O13" s="4">
         <v>15.5</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="4">
+        <v>14.2</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="2" t="s">
         <v>24</v>
@@ -2866,9 +2884,11 @@
         <v>16.2</v>
       </c>
       <c r="O14" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="P14" s="3"/>
+        <v>17.7</v>
+      </c>
+      <c r="P14" s="4">
+        <v>18.3</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="2" t="s">
         <v>24</v>
@@ -2918,9 +2938,11 @@
         <v>15.5</v>
       </c>
       <c r="O15" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P15" s="4">
+        <v>18.2</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="2" t="s">
         <v>24</v>
@@ -3214,7 +3236,9 @@
       <c r="O21" s="4">
         <v>97</v>
       </c>
-      <c r="P21" s="3"/>
+      <c r="P21" s="4">
+        <v>97.6</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="2" t="s">
         <v>24</v>
@@ -23416,7 +23440,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -178,7 +178,7 @@
     <t>by adoption and implementation of the national strategy</t>
   </si>
   <si>
-    <t>number</t>
+    <t>(0,1)</t>
   </si>
   <si>
     <t>Government Centre for Security (RCB)</t>
@@ -1693,7 +1693,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 18-01-2022, 08:15</t>
+    <t>Last update: 18-01-2022, 12:29</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2244,7 @@
   <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -2372,7 +2372,9 @@
       <c r="O4" s="4">
         <v>0.4</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="4">
+        <v>0.2</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="2" t="s">
         <v>24</v>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1702,7 +1702,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 15-03-2022, 09:57</t>
+    <t>Last update: 12-04-2022, 07:58</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="SDGs_1-17" sheetId="1" r:id="rId1"/>
@@ -2253,33 +2253,33 @@
   <dimension ref="A1:R457"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
@@ -4471,15 +4471,17 @@
         <v>0.48</v>
       </c>
       <c r="O45" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="P45" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.45</v>
+      </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>65</v>
       </c>
@@ -4527,7 +4529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4687,7 +4689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4795,7 +4797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4903,7 +4905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5115,7 +5117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5167,7 +5169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5271,7 +5273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5575,7 +5577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5967,7 +5969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6209,7 +6211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>150</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>150</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>150</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>150</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>150</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
@@ -6635,7 +6637,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>150</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>150</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>150</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>150</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>150</v>
       </c>
@@ -6859,7 +6861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>150</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>150</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>150</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>150</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>150</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>150</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>150</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>150</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>150</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>150</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>150</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>150</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>150</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>150</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>150</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>150</v>
       </c>
@@ -7549,7 +7551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>150</v>
       </c>
@@ -7587,7 +7589,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>150</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>150</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>150</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>150</v>
       </c>
@@ -7747,7 +7749,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>150</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>150</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>150</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
@@ -7917,7 +7919,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>150</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -7985,7 +7987,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>150</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>150</v>
       </c>
@@ -8053,7 +8055,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>150</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>150</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>150</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>150</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>150</v>
       </c>
@@ -8279,7 +8281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>150</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>150</v>
       </c>
@@ -8403,7 +8405,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>150</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>150</v>
       </c>
@@ -8515,7 +8517,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>150</v>
       </c>
@@ -8571,7 +8573,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>150</v>
       </c>
@@ -8619,7 +8621,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>150</v>
       </c>
@@ -8673,7 +8675,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>150</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>150</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
@@ -8835,7 +8837,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>206</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>206</v>
       </c>
@@ -8923,7 +8925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>206</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>206</v>
       </c>
@@ -8991,7 +8993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>206</v>
       </c>
@@ -9025,7 +9027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>206</v>
       </c>
@@ -9059,7 +9061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>206</v>
       </c>
@@ -9093,7 +9095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>206</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>206</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>206</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>206</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>206</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>206</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>206</v>
       </c>
@@ -9331,7 +9333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>206</v>
       </c>
@@ -9365,7 +9367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>206</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>206</v>
       </c>
@@ -9441,7 +9443,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>206</v>
       </c>
@@ -9493,7 +9495,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>206</v>
       </c>
@@ -9545,7 +9547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>206</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>206</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>206</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>206</v>
       </c>
@@ -9745,7 +9747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>206</v>
       </c>
@@ -9789,7 +9791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>206</v>
       </c>
@@ -9833,7 +9835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>206</v>
       </c>
@@ -9877,7 +9879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>206</v>
       </c>
@@ -9921,7 +9923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>206</v>
       </c>
@@ -9965,7 +9967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>206</v>
       </c>
@@ -10009,7 +10011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>206</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>206</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>206</v>
       </c>
@@ -10123,7 +10125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>206</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>206</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>206</v>
       </c>
@@ -10237,7 +10239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>206</v>
       </c>
@@ -10275,7 +10277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -10313,7 +10315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>206</v>
       </c>
@@ -10351,7 +10353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>206</v>
       </c>
@@ -10389,7 +10391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>206</v>
       </c>
@@ -10427,7 +10429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>206</v>
       </c>
@@ -10465,7 +10467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>206</v>
       </c>
@@ -10505,7 +10507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -10555,7 +10557,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>246</v>
       </c>
@@ -10659,7 +10661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>246</v>
       </c>
@@ -10713,7 +10715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>246</v>
       </c>
@@ -10767,7 +10769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>246</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>246</v>
       </c>
@@ -10835,7 +10837,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>246</v>
       </c>
@@ -10887,7 +10889,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>246</v>
       </c>
@@ -10937,7 +10939,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>246</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>246</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>246</v>
       </c>
@@ -11083,7 +11085,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>246</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>267</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>267</v>
       </c>
@@ -11223,7 +11225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>267</v>
       </c>
@@ -11275,7 +11277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>267</v>
       </c>
@@ -11323,7 +11325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>273</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>273</v>
       </c>
@@ -11431,7 +11433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>273</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>273</v>
       </c>
@@ -11507,7 +11509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>273</v>
       </c>
@@ -11545,7 +11547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>273</v>
       </c>
@@ -11599,7 +11601,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>273</v>
       </c>
@@ -11653,7 +11655,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>273</v>
       </c>
@@ -11707,7 +11709,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>273</v>
       </c>
@@ -11749,7 +11751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>273</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>273</v>
       </c>
@@ -11833,7 +11835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>273</v>
       </c>
@@ -11875,7 +11877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>273</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>273</v>
       </c>
@@ -11959,7 +11961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>273</v>
       </c>
@@ -12001,7 +12003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>273</v>
       </c>
@@ -12043,7 +12045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>273</v>
       </c>
@@ -12085,7 +12087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>273</v>
       </c>
@@ -12127,7 +12129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>273</v>
       </c>
@@ -12169,7 +12171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>273</v>
       </c>
@@ -12211,7 +12213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>273</v>
       </c>
@@ -12253,7 +12255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>273</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>273</v>
       </c>
@@ -12337,7 +12339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>273</v>
       </c>
@@ -12379,7 +12381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>273</v>
       </c>
@@ -12421,7 +12423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>273</v>
       </c>
@@ -12463,7 +12465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>273</v>
       </c>
@@ -12505,7 +12507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>273</v>
       </c>
@@ -12559,7 +12561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>273</v>
       </c>
@@ -12613,7 +12615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>273</v>
       </c>
@@ -12667,7 +12669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>273</v>
       </c>
@@ -12721,7 +12723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>273</v>
       </c>
@@ -12775,7 +12777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>273</v>
       </c>
@@ -12829,7 +12831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>273</v>
       </c>
@@ -12883,7 +12885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>273</v>
       </c>
@@ -12937,7 +12939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>273</v>
       </c>
@@ -12991,7 +12993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>273</v>
       </c>
@@ -13045,7 +13047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>273</v>
       </c>
@@ -13099,7 +13101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>273</v>
       </c>
@@ -13153,7 +13155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>273</v>
       </c>
@@ -13193,7 +13195,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>273</v>
       </c>
@@ -13233,7 +13235,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>273</v>
       </c>
@@ -13273,7 +13275,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>273</v>
       </c>
@@ -13327,7 +13329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>273</v>
       </c>
@@ -13381,7 +13383,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>273</v>
       </c>
@@ -13415,7 +13417,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>273</v>
       </c>
@@ -13449,7 +13451,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>273</v>
       </c>
@@ -13483,7 +13485,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>273</v>
       </c>
@@ -13517,7 +13519,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>273</v>
       </c>
@@ -13551,7 +13553,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>273</v>
       </c>
@@ -13585,7 +13587,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>273</v>
       </c>
@@ -13619,7 +13621,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>273</v>
       </c>
@@ -13701,7 +13703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>318</v>
       </c>
@@ -13755,7 +13757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>318</v>
       </c>
@@ -13809,7 +13811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>318</v>
       </c>
@@ -13863,7 +13865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>318</v>
       </c>
@@ -13917,7 +13919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>318</v>
       </c>
@@ -13971,7 +13973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>318</v>
       </c>
@@ -14025,7 +14027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>318</v>
       </c>
@@ -14079,7 +14081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>318</v>
       </c>
@@ -14133,7 +14135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>318</v>
       </c>
@@ -14187,7 +14189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>318</v>
       </c>
@@ -14241,7 +14243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>318</v>
       </c>
@@ -14295,7 +14297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>318</v>
       </c>
@@ -14349,7 +14351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14403,7 +14405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -14457,7 +14459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -14511,7 +14513,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -14565,7 +14567,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -14619,7 +14621,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -14673,7 +14675,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -14727,7 +14729,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -14781,7 +14783,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -14831,7 +14833,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -14885,7 +14887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -14939,7 +14941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -14987,7 +14989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15039,7 +15041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15085,7 +15087,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15131,7 +15133,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>350</v>
       </c>
@@ -15185,7 +15187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>350</v>
       </c>
@@ -15239,7 +15241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>350</v>
       </c>
@@ -15293,7 +15295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>350</v>
       </c>
@@ -15347,7 +15349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>350</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>350</v>
       </c>
@@ -15455,7 +15457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>350</v>
       </c>
@@ -15509,7 +15511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>350</v>
       </c>
@@ -15563,7 +15565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>350</v>
       </c>
@@ -15617,7 +15619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>350</v>
       </c>
@@ -15671,7 +15673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>350</v>
       </c>
@@ -15725,7 +15727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>350</v>
       </c>
@@ -15763,7 +15765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -15817,7 +15819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -15871,7 +15873,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -15925,7 +15927,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -15979,7 +15981,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16033,7 +16035,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16087,7 +16089,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16141,7 +16143,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16195,7 +16197,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16249,7 +16251,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -16303,7 +16305,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -16357,7 +16359,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -16465,7 +16467,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -16519,7 +16521,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -16573,7 +16575,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -16627,7 +16629,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -16681,7 +16683,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -16735,7 +16737,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -16789,7 +16791,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -16843,7 +16845,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -16897,7 +16899,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -16951,7 +16953,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17005,7 +17007,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17059,7 +17061,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17113,7 +17115,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>391</v>
       </c>
@@ -17167,7 +17169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>391</v>
       </c>
@@ -17221,7 +17223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>391</v>
       </c>
@@ -17275,7 +17277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>391</v>
       </c>
@@ -17329,7 +17331,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>391</v>
       </c>
@@ -17383,7 +17385,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>391</v>
       </c>
@@ -17437,7 +17439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>391</v>
       </c>
@@ -17491,7 +17493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>391</v>
       </c>
@@ -17545,7 +17547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>391</v>
       </c>
@@ -17599,7 +17601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>391</v>
       </c>
@@ -17653,7 +17655,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>391</v>
       </c>
@@ -17707,7 +17709,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>391</v>
       </c>
@@ -17761,7 +17763,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -17815,7 +17817,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -17869,7 +17871,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -17923,7 +17925,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -17977,7 +17979,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18031,7 +18033,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18085,7 +18087,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18139,7 +18141,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18193,7 +18195,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -18247,7 +18249,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -18301,7 +18303,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -18355,7 +18357,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -18409,7 +18411,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -18463,7 +18465,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -18517,7 +18519,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -18571,7 +18573,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -18623,7 +18625,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -18677,7 +18679,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -18731,7 +18733,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -18785,7 +18787,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -18839,7 +18841,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -18893,7 +18895,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="352" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -18947,7 +18949,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19001,7 +19003,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19055,7 +19057,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19109,7 +19111,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -19163,7 +19165,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -19217,7 +19219,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -19271,7 +19273,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -19325,7 +19327,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>424</v>
       </c>
@@ -19379,7 +19381,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>424</v>
       </c>
@@ -19433,7 +19435,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>424</v>
       </c>
@@ -19487,7 +19489,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>424</v>
       </c>
@@ -19541,7 +19543,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>424</v>
       </c>
@@ -19583,7 +19585,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>424</v>
       </c>
@@ -19625,7 +19627,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>424</v>
       </c>
@@ -19667,7 +19669,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>424</v>
       </c>
@@ -19717,7 +19719,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>424</v>
       </c>
@@ -19757,7 +19759,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="369" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>424</v>
       </c>
@@ -19813,7 +19815,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>424</v>
       </c>
@@ -19869,7 +19871,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>443</v>
       </c>
@@ -19923,7 +19925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>443</v>
       </c>
@@ -19977,7 +19979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="373" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>443</v>
       </c>
@@ -20033,7 +20035,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="374" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>443</v>
       </c>
@@ -20085,7 +20087,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="375" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>443</v>
       </c>
@@ -20141,7 +20143,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="376" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>443</v>
       </c>
@@ -20195,7 +20197,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="377" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>443</v>
       </c>
@@ -20243,7 +20245,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="378" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>455</v>
       </c>
@@ -20297,7 +20299,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="379" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>455</v>
       </c>
@@ -20351,7 +20353,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="380" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>455</v>
       </c>
@@ -20405,7 +20407,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="381" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>455</v>
       </c>
@@ -20459,7 +20461,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="382" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>455</v>
       </c>
@@ -20513,7 +20515,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>465</v>
       </c>
@@ -20567,7 +20569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>465</v>
       </c>
@@ -20621,7 +20623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>465</v>
       </c>
@@ -20675,7 +20677,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="386" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>465</v>
       </c>
@@ -20711,7 +20713,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="387" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>465</v>
       </c>
@@ -20743,7 +20745,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="388" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>465</v>
       </c>
@@ -20775,7 +20777,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="389" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>465</v>
       </c>
@@ -20807,7 +20809,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="390" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>465</v>
       </c>
@@ -20843,7 +20845,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="391" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>465</v>
       </c>
@@ -20879,7 +20881,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="392" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>465</v>
       </c>
@@ -20915,7 +20917,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>465</v>
       </c>
@@ -20971,7 +20973,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="394" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>465</v>
       </c>
@@ -21025,7 +21027,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="395" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>465</v>
       </c>
@@ -21081,7 +21083,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>465</v>
       </c>
@@ -21129,7 +21131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="397" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>465</v>
       </c>
@@ -21177,7 +21179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="398" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>465</v>
       </c>
@@ -21231,7 +21233,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="399" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>486</v>
       </c>
@@ -21283,7 +21285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>486</v>
       </c>
@@ -21339,7 +21341,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="401" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>486</v>
       </c>
@@ -21381,7 +21383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>486</v>
       </c>
@@ -21431,7 +21433,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="403" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>486</v>
       </c>
@@ -21473,7 +21475,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="404" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>486</v>
       </c>
@@ -21515,7 +21517,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="405" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>486</v>
       </c>
@@ -21557,7 +21559,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="406" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>486</v>
       </c>
@@ -21599,7 +21601,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="407" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>486</v>
       </c>
@@ -21641,7 +21643,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="408" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>486</v>
       </c>
@@ -21683,7 +21685,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="409" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>486</v>
       </c>
@@ -21725,7 +21727,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="410" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>486</v>
       </c>
@@ -21767,7 +21769,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="411" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>486</v>
       </c>
@@ -21809,7 +21811,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="412" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>486</v>
       </c>
@@ -21851,7 +21853,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="413" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>486</v>
       </c>
@@ -21905,7 +21907,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="414" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>486</v>
       </c>
@@ -21959,7 +21961,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="415" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>486</v>
       </c>
@@ -21997,7 +21999,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="416" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>486</v>
       </c>
@@ -22035,7 +22037,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="417" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>486</v>
       </c>
@@ -22073,7 +22075,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="418" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>486</v>
       </c>
@@ -22111,7 +22113,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="419" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>486</v>
       </c>
@@ -22149,7 +22151,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="420" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>486</v>
       </c>
@@ -22187,7 +22189,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="421" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>486</v>
       </c>
@@ -22225,7 +22227,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="422" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>486</v>
       </c>
@@ -22263,7 +22265,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="423" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>486</v>
       </c>
@@ -22301,7 +22303,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="424" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>486</v>
       </c>
@@ -22339,7 +22341,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="425" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>486</v>
       </c>
@@ -22377,7 +22379,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="426" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>486</v>
       </c>
@@ -22415,7 +22417,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="427" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>486</v>
       </c>
@@ -22469,7 +22471,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="428" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>486</v>
       </c>
@@ -22507,7 +22509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="429" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>521</v>
       </c>
@@ -22561,7 +22563,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="430" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>521</v>
       </c>
@@ -22615,7 +22617,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="431" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>521</v>
       </c>
@@ -22669,7 +22671,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="432" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>521</v>
       </c>
@@ -22723,7 +22725,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="433" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>521</v>
       </c>
@@ -22777,7 +22779,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="434" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>521</v>
       </c>
@@ -22831,7 +22833,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="435" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>521</v>
       </c>
@@ -22885,7 +22887,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="436" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>521</v>
       </c>
@@ -22939,7 +22941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="437" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>521</v>
       </c>
@@ -22993,7 +22995,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="438" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>521</v>
       </c>
@@ -23047,7 +23049,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="439" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>521</v>
       </c>
@@ -23101,7 +23103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>521</v>
       </c>
@@ -23155,7 +23157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="441" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>521</v>
       </c>
@@ -23209,7 +23211,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="442" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>521</v>
       </c>
@@ -23263,7 +23265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>521</v>
       </c>
@@ -23319,7 +23321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>521</v>
       </c>
@@ -23375,7 +23377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="445" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>521</v>
       </c>
@@ -23431,7 +23433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>521</v>
       </c>
@@ -23485,7 +23487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>521</v>
       </c>
@@ -23539,7 +23541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>521</v>
       </c>
@@ -23579,7 +23581,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="449" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>521</v>
       </c>
@@ -23635,7 +23637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>521</v>
       </c>
@@ -23691,7 +23693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="451" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>521</v>
       </c>
@@ -23739,7 +23741,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="452" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>521</v>
       </c>
@@ -23775,7 +23777,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="453" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>521</v>
       </c>
@@ -23831,7 +23833,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="454" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>521</v>
       </c>
@@ -23887,9 +23889,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="455" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="12" t="s">
         <v>559</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'SDGs_1-17'!$1:$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'SDGs_1-17'!$A$3:$B$454</definedName>
-    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">'SDGs_1-17'!$A$3:$B$454</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'SDGs_1-17'!$A$3:$B$453</definedName>
+    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">'SDGs_1-17'!$A$3:$B$453</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Titles" vbProcedure="false">'SDGs_1-17'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm_Print_Titles" vbProcedure="false">'SDGs_1-17'!$1:$2</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="557">
   <si>
     <t xml:space="preserve">sdg.gov.pl/en</t>
   </si>
@@ -1382,12 +1382,6 @@
     <t xml:space="preserve">{ 0 , 1 } </t>
   </si>
   <si>
-    <t xml:space="preserve">13.3.2 Number of countries that have communicated the strengthening of institutional, systemic and individual capacity building to implement adaptation, mitigation and technology transfer, and development actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the Ministry of Climate and Environment / Chief Inspectorate of Enviornmental  Protection</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.a.1 Official Development Assistance for climate change mitigation and adaptation - PROXY!</t>
   </si>
   <si>
@@ -1703,7 +1697,7 @@
     <t xml:space="preserve">100% deaths registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 26-04-2022, 08:38</t>
+    <t xml:space="preserve">Last update: 27-04-2022, 13:55</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2017,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R457"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -19292,10 +19286,10 @@
         <v>50</v>
       </c>
       <c r="M364" s="5"/>
-      <c r="N364" s="5"/>
-      <c r="O364" s="8" t="n">
+      <c r="N364" s="8" t="n">
         <v>100</v>
       </c>
+      <c r="O364" s="5"/>
       <c r="P364" s="5"/>
       <c r="Q364" s="5"/>
       <c r="R364" s="4" t="s">
@@ -19332,10 +19326,10 @@
         <v>49</v>
       </c>
       <c r="M365" s="5"/>
-      <c r="N365" s="5"/>
-      <c r="O365" s="8" t="n">
+      <c r="N365" s="8" t="n">
         <v>46</v>
       </c>
+      <c r="O365" s="5"/>
       <c r="P365" s="5"/>
       <c r="Q365" s="5"/>
       <c r="R365" s="4" t="s">
@@ -19372,10 +19366,10 @@
         <v>24</v>
       </c>
       <c r="M366" s="5"/>
-      <c r="N366" s="5"/>
-      <c r="O366" s="8" t="n">
+      <c r="N366" s="8" t="n">
         <v>12</v>
       </c>
+      <c r="O366" s="5"/>
       <c r="P366" s="5"/>
       <c r="Q366" s="5"/>
       <c r="R366" s="4" t="s">
@@ -19856,101 +19850,103 @@
         <v>21</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P376" s="8" t="n">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="7" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="J376" s="7" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K376" s="7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L376" s="7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M376" s="7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N376" s="7" t="n">
+        <v>63.36</v>
+      </c>
+      <c r="O376" s="7" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="P376" s="7" t="n">
+        <v>6.64</v>
       </c>
       <c r="Q376" s="5"/>
       <c r="R376" s="4" t="s">
-        <v>452</v>
+        <v>93</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C377" s="4"/>
+      <c r="C377" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="D377" s="5" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F377" s="5"/>
-      <c r="G377" s="5"/>
-      <c r="H377" s="5"/>
-      <c r="I377" s="7" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J377" s="7" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="K377" s="7" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L377" s="7" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="M377" s="7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N377" s="7" t="n">
-        <v>63.36</v>
-      </c>
-      <c r="O377" s="7" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="P377" s="7" t="n">
-        <v>6.64</v>
+        <v>22</v>
+      </c>
+      <c r="F377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="G377" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="K377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="L377" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="M377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="N377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="O377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P377" s="8" t="n">
+        <v>60</v>
       </c>
       <c r="Q377" s="5"/>
       <c r="R377" s="4" t="s">
-        <v>93</v>
+        <v>456</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C378" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>457</v>
@@ -19965,13 +19961,13 @@
         <v>60</v>
       </c>
       <c r="H378" s="8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I378" s="8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J378" s="8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K378" s="8" t="n">
         <v>40</v>
@@ -19983,40 +19979,40 @@
         <v>40</v>
       </c>
       <c r="N378" s="8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O378" s="8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P378" s="8" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Q378" s="5"/>
       <c r="R378" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C379" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B379" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="D379" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E379" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F379" s="8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G379" s="8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H379" s="8" t="n">
         <v>20</v>
@@ -20028,142 +20024,140 @@
         <v>20</v>
       </c>
       <c r="K379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" s="8" t="n">
         <v>40</v>
-      </c>
-      <c r="L379" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="M379" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="N379" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O379" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="P379" s="8" t="n">
-        <v>20</v>
       </c>
       <c r="Q379" s="5"/>
       <c r="R379" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C380" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B380" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="D380" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F380" s="8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G380" s="8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H380" s="8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I380" s="8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J380" s="8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K380" s="8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L380" s="8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M380" s="8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N380" s="8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O380" s="8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P380" s="8" t="n">
         <v>40</v>
       </c>
       <c r="Q380" s="5"/>
       <c r="R380" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>456</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C381" s="4"/>
       <c r="D381" s="5" t="s">
-        <v>461</v>
+        <v>21</v>
       </c>
       <c r="E381" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="G381" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="H381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="J381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="K381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="L381" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="N381" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="O381" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="P381" s="8" t="n">
-        <v>40</v>
+      <c r="F381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M381" s="7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N381" s="7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O381" s="7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P381" s="7" t="n">
+        <v>1.58</v>
       </c>
       <c r="Q381" s="5"/>
       <c r="R381" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="5" t="s">
@@ -20172,50 +20166,50 @@
       <c r="E382" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M382" s="7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="N382" s="7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O382" s="7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P382" s="7" t="n">
-        <v>1.58</v>
+      <c r="F382" s="6" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G382" s="6" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H382" s="6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I382" s="6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J382" s="6" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K382" s="6" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L382" s="6" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="M382" s="6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="N382" s="6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="O382" s="6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="P382" s="6" t="n">
+        <v>30.9</v>
       </c>
       <c r="Q382" s="5"/>
       <c r="R382" s="4" t="s">
-        <v>463</v>
+        <v>23</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B383" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="5" t="s">
@@ -20225,37 +20219,37 @@
         <v>22</v>
       </c>
       <c r="F383" s="6" t="n">
-        <v>30.5</v>
+        <v>92.6</v>
       </c>
       <c r="G383" s="6" t="n">
-        <v>30.5</v>
+        <v>93.1</v>
       </c>
       <c r="H383" s="6" t="n">
-        <v>30.6</v>
+        <v>93.6</v>
       </c>
       <c r="I383" s="6" t="n">
-        <v>30.6</v>
+        <v>93.8</v>
       </c>
       <c r="J383" s="6" t="n">
-        <v>30.7</v>
+        <v>94.3</v>
       </c>
       <c r="K383" s="6" t="n">
-        <v>30.8</v>
+        <v>94.8</v>
       </c>
       <c r="L383" s="6" t="n">
-        <v>30.8</v>
+        <v>95.5</v>
       </c>
       <c r="M383" s="6" t="n">
-        <v>30.9</v>
+        <v>95.9</v>
       </c>
       <c r="N383" s="6" t="n">
-        <v>30.9</v>
+        <v>96.3</v>
       </c>
       <c r="O383" s="6" t="n">
-        <v>30.9</v>
+        <v>96.6</v>
       </c>
       <c r="P383" s="6" t="n">
-        <v>30.9</v>
+        <v>97.1</v>
       </c>
       <c r="Q383" s="5"/>
       <c r="R383" s="4" t="s">
@@ -20264,10 +20258,10 @@
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="5" t="s">
@@ -20276,108 +20270,92 @@
       <c r="E384" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F384" s="6" t="n">
-        <v>92.6</v>
-      </c>
-      <c r="G384" s="6" t="n">
-        <v>93.1</v>
-      </c>
-      <c r="H384" s="6" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="I384" s="6" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="J384" s="6" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="K384" s="6" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="L384" s="6" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M384" s="6" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="N384" s="6" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="O384" s="6" t="n">
-        <v>96.6</v>
-      </c>
-      <c r="P384" s="6" t="n">
-        <v>97.1</v>
+      <c r="F384" s="10" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="G384" s="10" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H384" s="10" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="I384" s="10" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="J384" s="10" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K384" s="10" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="L384" s="10" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="M384" s="10" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="N384" s="10" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="O384" s="10" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="P384" s="10" t="n">
+        <v>0.2</v>
       </c>
       <c r="Q384" s="5"/>
       <c r="R384" s="4" t="s">
-        <v>23</v>
+        <v>466</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C385" s="4"/>
+      <c r="C385" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="D385" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E385" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F385" s="10" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="G385" s="10" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="H385" s="10" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="I385" s="10" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="J385" s="10" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="K385" s="10" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="L385" s="10" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="M385" s="10" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="N385" s="10" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="O385" s="10" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="P385" s="10" t="n">
-        <v>0.2</v>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+      <c r="L385" s="5"/>
+      <c r="M385" s="5"/>
+      <c r="N385" s="5"/>
+      <c r="O385" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="P385" s="6" t="n">
+        <v>95.4</v>
       </c>
       <c r="Q385" s="5"/>
       <c r="R385" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C386" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D386" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="D386" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>22</v>
@@ -20391,29 +20369,25 @@
       <c r="L386" s="5"/>
       <c r="M386" s="5"/>
       <c r="N386" s="5"/>
-      <c r="O386" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="P386" s="6" t="n">
-        <v>95.4</v>
-      </c>
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
       <c r="Q386" s="5"/>
       <c r="R386" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>22</v>
@@ -20431,21 +20405,21 @@
       <c r="P387" s="5"/>
       <c r="Q387" s="5"/>
       <c r="R387" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>22</v>
@@ -20463,21 +20437,21 @@
       <c r="P388" s="5"/>
       <c r="Q388" s="5"/>
       <c r="R388" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>22</v>
@@ -20491,25 +20465,29 @@
       <c r="L389" s="5"/>
       <c r="M389" s="5"/>
       <c r="N389" s="5"/>
-      <c r="O389" s="5"/>
-      <c r="P389" s="5"/>
+      <c r="O389" s="6" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="P389" s="6" t="n">
+        <v>67.1</v>
+      </c>
       <c r="Q389" s="5"/>
       <c r="R389" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>22</v>
@@ -20524,28 +20502,28 @@
       <c r="M390" s="5"/>
       <c r="N390" s="5"/>
       <c r="O390" s="6" t="n">
-        <v>67.1</v>
+        <v>99.2</v>
       </c>
       <c r="P390" s="6" t="n">
-        <v>67.1</v>
+        <v>99.4</v>
       </c>
       <c r="Q390" s="5"/>
       <c r="R390" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>22</v>
@@ -20560,109 +20538,125 @@
       <c r="M391" s="5"/>
       <c r="N391" s="5"/>
       <c r="O391" s="6" t="n">
-        <v>99.2</v>
+        <v>95.3</v>
       </c>
       <c r="P391" s="6" t="n">
-        <v>99.4</v>
+        <v>95.4</v>
       </c>
       <c r="Q391" s="5"/>
       <c r="R391" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>470</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C392" s="4"/>
       <c r="D392" s="5" t="s">
-        <v>477</v>
+        <v>21</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F392" s="5"/>
-      <c r="G392" s="5"/>
-      <c r="H392" s="5"/>
-      <c r="I392" s="5"/>
-      <c r="J392" s="5"/>
-      <c r="K392" s="5"/>
-      <c r="L392" s="5"/>
-      <c r="M392" s="5"/>
-      <c r="N392" s="5"/>
-      <c r="O392" s="6" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="P392" s="6" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="Q392" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="F392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q392" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R392" s="4" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="F393" s="8" t="n">
-        <v>0</v>
+        <v>8495</v>
       </c>
       <c r="G393" s="8" t="n">
-        <v>0</v>
+        <v>12833</v>
       </c>
       <c r="H393" s="8" t="n">
-        <v>0</v>
+        <v>8650</v>
       </c>
       <c r="I393" s="8" t="n">
-        <v>0</v>
+        <v>10632</v>
       </c>
       <c r="J393" s="8" t="n">
-        <v>0</v>
+        <v>3303</v>
       </c>
       <c r="K393" s="8" t="n">
-        <v>0</v>
+        <v>10677</v>
       </c>
       <c r="L393" s="8" t="n">
-        <v>0</v>
+        <v>8582</v>
       </c>
       <c r="M393" s="8" t="n">
-        <v>1</v>
+        <v>3597</v>
       </c>
       <c r="N393" s="8" t="n">
-        <v>1</v>
+        <v>13811</v>
       </c>
       <c r="O393" s="8" t="n">
-        <v>1</v>
+        <v>368631</v>
       </c>
       <c r="P393" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q393" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>20950</v>
+      </c>
+      <c r="Q393" s="5"/>
       <c r="R393" s="4" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>479</v>
@@ -20672,106 +20666,100 @@
         <v>21</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="F394" s="8" t="n">
-        <v>8495</v>
+        <v>0</v>
       </c>
       <c r="G394" s="8" t="n">
-        <v>12833</v>
+        <v>1</v>
       </c>
       <c r="H394" s="8" t="n">
-        <v>8650</v>
+        <v>1</v>
       </c>
       <c r="I394" s="8" t="n">
-        <v>10632</v>
+        <v>1</v>
       </c>
       <c r="J394" s="8" t="n">
-        <v>3303</v>
+        <v>1</v>
       </c>
       <c r="K394" s="8" t="n">
-        <v>10677</v>
+        <v>1</v>
       </c>
       <c r="L394" s="8" t="n">
-        <v>8582</v>
+        <v>1</v>
       </c>
       <c r="M394" s="8" t="n">
-        <v>3597</v>
+        <v>1</v>
       </c>
       <c r="N394" s="8" t="n">
-        <v>13811</v>
+        <v>1</v>
       </c>
       <c r="O394" s="8" t="n">
-        <v>368631</v>
+        <v>1</v>
       </c>
       <c r="P394" s="8" t="n">
-        <v>20950</v>
-      </c>
-      <c r="Q394" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q394" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R394" s="4" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F395" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q395" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="7" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J395" s="7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K395" s="7" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L395" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M395" s="7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N395" s="7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O395" s="7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P395" s="7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q395" s="5"/>
       <c r="R395" s="4" t="s">
-        <v>445</v>
+        <v>93</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="5" t="s">
@@ -20814,53 +20802,59 @@
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F397" s="5"/>
-      <c r="G397" s="5"/>
-      <c r="H397" s="5"/>
-      <c r="I397" s="7" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J397" s="7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K397" s="7" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L397" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M397" s="7" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N397" s="7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O397" s="7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P397" s="7" t="n">
-        <v>1.22</v>
+        <v>75</v>
+      </c>
+      <c r="F397" s="8" t="n">
+        <v>8495</v>
+      </c>
+      <c r="G397" s="8" t="n">
+        <v>12833</v>
+      </c>
+      <c r="H397" s="8" t="n">
+        <v>8650</v>
+      </c>
+      <c r="I397" s="8" t="n">
+        <v>10632</v>
+      </c>
+      <c r="J397" s="8" t="n">
+        <v>3303</v>
+      </c>
+      <c r="K397" s="8" t="n">
+        <v>10677</v>
+      </c>
+      <c r="L397" s="8" t="n">
+        <v>8582</v>
+      </c>
+      <c r="M397" s="8" t="n">
+        <v>3597</v>
+      </c>
+      <c r="N397" s="8" t="n">
+        <v>13811</v>
+      </c>
+      <c r="O397" s="8" t="n">
+        <v>368631</v>
+      </c>
+      <c r="P397" s="8" t="n">
+        <v>20950</v>
       </c>
       <c r="Q397" s="5"/>
       <c r="R397" s="4" t="s">
-        <v>93</v>
+        <v>478</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>484</v>
@@ -20870,52 +20864,52 @@
         <v>21</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F398" s="8" t="n">
-        <v>8495</v>
-      </c>
-      <c r="G398" s="8" t="n">
-        <v>12833</v>
-      </c>
-      <c r="H398" s="8" t="n">
-        <v>8650</v>
-      </c>
-      <c r="I398" s="8" t="n">
-        <v>10632</v>
-      </c>
-      <c r="J398" s="8" t="n">
-        <v>3303</v>
-      </c>
-      <c r="K398" s="8" t="n">
-        <v>10677</v>
-      </c>
-      <c r="L398" s="8" t="n">
-        <v>8582</v>
-      </c>
-      <c r="M398" s="8" t="n">
-        <v>3597</v>
-      </c>
-      <c r="N398" s="8" t="n">
-        <v>13811</v>
-      </c>
-      <c r="O398" s="8" t="n">
-        <v>368631</v>
-      </c>
-      <c r="P398" s="8" t="n">
-        <v>20950</v>
+        <v>45</v>
+      </c>
+      <c r="F398" s="7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G398" s="7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H398" s="7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I398" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J398" s="7" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K398" s="7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L398" s="7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M398" s="7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N398" s="7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O398" s="7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P398" s="7" t="n">
+        <v>0.57</v>
       </c>
       <c r="Q398" s="5"/>
       <c r="R398" s="4" t="s">
-        <v>480</v>
+        <v>23</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B399" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="5" t="s">
@@ -20924,45 +20918,49 @@
       <c r="E399" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F399" s="7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G399" s="7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H399" s="7" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="I399" s="7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J399" s="7" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K399" s="7" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L399" s="7" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="M399" s="7" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N399" s="7" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O399" s="7" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P399" s="5"/>
-      <c r="Q399" s="5"/>
+      <c r="F399" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G399" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J399" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="R399" s="4" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>487</v>
@@ -20972,151 +20970,139 @@
         <v>21</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F400" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G400" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="H400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J400" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O400" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q400" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="6" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="L400" s="6" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="M400" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="N400" s="6" t="n">
+        <v>92.1</v>
+      </c>
+      <c r="O400" s="6" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="P400" s="5"/>
+      <c r="Q400" s="5"/>
       <c r="R400" s="4" t="s">
-        <v>488</v>
+        <v>23</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
-      <c r="H401" s="5"/>
-      <c r="I401" s="5"/>
-      <c r="J401" s="5"/>
-      <c r="K401" s="6" t="n">
-        <v>90.6</v>
-      </c>
-      <c r="L401" s="6" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="M401" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="N401" s="6" t="n">
-        <v>92.1</v>
-      </c>
-      <c r="O401" s="6" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="P401" s="5"/>
+      <c r="H401" s="7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I401" s="7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J401" s="7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K401" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L401" s="7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M401" s="7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N401" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O401" s="7" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="P401" s="7" t="n">
+        <v>0.24</v>
+      </c>
       <c r="Q401" s="5"/>
       <c r="R401" s="4" t="s">
-        <v>23</v>
+        <v>489</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C402" s="4"/>
+      <c r="C402" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="D402" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
-      <c r="H402" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I402" s="7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J402" s="7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K402" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L402" s="7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M402" s="7" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N402" s="7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O402" s="7" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="P402" s="7" t="n">
-        <v>0.24</v>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5"/>
+      <c r="K402" s="5"/>
+      <c r="L402" s="8" t="n">
+        <v>1426</v>
+      </c>
+      <c r="M402" s="8" t="n">
+        <v>1421</v>
+      </c>
+      <c r="N402" s="8" t="n">
+        <v>1475</v>
+      </c>
+      <c r="O402" s="8" t="n">
+        <v>1603</v>
+      </c>
+      <c r="P402" s="8" t="n">
+        <v>1414</v>
       </c>
       <c r="Q402" s="5"/>
       <c r="R402" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B403" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E403" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D403" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E403" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
@@ -21125,40 +21111,40 @@
       <c r="J403" s="5"/>
       <c r="K403" s="5"/>
       <c r="L403" s="8" t="n">
-        <v>1426</v>
+        <v>212</v>
       </c>
       <c r="M403" s="8" t="n">
-        <v>1421</v>
+        <v>200</v>
       </c>
       <c r="N403" s="8" t="n">
-        <v>1475</v>
+        <v>204</v>
       </c>
       <c r="O403" s="8" t="n">
-        <v>1603</v>
+        <v>236</v>
       </c>
       <c r="P403" s="8" t="n">
-        <v>1414</v>
+        <v>196</v>
       </c>
       <c r="Q403" s="5"/>
       <c r="R403" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E404" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E404" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
@@ -21167,40 +21153,40 @@
       <c r="J404" s="5"/>
       <c r="K404" s="5"/>
       <c r="L404" s="8" t="n">
-        <v>212</v>
+        <v>1208</v>
       </c>
       <c r="M404" s="8" t="n">
-        <v>200</v>
+        <v>1197</v>
       </c>
       <c r="N404" s="8" t="n">
-        <v>204</v>
+        <v>1264</v>
       </c>
       <c r="O404" s="8" t="n">
-        <v>236</v>
+        <v>1359</v>
       </c>
       <c r="P404" s="8" t="n">
-        <v>196</v>
+        <v>1215</v>
       </c>
       <c r="Q404" s="5"/>
       <c r="R404" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B405" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E405" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C405" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D405" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="E405" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
@@ -21209,40 +21195,40 @@
       <c r="J405" s="5"/>
       <c r="K405" s="5"/>
       <c r="L405" s="8" t="n">
-        <v>1208</v>
+        <v>1036</v>
       </c>
       <c r="M405" s="8" t="n">
-        <v>1197</v>
+        <v>1211</v>
       </c>
       <c r="N405" s="8" t="n">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="O405" s="8" t="n">
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="P405" s="8" t="n">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="Q405" s="5"/>
       <c r="R405" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B406" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E406" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D406" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E406" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
@@ -21251,40 +21237,40 @@
       <c r="J406" s="5"/>
       <c r="K406" s="5"/>
       <c r="L406" s="8" t="n">
-        <v>1036</v>
+        <v>153</v>
       </c>
       <c r="M406" s="8" t="n">
-        <v>1211</v>
+        <v>167</v>
       </c>
       <c r="N406" s="8" t="n">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="O406" s="8" t="n">
-        <v>1379</v>
+        <v>196</v>
       </c>
       <c r="P406" s="8" t="n">
-        <v>1209</v>
+        <v>163</v>
       </c>
       <c r="Q406" s="5"/>
       <c r="R406" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B407" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E407" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D407" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E407" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
@@ -21293,40 +21279,40 @@
       <c r="J407" s="5"/>
       <c r="K407" s="5"/>
       <c r="L407" s="8" t="n">
-        <v>153</v>
+        <v>879</v>
       </c>
       <c r="M407" s="8" t="n">
-        <v>167</v>
+        <v>1021</v>
       </c>
       <c r="N407" s="8" t="n">
-        <v>186</v>
+        <v>1078</v>
       </c>
       <c r="O407" s="8" t="n">
-        <v>196</v>
+        <v>1175</v>
       </c>
       <c r="P407" s="8" t="n">
-        <v>163</v>
+        <v>1043</v>
       </c>
       <c r="Q407" s="5"/>
       <c r="R407" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
@@ -21335,40 +21321,40 @@
       <c r="J408" s="5"/>
       <c r="K408" s="5"/>
       <c r="L408" s="8" t="n">
-        <v>879</v>
+        <v>82</v>
       </c>
       <c r="M408" s="8" t="n">
-        <v>1021</v>
+        <v>116</v>
       </c>
       <c r="N408" s="8" t="n">
-        <v>1078</v>
+        <v>159</v>
       </c>
       <c r="O408" s="8" t="n">
-        <v>1175</v>
+        <v>110</v>
       </c>
       <c r="P408" s="8" t="n">
-        <v>1043</v>
+        <v>116</v>
       </c>
       <c r="Q408" s="5"/>
       <c r="R408" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E409" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D409" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E409" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
@@ -21377,40 +21363,40 @@
       <c r="J409" s="5"/>
       <c r="K409" s="5"/>
       <c r="L409" s="8" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="M409" s="8" t="n">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="N409" s="8" t="n">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="O409" s="8" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="P409" s="8" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="Q409" s="5"/>
       <c r="R409" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E410" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D410" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="E410" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
@@ -21419,40 +21405,40 @@
       <c r="J410" s="5"/>
       <c r="K410" s="5"/>
       <c r="L410" s="8" t="n">
-        <v>5</v>
+        <v>1277</v>
       </c>
       <c r="M410" s="8" t="n">
-        <v>2</v>
+        <v>1244</v>
       </c>
       <c r="N410" s="8" t="n">
-        <v>10</v>
+        <v>1259</v>
       </c>
       <c r="O410" s="8" t="n">
-        <v>4</v>
+        <v>1400</v>
       </c>
       <c r="P410" s="8" t="n">
-        <v>6</v>
+        <v>1235</v>
       </c>
       <c r="Q410" s="5"/>
       <c r="R410" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E411" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D411" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E411" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
@@ -21461,70 +21447,80 @@
       <c r="J411" s="5"/>
       <c r="K411" s="5"/>
       <c r="L411" s="8" t="n">
-        <v>1277</v>
+        <v>67</v>
       </c>
       <c r="M411" s="8" t="n">
-        <v>1244</v>
+        <v>61</v>
       </c>
       <c r="N411" s="8" t="n">
-        <v>1259</v>
+        <v>57</v>
       </c>
       <c r="O411" s="8" t="n">
-        <v>1400</v>
+        <v>93</v>
       </c>
       <c r="P411" s="8" t="n">
-        <v>1235</v>
+        <v>63</v>
       </c>
       <c r="Q411" s="5"/>
       <c r="R411" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>498</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C412" s="4"/>
       <c r="D412" s="5" t="s">
-        <v>502</v>
+        <v>21</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="8" t="n">
-        <v>67</v>
-      </c>
-      <c r="M412" s="8" t="n">
-        <v>61</v>
-      </c>
-      <c r="N412" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="O412" s="8" t="n">
-        <v>93</v>
-      </c>
-      <c r="P412" s="8" t="n">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="F412" s="6" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G412" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H412" s="6" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="I412" s="6" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="J412" s="6" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K412" s="6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L412" s="6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M412" s="6" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="N412" s="6" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O412" s="6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P412" s="6" t="n">
+        <v>12.8</v>
       </c>
       <c r="Q412" s="5"/>
       <c r="R412" s="4" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>503</v>
@@ -21534,557 +21530,559 @@
         <v>21</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F413" s="6" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="G413" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H413" s="6" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="I413" s="6" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="J413" s="6" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K413" s="6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L413" s="6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M413" s="6" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="N413" s="6" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="O413" s="6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="P413" s="6" t="n">
-        <v>12.8</v>
+        <v>504</v>
+      </c>
+      <c r="F413" s="8" t="n">
+        <v>12487</v>
+      </c>
+      <c r="G413" s="8" t="n">
+        <v>12192</v>
+      </c>
+      <c r="H413" s="8" t="n">
+        <v>10805</v>
+      </c>
+      <c r="I413" s="8" t="n">
+        <v>22440</v>
+      </c>
+      <c r="J413" s="8" t="n">
+        <v>14310</v>
+      </c>
+      <c r="K413" s="8" t="n">
+        <v>10847</v>
+      </c>
+      <c r="L413" s="8" t="n">
+        <v>11796</v>
+      </c>
+      <c r="M413" s="8" t="n">
+        <v>11807</v>
+      </c>
+      <c r="N413" s="8" t="n">
+        <v>13407</v>
+      </c>
+      <c r="O413" s="8" t="n">
+        <v>9367</v>
+      </c>
+      <c r="P413" s="8" t="n">
+        <v>10438</v>
       </c>
       <c r="Q413" s="5"/>
       <c r="R413" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C414" s="4"/>
+        <v>506</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="D414" s="5" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F414" s="8" t="n">
-        <v>12487</v>
-      </c>
-      <c r="G414" s="8" t="n">
-        <v>12192</v>
-      </c>
-      <c r="H414" s="8" t="n">
-        <v>10805</v>
-      </c>
-      <c r="I414" s="8" t="n">
-        <v>22440</v>
-      </c>
-      <c r="J414" s="8" t="n">
-        <v>14310</v>
-      </c>
-      <c r="K414" s="8" t="n">
-        <v>10847</v>
-      </c>
-      <c r="L414" s="8" t="n">
-        <v>11796</v>
-      </c>
-      <c r="M414" s="8" t="n">
-        <v>11807</v>
-      </c>
-      <c r="N414" s="8" t="n">
-        <v>13407</v>
-      </c>
-      <c r="O414" s="8" t="n">
-        <v>9367</v>
-      </c>
-      <c r="P414" s="8" t="n">
-        <v>10438</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F414" s="5"/>
+      <c r="G414" s="6" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="6" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L414" s="5"/>
+      <c r="M414" s="5"/>
+      <c r="N414" s="5"/>
+      <c r="O414" s="6" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="P414" s="5"/>
       <c r="Q414" s="5"/>
       <c r="R414" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E415" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F415" s="5"/>
-      <c r="G415" s="6" t="n">
-        <v>23.9</v>
+      <c r="G415" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
       <c r="J415" s="5"/>
-      <c r="K415" s="6" t="n">
-        <v>27.4</v>
+      <c r="K415" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
       <c r="N415" s="5"/>
-      <c r="O415" s="6" t="n">
-        <v>28.7</v>
+      <c r="O415" s="8" t="n">
+        <v>24</v>
       </c>
       <c r="P415" s="5"/>
       <c r="Q415" s="5"/>
       <c r="R415" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>509</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F416" s="5"/>
-      <c r="G416" s="8" t="n">
-        <v>13</v>
+      <c r="G416" s="6" t="n">
+        <v>2.2</v>
       </c>
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
       <c r="J416" s="5"/>
-      <c r="K416" s="8" t="n">
-        <v>13</v>
+      <c r="K416" s="6" t="n">
+        <v>3.7</v>
       </c>
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
       <c r="N416" s="5"/>
-      <c r="O416" s="8" t="n">
-        <v>24</v>
+      <c r="O416" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="P416" s="5"/>
       <c r="Q416" s="5"/>
       <c r="R416" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C417" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D417" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="D417" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="E417" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F417" s="5"/>
       <c r="G417" s="6" t="n">
-        <v>2.2</v>
+        <v>18.3</v>
       </c>
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
       <c r="J417" s="5"/>
       <c r="K417" s="6" t="n">
-        <v>3.7</v>
+        <v>17.4</v>
       </c>
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
       <c r="N417" s="5"/>
       <c r="O417" s="6" t="n">
-        <v>3</v>
+        <v>17.4</v>
       </c>
       <c r="P417" s="5"/>
       <c r="Q417" s="5"/>
       <c r="R417" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F418" s="5"/>
       <c r="G418" s="6" t="n">
-        <v>18.3</v>
+        <v>28.7</v>
       </c>
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
       <c r="J418" s="5"/>
       <c r="K418" s="6" t="n">
-        <v>17.4</v>
+        <v>24.6</v>
       </c>
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
       <c r="N418" s="5"/>
       <c r="O418" s="6" t="n">
-        <v>17.4</v>
+        <v>26.1</v>
       </c>
       <c r="P418" s="5"/>
       <c r="Q418" s="5"/>
       <c r="R418" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E419" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F419" s="5"/>
       <c r="G419" s="6" t="n">
-        <v>28.7</v>
+        <v>35.7</v>
       </c>
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
       <c r="J419" s="5"/>
       <c r="K419" s="6" t="n">
-        <v>24.6</v>
+        <v>33.3</v>
       </c>
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
       <c r="N419" s="5"/>
       <c r="O419" s="6" t="n">
-        <v>26.1</v>
+        <v>29.8</v>
       </c>
       <c r="P419" s="5"/>
       <c r="Q419" s="5"/>
       <c r="R419" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>515</v>
+        <v>36</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="6" t="n">
-        <v>35.7</v>
+        <v>15.2</v>
       </c>
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
       <c r="J420" s="5"/>
       <c r="K420" s="6" t="n">
-        <v>33.3</v>
+        <v>21.1</v>
       </c>
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
       <c r="N420" s="5"/>
       <c r="O420" s="6" t="n">
-        <v>29.8</v>
+        <v>23.7</v>
       </c>
       <c r="P420" s="5"/>
       <c r="Q420" s="5"/>
       <c r="R420" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>36</v>
+        <v>510</v>
       </c>
       <c r="E421" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F421" s="5"/>
-      <c r="G421" s="6" t="n">
-        <v>15.2</v>
+      <c r="G421" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
       <c r="J421" s="5"/>
-      <c r="K421" s="6" t="n">
-        <v>21.1</v>
+      <c r="K421" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
       <c r="N421" s="5"/>
-      <c r="O421" s="6" t="n">
-        <v>23.7</v>
+      <c r="O421" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="P421" s="5"/>
       <c r="Q421" s="5"/>
       <c r="R421" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
       <c r="J422" s="5"/>
       <c r="K422" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
       <c r="N422" s="5"/>
       <c r="O422" s="8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P422" s="5"/>
       <c r="Q422" s="5"/>
       <c r="R422" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E423" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="8" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
       <c r="J423" s="5"/>
       <c r="K423" s="8" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
       <c r="N423" s="5"/>
       <c r="O423" s="8" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P423" s="5"/>
       <c r="Q423" s="5"/>
       <c r="R423" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="8" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
       <c r="J424" s="5"/>
       <c r="K424" s="8" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
       <c r="N424" s="5"/>
       <c r="O424" s="8" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P424" s="5"/>
       <c r="Q424" s="5"/>
       <c r="R424" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>515</v>
+        <v>36</v>
       </c>
       <c r="E425" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F425" s="5"/>
       <c r="G425" s="8" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
       <c r="J425" s="5"/>
       <c r="K425" s="8" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
       <c r="N425" s="5"/>
       <c r="O425" s="8" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P425" s="5"/>
       <c r="Q425" s="5"/>
       <c r="R425" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="C426" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C426" s="4"/>
+      <c r="D426" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="O426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="R426" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="D426" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E426" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F426" s="5"/>
-      <c r="G426" s="8" t="n">
-        <v>32</v>
-      </c>
-      <c r="H426" s="5"/>
-      <c r="I426" s="5"/>
-      <c r="J426" s="5"/>
-      <c r="K426" s="8" t="n">
-        <v>37</v>
-      </c>
-      <c r="L426" s="5"/>
-      <c r="M426" s="5"/>
-      <c r="N426" s="5"/>
-      <c r="O426" s="8" t="n">
-        <v>47</v>
-      </c>
-      <c r="P426" s="5"/>
-      <c r="Q426" s="5"/>
-      <c r="R426" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>517</v>
@@ -22096,47 +22094,31 @@
       <c r="E427" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="N427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="O427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P427" s="8" t="n">
-        <v>100</v>
-      </c>
+      <c r="F427" s="5"/>
+      <c r="G427" s="6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="6" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="L427" s="5"/>
+      <c r="M427" s="5"/>
+      <c r="N427" s="6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O427" s="5"/>
+      <c r="P427" s="5"/>
       <c r="Q427" s="5"/>
       <c r="R427" s="4" t="s">
-        <v>518</v>
+        <v>23</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>519</v>
@@ -22148,34 +22130,50 @@
       <c r="E428" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F428" s="5"/>
+      <c r="F428" s="6" t="n">
+        <v>17.3</v>
+      </c>
       <c r="G428" s="6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H428" s="5"/>
-      <c r="I428" s="5"/>
-      <c r="J428" s="5"/>
+        <v>17.7</v>
+      </c>
+      <c r="H428" s="6" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I428" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J428" s="6" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K428" s="6" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="L428" s="5"/>
-      <c r="M428" s="5"/>
+        <v>16.1</v>
+      </c>
+      <c r="L428" s="6" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="M428" s="6" t="n">
+        <v>17.6</v>
+      </c>
       <c r="N428" s="6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O428" s="5"/>
-      <c r="P428" s="5"/>
+        <v>17.9</v>
+      </c>
+      <c r="O428" s="6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P428" s="6" t="n">
+        <v>18.1</v>
+      </c>
       <c r="Q428" s="5"/>
       <c r="R428" s="4" t="s">
-        <v>23</v>
+        <v>478</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B429" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="5" t="s">
@@ -22185,143 +22183,145 @@
         <v>22</v>
       </c>
       <c r="F429" s="6" t="n">
-        <v>17.3</v>
+        <v>88.9</v>
       </c>
       <c r="G429" s="6" t="n">
-        <v>17.7</v>
+        <v>87.6</v>
       </c>
       <c r="H429" s="6" t="n">
-        <v>17.7</v>
+        <v>86.3</v>
       </c>
       <c r="I429" s="6" t="n">
-        <v>17</v>
+        <v>86.6</v>
       </c>
       <c r="J429" s="6" t="n">
-        <v>16.6</v>
+        <v>89.9</v>
       </c>
       <c r="K429" s="6" t="n">
-        <v>16.1</v>
+        <v>89.8</v>
       </c>
       <c r="L429" s="6" t="n">
-        <v>16.9</v>
+        <v>86.8</v>
       </c>
       <c r="M429" s="6" t="n">
-        <v>17.6</v>
+        <v>90</v>
       </c>
       <c r="N429" s="6" t="n">
-        <v>17.9</v>
+        <v>91.9</v>
       </c>
       <c r="O429" s="6" t="n">
-        <v>17.5</v>
+        <v>91.7</v>
       </c>
       <c r="P429" s="6" t="n">
-        <v>18.1</v>
+        <v>88.2</v>
       </c>
       <c r="Q429" s="5"/>
       <c r="R429" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B430" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C430" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C430" s="4"/>
       <c r="D430" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F430" s="6" t="n">
-        <v>88.9</v>
-      </c>
-      <c r="G430" s="6" t="n">
-        <v>87.6</v>
-      </c>
-      <c r="H430" s="6" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="I430" s="6" t="n">
-        <v>86.6</v>
-      </c>
-      <c r="J430" s="6" t="n">
-        <v>89.9</v>
-      </c>
-      <c r="K430" s="6" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="L430" s="6" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="M430" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N430" s="6" t="n">
-        <v>91.9</v>
-      </c>
-      <c r="O430" s="6" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="P430" s="6" t="n">
-        <v>88.2</v>
+      <c r="F430" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G430" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H430" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I430" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J430" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K430" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L430" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M430" s="7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N430" s="7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O430" s="7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P430" s="7" t="n">
+        <v>0.14</v>
       </c>
       <c r="Q430" s="5"/>
       <c r="R430" s="4" t="s">
-        <v>480</v>
+        <v>93</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D431" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C431" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D431" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E431" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F431" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G431" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H431" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I431" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J431" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K431" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L431" s="7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M431" s="7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N431" s="7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O431" s="7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P431" s="7" t="n">
-        <v>0.14</v>
+      <c r="F431" s="11" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="G431" s="11" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="H431" s="11" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="I431" s="11" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="J431" s="11" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="K431" s="11" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="L431" s="11" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="M431" s="11" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="N431" s="11" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O431" s="11" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="P431" s="11" t="n">
+        <v>0.0024</v>
       </c>
       <c r="Q431" s="5"/>
       <c r="R431" s="4" t="s">
@@ -22330,61 +22330,59 @@
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C432" s="4" t="s">
         <v>524</v>
       </c>
+      <c r="C432" s="4"/>
       <c r="D432" s="5" t="s">
-        <v>525</v>
+        <v>21</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F432" s="11" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="G432" s="11" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H432" s="11" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="I432" s="11" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="J432" s="11" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="K432" s="11" t="n">
-        <v>0.0096</v>
-      </c>
-      <c r="L432" s="11" t="n">
-        <v>0.0159</v>
-      </c>
-      <c r="M432" s="11" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="N432" s="11" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="O432" s="11" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="P432" s="11" t="n">
-        <v>0.0024</v>
+      <c r="F432" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G432" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H432" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I432" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J432" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K432" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L432" s="6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M432" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N432" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O432" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P432" s="6" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q432" s="5"/>
       <c r="R432" s="4" t="s">
-        <v>93</v>
+        <v>525</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>526</v>
@@ -22397,49 +22395,49 @@
         <v>22</v>
       </c>
       <c r="F433" s="6" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G433" s="6" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H433" s="6" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="I433" s="6" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="J433" s="6" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="K433" s="6" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="L433" s="6" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="M433" s="6" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="N433" s="6" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="O433" s="6" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="P433" s="6" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Q433" s="5"/>
       <c r="R433" s="4" t="s">
-        <v>527</v>
+        <v>315</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="5" t="s">
@@ -22449,143 +22447,145 @@
         <v>22</v>
       </c>
       <c r="F434" s="6" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="G434" s="6" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H434" s="6" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="I434" s="6" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="J434" s="6" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="K434" s="6" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="L434" s="6" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="M434" s="6" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N434" s="6" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="O434" s="6" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="P434" s="6" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q434" s="5"/>
       <c r="R434" s="4" t="s">
-        <v>315</v>
+        <v>528</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C435" s="4"/>
+      <c r="C435" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="D435" s="5" t="s">
-        <v>21</v>
+        <v>531</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F435" s="6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="G435" s="6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H435" s="6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I435" s="6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J435" s="6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K435" s="6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L435" s="6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M435" s="6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N435" s="6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O435" s="6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P435" s="6" t="n">
-        <v>2.3</v>
+        <v>45</v>
+      </c>
+      <c r="F435" s="7" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="G435" s="7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="H435" s="7" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="I435" s="7" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J435" s="7" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="K435" s="7" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L435" s="7" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="M435" s="7" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="N435" s="7" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O435" s="7" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="P435" s="7" t="n">
+        <v>4.46</v>
       </c>
       <c r="Q435" s="5"/>
       <c r="R435" s="4" t="s">
-        <v>530</v>
+        <v>244</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C436" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D436" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="D436" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F436" s="7" t="n">
-        <v>11.34</v>
+        <v>0.15</v>
       </c>
       <c r="G436" s="7" t="n">
-        <v>11.75</v>
+        <v>0.36</v>
       </c>
       <c r="H436" s="7" t="n">
-        <v>11.82</v>
+        <v>1.41</v>
       </c>
       <c r="I436" s="7" t="n">
-        <v>11.31</v>
+        <v>2.52</v>
       </c>
       <c r="J436" s="7" t="n">
-        <v>10.67</v>
+        <v>3.3</v>
       </c>
       <c r="K436" s="7" t="n">
-        <v>9.41</v>
+        <v>4.05</v>
       </c>
       <c r="L436" s="7" t="n">
-        <v>8.12</v>
+        <v>4.57</v>
       </c>
       <c r="M436" s="7" t="n">
-        <v>6.68</v>
+        <v>4.54</v>
       </c>
       <c r="N436" s="7" t="n">
-        <v>5.56</v>
+        <v>3.45</v>
       </c>
       <c r="O436" s="7" t="n">
-        <v>5.18</v>
+        <v>3.9</v>
       </c>
       <c r="P436" s="7" t="n">
-        <v>4.46</v>
+        <v>3.53</v>
       </c>
       <c r="Q436" s="5"/>
       <c r="R436" s="4" t="s">
@@ -22594,52 +22594,52 @@
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F437" s="7" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="G437" s="7" t="n">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="H437" s="7" t="n">
-        <v>1.41</v>
+        <v>0.18</v>
       </c>
       <c r="I437" s="7" t="n">
-        <v>2.52</v>
+        <v>0.35</v>
       </c>
       <c r="J437" s="7" t="n">
-        <v>3.3</v>
+        <v>0.79</v>
       </c>
       <c r="K437" s="7" t="n">
-        <v>4.05</v>
+        <v>1.66</v>
       </c>
       <c r="L437" s="7" t="n">
-        <v>4.57</v>
+        <v>2.7</v>
       </c>
       <c r="M437" s="7" t="n">
-        <v>4.54</v>
+        <v>4.23</v>
       </c>
       <c r="N437" s="7" t="n">
-        <v>3.45</v>
+        <v>6.77</v>
       </c>
       <c r="O437" s="7" t="n">
-        <v>3.9</v>
+        <v>9.22</v>
       </c>
       <c r="P437" s="7" t="n">
-        <v>3.53</v>
+        <v>11.26</v>
       </c>
       <c r="Q437" s="5"/>
       <c r="R437" s="4" t="s">
@@ -22648,315 +22648,315 @@
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>532</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C438" s="4"/>
       <c r="D438" s="5" t="s">
-        <v>535</v>
+        <v>21</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F438" s="7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G438" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H438" s="7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I438" s="7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J438" s="7" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K438" s="7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L438" s="7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M438" s="7" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="N438" s="7" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="O438" s="7" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="P438" s="7" t="n">
-        <v>11.26</v>
+        <v>22</v>
+      </c>
+      <c r="F438" s="6" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="G438" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="H438" s="6" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="I438" s="6" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="J438" s="6" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="K438" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="L438" s="6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="M438" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N438" s="6" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O438" s="6" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="P438" s="6" t="n">
+        <v>83.2</v>
       </c>
       <c r="Q438" s="5"/>
       <c r="R438" s="4" t="s">
-        <v>244</v>
+        <v>23</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F439" s="6" t="n">
-        <v>58.8</v>
+        <v>383.5</v>
       </c>
       <c r="G439" s="6" t="n">
-        <v>62</v>
+        <v>424.9</v>
       </c>
       <c r="H439" s="6" t="n">
-        <v>62.3</v>
+        <v>438.7</v>
       </c>
       <c r="I439" s="6" t="n">
-        <v>62.8</v>
+        <v>506.2</v>
       </c>
       <c r="J439" s="6" t="n">
-        <v>66.6</v>
+        <v>473.1</v>
       </c>
       <c r="K439" s="6" t="n">
-        <v>68</v>
+        <v>465.6</v>
       </c>
       <c r="L439" s="6" t="n">
-        <v>73.3</v>
+        <v>688.7</v>
       </c>
       <c r="M439" s="6" t="n">
-        <v>76</v>
+        <v>705.6</v>
       </c>
       <c r="N439" s="6" t="n">
-        <v>77.5</v>
+        <v>766</v>
       </c>
       <c r="O439" s="6" t="n">
-        <v>80.4</v>
+        <v>776.6</v>
       </c>
       <c r="P439" s="6" t="n">
-        <v>83.2</v>
+        <v>837.3</v>
       </c>
       <c r="Q439" s="5"/>
       <c r="R439" s="4" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F440" s="6" t="n">
-        <v>383.5</v>
-      </c>
-      <c r="G440" s="6" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="H440" s="6" t="n">
-        <v>438.7</v>
-      </c>
-      <c r="I440" s="6" t="n">
-        <v>506.2</v>
-      </c>
-      <c r="J440" s="6" t="n">
-        <v>473.1</v>
-      </c>
-      <c r="K440" s="6" t="n">
-        <v>465.6</v>
-      </c>
-      <c r="L440" s="6" t="n">
-        <v>688.7</v>
-      </c>
-      <c r="M440" s="6" t="n">
-        <v>705.6</v>
-      </c>
-      <c r="N440" s="6" t="n">
-        <v>766</v>
-      </c>
-      <c r="O440" s="6" t="n">
-        <v>776.6</v>
-      </c>
-      <c r="P440" s="6" t="n">
-        <v>837.3</v>
+        <v>22</v>
+      </c>
+      <c r="F440" s="7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G440" s="7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H440" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I440" s="7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J440" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K440" s="7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L440" s="7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M440" s="7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N440" s="7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O440" s="7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P440" s="7" t="n">
+        <v>1.26</v>
       </c>
       <c r="Q440" s="5"/>
       <c r="R440" s="4" t="s">
-        <v>93</v>
+        <v>478</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="5" t="s">
-        <v>21</v>
+        <v>538</v>
       </c>
       <c r="E441" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F441" s="7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G441" s="7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H441" s="7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I441" s="7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J441" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K441" s="7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L441" s="7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M441" s="7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N441" s="7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="O441" s="7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P441" s="7" t="n">
-        <v>1.26</v>
+        <v>283</v>
+      </c>
+      <c r="F441" s="8" t="n">
+        <v>37564</v>
+      </c>
+      <c r="G441" s="8" t="n">
+        <v>40628</v>
+      </c>
+      <c r="H441" s="8" t="n">
+        <v>42130</v>
+      </c>
+      <c r="I441" s="8" t="n">
+        <v>42770</v>
+      </c>
+      <c r="J441" s="8" t="n">
+        <v>44466</v>
+      </c>
+      <c r="K441" s="8" t="n">
+        <v>46837</v>
+      </c>
+      <c r="L441" s="8" t="n">
+        <v>48494</v>
+      </c>
+      <c r="M441" s="8" t="n">
+        <v>51789</v>
+      </c>
+      <c r="N441" s="8" t="n">
+        <v>55230</v>
+      </c>
+      <c r="O441" s="8" t="n">
+        <v>59741</v>
+      </c>
+      <c r="P441" s="8" t="n">
+        <v>60984</v>
       </c>
       <c r="Q441" s="5"/>
       <c r="R441" s="4" t="s">
-        <v>480</v>
+        <v>23</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F442" s="8" t="n">
-        <v>37564</v>
-      </c>
-      <c r="G442" s="8" t="n">
-        <v>40628</v>
-      </c>
-      <c r="H442" s="8" t="n">
-        <v>42130</v>
-      </c>
-      <c r="I442" s="8" t="n">
-        <v>42770</v>
-      </c>
-      <c r="J442" s="8" t="n">
-        <v>44466</v>
-      </c>
-      <c r="K442" s="8" t="n">
-        <v>46837</v>
-      </c>
-      <c r="L442" s="8" t="n">
-        <v>48494</v>
-      </c>
-      <c r="M442" s="8" t="n">
-        <v>51789</v>
-      </c>
-      <c r="N442" s="8" t="n">
-        <v>55230</v>
-      </c>
-      <c r="O442" s="8" t="n">
-        <v>59741</v>
-      </c>
-      <c r="P442" s="8" t="n">
-        <v>60663</v>
-      </c>
-      <c r="Q442" s="5"/>
+      <c r="F442" s="6" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="G442" s="6" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="H442" s="6" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="I442" s="6" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="J442" s="6" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="K442" s="6" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="L442" s="6" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="M442" s="6" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="N442" s="6" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="O442" s="6" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="P442" s="6" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="Q442" s="6" t="n">
+        <v>105.9</v>
+      </c>
       <c r="R442" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E443" s="5" t="s">
         <v>283</v>
       </c>
       <c r="F443" s="6" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="G443" s="6" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="H443" s="6" t="n">
         <v>103.7</v>
       </c>
-      <c r="G443" s="6" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="H443" s="6" t="n">
-        <v>101.3</v>
-      </c>
       <c r="I443" s="6" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="J443" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K443" s="6" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="L443" s="6" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="M443" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="N443" s="6" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="O443" s="6" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="P443" s="6" t="n">
         <v>103.4</v>
       </c>
-      <c r="K443" s="6" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="L443" s="6" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="M443" s="6" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="N443" s="6" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="O443" s="6" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="P443" s="6" t="n">
-        <v>97.5</v>
-      </c>
       <c r="Q443" s="6" t="n">
-        <v>105.7</v>
+        <v>105.1</v>
       </c>
       <c r="R443" s="4" t="s">
         <v>23</v>
@@ -22964,53 +22964,53 @@
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>283</v>
       </c>
       <c r="F444" s="6" t="n">
-        <v>102.6</v>
+        <v>20.3</v>
       </c>
       <c r="G444" s="6" t="n">
-        <v>104.3</v>
+        <v>20.7</v>
       </c>
       <c r="H444" s="6" t="n">
-        <v>103.7</v>
+        <v>19.9</v>
       </c>
       <c r="I444" s="6" t="n">
-        <v>100.9</v>
+        <v>18.9</v>
       </c>
       <c r="J444" s="6" t="n">
-        <v>100</v>
+        <v>19.8</v>
       </c>
       <c r="K444" s="6" t="n">
-        <v>99.1</v>
+        <v>20.1</v>
       </c>
       <c r="L444" s="6" t="n">
-        <v>99.4</v>
+        <v>18</v>
       </c>
       <c r="M444" s="6" t="n">
-        <v>102</v>
+        <v>17.5</v>
       </c>
       <c r="N444" s="6" t="n">
-        <v>101.6</v>
+        <v>18.2</v>
       </c>
       <c r="O444" s="6" t="n">
-        <v>102.3</v>
+        <v>18.3</v>
       </c>
       <c r="P444" s="6" t="n">
-        <v>103.4</v>
+        <v>17.2</v>
       </c>
       <c r="Q444" s="6" t="n">
-        <v>105.1</v>
+        <v>16.6</v>
       </c>
       <c r="R444" s="4" t="s">
         <v>23</v>
@@ -23018,53 +23018,53 @@
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E445" s="5" t="s">
         <v>283</v>
       </c>
       <c r="F445" s="6" t="n">
-        <v>20.3</v>
+        <v>53.5</v>
       </c>
       <c r="G445" s="6" t="n">
-        <v>20.7</v>
+        <v>54.7</v>
       </c>
       <c r="H445" s="6" t="n">
-        <v>19.9</v>
+        <v>54.4</v>
       </c>
       <c r="I445" s="6" t="n">
-        <v>18.9</v>
+        <v>56.5</v>
       </c>
       <c r="J445" s="6" t="n">
-        <v>19.8</v>
+        <v>51.1</v>
       </c>
       <c r="K445" s="6" t="n">
-        <v>20.1</v>
+        <v>51.3</v>
       </c>
       <c r="L445" s="6" t="n">
-        <v>18</v>
+        <v>54.2</v>
       </c>
       <c r="M445" s="6" t="n">
-        <v>17.5</v>
+        <v>50.6</v>
       </c>
       <c r="N445" s="6" t="n">
-        <v>18.2</v>
+        <v>48.8</v>
       </c>
       <c r="O445" s="6" t="n">
-        <v>18.3</v>
+        <v>45.6</v>
       </c>
       <c r="P445" s="6" t="n">
-        <v>16.6</v>
+        <v>57.1</v>
       </c>
       <c r="Q445" s="6" t="n">
-        <v>16.6</v>
+        <v>53.8</v>
       </c>
       <c r="R445" s="4" t="s">
         <v>23</v>
@@ -23072,114 +23072,104 @@
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>283</v>
       </c>
       <c r="F446" s="6" t="n">
-        <v>53.5</v>
+        <v>-7.4</v>
       </c>
       <c r="G446" s="6" t="n">
-        <v>54.7</v>
+        <v>-5</v>
       </c>
       <c r="H446" s="6" t="n">
-        <v>54.4</v>
+        <v>-3.8</v>
       </c>
       <c r="I446" s="6" t="n">
-        <v>56.5</v>
+        <v>-4.2</v>
       </c>
       <c r="J446" s="6" t="n">
-        <v>51.1</v>
+        <v>-3.6</v>
       </c>
       <c r="K446" s="6" t="n">
-        <v>51.3</v>
+        <v>-2.6</v>
       </c>
       <c r="L446" s="6" t="n">
-        <v>54.2</v>
+        <v>-2.4</v>
       </c>
       <c r="M446" s="6" t="n">
-        <v>50.6</v>
+        <v>-1.5</v>
       </c>
       <c r="N446" s="6" t="n">
-        <v>48.8</v>
+        <v>-0.2</v>
       </c>
       <c r="O446" s="6" t="n">
-        <v>45.6</v>
+        <v>-0.7</v>
       </c>
       <c r="P446" s="6" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="Q446" s="5"/>
+        <v>-6.9</v>
+      </c>
+      <c r="Q446" s="6" t="n">
+        <v>-1.9</v>
+      </c>
       <c r="R446" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="5" t="s">
-        <v>545</v>
+        <v>21</v>
       </c>
       <c r="E447" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F447" s="6" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="G447" s="6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H447" s="6" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="I447" s="6" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="J447" s="6" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="K447" s="6" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="L447" s="6" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="M447" s="6" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="N447" s="6" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="O447" s="6" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="P447" s="6" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="Q447" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5"/>
+      <c r="K447" s="5"/>
+      <c r="L447" s="5"/>
+      <c r="M447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q447" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R447" s="4" t="s">
-        <v>23</v>
+        <v>438</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="5" t="s">
@@ -23188,13 +23178,27 @@
       <c r="E448" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F448" s="5"/>
-      <c r="G448" s="5"/>
-      <c r="H448" s="5"/>
-      <c r="I448" s="5"/>
-      <c r="J448" s="5"/>
-      <c r="K448" s="5"/>
-      <c r="L448" s="5"/>
+      <c r="F448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L448" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="M448" s="8" t="n">
         <v>1</v>
       </c>
@@ -23207,17 +23211,19 @@
       <c r="P448" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="Q448" s="5"/>
+      <c r="Q448" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R448" s="4" t="s">
-        <v>438</v>
+        <v>23</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="5" t="s">
@@ -23268,113 +23274,95 @@
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q450" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="7" t="n">
+        <v>88.58</v>
+      </c>
+      <c r="J450" s="7" t="n">
+        <v>231.33</v>
+      </c>
+      <c r="K450" s="7" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="L450" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M450" s="7" t="n">
+        <v>102.65</v>
+      </c>
+      <c r="N450" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O450" s="7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="P450" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q450" s="5"/>
       <c r="R450" s="4" t="s">
-        <v>23</v>
+        <v>549</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C451" s="4"/>
+        <v>550</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>551</v>
+      </c>
       <c r="D451" s="5" t="s">
-        <v>21</v>
+        <v>552</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>550</v>
+        <v>187</v>
       </c>
       <c r="F451" s="5"/>
-      <c r="G451" s="5"/>
+      <c r="G451" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="H451" s="5"/>
-      <c r="I451" s="7" t="n">
-        <v>88.58</v>
-      </c>
-      <c r="J451" s="7" t="n">
-        <v>231.33</v>
-      </c>
-      <c r="K451" s="7" t="n">
-        <v>80.16</v>
-      </c>
-      <c r="L451" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M451" s="7" t="n">
-        <v>102.65</v>
-      </c>
-      <c r="N451" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O451" s="7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="P451" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
+      <c r="L451" s="5"/>
+      <c r="M451" s="5"/>
+      <c r="N451" s="5"/>
+      <c r="O451" s="5"/>
+      <c r="P451" s="5"/>
+      <c r="Q451" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R451" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>554</v>
@@ -23382,38 +23370,58 @@
       <c r="E452" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F452" s="5"/>
+      <c r="F452" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G452" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="H452" s="5"/>
-      <c r="I452" s="5"/>
-      <c r="J452" s="5"/>
-      <c r="K452" s="5"/>
-      <c r="L452" s="5"/>
-      <c r="M452" s="5"/>
-      <c r="N452" s="5"/>
-      <c r="O452" s="5"/>
-      <c r="P452" s="5"/>
+      <c r="H452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P452" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q452" s="8" t="n">
         <v>1</v>
       </c>
       <c r="R452" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E453" s="5" t="s">
         <v>187</v>
@@ -23455,79 +23463,22 @@
         <v>1</v>
       </c>
       <c r="R453" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="B454" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C454" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D454" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="E454" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R454" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="0.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="B457" s="12"/>
+    </row>
+    <row r="454" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B455" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B454"/>
+  <autoFilter ref="A3:B453"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A455:B455"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sdg.gov.pl/en"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7056"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="SDGs_1-17" sheetId="1" r:id="rId1"/>
@@ -1417,7 +1417,7 @@
     <t>15.1.1 Share of forest land in land area of the country</t>
   </si>
   <si>
-    <t>15.2.1 Progress towards sustainable forest management - PROXY!</t>
+    <t>15.2.1 Progress towards sustainable forest management</t>
   </si>
   <si>
     <t>15.3.1 Proportion of land that is degraded over total land area - PROXY!</t>
@@ -1699,7 +1699,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 31-05-2022, 08:14</t>
+    <t>Last update: 07-06-2022, 09:55</t>
   </si>
 </sst>
 </file>
@@ -2250,33 +2250,33 @@
   <dimension ref="A1:R474"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="17" width="6.44140625" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="17" width="6.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>65</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>149</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>149</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>205</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>205</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>245</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>245</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>266</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>266</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>272</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>272</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>317</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>317</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>317</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>317</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>317</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>317</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>317</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>317</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>317</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>317</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>317</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>317</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>317</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>317</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>317</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>317</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>317</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>317</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>317</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>317</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>317</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>317</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>317</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>317</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>317</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>317</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>317</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>349</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>349</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>349</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>349</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>349</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>349</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>349</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>349</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>349</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>349</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>349</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>349</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>349</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>349</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>349</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>349</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>349</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>349</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>349</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>349</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>349</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>349</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>349</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>349</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>349</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>349</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>349</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>349</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>349</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>349</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>349</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>349</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>349</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>349</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>349</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>349</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>349</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>390</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>390</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>390</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>390</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>390</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>390</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>390</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>390</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>390</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>390</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>390</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>390</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>390</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>390</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>390</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>390</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>390</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>390</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>390</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>390</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>390</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>390</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>390</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>390</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>390</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>390</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>390</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>390</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>390</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>390</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>390</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>390</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>390</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>390</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>390</v>
       </c>
@@ -19752,7 +19752,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>390</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="369" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>390</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>390</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>390</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>390</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="373" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>390</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="374" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>423</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>423</v>
       </c>
@@ -20184,7 +20184,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="376" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>423</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="377" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>423</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="378" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>423</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="379" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>423</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="380" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>423</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>423</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>423</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="383" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>423</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="384" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>423</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="385" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>442</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="386" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>442</v>
       </c>
@@ -20730,7 +20730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="387" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>442</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="388" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>442</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="389" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>442</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="390" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>442</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="391" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>452</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="392" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>452</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>452</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="394" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>452</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="395" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>452</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>462</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>462</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>462</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="399" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>462</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="400" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>462</v>
       </c>
@@ -21444,7 +21444,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="401" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>462</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="402" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>462</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="403" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>462</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="404" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>462</v>
       </c>
@@ -21584,7 +21584,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="405" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>462</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="406" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>462</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="407" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>462</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="408" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>462</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="409" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>462</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="410" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>462</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="411" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>462</v>
       </c>
@@ -21938,7 +21938,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>483</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>483</v>
       </c>
@@ -22048,7 +22048,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="414" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>483</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>483</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="416" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>483</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="417" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>483</v>
       </c>
@@ -22224,7 +22224,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="418" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>483</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="419" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>483</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="420" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>483</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="421" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>483</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="422" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>483</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="423" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>483</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="424" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>483</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="425" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>483</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="426" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>483</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="427" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>483</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="428" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>483</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="429" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>483</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="430" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>483</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="431" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>483</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="432" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>483</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="433" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>483</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="434" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>483</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="435" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>483</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="436" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>483</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="437" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>483</v>
       </c>
@@ -23112,7 +23112,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="438" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>483</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="439" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>483</v>
       </c>
@@ -23188,7 +23188,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="440" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>483</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="441" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>483</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="442" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>483</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="443" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>483</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="444" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>483</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="445" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>483</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>520</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="447" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>520</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="448" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>520</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="449" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>520</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="450" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>520</v>
       </c>
@@ -23704,7 +23704,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="451" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>520</v>
       </c>
@@ -23758,7 +23758,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="452" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>520</v>
       </c>
@@ -23812,7 +23812,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="453" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>520</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>520</v>
       </c>
@@ -23920,7 +23920,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="455" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>520</v>
       </c>
@@ -23974,7 +23974,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="456" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>520</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>520</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="458" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>520</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="459" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>520</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>520</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>520</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>520</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>520</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>520</v>
       </c>
@@ -24470,7 +24470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>520</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="466" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>520</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>520</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>520</v>
       </c>
@@ -24672,7 +24672,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="469" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>520</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="470" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>520</v>
       </c>
@@ -24764,7 +24764,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="471" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>520</v>
       </c>
@@ -24820,9 +24820,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="472" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>558</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="560">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -1303,6 +1303,9 @@
     <t>12.2.2 Domestic Material Consumption (DMC)</t>
   </si>
   <si>
+    <t>thous. tonnes, tonnes</t>
+  </si>
+  <si>
     <t>12.4.1 Number of parties to international multilateral environmental agreements on hazardous waste, and other chemicals that meet their commitments and obligations in transmitting information as required by each relevant agreement</t>
   </si>
   <si>
@@ -1699,7 +1702,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 07-06-2022, 09:55</t>
+    <t>Last update: 06-07-2022, 07:59</t>
   </si>
 </sst>
 </file>
@@ -20144,7 +20147,7 @@
         <v>22</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>280</v>
+        <v>426</v>
       </c>
       <c r="F375" s="4">
         <v>644835</v>
@@ -20198,7 +20201,7 @@
         <v>281</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>280</v>
+        <v>426</v>
       </c>
       <c r="F376" s="5">
         <v>16.95</v>
@@ -20243,7 +20246,7 @@
         <v>423</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>21</v>
@@ -20289,7 +20292,7 @@
       </c>
       <c r="Q377" s="3"/>
       <c r="R377" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="378" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -20297,16 +20300,16 @@
         <v>423</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F378" s="6">
         <v>39</v>
@@ -20331,7 +20334,7 @@
       <c r="P378" s="3"/>
       <c r="Q378" s="3"/>
       <c r="R378" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="379" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -20339,16 +20342,16 @@
         <v>423</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F379" s="6">
         <v>75</v>
@@ -20373,7 +20376,7 @@
       <c r="P379" s="3"/>
       <c r="Q379" s="3"/>
       <c r="R379" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="380" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -20381,16 +20384,16 @@
         <v>423</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F380" s="6">
         <v>21</v>
@@ -20415,7 +20418,7 @@
       <c r="P380" s="3"/>
       <c r="Q380" s="3"/>
       <c r="R380" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="381" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -20423,10 +20426,10 @@
         <v>423</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>22</v>
@@ -20467,7 +20470,7 @@
       <c r="P381" s="3"/>
       <c r="Q381" s="3"/>
       <c r="R381" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="382" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -20475,7 +20478,7 @@
         <v>423</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>21</v>
@@ -20507,7 +20510,7 @@
       </c>
       <c r="Q382" s="3"/>
       <c r="R382" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="383" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -20515,7 +20518,7 @@
         <v>423</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>21</v>
@@ -20563,7 +20566,7 @@
         <v>1</v>
       </c>
       <c r="R383" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="384" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20571,7 +20574,7 @@
         <v>423</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>21</v>
@@ -20624,10 +20627,10 @@
     </row>
     <row r="385" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>45</v>
@@ -20678,10 +20681,10 @@
     </row>
     <row r="386" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>45</v>
@@ -20732,10 +20735,10 @@
     </row>
     <row r="387" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>21</v>
@@ -20783,15 +20786,15 @@
         <v>1</v>
       </c>
       <c r="R387" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="388" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>21</v>
@@ -20800,7 +20803,7 @@
         <v>22</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F388" s="5">
         <v>413501.55</v>
@@ -20835,15 +20838,15 @@
       <c r="P388" s="3"/>
       <c r="Q388" s="3"/>
       <c r="R388" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="389" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>21</v>
@@ -20852,7 +20855,7 @@
         <v>22</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F389" s="6">
         <v>1</v>
@@ -20896,10 +20899,10 @@
     </row>
     <row r="390" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>21</v>
@@ -20944,16 +20947,16 @@
     </row>
     <row r="391" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>23</v>
@@ -20993,21 +20996,21 @@
       </c>
       <c r="Q391" s="3"/>
       <c r="R391" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="392" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>23</v>
@@ -21047,21 +21050,21 @@
       </c>
       <c r="Q392" s="3"/>
       <c r="R392" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="393" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>23</v>
@@ -21101,21 +21104,21 @@
       </c>
       <c r="Q393" s="3"/>
       <c r="R393" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="394" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>23</v>
@@ -21155,15 +21158,15 @@
       </c>
       <c r="Q394" s="3"/>
       <c r="R394" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="395" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>21</v>
@@ -21209,15 +21212,15 @@
       </c>
       <c r="Q395" s="3"/>
       <c r="R395" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>21</v>
@@ -21268,10 +21271,10 @@
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>21</v>
@@ -21322,10 +21325,10 @@
     </row>
     <row r="398" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>21</v>
@@ -21371,18 +21374,18 @@
       </c>
       <c r="Q398" s="3"/>
       <c r="R398" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="399" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>22</v>
@@ -21409,21 +21412,21 @@
         <v>95</v>
       </c>
       <c r="R399" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="400" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>23</v>
@@ -21441,21 +21444,21 @@
       <c r="P400" s="3"/>
       <c r="Q400" s="3"/>
       <c r="R400" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="401" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>23</v>
@@ -21473,21 +21476,21 @@
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
       <c r="R401" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="402" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>23</v>
@@ -21505,21 +21508,21 @@
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
       <c r="R402" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="403" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>23</v>
@@ -21543,21 +21546,21 @@
         <v>66.599999999999994</v>
       </c>
       <c r="R403" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="404" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>23</v>
@@ -21581,21 +21584,21 @@
         <v>99.2</v>
       </c>
       <c r="R404" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="405" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>23</v>
@@ -21619,15 +21622,15 @@
         <v>94.4</v>
       </c>
       <c r="R405" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="406" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>21</v>
@@ -21675,15 +21678,15 @@
         <v>1</v>
       </c>
       <c r="R406" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="407" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>21</v>
@@ -21729,15 +21732,15 @@
       </c>
       <c r="Q407" s="3"/>
       <c r="R407" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="408" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>21</v>
@@ -21785,15 +21788,15 @@
         <v>1</v>
       </c>
       <c r="R408" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="409" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>21</v>
@@ -21838,10 +21841,10 @@
     </row>
     <row r="410" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>21</v>
@@ -21886,10 +21889,10 @@
     </row>
     <row r="411" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>21</v>
@@ -21935,15 +21938,15 @@
       </c>
       <c r="Q411" s="3"/>
       <c r="R411" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="412" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>21</v>
@@ -21994,10 +21997,10 @@
     </row>
     <row r="413" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>21</v>
@@ -22045,15 +22048,15 @@
         <v>0</v>
       </c>
       <c r="R413" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="414" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>21</v>
@@ -22092,10 +22095,10 @@
     </row>
     <row r="415" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>21</v>
@@ -22137,24 +22140,24 @@
       </c>
       <c r="Q415" s="3"/>
       <c r="R415" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="416" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -22179,24 +22182,24 @@
       </c>
       <c r="Q416" s="3"/>
       <c r="R416" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="417" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -22221,24 +22224,24 @@
       </c>
       <c r="Q417" s="3"/>
       <c r="R417" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="418" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D418" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E418" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="E418" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -22263,24 +22266,24 @@
       </c>
       <c r="Q418" s="3"/>
       <c r="R418" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="419" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -22305,24 +22308,24 @@
       </c>
       <c r="Q419" s="3"/>
       <c r="R419" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="420" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -22347,24 +22350,24 @@
       </c>
       <c r="Q420" s="3"/>
       <c r="R420" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C421" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D421" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D421" s="3" t="s">
+      <c r="E421" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="E421" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -22389,24 +22392,24 @@
       </c>
       <c r="Q421" s="3"/>
       <c r="R421" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -22431,24 +22434,24 @@
       </c>
       <c r="Q422" s="3"/>
       <c r="R422" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="423" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -22473,24 +22476,24 @@
       </c>
       <c r="Q423" s="3"/>
       <c r="R423" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="424" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -22515,24 +22518,24 @@
       </c>
       <c r="Q424" s="3"/>
       <c r="R424" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -22557,15 +22560,15 @@
       </c>
       <c r="Q425" s="3"/>
       <c r="R425" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="426" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>29</v>
@@ -22611,15 +22614,15 @@
       </c>
       <c r="Q426" s="3"/>
       <c r="R426" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="427" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>29</v>
@@ -22665,15 +22668,15 @@
       </c>
       <c r="Q427" s="3"/>
       <c r="R427" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="428" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>29</v>
@@ -22719,21 +22722,21 @@
       </c>
       <c r="Q428" s="3"/>
       <c r="R428" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="429" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E429" s="3" t="s">
         <v>23</v>
@@ -22773,21 +22776,21 @@
       </c>
       <c r="Q429" s="3"/>
       <c r="R429" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="430" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>23</v>
@@ -22827,15 +22830,15 @@
       </c>
       <c r="Q430" s="3"/>
       <c r="R430" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="431" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>21</v>
@@ -22844,7 +22847,7 @@
         <v>22</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F431" s="6">
         <v>12487</v>
@@ -22881,18 +22884,18 @@
       </c>
       <c r="Q431" s="3"/>
       <c r="R431" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="432" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>219</v>
@@ -22919,18 +22922,18 @@
       <c r="P432" s="3"/>
       <c r="Q432" s="3"/>
       <c r="R432" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="433" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>221</v>
@@ -22957,21 +22960,21 @@
       <c r="P433" s="3"/>
       <c r="Q433" s="3"/>
       <c r="R433" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="434" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>23</v>
@@ -22995,21 +22998,21 @@
       <c r="P434" s="3"/>
       <c r="Q434" s="3"/>
       <c r="R434" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="435" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>23</v>
@@ -23033,21 +23036,21 @@
       <c r="P435" s="3"/>
       <c r="Q435" s="3"/>
       <c r="R435" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="436" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>23</v>
@@ -23071,21 +23074,21 @@
       <c r="P436" s="3"/>
       <c r="Q436" s="3"/>
       <c r="R436" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="437" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>23</v>
@@ -23109,18 +23112,18 @@
       <c r="P437" s="3"/>
       <c r="Q437" s="3"/>
       <c r="R437" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="438" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>37</v>
@@ -23147,21 +23150,21 @@
       <c r="P438" s="3"/>
       <c r="Q438" s="3"/>
       <c r="R438" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="439" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>23</v>
@@ -23185,21 +23188,21 @@
       <c r="P439" s="3"/>
       <c r="Q439" s="3"/>
       <c r="R439" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="440" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>23</v>
@@ -23223,21 +23226,21 @@
       <c r="P440" s="3"/>
       <c r="Q440" s="3"/>
       <c r="R440" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="441" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>23</v>
@@ -23261,21 +23264,21 @@
       <c r="P441" s="3"/>
       <c r="Q441" s="3"/>
       <c r="R441" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="442" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C442" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D442" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>23</v>
@@ -23299,18 +23302,18 @@
       <c r="P442" s="3"/>
       <c r="Q442" s="3"/>
       <c r="R442" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="443" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>37</v>
@@ -23337,15 +23340,15 @@
       <c r="P443" s="3"/>
       <c r="Q443" s="3"/>
       <c r="R443" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="444" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>21</v>
@@ -23393,15 +23396,15 @@
         <v>100</v>
       </c>
       <c r="R444" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="445" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>21</v>
@@ -23436,10 +23439,10 @@
     </row>
     <row r="446" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>21</v>
@@ -23485,15 +23488,15 @@
       </c>
       <c r="Q446" s="3"/>
       <c r="R446" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="447" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>21</v>
@@ -23539,18 +23542,18 @@
       </c>
       <c r="Q447" s="3"/>
       <c r="R447" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="448" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>22</v>
@@ -23598,16 +23601,16 @@
     </row>
     <row r="449" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>23</v>
@@ -23652,10 +23655,10 @@
     </row>
     <row r="450" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>21</v>
@@ -23701,15 +23704,15 @@
       </c>
       <c r="Q450" s="3"/>
       <c r="R450" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="451" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>21</v>
@@ -23760,10 +23763,10 @@
     </row>
     <row r="452" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>21</v>
@@ -23809,21 +23812,21 @@
       </c>
       <c r="Q452" s="3"/>
       <c r="R452" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="453" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>46</v>
@@ -23868,16 +23871,16 @@
     </row>
     <row r="454" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>46</v>
@@ -23922,16 +23925,16 @@
     </row>
     <row r="455" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>46</v>
@@ -23976,10 +23979,10 @@
     </row>
     <row r="456" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>21</v>
@@ -24030,10 +24033,10 @@
     </row>
     <row r="457" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>21</v>
@@ -24084,10 +24087,10 @@
     </row>
     <row r="458" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>21</v>
@@ -24133,21 +24136,21 @@
       </c>
       <c r="Q458" s="3"/>
       <c r="R458" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="459" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E459" s="3" t="s">
         <v>283</v>
@@ -24192,16 +24195,16 @@
     </row>
     <row r="460" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E460" s="3" t="s">
         <v>283</v>
@@ -24248,16 +24251,16 @@
     </row>
     <row r="461" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E461" s="3" t="s">
         <v>283</v>
@@ -24304,16 +24307,16 @@
     </row>
     <row r="462" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E462" s="3" t="s">
         <v>283</v>
@@ -24360,16 +24363,16 @@
     </row>
     <row r="463" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>283</v>
@@ -24416,16 +24419,16 @@
     </row>
     <row r="464" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E464" s="3" t="s">
         <v>283</v>
@@ -24472,10 +24475,10 @@
     </row>
     <row r="465" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>21</v>
@@ -24509,15 +24512,15 @@
         <v>1</v>
       </c>
       <c r="R465" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="466" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>21</v>
@@ -24570,10 +24573,10 @@
     </row>
     <row r="467" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>21</v>
@@ -24626,10 +24629,10 @@
     </row>
     <row r="468" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>21</v>
@@ -24638,7 +24641,7 @@
         <v>22</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -24669,21 +24672,21 @@
       </c>
       <c r="Q468" s="3"/>
       <c r="R468" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="469" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>187</v>
@@ -24705,21 +24708,21 @@
         <v>1</v>
       </c>
       <c r="R469" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="470" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>187</v>
@@ -24761,21 +24764,21 @@
         <v>1</v>
       </c>
       <c r="R470" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="471" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E471" s="3" t="s">
         <v>187</v>
@@ -24817,14 +24820,14 @@
         <v>1</v>
       </c>
       <c r="R471" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="472" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="473" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="474" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B474" s="10"/>
     </row>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1702,7 +1702,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 06-07-2022, 07:59</t>
+    <t>Last update: 12-07-2022, 09:11</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1711,7 +1711,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 30-08-2022, 14:25</t>
+    <t>Last update: 06-09-2022, 11:44</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2262,8 @@
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1711,7 +1711,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 06-09-2022, 11:44</t>
+    <t>Last update: 20-09-2022, 13:32</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2262,8 @@
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1711,7 +1711,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 20-09-2022, 13:32</t>
+    <t>Last update: 11-10-2022, 10:20</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2262,8 @@
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,7 +5381,7 @@
         <v>24</v>
       </c>
       <c r="P61" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="6">
         <v>15</v>
@@ -5438,9 +5438,11 @@
         <v>4</v>
       </c>
       <c r="P62" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>2</v>
+      </c>
       <c r="R62" s="3"/>
       <c r="S62" s="2" t="s">
         <v>101</v>
@@ -5495,7 +5497,9 @@
       <c r="P63" s="6">
         <v>6</v>
       </c>
-      <c r="Q63" s="3"/>
+      <c r="Q63" s="6">
+        <v>13</v>
+      </c>
       <c r="R63" s="3"/>
       <c r="S63" s="2" t="s">
         <v>101</v>
@@ -5662,7 +5666,9 @@
       <c r="P66" s="6">
         <v>19</v>
       </c>
-      <c r="Q66" s="3"/>
+      <c r="Q66" s="6">
+        <v>21</v>
+      </c>
       <c r="R66" s="3"/>
       <c r="S66" s="2" t="s">
         <v>101</v>
@@ -5717,7 +5723,9 @@
       <c r="P67" s="6">
         <v>9</v>
       </c>
-      <c r="Q67" s="3"/>
+      <c r="Q67" s="6">
+        <v>9</v>
+      </c>
       <c r="R67" s="3"/>
       <c r="S67" s="2" t="s">
         <v>101</v>
@@ -6907,7 +6915,9 @@
       <c r="P91" s="5">
         <v>1.93</v>
       </c>
-      <c r="Q91" s="3"/>
+      <c r="Q91" s="5">
+        <v>56.63</v>
+      </c>
       <c r="R91" s="3"/>
       <c r="S91" s="2" t="s">
         <v>94</v>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1711,7 +1711,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 11-10-2022, 10:20</t>
+    <t>Last update: 25-10-2022, 11:25</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2262,7 @@
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,7 +3365,9 @@
       <c r="P22" s="5">
         <v>2.33</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="5">
+        <v>2.25</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="2" t="s">
         <v>48</v>
@@ -3421,7 +3422,9 @@
       <c r="P23" s="5">
         <v>0.47</v>
       </c>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="5">
+        <v>0.68</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="2" t="s">
         <v>48</v>
@@ -3922,7 +3925,9 @@
       <c r="O33" s="4">
         <v>2.5</v>
       </c>
-      <c r="P33" s="3"/>
+      <c r="P33" s="4">
+        <v>2.5</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2" t="s">
@@ -3965,7 +3970,9 @@
       <c r="O34" s="4">
         <v>5.8</v>
       </c>
-      <c r="P34" s="3"/>
+      <c r="P34" s="4">
+        <v>7.4</v>
+      </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="2" t="s">
@@ -4008,7 +4015,9 @@
       <c r="O35" s="4">
         <v>6.6</v>
       </c>
-      <c r="P35" s="3"/>
+      <c r="P35" s="4">
+        <v>8.4</v>
+      </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="2" t="s">
@@ -4051,7 +4060,9 @@
       <c r="O36" s="4">
         <v>3.9</v>
       </c>
-      <c r="P36" s="3"/>
+      <c r="P36" s="4">
+        <v>5.3</v>
+      </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2" t="s">
@@ -4094,7 +4105,9 @@
       <c r="O37" s="4">
         <v>0.5</v>
       </c>
-      <c r="P37" s="3"/>
+      <c r="P37" s="4">
+        <v>0.9</v>
+      </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="2" t="s">
@@ -4135,9 +4148,11 @@
         <v>0.5</v>
       </c>
       <c r="O38" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="P38" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="2" t="s">
@@ -4180,7 +4195,9 @@
       <c r="O39" s="4">
         <v>0.5</v>
       </c>
-      <c r="P39" s="3"/>
+      <c r="P39" s="4">
+        <v>0.9</v>
+      </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="2" t="s">
@@ -6163,9 +6180,11 @@
         <v>11</v>
       </c>
       <c r="P75" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="Q75" s="3"/>
+        <v>10.9</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>11</v>
+      </c>
       <c r="R75" s="3"/>
       <c r="S75" s="2" t="s">
         <v>25</v>
@@ -7899,7 +7918,9 @@
       <c r="P113" s="4">
         <v>28.4</v>
       </c>
-      <c r="Q113" s="3"/>
+      <c r="Q113" s="4">
+        <v>28.4</v>
+      </c>
       <c r="R113" s="3"/>
       <c r="S113" s="2" t="s">
         <v>25</v>
@@ -7944,7 +7965,9 @@
       <c r="P114" s="4">
         <v>53.1</v>
       </c>
-      <c r="Q114" s="3"/>
+      <c r="Q114" s="4">
+        <v>51.4</v>
+      </c>
       <c r="R114" s="3"/>
       <c r="S114" s="2" t="s">
         <v>25</v>
@@ -7989,7 +8012,9 @@
       <c r="P115" s="4">
         <v>38.200000000000003</v>
       </c>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="4">
+        <v>35.799999999999997</v>
+      </c>
       <c r="R115" s="3"/>
       <c r="S115" s="2" t="s">
         <v>25</v>
@@ -8034,7 +8059,9 @@
       <c r="P116" s="4">
         <v>28</v>
       </c>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="4">
+        <v>33.9</v>
+      </c>
       <c r="R116" s="3"/>
       <c r="S116" s="2" t="s">
         <v>25</v>
@@ -8079,7 +8106,9 @@
       <c r="P117" s="4">
         <v>65.900000000000006</v>
       </c>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="4">
+        <v>68.3</v>
+      </c>
       <c r="R117" s="3"/>
       <c r="S117" s="2" t="s">
         <v>25</v>
@@ -8169,7 +8198,9 @@
       <c r="P119" s="4">
         <v>53.2</v>
       </c>
-      <c r="Q119" s="3"/>
+      <c r="Q119" s="4">
+        <v>55.2</v>
+      </c>
       <c r="R119" s="3"/>
       <c r="S119" s="2" t="s">
         <v>25</v>
@@ -8214,7 +8245,9 @@
       <c r="P120" s="4">
         <v>90.4</v>
       </c>
-      <c r="Q120" s="3"/>
+      <c r="Q120" s="4">
+        <v>87.5</v>
+      </c>
       <c r="R120" s="3"/>
       <c r="S120" s="2" t="s">
         <v>25</v>
@@ -8259,7 +8292,9 @@
       <c r="P121" s="4">
         <v>70.5</v>
       </c>
-      <c r="Q121" s="3"/>
+      <c r="Q121" s="4">
+        <v>69.8</v>
+      </c>
       <c r="R121" s="3"/>
       <c r="S121" s="2" t="s">
         <v>25</v>
@@ -8304,7 +8339,9 @@
       <c r="P122" s="4">
         <v>69.5</v>
       </c>
-      <c r="Q122" s="3"/>
+      <c r="Q122" s="4">
+        <v>72.7</v>
+      </c>
       <c r="R122" s="3"/>
       <c r="S122" s="2" t="s">
         <v>25</v>
@@ -8349,7 +8386,9 @@
       <c r="P123" s="4">
         <v>92.7</v>
       </c>
-      <c r="Q123" s="3"/>
+      <c r="Q123" s="4">
+        <v>91.5</v>
+      </c>
       <c r="R123" s="3"/>
       <c r="S123" s="2" t="s">
         <v>25</v>
@@ -9770,7 +9809,9 @@
       <c r="P156" s="6">
         <v>122</v>
       </c>
-      <c r="Q156" s="3"/>
+      <c r="Q156" s="6">
+        <v>117</v>
+      </c>
       <c r="R156" s="3"/>
       <c r="S156" s="2" t="s">
         <v>25</v>
@@ -11559,7 +11600,9 @@
       <c r="P199" s="4">
         <v>92.3</v>
       </c>
-      <c r="Q199" s="3"/>
+      <c r="Q199" s="4">
+        <v>62.4</v>
+      </c>
       <c r="R199" s="3"/>
       <c r="S199" s="2" t="s">
         <v>25</v>
@@ -11614,7 +11657,9 @@
       <c r="P200" s="4">
         <v>71.5</v>
       </c>
-      <c r="Q200" s="3"/>
+      <c r="Q200" s="4">
+        <v>71.900000000000006</v>
+      </c>
       <c r="R200" s="3"/>
       <c r="S200" s="2" t="s">
         <v>25</v>
@@ -11791,7 +11836,9 @@
       <c r="O204" s="4">
         <v>51.2</v>
       </c>
-      <c r="P204" s="3"/>
+      <c r="P204" s="4">
+        <v>53.4</v>
+      </c>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
       <c r="S204" s="2" t="s">
@@ -12272,39 +12319,41 @@
         <v>24</v>
       </c>
       <c r="F214" s="4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G214" s="4">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H214" s="4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="I214" s="4">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="J214" s="4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K214" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L214" s="4">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M214" s="4">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="N214" s="4">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O214" s="4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="P214" s="4">
-        <v>-2.1</v>
-      </c>
-      <c r="Q214" s="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="Q214" s="4">
+        <v>7.4</v>
+      </c>
       <c r="R214" s="3"/>
       <c r="S214" s="2" t="s">
         <v>25</v>
@@ -12327,40 +12376,40 @@
         <v>24</v>
       </c>
       <c r="F215" s="4">
-        <v>10.4</v>
+        <v>13.8</v>
       </c>
       <c r="G215" s="4">
         <v>5.9</v>
       </c>
       <c r="H215" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I215" s="4">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J215" s="4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K215" s="4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L215" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="M215" s="4">
         <v>3.4</v>
       </c>
-      <c r="M215" s="4">
-        <v>3.7</v>
-      </c>
       <c r="N215" s="4">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="O215" s="4">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="P215" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Q215" s="4">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="R215" s="3"/>
       <c r="S215" s="2" t="s">
@@ -14330,39 +14379,41 @@
         <v>24</v>
       </c>
       <c r="F256" s="5">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G256" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H256" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="I256" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H256" s="5">
+      <c r="J256" s="5">
         <v>0.11</v>
       </c>
-      <c r="I256" s="5">
+      <c r="K256" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L256" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M256" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="N256" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="O256" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="P256" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q256" s="5">
         <v>0.1</v>
       </c>
-      <c r="J256" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="K256" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L256" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="M256" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="N256" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="O256" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="P256" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
       <c r="S256" s="2" t="s">
         <v>25</v>
@@ -14417,7 +14468,9 @@
       <c r="P257" s="4">
         <v>83</v>
       </c>
-      <c r="Q257" s="3"/>
+      <c r="Q257" s="4">
+        <v>78.8</v>
+      </c>
       <c r="R257" s="3"/>
       <c r="S257" s="2" t="s">
         <v>314</v>
@@ -14803,7 +14856,9 @@
       <c r="P267" s="6">
         <v>208651</v>
       </c>
-      <c r="Q267" s="3"/>
+      <c r="Q267" s="6">
+        <v>244874</v>
+      </c>
       <c r="R267" s="3"/>
       <c r="S267" s="2" t="s">
         <v>25</v>
@@ -14858,7 +14913,9 @@
       <c r="P268" s="6">
         <v>159700</v>
       </c>
-      <c r="Q268" s="3"/>
+      <c r="Q268" s="6">
+        <v>168619</v>
+      </c>
       <c r="R268" s="3"/>
       <c r="S268" s="2" t="s">
         <v>25</v>
@@ -14913,7 +14970,9 @@
       <c r="P269" s="6">
         <v>572</v>
       </c>
-      <c r="Q269" s="3"/>
+      <c r="Q269" s="6">
+        <v>674</v>
+      </c>
       <c r="R269" s="3"/>
       <c r="S269" s="2" t="s">
         <v>25</v>
@@ -14968,7 +15027,9 @@
       <c r="P270" s="6">
         <v>682</v>
       </c>
-      <c r="Q270" s="3"/>
+      <c r="Q270" s="6">
+        <v>986</v>
+      </c>
       <c r="R270" s="3"/>
       <c r="S270" s="2" t="s">
         <v>25</v>
@@ -15023,7 +15084,9 @@
       <c r="P271" s="6">
         <v>3629</v>
       </c>
-      <c r="Q271" s="3"/>
+      <c r="Q271" s="6">
+        <v>6996</v>
+      </c>
       <c r="R271" s="3"/>
       <c r="S271" s="2" t="s">
         <v>25</v>
@@ -15078,7 +15141,9 @@
       <c r="P272" s="6">
         <v>218381</v>
       </c>
-      <c r="Q272" s="3"/>
+      <c r="Q272" s="6">
+        <v>237915</v>
+      </c>
       <c r="R272" s="3"/>
       <c r="S272" s="2" t="s">
         <v>25</v>
@@ -15131,9 +15196,11 @@
         <v>1921073</v>
       </c>
       <c r="P273" s="6">
-        <v>2331758</v>
-      </c>
-      <c r="Q273" s="3"/>
+        <v>1919193</v>
+      </c>
+      <c r="Q273" s="6">
+        <v>1952465</v>
+      </c>
       <c r="R273" s="3"/>
       <c r="S273" s="2" t="s">
         <v>25</v>
@@ -15188,7 +15255,9 @@
       <c r="P274" s="6">
         <v>51489</v>
       </c>
-      <c r="Q274" s="3"/>
+      <c r="Q274" s="6">
+        <v>49855</v>
+      </c>
       <c r="R274" s="3"/>
       <c r="S274" s="2" t="s">
         <v>25</v>
@@ -15243,7 +15312,9 @@
       <c r="P275" s="6">
         <v>8135</v>
       </c>
-      <c r="Q275" s="3"/>
+      <c r="Q275" s="6">
+        <v>9587</v>
+      </c>
       <c r="R275" s="3"/>
       <c r="S275" s="2" t="s">
         <v>25</v>
@@ -15298,7 +15369,9 @@
       <c r="P276" s="6">
         <v>3991</v>
       </c>
-      <c r="Q276" s="3"/>
+      <c r="Q276" s="6">
+        <v>3465</v>
+      </c>
       <c r="R276" s="3"/>
       <c r="S276" s="2" t="s">
         <v>25</v>
@@ -15353,7 +15426,9 @@
       <c r="P277" s="6">
         <v>63</v>
       </c>
-      <c r="Q277" s="3"/>
+      <c r="Q277" s="6">
+        <v>91</v>
+      </c>
       <c r="R277" s="3"/>
       <c r="S277" s="2" t="s">
         <v>25</v>
@@ -15376,40 +15451,40 @@
         <v>24</v>
       </c>
       <c r="F278" s="4">
-        <v>15.3</v>
+        <v>16.3</v>
       </c>
       <c r="G278" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="H278" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="I278" s="4">
         <v>15.7</v>
       </c>
-      <c r="H278" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="I278" s="4">
-        <v>15.6</v>
-      </c>
       <c r="J278" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K278" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L278" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="M278" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N278" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="O278" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P278" s="4">
         <v>16.5</v>
       </c>
-      <c r="K278" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="L278" s="4">
-        <v>18</v>
-      </c>
-      <c r="M278" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="N278" s="4">
+      <c r="Q278" s="4">
         <v>16.7</v>
-      </c>
-      <c r="O278" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="P278" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q278" s="4">
-        <v>17.3</v>
       </c>
       <c r="R278" s="3"/>
       <c r="S278" s="2" t="s">
@@ -18466,7 +18541,9 @@
       <c r="P334" s="5">
         <v>2.33</v>
       </c>
-      <c r="Q334" s="3"/>
+      <c r="Q334" s="5">
+        <v>2.25</v>
+      </c>
       <c r="R334" s="3"/>
       <c r="S334" s="2" t="s">
         <v>395</v>
@@ -18521,7 +18598,9 @@
       <c r="P335" s="5">
         <v>0.47</v>
       </c>
-      <c r="Q335" s="3"/>
+      <c r="Q335" s="5">
+        <v>0.68</v>
+      </c>
       <c r="R335" s="3"/>
       <c r="S335" s="2" t="s">
         <v>395</v>
@@ -18576,7 +18655,9 @@
       <c r="P336" s="5">
         <v>26.68</v>
       </c>
-      <c r="Q336" s="3"/>
+      <c r="Q336" s="5">
+        <v>26.92</v>
+      </c>
       <c r="R336" s="3"/>
       <c r="S336" s="2" t="s">
         <v>25</v>
@@ -18631,7 +18712,9 @@
       <c r="P337" s="5">
         <v>12.03</v>
       </c>
-      <c r="Q337" s="3"/>
+      <c r="Q337" s="5">
+        <v>13.34</v>
+      </c>
       <c r="R337" s="3"/>
       <c r="S337" s="2" t="s">
         <v>25</v>
@@ -18686,7 +18769,9 @@
       <c r="P338" s="5">
         <v>21.52</v>
       </c>
-      <c r="Q338" s="3"/>
+      <c r="Q338" s="5">
+        <v>21.01</v>
+      </c>
       <c r="R338" s="3"/>
       <c r="S338" s="2" t="s">
         <v>25</v>
@@ -18741,7 +18826,9 @@
       <c r="P339" s="5">
         <v>39.78</v>
       </c>
-      <c r="Q339" s="3"/>
+      <c r="Q339" s="5">
+        <v>38.729999999999997</v>
+      </c>
       <c r="R339" s="3"/>
       <c r="S339" s="2" t="s">
         <v>25</v>
@@ -20112,9 +20199,11 @@
         <v>98.17</v>
       </c>
       <c r="P364" s="5">
-        <v>98.29</v>
-      </c>
-      <c r="Q364" s="3"/>
+        <v>98.41</v>
+      </c>
+      <c r="Q364" s="5">
+        <v>98.52</v>
+      </c>
       <c r="R364" s="3"/>
       <c r="S364" s="2" t="s">
         <v>420</v>
@@ -20169,7 +20258,9 @@
       <c r="P365" s="5">
         <v>100</v>
       </c>
-      <c r="Q365" s="3"/>
+      <c r="Q365" s="5">
+        <v>100</v>
+      </c>
       <c r="R365" s="3"/>
       <c r="S365" s="2" t="s">
         <v>420</v>
@@ -20222,9 +20313,11 @@
         <v>94.4</v>
       </c>
       <c r="P366" s="5">
-        <v>94.71</v>
-      </c>
-      <c r="Q366" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="Q366" s="5">
+        <v>95.35</v>
+      </c>
       <c r="R366" s="3"/>
       <c r="S366" s="2" t="s">
         <v>420</v>
@@ -20277,9 +20370,11 @@
         <v>98.97</v>
       </c>
       <c r="P367" s="5">
-        <v>99.11</v>
-      </c>
-      <c r="Q367" s="3"/>
+        <v>99.29</v>
+      </c>
+      <c r="Q367" s="5">
+        <v>99.32</v>
+      </c>
       <c r="R367" s="3"/>
       <c r="S367" s="2" t="s">
         <v>420</v>
@@ -20334,7 +20429,9 @@
       <c r="P368" s="4">
         <v>99.9</v>
       </c>
-      <c r="Q368" s="3"/>
+      <c r="Q368" s="4">
+        <v>99.9</v>
+      </c>
       <c r="R368" s="3"/>
       <c r="S368" s="2" t="s">
         <v>420</v>
@@ -20389,7 +20486,9 @@
       <c r="P369" s="4">
         <v>100</v>
       </c>
-      <c r="Q369" s="3"/>
+      <c r="Q369" s="4">
+        <v>100</v>
+      </c>
       <c r="R369" s="3"/>
       <c r="S369" s="2" t="s">
         <v>420</v>
@@ -20444,7 +20543,9 @@
       <c r="P370" s="4">
         <v>99.8</v>
       </c>
-      <c r="Q370" s="3"/>
+      <c r="Q370" s="4">
+        <v>99.8</v>
+      </c>
       <c r="R370" s="3"/>
       <c r="S370" s="2" t="s">
         <v>420</v>
@@ -20499,7 +20600,9 @@
       <c r="P371" s="4">
         <v>99.9</v>
       </c>
-      <c r="Q371" s="3"/>
+      <c r="Q371" s="4">
+        <v>99.9</v>
+      </c>
       <c r="R371" s="3"/>
       <c r="S371" s="2" t="s">
         <v>420</v>
@@ -20767,7 +20870,9 @@
         <v>100</v>
       </c>
       <c r="O376" s="3"/>
-      <c r="P376" s="3"/>
+      <c r="P376" s="6">
+        <v>59</v>
+      </c>
       <c r="Q376" s="3"/>
       <c r="R376" s="3"/>
       <c r="S376" s="2" t="s">
@@ -20791,26 +20896,28 @@
         <v>433</v>
       </c>
       <c r="F377" s="6">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G377" s="3"/>
       <c r="H377" s="6">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I377" s="3"/>
       <c r="J377" s="6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="K377" s="3"/>
       <c r="L377" s="6">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M377" s="3"/>
       <c r="N377" s="6">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O377" s="3"/>
-      <c r="P377" s="3"/>
+      <c r="P377" s="6">
+        <v>36</v>
+      </c>
       <c r="Q377" s="3"/>
       <c r="R377" s="3"/>
       <c r="S377" s="2" t="s">
@@ -20834,26 +20941,28 @@
         <v>433</v>
       </c>
       <c r="F378" s="6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G378" s="3"/>
       <c r="H378" s="6">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I378" s="3"/>
       <c r="J378" s="6">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K378" s="3"/>
       <c r="L378" s="6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M378" s="3"/>
       <c r="N378" s="6">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="O378" s="3"/>
-      <c r="P378" s="3"/>
+      <c r="P378" s="6">
+        <v>42</v>
+      </c>
       <c r="Q378" s="3"/>
       <c r="R378" s="3"/>
       <c r="S378" s="2" t="s">
@@ -21121,7 +21230,9 @@
       <c r="P383" s="5">
         <v>2.33</v>
       </c>
-      <c r="Q383" s="3"/>
+      <c r="Q383" s="5">
+        <v>2.25</v>
+      </c>
       <c r="R383" s="3"/>
       <c r="S383" s="2" t="s">
         <v>48</v>
@@ -21176,7 +21287,9 @@
       <c r="P384" s="5">
         <v>0.47</v>
       </c>
-      <c r="Q384" s="3"/>
+      <c r="Q384" s="5">
+        <v>0.68</v>
+      </c>
       <c r="R384" s="3"/>
       <c r="S384" s="2" t="s">
         <v>48</v>
@@ -21453,7 +21566,9 @@
       <c r="P389" s="6">
         <v>60</v>
       </c>
-      <c r="Q389" s="3"/>
+      <c r="Q389" s="6">
+        <v>67</v>
+      </c>
       <c r="R389" s="3"/>
       <c r="S389" s="2" t="s">
         <v>459</v>
@@ -21508,7 +21623,9 @@
       <c r="P390" s="6">
         <v>20</v>
       </c>
-      <c r="Q390" s="3"/>
+      <c r="Q390" s="6">
+        <v>17</v>
+      </c>
       <c r="R390" s="3"/>
       <c r="S390" s="2" t="s">
         <v>459</v>
@@ -21563,7 +21680,9 @@
       <c r="P391" s="6">
         <v>40</v>
       </c>
-      <c r="Q391" s="3"/>
+      <c r="Q391" s="6">
+        <v>17</v>
+      </c>
       <c r="R391" s="3"/>
       <c r="S391" s="2" t="s">
         <v>459</v>
@@ -21618,7 +21737,9 @@
       <c r="P392" s="6">
         <v>40</v>
       </c>
-      <c r="Q392" s="3"/>
+      <c r="Q392" s="6">
+        <v>33</v>
+      </c>
       <c r="R392" s="3"/>
       <c r="S392" s="2" t="s">
         <v>459</v>
@@ -22207,7 +22328,9 @@
       <c r="P405" s="6">
         <v>20950</v>
       </c>
-      <c r="Q405" s="3"/>
+      <c r="Q405" s="6">
+        <v>20928</v>
+      </c>
       <c r="R405" s="3"/>
       <c r="S405" s="2" t="s">
         <v>482</v>
@@ -22421,7 +22544,9 @@
       <c r="P409" s="6">
         <v>20950</v>
       </c>
-      <c r="Q409" s="3"/>
+      <c r="Q409" s="6">
+        <v>20928</v>
+      </c>
       <c r="R409" s="3"/>
       <c r="S409" s="2" t="s">
         <v>482</v>
@@ -24142,7 +24267,9 @@
       <c r="P446" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q446" s="3"/>
+      <c r="Q446" s="5">
+        <v>0.15</v>
+      </c>
       <c r="R446" s="3"/>
       <c r="S446" s="2" t="s">
         <v>94</v>
@@ -24596,7 +24723,9 @@
       <c r="P454" s="4">
         <v>83.2</v>
       </c>
-      <c r="Q454" s="3"/>
+      <c r="Q454" s="4">
+        <v>85.4</v>
+      </c>
       <c r="R454" s="3"/>
       <c r="S454" s="2" t="s">
         <v>25</v>
@@ -24733,40 +24862,40 @@
         <v>284</v>
       </c>
       <c r="F457" s="6">
-        <v>37564</v>
+        <v>37240</v>
       </c>
       <c r="G457" s="6">
-        <v>40628</v>
+        <v>40327</v>
       </c>
       <c r="H457" s="6">
-        <v>42130</v>
+        <v>41852</v>
       </c>
       <c r="I457" s="6">
-        <v>42770</v>
+        <v>42339</v>
       </c>
       <c r="J457" s="6">
-        <v>44466</v>
+        <v>44189</v>
       </c>
       <c r="K457" s="6">
-        <v>46837</v>
+        <v>46768</v>
       </c>
       <c r="L457" s="6">
-        <v>48494</v>
+        <v>48227</v>
       </c>
       <c r="M457" s="6">
-        <v>51789</v>
+        <v>51606</v>
       </c>
       <c r="N457" s="6">
-        <v>55230</v>
+        <v>55359</v>
       </c>
       <c r="O457" s="6">
-        <v>59741</v>
+        <v>59618</v>
       </c>
       <c r="P457" s="6">
-        <v>60984</v>
+        <v>61231</v>
       </c>
       <c r="Q457" s="6">
-        <v>68712</v>
+        <v>69069</v>
       </c>
       <c r="R457" s="3"/>
       <c r="S457" s="2" t="s">
@@ -24790,40 +24919,40 @@
         <v>284</v>
       </c>
       <c r="F458" s="4">
-        <v>103.7</v>
+        <v>103.4</v>
       </c>
       <c r="G458" s="4">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="H458" s="4">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="I458" s="4">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="J458" s="4">
-        <v>103.4</v>
+        <v>103.8</v>
       </c>
       <c r="K458" s="4">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="L458" s="4">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="M458" s="4">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="N458" s="4">
-        <v>105.4</v>
+        <v>105.9</v>
       </c>
       <c r="O458" s="4">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="P458" s="4">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="Q458" s="4">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="R458" s="3"/>
       <c r="S458" s="2" t="s">
@@ -24904,40 +25033,40 @@
         <v>284</v>
       </c>
       <c r="F460" s="4">
-        <v>20.3</v>
+        <v>19.7</v>
       </c>
       <c r="G460" s="4">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="H460" s="4">
-        <v>19.899999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I460" s="4">
+        <v>19</v>
+      </c>
+      <c r="J460" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K460" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L460" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="M460" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N460" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="O460" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="J460" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="K460" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L460" s="4">
-        <v>18</v>
-      </c>
-      <c r="M460" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="N460" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="O460" s="4">
+      <c r="P460" s="4">
         <v>18.3</v>
       </c>
-      <c r="P460" s="4">
-        <v>17.2</v>
-      </c>
       <c r="Q460" s="4">
-        <v>16.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="R460" s="3"/>
       <c r="S460" s="2" t="s">
@@ -24985,13 +25114,13 @@
         <v>50.6</v>
       </c>
       <c r="N461" s="4">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="O461" s="4">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="P461" s="4">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="Q461" s="4">
         <v>53.8</v>
@@ -25051,7 +25180,7 @@
         <v>-6.9</v>
       </c>
       <c r="Q462" s="4">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="R462" s="3"/>
       <c r="S462" s="2" t="s">

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1711,13 +1706,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 25-10-2022, 11:25</t>
+    <t>Last update: 15-11-2022, 08:47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1726,7 +1721,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1924,14 +1919,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1952,7 +1939,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2015,7 +2002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2047,10 +2034,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2082,7 +2068,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2258,14 +2243,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2277,17 +2263,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2456,7 +2442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2511,7 +2497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2566,7 +2552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2621,7 +2607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2676,7 +2662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2731,7 +2717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2786,7 +2772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2841,7 +2827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2951,7 +2937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3006,7 +2992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3045,7 +3031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3102,7 +3088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="97.5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="97.5">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3208,7 +3194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="97.5">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3261,7 +3247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3316,7 +3302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3373,7 +3359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3430,7 +3416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3475,7 +3461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3520,7 +3506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3565,7 +3551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3610,7 +3596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3714,7 +3700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3769,7 +3755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3824,7 +3810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3879,7 +3865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.5">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3934,7 +3920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="29.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3979,7 +3965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="29.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4024,7 +4010,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="29.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4069,7 +4055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4114,7 +4100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4159,7 +4145,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4204,7 +4190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="39">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4243,7 +4229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4300,7 +4286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4357,7 +4343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="97.5">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4414,7 +4400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="97.5">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4471,7 +4457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="97.5">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4528,7 +4514,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="97.5">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4585,7 +4571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="48.75">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4632,7 +4618,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="48.75">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4679,7 +4665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4734,7 +4720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="29.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4785,7 +4771,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4840,7 +4826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4897,7 +4883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4954,7 +4940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5011,7 +4997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5068,7 +5054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5125,7 +5111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5182,7 +5168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5239,7 +5225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="29.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5296,7 +5282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5351,7 +5337,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="29.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5408,7 +5394,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="29.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5465,7 +5451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="29.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5522,7 +5508,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5577,7 +5563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="29.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5634,7 +5620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="29.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5691,7 +5677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="29.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5748,7 +5734,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5803,7 +5789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5858,7 +5844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5913,7 +5899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5968,7 +5954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6023,7 +6009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6078,7 +6064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6133,7 +6119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6190,7 +6176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6245,7 +6231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6284,7 +6270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6398,7 +6384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6455,7 +6441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6494,7 +6480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6539,7 +6525,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6584,7 +6570,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6619,7 +6605,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6654,7 +6640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6709,7 +6695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6748,7 +6734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6801,7 +6787,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6854,7 +6840,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6891,7 +6877,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6942,7 +6928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6997,7 +6983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7052,7 +7038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7107,7 +7093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7158,7 +7144,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="48.75">
       <c r="A96" s="2" t="s">
         <v>150</v>
       </c>
@@ -7195,7 +7181,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="48.75">
       <c r="A97" s="2" t="s">
         <v>150</v>
       </c>
@@ -7232,7 +7218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="48.75">
       <c r="A98" s="2" t="s">
         <v>150</v>
       </c>
@@ -7269,7 +7255,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="48.75">
       <c r="A99" s="2" t="s">
         <v>150</v>
       </c>
@@ -7310,7 +7296,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="48.75">
       <c r="A100" s="2" t="s">
         <v>150</v>
       </c>
@@ -7351,7 +7337,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="48.75">
       <c r="A101" s="2" t="s">
         <v>150</v>
       </c>
@@ -7392,7 +7378,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="48.75">
       <c r="A102" s="2" t="s">
         <v>150</v>
       </c>
@@ -7433,7 +7419,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="48.75">
       <c r="A103" s="2" t="s">
         <v>150</v>
       </c>
@@ -7474,7 +7460,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="48.75">
       <c r="A104" s="2" t="s">
         <v>150</v>
       </c>
@@ -7515,7 +7501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>150</v>
       </c>
@@ -7552,7 +7538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>150</v>
       </c>
@@ -7609,7 +7595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>150</v>
       </c>
@@ -7666,7 +7652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>150</v>
       </c>
@@ -7723,7 +7709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>150</v>
       </c>
@@ -7760,7 +7746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>150</v>
       </c>
@@ -7797,7 +7783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>150</v>
       </c>
@@ -7834,7 +7820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="29.25">
       <c r="A112" s="2" t="s">
         <v>150</v>
       </c>
@@ -7879,7 +7865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>150</v>
       </c>
@@ -7926,7 +7912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="39">
       <c r="A114" s="2" t="s">
         <v>150</v>
       </c>
@@ -7973,7 +7959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="48.75">
       <c r="A115" s="2" t="s">
         <v>150</v>
       </c>
@@ -8020,7 +8006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="58.5">
       <c r="A116" s="2" t="s">
         <v>150</v>
       </c>
@@ -8067,7 +8053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>150</v>
       </c>
@@ -8114,7 +8100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>150</v>
       </c>
@@ -8159,7 +8145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>150</v>
       </c>
@@ -8206,7 +8192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="39">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -8253,7 +8239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="48.75">
       <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
@@ -8300,7 +8286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="58.5">
       <c r="A122" s="2" t="s">
         <v>150</v>
       </c>
@@ -8347,7 +8333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -8394,7 +8380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>150</v>
       </c>
@@ -8433,7 +8419,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>150</v>
       </c>
@@ -8472,7 +8458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="29.25">
       <c r="A126" s="2" t="s">
         <v>150</v>
       </c>
@@ -8529,7 +8515,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>150</v>
       </c>
@@ -8564,7 +8550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>150</v>
       </c>
@@ -8599,7 +8585,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -8634,7 +8620,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>150</v>
       </c>
@@ -8669,7 +8655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>150</v>
       </c>
@@ -8704,7 +8690,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>150</v>
       </c>
@@ -8739,7 +8725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -8774,7 +8760,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>150</v>
       </c>
@@ -8809,7 +8795,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>150</v>
       </c>
@@ -8844,7 +8830,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>150</v>
       </c>
@@ -8879,7 +8865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>150</v>
       </c>
@@ -8914,7 +8900,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>150</v>
       </c>
@@ -8949,7 +8935,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>150</v>
       </c>
@@ -8984,7 +8970,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>150</v>
       </c>
@@ -9019,7 +9005,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>150</v>
       </c>
@@ -9054,7 +9040,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
@@ -9089,7 +9075,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>150</v>
       </c>
@@ -9148,7 +9134,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>150</v>
       </c>
@@ -9207,7 +9193,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>150</v>
       </c>
@@ -9242,7 +9228,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>150</v>
       </c>
@@ -9277,7 +9263,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>150</v>
       </c>
@@ -9336,7 +9322,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -9395,7 +9381,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
@@ -9454,7 +9440,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="29.25">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -9505,7 +9491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -9560,7 +9546,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -9615,7 +9601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>150</v>
       </c>
@@ -9670,7 +9656,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>150</v>
       </c>
@@ -9725,7 +9711,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="29.25">
       <c r="A155" s="2" t="s">
         <v>206</v>
       </c>
@@ -9760,7 +9746,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="19.5">
       <c r="A156" s="2" t="s">
         <v>206</v>
       </c>
@@ -9817,7 +9803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="39">
       <c r="A157" s="2" t="s">
         <v>206</v>
       </c>
@@ -9852,7 +9838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="39">
       <c r="A158" s="2" t="s">
         <v>206</v>
       </c>
@@ -9887,7 +9873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="39">
       <c r="A159" s="2" t="s">
         <v>206</v>
       </c>
@@ -9922,7 +9908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="39">
       <c r="A160" s="2" t="s">
         <v>206</v>
       </c>
@@ -9957,7 +9943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="39">
       <c r="A161" s="2" t="s">
         <v>206</v>
       </c>
@@ -9992,7 +9978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>206</v>
       </c>
@@ -10027,7 +10013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>206</v>
       </c>
@@ -10062,7 +10048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>206</v>
       </c>
@@ -10097,7 +10083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>206</v>
       </c>
@@ -10132,7 +10118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>206</v>
       </c>
@@ -10167,7 +10153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>206</v>
       </c>
@@ -10202,7 +10188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>206</v>
       </c>
@@ -10237,7 +10223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>206</v>
       </c>
@@ -10272,7 +10258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="29.25">
       <c r="A170" s="2" t="s">
         <v>206</v>
       </c>
@@ -10311,7 +10297,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="29.25">
       <c r="A171" s="2" t="s">
         <v>206</v>
       </c>
@@ -10350,7 +10336,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="29.25">
       <c r="A172" s="2" t="s">
         <v>206</v>
       </c>
@@ -10405,7 +10391,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="29.25">
       <c r="A173" s="2" t="s">
         <v>206</v>
       </c>
@@ -10460,7 +10446,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="29.25">
       <c r="A174" s="2" t="s">
         <v>206</v>
       </c>
@@ -10515,7 +10501,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="29.25">
       <c r="A175" s="2" t="s">
         <v>206</v>
       </c>
@@ -10570,7 +10556,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="29.25">
       <c r="A176" s="2" t="s">
         <v>206</v>
       </c>
@@ -10625,7 +10611,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="19.5">
       <c r="A177" s="2" t="s">
         <v>206</v>
       </c>
@@ -10670,7 +10656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="39">
       <c r="A178" s="2" t="s">
         <v>206</v>
       </c>
@@ -10715,7 +10701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -10760,7 +10746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>206</v>
       </c>
@@ -10805,7 +10791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>206</v>
       </c>
@@ -10850,7 +10836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>206</v>
       </c>
@@ -10895,7 +10881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="39">
       <c r="A183" s="2" t="s">
         <v>206</v>
       </c>
@@ -10940,7 +10926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>206</v>
       </c>
@@ -10979,7 +10965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11018,7 +11004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11057,7 +11043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11096,7 +11082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11135,7 +11121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11174,7 +11160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11213,7 +11199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>206</v>
       </c>
@@ -11252,7 +11238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>206</v>
       </c>
@@ -11291,7 +11277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>206</v>
       </c>
@@ -11330,7 +11316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>206</v>
       </c>
@@ -11369,7 +11355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>206</v>
       </c>
@@ -11408,7 +11394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="19.5">
       <c r="A196" s="2" t="s">
         <v>206</v>
       </c>
@@ -11449,7 +11435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>206</v>
       </c>
@@ -11500,7 +11486,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>206</v>
       </c>
@@ -11551,7 +11537,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>246</v>
       </c>
@@ -11608,7 +11594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>246</v>
       </c>
@@ -11665,7 +11651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>246</v>
       </c>
@@ -11720,7 +11706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>246</v>
       </c>
@@ -11755,7 +11741,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>246</v>
       </c>
@@ -11790,7 +11776,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>246</v>
       </c>
@@ -11845,7 +11831,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>246</v>
       </c>
@@ -11900,7 +11886,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="19.5">
       <c r="A206" s="2" t="s">
         <v>246</v>
       </c>
@@ -11945,7 +11931,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>246</v>
       </c>
@@ -12000,7 +11986,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>246</v>
       </c>
@@ -12051,7 +12037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="39">
       <c r="A209" s="2" t="s">
         <v>246</v>
       </c>
@@ -12106,7 +12092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>267</v>
       </c>
@@ -12141,7 +12127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>267</v>
       </c>
@@ -12196,7 +12182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>267</v>
       </c>
@@ -12251,7 +12237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>267</v>
       </c>
@@ -12302,7 +12288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>273</v>
       </c>
@@ -12359,7 +12345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>273</v>
       </c>
@@ -12416,7 +12402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>273</v>
       </c>
@@ -12455,7 +12441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>273</v>
       </c>
@@ -12494,7 +12480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>273</v>
       </c>
@@ -12533,7 +12519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>273</v>
       </c>
@@ -12590,7 +12576,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>273</v>
       </c>
@@ -12647,7 +12633,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>273</v>
       </c>
@@ -12704,7 +12690,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>273</v>
       </c>
@@ -12749,7 +12735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>273</v>
       </c>
@@ -12794,7 +12780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>273</v>
       </c>
@@ -12839,7 +12825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>273</v>
       </c>
@@ -12884,7 +12870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>273</v>
       </c>
@@ -12929,7 +12915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>273</v>
       </c>
@@ -12974,7 +12960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>273</v>
       </c>
@@ -13019,7 +13005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>273</v>
       </c>
@@ -13064,7 +13050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>273</v>
       </c>
@@ -13109,7 +13095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>273</v>
       </c>
@@ -13154,7 +13140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>273</v>
       </c>
@@ -13199,7 +13185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>273</v>
       </c>
@@ -13244,7 +13230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>273</v>
       </c>
@@ -13289,7 +13275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>273</v>
       </c>
@@ -13334,7 +13320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>273</v>
       </c>
@@ -13379,7 +13365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>273</v>
       </c>
@@ -13424,7 +13410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>273</v>
       </c>
@@ -13469,7 +13455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>273</v>
       </c>
@@ -13514,7 +13500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>273</v>
       </c>
@@ -13559,7 +13545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>273</v>
       </c>
@@ -13616,7 +13602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>273</v>
       </c>
@@ -13673,7 +13659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>273</v>
       </c>
@@ -13730,7 +13716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>273</v>
       </c>
@@ -13787,7 +13773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>273</v>
       </c>
@@ -13844,7 +13830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>273</v>
       </c>
@@ -13901,7 +13887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>273</v>
       </c>
@@ -13958,7 +13944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>273</v>
       </c>
@@ -14015,7 +14001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>273</v>
       </c>
@@ -14072,7 +14058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>273</v>
       </c>
@@ -14129,7 +14115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>273</v>
       </c>
@@ -14184,7 +14170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>273</v>
       </c>
@@ -14239,7 +14225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -14280,7 +14266,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>273</v>
       </c>
@@ -14321,7 +14307,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>273</v>
       </c>
@@ -14362,7 +14348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>273</v>
       </c>
@@ -14419,7 +14405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="48.75">
       <c r="A257" s="2" t="s">
         <v>273</v>
       </c>
@@ -14476,7 +14462,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>273</v>
       </c>
@@ -14511,7 +14497,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>273</v>
       </c>
@@ -14546,7 +14532,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>273</v>
       </c>
@@ -14581,7 +14567,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>273</v>
       </c>
@@ -14616,7 +14602,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>273</v>
       </c>
@@ -14651,7 +14637,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>273</v>
       </c>
@@ -14686,7 +14672,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>273</v>
       </c>
@@ -14721,7 +14707,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>273</v>
       </c>
@@ -14756,7 +14742,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>273</v>
       </c>
@@ -14807,7 +14793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="29.25">
       <c r="A267" s="2" t="s">
         <v>319</v>
       </c>
@@ -14864,7 +14850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>319</v>
       </c>
@@ -14921,7 +14907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>319</v>
       </c>
@@ -14978,7 +14964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>319</v>
       </c>
@@ -15035,7 +15021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>319</v>
       </c>
@@ -15092,7 +15078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>319</v>
       </c>
@@ -15149,7 +15135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>319</v>
       </c>
@@ -15206,7 +15192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>319</v>
       </c>
@@ -15263,7 +15249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="29.25">
       <c r="A275" s="2" t="s">
         <v>319</v>
       </c>
@@ -15320,7 +15306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="29.25">
       <c r="A276" s="2" t="s">
         <v>319</v>
       </c>
@@ -15377,7 +15363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="29.25">
       <c r="A277" s="2" t="s">
         <v>319</v>
       </c>
@@ -15434,7 +15420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="29.25">
       <c r="A278" s="2" t="s">
         <v>319</v>
       </c>
@@ -15491,7 +15477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="29.25">
       <c r="A279" s="2" t="s">
         <v>319</v>
       </c>
@@ -15546,7 +15532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="29.25">
       <c r="A280" s="2" t="s">
         <v>319</v>
       </c>
@@ -15601,7 +15587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="29.25">
       <c r="A281" s="2" t="s">
         <v>319</v>
       </c>
@@ -15656,7 +15642,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="29.25">
       <c r="A282" s="2" t="s">
         <v>319</v>
       </c>
@@ -15711,7 +15697,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="29.25">
       <c r="A283" s="2" t="s">
         <v>319</v>
       </c>
@@ -15766,7 +15752,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="29.25">
       <c r="A284" s="2" t="s">
         <v>319</v>
       </c>
@@ -15821,7 +15807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="29.25">
       <c r="A285" s="2" t="s">
         <v>319</v>
       </c>
@@ -15876,7 +15862,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="29.25">
       <c r="A286" s="2" t="s">
         <v>319</v>
       </c>
@@ -15931,7 +15917,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="29.25">
       <c r="A287" s="2" t="s">
         <v>319</v>
       </c>
@@ -15982,7 +15968,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="29.25">
       <c r="A288" s="2" t="s">
         <v>319</v>
       </c>
@@ -16037,7 +16023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="29.25">
       <c r="A289" s="2" t="s">
         <v>319</v>
       </c>
@@ -16092,7 +16078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="29.25">
       <c r="A290" s="2" t="s">
         <v>319</v>
       </c>
@@ -16143,7 +16129,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="29.25">
       <c r="A291" s="2" t="s">
         <v>319</v>
       </c>
@@ -16196,7 +16182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="39">
       <c r="A292" s="2" t="s">
         <v>319</v>
       </c>
@@ -16245,7 +16231,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="39">
       <c r="A293" s="2" t="s">
         <v>319</v>
       </c>
@@ -16294,7 +16280,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>351</v>
       </c>
@@ -16349,7 +16335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="68.25">
       <c r="A295" s="2" t="s">
         <v>351</v>
       </c>
@@ -16404,7 +16390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>351</v>
       </c>
@@ -16459,7 +16445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>351</v>
       </c>
@@ -16514,7 +16500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>351</v>
       </c>
@@ -16569,7 +16555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>351</v>
       </c>
@@ -16624,7 +16610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>351</v>
       </c>
@@ -16679,7 +16665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>351</v>
       </c>
@@ -16734,7 +16720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>351</v>
       </c>
@@ -16789,7 +16775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>351</v>
       </c>
@@ -16844,7 +16830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>351</v>
       </c>
@@ -16899,7 +16885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>351</v>
       </c>
@@ -16938,7 +16924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>351</v>
       </c>
@@ -16993,7 +16979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="39">
       <c r="A307" s="2" t="s">
         <v>351</v>
       </c>
@@ -17048,7 +17034,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>351</v>
       </c>
@@ -17103,7 +17089,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="39">
       <c r="A309" s="2" t="s">
         <v>351</v>
       </c>
@@ -17158,7 +17144,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="39">
       <c r="A310" s="2" t="s">
         <v>351</v>
       </c>
@@ -17213,7 +17199,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>351</v>
       </c>
@@ -17268,7 +17254,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="39">
       <c r="A312" s="2" t="s">
         <v>351</v>
       </c>
@@ -17323,7 +17309,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="29.25">
       <c r="A313" s="2" t="s">
         <v>351</v>
       </c>
@@ -17378,7 +17364,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="29.25">
       <c r="A314" s="2" t="s">
         <v>351</v>
       </c>
@@ -17433,7 +17419,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="39">
       <c r="A315" s="2" t="s">
         <v>351</v>
       </c>
@@ -17488,7 +17474,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="29.25">
       <c r="A316" s="2" t="s">
         <v>351</v>
       </c>
@@ -17543,7 +17529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>351</v>
       </c>
@@ -17598,7 +17584,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="29.25">
       <c r="A318" s="2" t="s">
         <v>351</v>
       </c>
@@ -17653,7 +17639,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>351</v>
       </c>
@@ -17710,7 +17696,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="39">
       <c r="A320" s="2" t="s">
         <v>351</v>
       </c>
@@ -17767,7 +17753,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="39">
       <c r="A321" s="2" t="s">
         <v>351</v>
       </c>
@@ -17824,7 +17810,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="68.25">
       <c r="A322" s="2" t="s">
         <v>351</v>
       </c>
@@ -17881,7 +17867,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="58.5">
       <c r="A323" s="2" t="s">
         <v>351</v>
       </c>
@@ -17938,7 +17924,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="68.25">
       <c r="A324" s="2" t="s">
         <v>351</v>
       </c>
@@ -17995,7 +17981,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="68.25">
       <c r="A325" s="2" t="s">
         <v>351</v>
       </c>
@@ -18052,7 +18038,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="39">
       <c r="A326" s="2" t="s">
         <v>351</v>
       </c>
@@ -18107,7 +18093,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="68.25">
       <c r="A327" s="2" t="s">
         <v>351</v>
       </c>
@@ -18162,7 +18148,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="58.5">
       <c r="A328" s="2" t="s">
         <v>351</v>
       </c>
@@ -18217,7 +18203,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="68.25">
       <c r="A329" s="2" t="s">
         <v>351</v>
       </c>
@@ -18272,7 +18258,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="68.25">
       <c r="A330" s="2" t="s">
         <v>351</v>
       </c>
@@ -18327,7 +18313,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>392</v>
       </c>
@@ -18382,7 +18368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>392</v>
       </c>
@@ -18437,7 +18423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>392</v>
       </c>
@@ -18492,7 +18478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="29.25">
       <c r="A334" s="2" t="s">
         <v>392</v>
       </c>
@@ -18549,7 +18535,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="29.25">
       <c r="A335" s="2" t="s">
         <v>392</v>
       </c>
@@ -18606,7 +18592,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="29.25">
       <c r="A336" s="2" t="s">
         <v>392</v>
       </c>
@@ -18663,7 +18649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="29.25">
       <c r="A337" s="2" t="s">
         <v>392</v>
       </c>
@@ -18720,7 +18706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="29.25">
       <c r="A338" s="2" t="s">
         <v>392</v>
       </c>
@@ -18777,7 +18763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="29.25">
       <c r="A339" s="2" t="s">
         <v>392</v>
       </c>
@@ -18834,7 +18820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="29.25">
       <c r="A340" s="2" t="s">
         <v>392</v>
       </c>
@@ -18889,7 +18875,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="29.25">
       <c r="A341" s="2" t="s">
         <v>392</v>
       </c>
@@ -18944,7 +18930,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="29.25">
       <c r="A342" s="2" t="s">
         <v>392</v>
       </c>
@@ -18999,7 +18985,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="29.25">
       <c r="A343" s="2" t="s">
         <v>392</v>
       </c>
@@ -19054,7 +19040,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="29.25">
       <c r="A344" s="2" t="s">
         <v>392</v>
       </c>
@@ -19109,7 +19095,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="29.25">
       <c r="A345" s="2" t="s">
         <v>392</v>
       </c>
@@ -19164,7 +19150,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="29.25">
       <c r="A346" s="2" t="s">
         <v>392</v>
       </c>
@@ -19219,7 +19205,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="29.25">
       <c r="A347" s="2" t="s">
         <v>392</v>
       </c>
@@ -19274,7 +19260,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="29.25">
       <c r="A348" s="2" t="s">
         <v>392</v>
       </c>
@@ -19329,7 +19315,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="29.25">
       <c r="A349" s="2" t="s">
         <v>392</v>
       </c>
@@ -19384,7 +19370,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="29.25">
       <c r="A350" s="2" t="s">
         <v>392</v>
       </c>
@@ -19439,7 +19425,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="29.25">
       <c r="A351" s="2" t="s">
         <v>392</v>
       </c>
@@ -19494,7 +19480,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="29.25">
       <c r="A352" s="2" t="s">
         <v>392</v>
       </c>
@@ -19549,7 +19535,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="29.25">
       <c r="A353" s="2" t="s">
         <v>392</v>
       </c>
@@ -19604,7 +19590,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="29.25">
       <c r="A354" s="2" t="s">
         <v>392</v>
       </c>
@@ -19659,7 +19645,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="29.25">
       <c r="A355" s="2" t="s">
         <v>392</v>
       </c>
@@ -19714,7 +19700,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="29.25">
       <c r="A356" s="2" t="s">
         <v>392</v>
       </c>
@@ -19769,7 +19755,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="29.25">
       <c r="A357" s="2" t="s">
         <v>392</v>
       </c>
@@ -19824,7 +19810,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="29.25">
       <c r="A358" s="2" t="s">
         <v>392</v>
       </c>
@@ -19877,7 +19863,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="29.25">
       <c r="A359" s="2" t="s">
         <v>392</v>
       </c>
@@ -19932,7 +19918,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="29.25">
       <c r="A360" s="2" t="s">
         <v>392</v>
       </c>
@@ -19987,7 +19973,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="29.25">
       <c r="A361" s="2" t="s">
         <v>392</v>
       </c>
@@ -20042,7 +20028,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="29.25">
       <c r="A362" s="2" t="s">
         <v>392</v>
       </c>
@@ -20097,7 +20083,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="29.25">
       <c r="A363" s="2" t="s">
         <v>392</v>
       </c>
@@ -20152,7 +20138,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>392</v>
       </c>
@@ -20209,7 +20195,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>392</v>
       </c>
@@ -20266,7 +20252,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>392</v>
       </c>
@@ -20323,7 +20309,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>392</v>
       </c>
@@ -20380,7 +20366,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>392</v>
       </c>
@@ -20437,7 +20423,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>392</v>
       </c>
@@ -20494,7 +20480,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>392</v>
       </c>
@@ -20551,7 +20537,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>392</v>
       </c>
@@ -20608,7 +20594,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>425</v>
       </c>
@@ -20665,7 +20651,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>425</v>
       </c>
@@ -20722,7 +20708,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>425</v>
       </c>
@@ -20779,7 +20765,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="48.75">
       <c r="A375" s="2" t="s">
         <v>425</v>
       </c>
@@ -20834,7 +20820,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>425</v>
       </c>
@@ -20879,7 +20865,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>425</v>
       </c>
@@ -20924,7 +20910,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>425</v>
       </c>
@@ -20969,7 +20955,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>425</v>
       </c>
@@ -21022,7 +21008,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>425</v>
       </c>
@@ -21065,7 +21051,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>425</v>
       </c>
@@ -21122,7 +21108,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>425</v>
       </c>
@@ -21181,7 +21167,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="29.25">
       <c r="A383" s="2" t="s">
         <v>445</v>
       </c>
@@ -21238,7 +21224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="29.25">
       <c r="A384" s="2" t="s">
         <v>445</v>
       </c>
@@ -21295,7 +21281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="39">
       <c r="A385" s="2" t="s">
         <v>445</v>
       </c>
@@ -21352,7 +21338,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="39">
       <c r="A386" s="2" t="s">
         <v>445</v>
       </c>
@@ -21407,7 +21393,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>445</v>
       </c>
@@ -21466,7 +21452,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="29.25">
       <c r="A388" s="2" t="s">
         <v>445</v>
       </c>
@@ -21517,7 +21503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="39">
       <c r="A389" s="2" t="s">
         <v>455</v>
       </c>
@@ -21574,7 +21560,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="48.75">
       <c r="A390" s="2" t="s">
         <v>455</v>
       </c>
@@ -21631,7 +21617,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="48.75">
       <c r="A391" s="2" t="s">
         <v>455</v>
       </c>
@@ -21688,7 +21674,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="58.5">
       <c r="A392" s="2" t="s">
         <v>455</v>
       </c>
@@ -21745,7 +21731,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="58.5">
       <c r="A393" s="2" t="s">
         <v>455</v>
       </c>
@@ -21800,7 +21786,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>465</v>
       </c>
@@ -21855,7 +21841,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>465</v>
       </c>
@@ -21910,7 +21896,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>465</v>
       </c>
@@ -21967,7 +21953,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>465</v>
       </c>
@@ -22006,7 +21992,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>465</v>
       </c>
@@ -22039,7 +22025,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>465</v>
       </c>
@@ -22072,7 +22058,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>465</v>
       </c>
@@ -22105,7 +22091,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>465</v>
       </c>
@@ -22144,7 +22130,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>465</v>
       </c>
@@ -22183,7 +22169,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>465</v>
       </c>
@@ -22222,7 +22208,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="29.25">
       <c r="A404" s="2" t="s">
         <v>465</v>
       </c>
@@ -22279,7 +22265,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>465</v>
       </c>
@@ -22336,7 +22322,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>465</v>
       </c>
@@ -22393,7 +22379,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>465</v>
       </c>
@@ -22444,7 +22430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>465</v>
       </c>
@@ -22495,7 +22481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>465</v>
       </c>
@@ -22552,7 +22538,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>487</v>
       </c>
@@ -22607,7 +22593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>487</v>
       </c>
@@ -22664,7 +22650,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>487</v>
       </c>
@@ -22707,7 +22693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>487</v>
       </c>
@@ -22758,7 +22744,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>487</v>
       </c>
@@ -22803,7 +22789,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>487</v>
       </c>
@@ -22848,7 +22834,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>487</v>
       </c>
@@ -22893,7 +22879,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>487</v>
       </c>
@@ -22938,7 +22924,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>487</v>
       </c>
@@ -22983,7 +22969,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>487</v>
       </c>
@@ -23028,7 +23014,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>487</v>
       </c>
@@ -23073,7 +23059,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="48.75">
       <c r="A421" s="2" t="s">
         <v>487</v>
       </c>
@@ -23118,7 +23104,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>487</v>
       </c>
@@ -23163,7 +23149,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>487</v>
       </c>
@@ -23208,7 +23194,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="29.25">
       <c r="A424" s="2" t="s">
         <v>487</v>
       </c>
@@ -23263,7 +23249,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="29.25">
       <c r="A425" s="2" t="s">
         <v>487</v>
       </c>
@@ -23318,7 +23304,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="29.25">
       <c r="A426" s="2" t="s">
         <v>487</v>
       </c>
@@ -23373,7 +23359,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="29.25">
       <c r="A427" s="2" t="s">
         <v>487</v>
       </c>
@@ -23428,7 +23414,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="29.25">
       <c r="A428" s="2" t="s">
         <v>487</v>
       </c>
@@ -23483,7 +23469,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>487</v>
       </c>
@@ -23540,7 +23526,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="39">
       <c r="A430" s="2" t="s">
         <v>487</v>
       </c>
@@ -23579,7 +23565,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="39">
       <c r="A431" s="2" t="s">
         <v>487</v>
       </c>
@@ -23618,7 +23604,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="39">
       <c r="A432" s="2" t="s">
         <v>487</v>
       </c>
@@ -23657,7 +23643,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="39">
       <c r="A433" s="2" t="s">
         <v>487</v>
       </c>
@@ -23696,7 +23682,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="39">
       <c r="A434" s="2" t="s">
         <v>487</v>
       </c>
@@ -23735,7 +23721,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="39">
       <c r="A435" s="2" t="s">
         <v>487</v>
       </c>
@@ -23774,7 +23760,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="39">
       <c r="A436" s="2" t="s">
         <v>487</v>
       </c>
@@ -23813,7 +23799,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="39">
       <c r="A437" s="2" t="s">
         <v>487</v>
       </c>
@@ -23852,7 +23838,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="39">
       <c r="A438" s="2" t="s">
         <v>487</v>
       </c>
@@ -23891,7 +23877,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="39">
       <c r="A439" s="2" t="s">
         <v>487</v>
       </c>
@@ -23930,7 +23916,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="39">
       <c r="A440" s="2" t="s">
         <v>487</v>
       </c>
@@ -23969,7 +23955,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="39">
       <c r="A441" s="2" t="s">
         <v>487</v>
       </c>
@@ -24008,7 +23994,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>487</v>
       </c>
@@ -24065,7 +24051,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>487</v>
       </c>
@@ -24104,7 +24090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="29.25">
       <c r="A444" s="2" t="s">
         <v>524</v>
       </c>
@@ -24161,7 +24147,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="29.25">
       <c r="A445" s="2" t="s">
         <v>524</v>
       </c>
@@ -24218,7 +24204,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="29.25">
       <c r="A446" s="2" t="s">
         <v>524</v>
       </c>
@@ -24275,7 +24261,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>524</v>
       </c>
@@ -24332,7 +24318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="48.75">
       <c r="A448" s="2" t="s">
         <v>524</v>
       </c>
@@ -24389,7 +24375,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="29.25">
       <c r="A449" s="2" t="s">
         <v>524</v>
       </c>
@@ -24446,7 +24432,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>524</v>
       </c>
@@ -24503,7 +24489,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>524</v>
       </c>
@@ -24560,7 +24546,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>524</v>
       </c>
@@ -24617,7 +24603,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>524</v>
       </c>
@@ -24674,7 +24660,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="29.25">
       <c r="A454" s="2" t="s">
         <v>524</v>
       </c>
@@ -24731,7 +24717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="29.25">
       <c r="A455" s="2" t="s">
         <v>524</v>
       </c>
@@ -24788,7 +24774,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="29.25">
       <c r="A456" s="2" t="s">
         <v>524</v>
       </c>
@@ -24845,7 +24831,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>524</v>
       </c>
@@ -24902,7 +24888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>524</v>
       </c>
@@ -24959,7 +24945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="48.75">
       <c r="A459" s="2" t="s">
         <v>524</v>
       </c>
@@ -25016,7 +25002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="29.25">
       <c r="A460" s="2" t="s">
         <v>524</v>
       </c>
@@ -25073,7 +25059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="39">
       <c r="A461" s="2" t="s">
         <v>524</v>
       </c>
@@ -25130,7 +25116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="39">
       <c r="A462" s="2" t="s">
         <v>524</v>
       </c>
@@ -25187,7 +25173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>524</v>
       </c>
@@ -25230,7 +25216,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>524</v>
       </c>
@@ -25287,7 +25273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>524</v>
       </c>
@@ -25344,7 +25330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>524</v>
       </c>
@@ -25395,7 +25381,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="39">
       <c r="A467" s="2" t="s">
         <v>524</v>
       </c>
@@ -25432,7 +25418,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="39">
       <c r="A468" s="2" t="s">
         <v>524</v>
       </c>
@@ -25489,7 +25475,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="39">
       <c r="A469" s="2" t="s">
         <v>524</v>
       </c>
@@ -25546,9 +25532,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>562</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1706,7 +1706,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 15-11-2022, 08:47</t>
+    <t>Last update: 13-12-2022, 09:49</t>
   </si>
 </sst>
 </file>
@@ -3639,7 +3639,9 @@
       <c r="P28" s="7">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="7">
+        <v>9.0000000000000006E-5</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="2" t="s">
         <v>60</v>
@@ -11560,7 +11562,7 @@
         <v>87.6</v>
       </c>
       <c r="H199" s="4">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="I199" s="4">
         <v>88</v>
@@ -11578,16 +11580,16 @@
         <v>92</v>
       </c>
       <c r="N199" s="4">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="O199" s="4">
         <v>92.2</v>
       </c>
       <c r="P199" s="4">
-        <v>92.3</v>
+        <v>92.7</v>
       </c>
       <c r="Q199" s="4">
-        <v>62.4</v>
+        <v>92.8</v>
       </c>
       <c r="R199" s="3"/>
       <c r="S199" s="2" t="s">

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="562">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -1421,9 +1426,6 @@
     <t>15.1.1 Share of forest land in land area of the country</t>
   </si>
   <si>
-    <t>Statistical Office in Białystok</t>
-  </si>
-  <si>
     <t>15.2.1 Progress towards sustainable forest management</t>
   </si>
   <si>
@@ -1706,13 +1708,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 13-12-2022, 09:49</t>
+    <t>Last update: 10-01-2023, 11:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1721,7 +1723,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1919,6 +1921,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1939,7 +1949,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2002,7 +2012,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2034,9 +2044,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2068,6 +2079,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2243,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2251,7 +2263,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2263,17 +2275,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2332,7 +2344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2387,7 +2399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +2564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3031,7 +3043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29.25">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="97.5">
+    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="97.5">
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3194,7 +3206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="97.5">
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29.25">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3359,7 +3371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="29.25">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="29.25">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3461,7 +3473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3596,7 +3608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3702,7 +3714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3757,7 +3769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3812,7 +3824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19.5">
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="29.25">
+    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="29.25">
+    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="29.25">
+    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4102,7 +4114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="39">
+    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4231,7 +4243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="97.5">
+    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="97.5">
+    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4345,7 +4357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="97.5">
+    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4402,7 +4414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="97.5">
+    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="97.5">
+    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4516,7 +4528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="97.5">
+    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="48.75">
+    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4620,7 +4632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="48.75">
+    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4722,7 +4734,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="29.25">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4773,7 +4785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4828,7 +4840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4942,7 +4954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4999,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5056,7 +5068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5113,7 +5125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5170,7 +5182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5227,7 +5239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="29.25">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5284,7 +5296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="29.25">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5396,7 +5408,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="29.25">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="29.25">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5565,7 +5577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="29.25">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5622,7 +5634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="29.25">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5679,7 +5691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="29.25">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5736,7 +5748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5791,7 +5803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5846,7 +5858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5901,7 +5913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5956,7 +5968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6011,7 +6023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6066,7 +6078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6178,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6233,7 +6245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6329,7 +6341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6386,7 +6398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6443,7 +6455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6482,7 +6494,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6572,7 +6584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.5">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6607,7 +6619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="29.25">
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6642,7 +6654,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6697,7 +6709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6736,7 +6748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.5">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6789,7 +6801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.5">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6842,7 +6854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.5">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6879,7 +6891,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="29.25">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6930,7 +6942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6946,46 +6958,30 @@
       <c r="E92" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="G92" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="H92" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="I92" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="J92" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="K92" s="4">
-        <v>23</v>
-      </c>
-      <c r="L92" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="M92" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="N92" s="4">
-        <v>23.3</v>
-      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
       <c r="O92" s="4">
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P92" s="4">
-        <v>24.1</v>
-      </c>
-      <c r="Q92" s="3"/>
+        <v>33.1</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>34.299999999999997</v>
+      </c>
       <c r="R92" s="3"/>
       <c r="S92" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7001,46 +6997,30 @@
       <c r="E93" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F93" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G93" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="H93" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="I93" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="J93" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="K93" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="L93" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="M93" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="N93" s="4">
-        <v>3.4</v>
-      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
       <c r="O93" s="4">
-        <v>3.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P93" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="Q93" s="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="R93" s="3"/>
       <c r="S93" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7056,46 +7036,30 @@
       <c r="E94" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F94" s="4">
-        <v>53.7</v>
-      </c>
-      <c r="G94" s="4">
-        <v>54.2</v>
-      </c>
-      <c r="H94" s="4">
-        <v>61.2</v>
-      </c>
-      <c r="I94" s="4">
-        <v>58</v>
-      </c>
-      <c r="J94" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="K94" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="L94" s="4">
-        <v>56.9</v>
-      </c>
-      <c r="M94" s="4">
-        <v>56.3</v>
-      </c>
-      <c r="N94" s="4">
-        <v>56.2</v>
-      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
       <c r="O94" s="4">
-        <v>56.3</v>
+        <v>63</v>
       </c>
       <c r="P94" s="4">
-        <v>56</v>
-      </c>
-      <c r="Q94" s="3"/>
+        <v>62.6</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>64.099999999999994</v>
+      </c>
       <c r="R94" s="3"/>
       <c r="S94" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7146,7 +7110,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="48.75">
+    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>150</v>
       </c>
@@ -7183,7 +7147,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="48.75">
+    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>150</v>
       </c>
@@ -7220,7 +7184,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="48.75">
+    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>150</v>
       </c>
@@ -7257,7 +7221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="48.75">
+    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>150</v>
       </c>
@@ -7298,7 +7262,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="48.75">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>150</v>
       </c>
@@ -7339,7 +7303,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="48.75">
+    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>150</v>
       </c>
@@ -7380,7 +7344,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="48.75">
+    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>150</v>
       </c>
@@ -7421,7 +7385,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="48.75">
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>150</v>
       </c>
@@ -7462,7 +7426,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="48.75">
+    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>150</v>
       </c>
@@ -7503,7 +7467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>150</v>
       </c>
@@ -7540,7 +7504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>150</v>
       </c>
@@ -7597,7 +7561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>150</v>
       </c>
@@ -7654,7 +7618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>150</v>
       </c>
@@ -7711,7 +7675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="19.5">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>150</v>
       </c>
@@ -7748,7 +7712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="19.5">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>150</v>
       </c>
@@ -7785,7 +7749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="19.5">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>150</v>
       </c>
@@ -7822,7 +7786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="29.25">
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>150</v>
       </c>
@@ -7867,7 +7831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="19.5">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>150</v>
       </c>
@@ -7914,7 +7878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="39">
+    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>150</v>
       </c>
@@ -7961,7 +7925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="48.75">
+    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>150</v>
       </c>
@@ -8008,7 +7972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="58.5">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>150</v>
       </c>
@@ -8055,7 +8019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>150</v>
       </c>
@@ -8102,7 +8066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="29.25">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>150</v>
       </c>
@@ -8147,7 +8111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="19.5">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>150</v>
       </c>
@@ -8194,7 +8158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="39">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -8241,7 +8205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="48.75">
+    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
@@ -8288,7 +8252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="58.5">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>150</v>
       </c>
@@ -8335,7 +8299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -8382,7 +8346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="48.75">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>150</v>
       </c>
@@ -8421,7 +8385,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="48.75">
+    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>150</v>
       </c>
@@ -8460,7 +8424,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="29.25">
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>150</v>
       </c>
@@ -8517,7 +8481,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>150</v>
       </c>
@@ -8552,7 +8516,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>150</v>
       </c>
@@ -8587,7 +8551,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -8622,7 +8586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>150</v>
       </c>
@@ -8657,7 +8621,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>150</v>
       </c>
@@ -8692,7 +8656,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>150</v>
       </c>
@@ -8727,7 +8691,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -8762,7 +8726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>150</v>
       </c>
@@ -8797,7 +8761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>150</v>
       </c>
@@ -8832,7 +8796,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>150</v>
       </c>
@@ -8867,7 +8831,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>150</v>
       </c>
@@ -8902,7 +8866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>150</v>
       </c>
@@ -8937,7 +8901,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>150</v>
       </c>
@@ -8972,7 +8936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>150</v>
       </c>
@@ -9007,7 +8971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>150</v>
       </c>
@@ -9042,7 +9006,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
@@ -9077,7 +9041,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>150</v>
       </c>
@@ -9136,7 +9100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="58.5">
+    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>150</v>
       </c>
@@ -9195,7 +9159,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="58.5">
+    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>150</v>
       </c>
@@ -9230,7 +9194,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="58.5">
+    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>150</v>
       </c>
@@ -9265,7 +9229,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="58.5">
+    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>150</v>
       </c>
@@ -9324,7 +9288,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="58.5">
+    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -9383,7 +9347,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="58.5">
+    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
@@ -9442,7 +9406,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="29.25">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -9493,7 +9457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="58.5">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -9548,7 +9512,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="58.5">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -9603,7 +9567,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="58.5">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>150</v>
       </c>
@@ -9658,7 +9622,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="58.5">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>150</v>
       </c>
@@ -9713,7 +9677,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="29.25">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>206</v>
       </c>
@@ -9748,7 +9712,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="19.5">
+    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>206</v>
       </c>
@@ -9805,7 +9769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="39">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>206</v>
       </c>
@@ -9840,7 +9804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="39">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>206</v>
       </c>
@@ -9875,7 +9839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="39">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>206</v>
       </c>
@@ -9910,7 +9874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="39">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>206</v>
       </c>
@@ -9945,7 +9909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="39">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>206</v>
       </c>
@@ -9980,7 +9944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>206</v>
       </c>
@@ -10015,7 +9979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>206</v>
       </c>
@@ -10050,7 +10014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>206</v>
       </c>
@@ -10085,7 +10049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>206</v>
       </c>
@@ -10120,7 +10084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>206</v>
       </c>
@@ -10155,7 +10119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>206</v>
       </c>
@@ -10190,7 +10154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>206</v>
       </c>
@@ -10225,7 +10189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>206</v>
       </c>
@@ -10260,7 +10224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="29.25">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>206</v>
       </c>
@@ -10299,7 +10263,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="29.25">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>206</v>
       </c>
@@ -10338,7 +10302,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="29.25">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>206</v>
       </c>
@@ -10393,7 +10357,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="29.25">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>206</v>
       </c>
@@ -10448,7 +10412,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="29.25">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>206</v>
       </c>
@@ -10503,7 +10467,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="29.25">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>206</v>
       </c>
@@ -10558,7 +10522,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="29.25">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>206</v>
       </c>
@@ -10613,7 +10577,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="19.5">
+    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>206</v>
       </c>
@@ -10658,7 +10622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="39">
+    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>206</v>
       </c>
@@ -10703,7 +10667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="19.5">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>206</v>
       </c>
@@ -10748,7 +10712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>206</v>
       </c>
@@ -10793,7 +10757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>206</v>
       </c>
@@ -10838,7 +10802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>206</v>
       </c>
@@ -10883,7 +10847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="39">
+    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>206</v>
       </c>
@@ -10928,7 +10892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>206</v>
       </c>
@@ -10967,7 +10931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11006,7 +10970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11045,7 +11009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11084,7 +11048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11123,7 +11087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11162,7 +11126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11201,7 +11165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>206</v>
       </c>
@@ -11240,7 +11204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>206</v>
       </c>
@@ -11279,7 +11243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>206</v>
       </c>
@@ -11318,7 +11282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>206</v>
       </c>
@@ -11357,7 +11321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>206</v>
       </c>
@@ -11396,7 +11360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="19.5">
+    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>206</v>
       </c>
@@ -11437,7 +11401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>206</v>
       </c>
@@ -11488,7 +11452,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>206</v>
       </c>
@@ -11539,7 +11503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>246</v>
       </c>
@@ -11596,7 +11560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>246</v>
       </c>
@@ -11653,7 +11617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>246</v>
       </c>
@@ -11708,7 +11672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>246</v>
       </c>
@@ -11743,7 +11707,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>246</v>
       </c>
@@ -11778,7 +11742,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>246</v>
       </c>
@@ -11833,7 +11797,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>246</v>
       </c>
@@ -11888,7 +11852,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="19.5">
+    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>246</v>
       </c>
@@ -11933,7 +11897,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="29.25">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>246</v>
       </c>
@@ -11988,7 +11952,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>246</v>
       </c>
@@ -12039,7 +12003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="39">
+    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>246</v>
       </c>
@@ -12094,7 +12058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>267</v>
       </c>
@@ -12129,7 +12093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>267</v>
       </c>
@@ -12184,7 +12148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="29.25">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>267</v>
       </c>
@@ -12239,7 +12203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="29.25">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>267</v>
       </c>
@@ -12290,7 +12254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>273</v>
       </c>
@@ -12347,7 +12311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>273</v>
       </c>
@@ -12404,7 +12368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>273</v>
       </c>
@@ -12443,7 +12407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>273</v>
       </c>
@@ -12482,7 +12446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>273</v>
       </c>
@@ -12521,7 +12485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>273</v>
       </c>
@@ -12578,7 +12542,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>273</v>
       </c>
@@ -12635,7 +12599,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>273</v>
       </c>
@@ -12692,7 +12656,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>273</v>
       </c>
@@ -12737,7 +12701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>273</v>
       </c>
@@ -12782,7 +12746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>273</v>
       </c>
@@ -12827,7 +12791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="29.25">
+    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>273</v>
       </c>
@@ -12872,7 +12836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>273</v>
       </c>
@@ -12917,7 +12881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>273</v>
       </c>
@@ -12962,7 +12926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>273</v>
       </c>
@@ -13007,7 +12971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>273</v>
       </c>
@@ -13052,7 +13016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>273</v>
       </c>
@@ -13097,7 +13061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>273</v>
       </c>
@@ -13142,7 +13106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>273</v>
       </c>
@@ -13187,7 +13151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>273</v>
       </c>
@@ -13232,7 +13196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>273</v>
       </c>
@@ -13277,7 +13241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>273</v>
       </c>
@@ -13322,7 +13286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>273</v>
       </c>
@@ -13367,7 +13331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>273</v>
       </c>
@@ -13412,7 +13376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>273</v>
       </c>
@@ -13457,7 +13421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>273</v>
       </c>
@@ -13502,7 +13466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>273</v>
       </c>
@@ -13547,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>273</v>
       </c>
@@ -13604,7 +13568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>273</v>
       </c>
@@ -13661,7 +13625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>273</v>
       </c>
@@ -13718,7 +13682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>273</v>
       </c>
@@ -13775,7 +13739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>273</v>
       </c>
@@ -13832,7 +13796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>273</v>
       </c>
@@ -13889,7 +13853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>273</v>
       </c>
@@ -13946,7 +13910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>273</v>
       </c>
@@ -14003,7 +13967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>273</v>
       </c>
@@ -14060,7 +14024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>273</v>
       </c>
@@ -14117,7 +14081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>273</v>
       </c>
@@ -14172,7 +14136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>273</v>
       </c>
@@ -14227,7 +14191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -14268,7 +14232,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>273</v>
       </c>
@@ -14309,7 +14273,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>273</v>
       </c>
@@ -14350,7 +14314,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>273</v>
       </c>
@@ -14407,7 +14371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="48.75">
+    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>273</v>
       </c>
@@ -14464,7 +14428,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>273</v>
       </c>
@@ -14499,7 +14463,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>273</v>
       </c>
@@ -14534,7 +14498,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>273</v>
       </c>
@@ -14569,7 +14533,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>273</v>
       </c>
@@ -14604,7 +14568,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>273</v>
       </c>
@@ -14639,7 +14603,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>273</v>
       </c>
@@ -14674,7 +14638,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>273</v>
       </c>
@@ -14709,7 +14673,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>273</v>
       </c>
@@ -14744,7 +14708,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>273</v>
       </c>
@@ -14795,7 +14759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="29.25">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>319</v>
       </c>
@@ -14852,7 +14816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="29.25">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>319</v>
       </c>
@@ -14909,7 +14873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="29.25">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>319</v>
       </c>
@@ -14966,7 +14930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="29.25">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>319</v>
       </c>
@@ -15023,7 +14987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="29.25">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>319</v>
       </c>
@@ -15080,7 +15044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="29.25">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>319</v>
       </c>
@@ -15137,7 +15101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="29.25">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>319</v>
       </c>
@@ -15194,7 +15158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="29.25">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>319</v>
       </c>
@@ -15251,7 +15215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="29.25">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>319</v>
       </c>
@@ -15308,7 +15272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="29.25">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>319</v>
       </c>
@@ -15365,7 +15329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="29.25">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>319</v>
       </c>
@@ -15422,7 +15386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="29.25">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>319</v>
       </c>
@@ -15479,7 +15443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="29.25">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>319</v>
       </c>
@@ -15534,7 +15498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="29.25">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>319</v>
       </c>
@@ -15589,7 +15553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="29.25">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>319</v>
       </c>
@@ -15644,7 +15608,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="29.25">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>319</v>
       </c>
@@ -15699,7 +15663,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="29.25">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>319</v>
       </c>
@@ -15754,7 +15718,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="29.25">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>319</v>
       </c>
@@ -15809,7 +15773,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="29.25">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>319</v>
       </c>
@@ -15864,7 +15828,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="29.25">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>319</v>
       </c>
@@ -15919,7 +15883,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="29.25">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>319</v>
       </c>
@@ -15970,7 +15934,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="29.25">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>319</v>
       </c>
@@ -16025,7 +15989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="29.25">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>319</v>
       </c>
@@ -16080,7 +16044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="29.25">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>319</v>
       </c>
@@ -16131,7 +16095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="29.25">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>319</v>
       </c>
@@ -16184,7 +16148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="39">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>319</v>
       </c>
@@ -16233,7 +16197,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="39">
+    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>319</v>
       </c>
@@ -16282,7 +16246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>351</v>
       </c>
@@ -16337,7 +16301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="68.25">
+    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>351</v>
       </c>
@@ -16392,7 +16356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>351</v>
       </c>
@@ -16447,7 +16411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>351</v>
       </c>
@@ -16502,7 +16466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>351</v>
       </c>
@@ -16557,7 +16521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>351</v>
       </c>
@@ -16612,7 +16576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>351</v>
       </c>
@@ -16667,7 +16631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>351</v>
       </c>
@@ -16722,7 +16686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>351</v>
       </c>
@@ -16777,7 +16741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>351</v>
       </c>
@@ -16832,7 +16796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>351</v>
       </c>
@@ -16887,7 +16851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>351</v>
       </c>
@@ -16926,7 +16890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>351</v>
       </c>
@@ -16981,7 +16945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="39">
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>351</v>
       </c>
@@ -17036,7 +17000,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>351</v>
       </c>
@@ -17091,7 +17055,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="39">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>351</v>
       </c>
@@ -17146,7 +17110,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="39">
+    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>351</v>
       </c>
@@ -17201,7 +17165,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="29.25">
+    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>351</v>
       </c>
@@ -17256,7 +17220,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="39">
+    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>351</v>
       </c>
@@ -17311,7 +17275,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="29.25">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>351</v>
       </c>
@@ -17366,7 +17330,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="29.25">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>351</v>
       </c>
@@ -17421,7 +17385,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="39">
+    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>351</v>
       </c>
@@ -17476,7 +17440,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="29.25">
+    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>351</v>
       </c>
@@ -17531,7 +17495,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>351</v>
       </c>
@@ -17586,7 +17550,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="29.25">
+    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>351</v>
       </c>
@@ -17641,7 +17605,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>351</v>
       </c>
@@ -17698,7 +17662,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="39">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>351</v>
       </c>
@@ -17755,7 +17719,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="39">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>351</v>
       </c>
@@ -17812,7 +17776,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="68.25">
+    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>351</v>
       </c>
@@ -17869,7 +17833,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="58.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>351</v>
       </c>
@@ -17926,7 +17890,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="68.25">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>351</v>
       </c>
@@ -17983,7 +17947,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="68.25">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>351</v>
       </c>
@@ -18040,7 +18004,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="39">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>351</v>
       </c>
@@ -18095,7 +18059,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="68.25">
+    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>351</v>
       </c>
@@ -18150,7 +18114,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="58.5">
+    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>351</v>
       </c>
@@ -18205,7 +18169,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="68.25">
+    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>351</v>
       </c>
@@ -18260,7 +18224,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="68.25">
+    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>351</v>
       </c>
@@ -18315,7 +18279,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="29.25">
+    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>392</v>
       </c>
@@ -18370,7 +18334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="29.25">
+    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>392</v>
       </c>
@@ -18425,7 +18389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="29.25">
+    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>392</v>
       </c>
@@ -18480,7 +18444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="29.25">
+    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>392</v>
       </c>
@@ -18537,7 +18501,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="29.25">
+    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>392</v>
       </c>
@@ -18594,7 +18558,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="29.25">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>392</v>
       </c>
@@ -18651,7 +18615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="29.25">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>392</v>
       </c>
@@ -18708,7 +18672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="29.25">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>392</v>
       </c>
@@ -18765,7 +18729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="29.25">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>392</v>
       </c>
@@ -18822,7 +18786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="29.25">
+    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>392</v>
       </c>
@@ -18877,7 +18841,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="29.25">
+    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>392</v>
       </c>
@@ -18932,7 +18896,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="29.25">
+    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>392</v>
       </c>
@@ -18987,7 +18951,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="29.25">
+    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>392</v>
       </c>
@@ -19042,7 +19006,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="29.25">
+    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>392</v>
       </c>
@@ -19097,7 +19061,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="29.25">
+    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>392</v>
       </c>
@@ -19152,7 +19116,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="29.25">
+    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>392</v>
       </c>
@@ -19207,7 +19171,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="29.25">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>392</v>
       </c>
@@ -19262,7 +19226,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="29.25">
+    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>392</v>
       </c>
@@ -19317,7 +19281,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="29.25">
+    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>392</v>
       </c>
@@ -19372,7 +19336,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="29.25">
+    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>392</v>
       </c>
@@ -19427,7 +19391,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="29.25">
+    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>392</v>
       </c>
@@ -19482,7 +19446,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="29.25">
+    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>392</v>
       </c>
@@ -19537,7 +19501,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="29.25">
+    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>392</v>
       </c>
@@ -19592,7 +19556,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="29.25">
+    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>392</v>
       </c>
@@ -19647,7 +19611,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="29.25">
+    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>392</v>
       </c>
@@ -19702,7 +19666,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="29.25">
+    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>392</v>
       </c>
@@ -19757,7 +19721,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="29.25">
+    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>392</v>
       </c>
@@ -19812,7 +19776,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="29.25">
+    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>392</v>
       </c>
@@ -19865,7 +19829,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="29.25">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>392</v>
       </c>
@@ -19920,7 +19884,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="29.25">
+    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>392</v>
       </c>
@@ -19975,7 +19939,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="29.25">
+    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>392</v>
       </c>
@@ -20030,7 +19994,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="29.25">
+    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>392</v>
       </c>
@@ -20085,7 +20049,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="29.25">
+    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>392</v>
       </c>
@@ -20140,7 +20104,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>392</v>
       </c>
@@ -20197,7 +20161,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>392</v>
       </c>
@@ -20254,7 +20218,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>392</v>
       </c>
@@ -20311,7 +20275,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>392</v>
       </c>
@@ -20368,7 +20332,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>392</v>
       </c>
@@ -20425,7 +20389,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>392</v>
       </c>
@@ -20482,7 +20446,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>392</v>
       </c>
@@ -20539,7 +20503,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>392</v>
       </c>
@@ -20596,7 +20560,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>425</v>
       </c>
@@ -20653,7 +20617,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>425</v>
       </c>
@@ -20710,7 +20674,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>425</v>
       </c>
@@ -20767,7 +20731,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="48.75">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>425</v>
       </c>
@@ -20822,7 +20786,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>425</v>
       </c>
@@ -20867,7 +20831,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>425</v>
       </c>
@@ -20912,7 +20876,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>425</v>
       </c>
@@ -20957,7 +20921,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>425</v>
       </c>
@@ -21010,7 +20974,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>425</v>
       </c>
@@ -21053,7 +21017,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>425</v>
       </c>
@@ -21110,7 +21074,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>425</v>
       </c>
@@ -21169,7 +21133,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="29.25">
+    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>445</v>
       </c>
@@ -21226,7 +21190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="29.25">
+    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>445</v>
       </c>
@@ -21283,7 +21247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="39">
+    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>445</v>
       </c>
@@ -21340,7 +21304,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="39">
+    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>445</v>
       </c>
@@ -21395,7 +21359,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>445</v>
       </c>
@@ -21454,7 +21418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="29.25">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>445</v>
       </c>
@@ -21505,7 +21469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="39">
+    <row r="389" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>455</v>
       </c>
@@ -21562,7 +21526,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="48.75">
+    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>455</v>
       </c>
@@ -21619,7 +21583,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="48.75">
+    <row r="391" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>455</v>
       </c>
@@ -21676,7 +21640,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="58.5">
+    <row r="392" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>455</v>
       </c>
@@ -21733,7 +21697,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="58.5">
+    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>455</v>
       </c>
@@ -21788,7 +21752,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>465</v>
       </c>
@@ -21840,15 +21804,15 @@
       <c r="Q394" s="3"/>
       <c r="R394" s="3"/>
       <c r="S394" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="395" spans="1:19" ht="19.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>22</v>
@@ -21895,15 +21859,15 @@
       <c r="Q395" s="3"/>
       <c r="R395" s="3"/>
       <c r="S395" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="396" spans="1:19" ht="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>22</v>
@@ -21952,18 +21916,18 @@
       </c>
       <c r="R396" s="3"/>
       <c r="S396" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="397" spans="1:19" ht="19.5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>23</v>
@@ -21991,21 +21955,21 @@
       </c>
       <c r="R397" s="3"/>
       <c r="S397" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="398" spans="1:19" ht="19.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B398" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="D398" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>24</v>
@@ -22024,21 +21988,21 @@
       <c r="Q398" s="3"/>
       <c r="R398" s="3"/>
       <c r="S398" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="399" spans="1:19" ht="19.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B399" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="D399" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E399" s="3" t="s">
         <v>24</v>
@@ -22057,21 +22021,21 @@
       <c r="Q399" s="3"/>
       <c r="R399" s="3"/>
       <c r="S399" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="400" spans="1:19" ht="19.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="D400" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>24</v>
@@ -22090,21 +22054,21 @@
       <c r="Q400" s="3"/>
       <c r="R400" s="3"/>
       <c r="S400" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="401" spans="1:19" ht="19.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B401" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="D401" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>24</v>
@@ -22129,21 +22093,21 @@
       </c>
       <c r="R401" s="3"/>
       <c r="S401" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="402" spans="1:19" ht="19.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="D402" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>24</v>
@@ -22168,21 +22132,21 @@
       </c>
       <c r="R402" s="3"/>
       <c r="S402" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="403" spans="1:19" ht="19.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="D403" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>24</v>
@@ -22207,15 +22171,15 @@
       </c>
       <c r="R403" s="3"/>
       <c r="S403" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="404" spans="1:19" ht="29.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>22</v>
@@ -22267,12 +22231,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>22</v>
@@ -22321,15 +22285,15 @@
       </c>
       <c r="R405" s="3"/>
       <c r="S405" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="406" spans="1:19" ht="29.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>22</v>
@@ -22381,12 +22345,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>22</v>
@@ -22432,12 +22396,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>22</v>
@@ -22483,12 +22447,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>22</v>
@@ -22537,15 +22501,15 @@
       </c>
       <c r="R409" s="3"/>
       <c r="S409" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="410" spans="1:19" ht="29.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>22</v>
@@ -22595,12 +22559,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>22</v>
@@ -22649,15 +22613,15 @@
       </c>
       <c r="R411" s="3"/>
       <c r="S411" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="412" spans="1:19" ht="29.25">
-      <c r="A412" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>22</v>
@@ -22695,12 +22659,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>22</v>
@@ -22743,24 +22707,24 @@
       <c r="Q413" s="3"/>
       <c r="R413" s="3"/>
       <c r="S413" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="414" spans="1:19" ht="29.25">
-      <c r="A414" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B414" s="2" t="s">
+      <c r="C414" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
@@ -22788,24 +22752,24 @@
       </c>
       <c r="R414" s="3"/>
       <c r="S414" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="415" spans="1:19" ht="29.25">
-      <c r="A415" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B415" s="2" t="s">
+      <c r="C415" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
@@ -22833,24 +22797,24 @@
       </c>
       <c r="R415" s="3"/>
       <c r="S415" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="416" spans="1:19" ht="29.25">
-      <c r="A416" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B416" s="2" t="s">
+      <c r="C416" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="D416" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E416" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E416" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -22878,24 +22842,24 @@
       </c>
       <c r="R416" s="3"/>
       <c r="S416" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" ht="29.25">
-      <c r="A417" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C417" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -22923,24 +22887,24 @@
       </c>
       <c r="R417" s="3"/>
       <c r="S417" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" ht="29.25">
-      <c r="A418" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C418" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D418" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D418" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="E418" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -22968,24 +22932,24 @@
       </c>
       <c r="R418" s="3"/>
       <c r="S418" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" ht="29.25">
-      <c r="A419" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C419" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -23013,24 +22977,24 @@
       </c>
       <c r="R419" s="3"/>
       <c r="S419" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" ht="39">
-      <c r="A420" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C420" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D420" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D420" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="E420" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -23058,24 +23022,24 @@
       </c>
       <c r="R420" s="3"/>
       <c r="S420" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" ht="48.75">
-      <c r="A421" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C421" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -23103,24 +23067,24 @@
       </c>
       <c r="R421" s="3"/>
       <c r="S421" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" ht="39">
-      <c r="A422" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C422" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -23148,24 +23112,24 @@
       </c>
       <c r="R422" s="3"/>
       <c r="S422" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" ht="39">
-      <c r="A423" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C423" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -23193,15 +23157,15 @@
       </c>
       <c r="R423" s="3"/>
       <c r="S423" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="424" spans="1:19" ht="29.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>30</v>
@@ -23248,15 +23212,15 @@
       <c r="Q424" s="3"/>
       <c r="R424" s="3"/>
       <c r="S424" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="425" spans="1:19" ht="29.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>30</v>
@@ -23303,15 +23267,15 @@
       <c r="Q425" s="3"/>
       <c r="R425" s="3"/>
       <c r="S425" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="426" spans="1:19" ht="29.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>30</v>
@@ -23358,21 +23322,21 @@
       <c r="Q426" s="3"/>
       <c r="R426" s="3"/>
       <c r="S426" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="427" spans="1:19" ht="29.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>24</v>
@@ -23413,21 +23377,21 @@
       <c r="Q427" s="3"/>
       <c r="R427" s="3"/>
       <c r="S427" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="428" spans="1:19" ht="29.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>24</v>
@@ -23468,15 +23432,15 @@
       <c r="Q428" s="3"/>
       <c r="R428" s="3"/>
       <c r="S428" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="429" spans="1:19" ht="29.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>22</v>
@@ -23485,7 +23449,7 @@
         <v>23</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F429" s="6">
         <v>12487</v>
@@ -23525,18 +23489,18 @@
       </c>
       <c r="R429" s="3"/>
       <c r="S429" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" ht="39">
-      <c r="A430" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B430" s="2" t="s">
+      <c r="C430" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>220</v>
@@ -23564,18 +23528,18 @@
       <c r="Q430" s="3"/>
       <c r="R430" s="3"/>
       <c r="S430" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="431" spans="1:19" ht="39">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>222</v>
@@ -23603,21 +23567,21 @@
       <c r="Q431" s="3"/>
       <c r="R431" s="3"/>
       <c r="S431" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="432" spans="1:19" ht="39">
-      <c r="A432" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C432" s="2" t="s">
+      <c r="D432" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>24</v>
@@ -23642,21 +23606,21 @@
       <c r="Q432" s="3"/>
       <c r="R432" s="3"/>
       <c r="S432" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" ht="39">
-      <c r="A433" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="D433" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>24</v>
@@ -23681,21 +23645,21 @@
       <c r="Q433" s="3"/>
       <c r="R433" s="3"/>
       <c r="S433" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" ht="39">
-      <c r="A434" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="D434" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>24</v>
@@ -23720,21 +23684,21 @@
       <c r="Q434" s="3"/>
       <c r="R434" s="3"/>
       <c r="S434" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" ht="39">
-      <c r="A435" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="D435" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>24</v>
@@ -23759,18 +23723,18 @@
       <c r="Q435" s="3"/>
       <c r="R435" s="3"/>
       <c r="S435" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="436" spans="1:19" ht="39">
-      <c r="A436" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>38</v>
@@ -23798,21 +23762,21 @@
       <c r="Q436" s="3"/>
       <c r="R436" s="3"/>
       <c r="S436" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="437" spans="1:19" ht="39">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>24</v>
@@ -23837,21 +23801,21 @@
       <c r="Q437" s="3"/>
       <c r="R437" s="3"/>
       <c r="S437" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="438" spans="1:19" ht="39">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>24</v>
@@ -23876,21 +23840,21 @@
       <c r="Q438" s="3"/>
       <c r="R438" s="3"/>
       <c r="S438" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="439" spans="1:19" ht="39">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>24</v>
@@ -23915,21 +23879,21 @@
       <c r="Q439" s="3"/>
       <c r="R439" s="3"/>
       <c r="S439" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="440" spans="1:19" ht="39">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>24</v>
@@ -23954,18 +23918,18 @@
       <c r="Q440" s="3"/>
       <c r="R440" s="3"/>
       <c r="S440" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="441" spans="1:19" ht="39">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D441" s="3" t="s">
         <v>38</v>
@@ -23993,15 +23957,15 @@
       <c r="Q441" s="3"/>
       <c r="R441" s="3"/>
       <c r="S441" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="442" spans="1:19" ht="29.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>22</v>
@@ -24050,15 +24014,15 @@
       </c>
       <c r="R442" s="3"/>
       <c r="S442" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="443" spans="1:19" ht="29.25">
-      <c r="A443" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>22</v>
@@ -24092,12 +24056,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="29.25">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>22</v>
@@ -24146,15 +24110,15 @@
       </c>
       <c r="R444" s="3"/>
       <c r="S444" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="445" spans="1:19" ht="29.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>22</v>
@@ -24203,18 +24167,18 @@
       </c>
       <c r="R445" s="3"/>
       <c r="S445" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="446" spans="1:19" ht="29.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>23</v>
@@ -24263,18 +24227,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="D447" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>24</v>
@@ -24320,12 +24284,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="48.75">
+    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>22</v>
@@ -24374,15 +24338,15 @@
       </c>
       <c r="R448" s="3"/>
       <c r="S448" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="449" spans="1:19" ht="29.25">
-      <c r="A449" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>22</v>
@@ -24434,12 +24398,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>22</v>
@@ -24488,21 +24452,21 @@
       </c>
       <c r="R450" s="3"/>
       <c r="S450" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="451" spans="1:19" ht="29.25">
-      <c r="A451" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B451" s="2" t="s">
+      <c r="C451" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="D451" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>47</v>
@@ -24548,18 +24512,18 @@
         <v>245</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="D452" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E452" s="3" t="s">
         <v>47</v>
@@ -24605,18 +24569,18 @@
         <v>245</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B453" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="D453" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>47</v>
@@ -24662,12 +24626,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="29.25">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>22</v>
@@ -24719,12 +24683,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="29.25">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>22</v>
@@ -24776,12 +24740,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="29.25">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>22</v>
@@ -24830,21 +24794,21 @@
       </c>
       <c r="R456" s="3"/>
       <c r="S456" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="457" spans="1:19" ht="29.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>284</v>
@@ -24890,18 +24854,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E458" s="3" t="s">
         <v>284</v>
@@ -24947,18 +24911,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="48.75">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E459" s="3" t="s">
         <v>284</v>
@@ -25004,18 +24968,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="29.25">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E460" s="3" t="s">
         <v>284</v>
@@ -25061,18 +25025,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="39">
+    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E461" s="3" t="s">
         <v>284</v>
@@ -25118,18 +25082,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="39">
+    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E462" s="3" t="s">
         <v>284</v>
@@ -25175,12 +25139,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>22</v>
@@ -25218,12 +25182,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>22</v>
@@ -25275,12 +25239,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>22</v>
@@ -25332,12 +25296,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>22</v>
@@ -25346,7 +25310,7 @@
         <v>23</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -25380,21 +25344,21 @@
       </c>
       <c r="R466" s="3"/>
       <c r="S466" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="467" spans="1:19" ht="39">
-      <c r="A467" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B467" s="2" t="s">
+      <c r="C467" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="D467" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="E467" s="3" t="s">
         <v>188</v>
@@ -25417,21 +25381,21 @@
       </c>
       <c r="R467" s="3"/>
       <c r="S467" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D468" s="3" t="s">
         <v>559</v>
-      </c>
-    </row>
-    <row r="468" spans="1:19" ht="39">
-      <c r="A468" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="E468" s="3" t="s">
         <v>188</v>
@@ -25474,21 +25438,21 @@
       </c>
       <c r="R468" s="3"/>
       <c r="S468" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="469" spans="1:19" ht="39">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B469" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="D469" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>188</v>
@@ -25531,14 +25495,14 @@
       </c>
       <c r="R469" s="3"/>
       <c r="S469" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B472" s="10"/>
     </row>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1705,7 +1705,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 31-01-2023, 13:20</t>
+    <t>Last update: 02-02-2023, 14:25</t>
   </si>
 </sst>
 </file>
@@ -4484,7 +4484,7 @@
         <v>8150</v>
       </c>
       <c r="R44" s="6">
-        <v>8134</v>
+        <v>8135</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>77</v>
@@ -17850,7 +17850,7 @@
         <v>776.56</v>
       </c>
       <c r="P320" s="5">
-        <v>829.27</v>
+        <v>829</v>
       </c>
       <c r="Q320" s="5">
         <v>983.51</v>
@@ -21730,7 +21730,9 @@
       <c r="Q389" s="6">
         <v>67</v>
       </c>
-      <c r="R389" s="3"/>
+      <c r="R389" s="6">
+        <v>50</v>
+      </c>
       <c r="S389" s="2" t="s">
         <v>458</v>
       </c>
@@ -21787,7 +21789,9 @@
       <c r="Q390" s="6">
         <v>17</v>
       </c>
-      <c r="R390" s="3"/>
+      <c r="R390" s="6">
+        <v>0</v>
+      </c>
       <c r="S390" s="2" t="s">
         <v>458</v>
       </c>
@@ -21844,7 +21848,9 @@
       <c r="Q391" s="6">
         <v>17</v>
       </c>
-      <c r="R391" s="3"/>
+      <c r="R391" s="6">
+        <v>17</v>
+      </c>
       <c r="S391" s="2" t="s">
         <v>458</v>
       </c>
@@ -21901,7 +21907,9 @@
       <c r="Q392" s="6">
         <v>33</v>
       </c>
-      <c r="R392" s="3"/>
+      <c r="R392" s="6">
+        <v>50</v>
+      </c>
       <c r="S392" s="2" t="s">
         <v>458</v>
       </c>
@@ -22824,7 +22832,9 @@
       <c r="Q411" s="6">
         <v>0</v>
       </c>
-      <c r="R411" s="3"/>
+      <c r="R411" s="6">
+        <v>1</v>
+      </c>
       <c r="S411" s="2" t="s">
         <v>488</v>
       </c>
@@ -24957,7 +24967,7 @@
         <v>776.6</v>
       </c>
       <c r="P455" s="4">
-        <v>837.3</v>
+        <v>829</v>
       </c>
       <c r="Q455" s="4">
         <v>983.5</v>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1705,13 +1700,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 02-02-2023, 14:25</t>
+    <t>Last update: 07-02-2023, 10:17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1720,7 +1715,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1918,14 +1913,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1946,7 +1933,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2009,7 +1996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,10 +2028,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2076,7 +2062,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2252,7 +2237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2260,7 +2245,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2272,17 +2257,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2396,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2451,7 +2436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2506,7 +2491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2561,7 +2546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2616,7 +2601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2671,7 +2656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2726,7 +2711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2781,7 +2766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2836,7 +2821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2891,7 +2876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2946,7 +2931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3001,7 +2986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3040,7 +3025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3097,7 +3082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="97.5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3152,7 +3137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="97.5">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="97.5">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3262,7 +3247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3317,7 +3302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3374,7 +3359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3431,7 +3416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3476,7 +3461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3521,7 +3506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3566,7 +3551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3662,7 +3647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3719,7 +3704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3776,7 +3761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3833,7 +3818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3890,7 +3875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.5">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3945,7 +3930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="29.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3990,7 +3975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="29.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4035,7 +4020,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="29.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4080,7 +4065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4125,7 +4110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4170,7 +4155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4215,7 +4200,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="39">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4254,7 +4239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4313,7 +4298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4372,7 +4357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="97.5">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4431,7 +4416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="97.5">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4490,7 +4475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="97.5">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4549,7 +4534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="97.5">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4608,7 +4593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="48.75">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4657,7 +4642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="48.75">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4706,7 +4691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4761,7 +4746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="29.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4812,7 +4797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4867,7 +4852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4924,7 +4909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4981,7 +4966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5038,7 +5023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5095,7 +5080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5152,7 +5137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5209,7 +5194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5266,7 +5251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="29.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5323,7 +5308,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5380,7 +5365,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="29.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5437,7 +5422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="29.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5494,7 +5479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="29.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5551,7 +5536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5608,7 +5593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="29.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5665,7 +5650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="29.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5722,7 +5707,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="29.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5779,7 +5764,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5834,7 +5819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5889,7 +5874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5944,7 +5929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5999,7 +5984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6054,7 +6039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6109,7 +6094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6164,7 +6149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6221,7 +6206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6278,7 +6263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6317,7 +6302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6374,7 +6359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6431,7 +6416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6488,7 +6473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6529,7 +6514,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6574,7 +6559,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6619,7 +6604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6654,7 +6639,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6689,7 +6674,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6744,7 +6729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6783,7 +6768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6840,7 +6825,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6897,7 +6882,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6938,7 +6923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6989,7 +6974,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7028,7 +7013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7067,7 +7052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7106,7 +7091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7159,7 +7144,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="48.75">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7196,7 +7181,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="48.75">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7233,7 +7218,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="48.75">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7270,7 +7255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="48.75">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7311,7 +7296,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="48.75">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7352,7 +7337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="48.75">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7393,7 +7378,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="48.75">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7434,7 +7419,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="48.75">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7475,7 +7460,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="48.75">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7516,7 +7501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7553,7 +7538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7610,7 +7595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7667,7 +7652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7724,7 +7709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7761,7 +7746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7798,7 +7783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7835,7 +7820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="29.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7880,7 +7865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7927,7 +7912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="39">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -7974,7 +7959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="48.75">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8021,7 +8006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="58.5">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8068,7 +8053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8115,7 +8100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8160,7 +8145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8207,7 +8192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="39">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8254,7 +8239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="48.75">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8301,7 +8286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="58.5">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8348,7 +8333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8395,7 +8380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8434,7 +8419,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8473,7 +8458,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="29.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8530,7 +8515,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8565,7 +8550,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8600,7 +8585,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8635,7 +8620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8670,7 +8655,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8705,7 +8690,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8740,7 +8725,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8775,7 +8760,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8810,7 +8795,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8845,7 +8830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8880,7 +8865,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8915,7 +8900,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8950,7 +8935,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -8985,7 +8970,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9020,7 +9005,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9055,7 +9040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9090,7 +9075,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9149,7 +9134,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9208,7 +9193,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9243,7 +9228,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9278,7 +9263,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9337,7 +9322,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9396,7 +9381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9455,7 +9440,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="29.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9506,7 +9491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9561,7 +9546,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9616,7 +9601,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9671,7 +9656,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9726,7 +9711,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="29.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9761,7 +9746,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="19.5">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9818,7 +9803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="39">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9853,7 +9838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="39">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9888,7 +9873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="39">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9923,7 +9908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="39">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -9958,7 +9943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="39">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -9993,7 +9978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10028,7 +10013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10063,7 +10048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10098,7 +10083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10133,7 +10118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10168,7 +10153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10203,7 +10188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10238,7 +10223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10273,7 +10258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="29.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10312,7 +10297,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="29.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10351,7 +10336,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="29.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10408,7 +10393,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="29.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10465,7 +10450,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="29.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10522,7 +10507,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="29.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10579,7 +10564,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="29.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10636,7 +10621,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="19.5">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10681,7 +10666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="39">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10726,7 +10711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10771,7 +10756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10816,7 +10801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10861,7 +10846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10906,7 +10891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="39">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -10951,7 +10936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -10990,7 +10975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11029,7 +11014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11068,7 +11053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11107,7 +11092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11146,7 +11131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11185,7 +11170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11224,7 +11209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11263,7 +11248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11302,7 +11287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11341,7 +11326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11380,7 +11365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11419,7 +11404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="19.5">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11460,7 +11445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11515,7 +11500,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11570,7 +11555,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11627,7 +11612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11684,7 +11669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11741,7 +11726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11776,7 +11761,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11811,7 +11796,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11866,7 +11851,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11921,7 +11906,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="19.5">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -11966,7 +11951,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12021,7 +12006,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12072,7 +12057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="39">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12129,7 +12114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12164,7 +12149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12219,7 +12204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12274,7 +12259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12325,7 +12310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12382,7 +12367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12439,7 +12424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12478,7 +12463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12517,7 +12502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12556,7 +12541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12613,7 +12598,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12670,7 +12655,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12727,7 +12712,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12772,7 +12757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12817,7 +12802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12862,7 +12847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12907,7 +12892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -12952,7 +12937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -12997,7 +12982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13042,7 +13027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13087,7 +13072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13132,7 +13117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13177,7 +13162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13222,7 +13207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13267,7 +13252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13312,7 +13297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13357,7 +13342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13402,7 +13387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13447,7 +13432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13492,7 +13477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13537,7 +13522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13582,7 +13567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13639,7 +13624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13696,7 +13681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13753,7 +13738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13810,7 +13795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13867,7 +13852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -13924,7 +13909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -13981,7 +13966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14038,7 +14023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14095,7 +14080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14152,7 +14137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14209,7 +14194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14266,7 +14251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14307,7 +14292,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14348,7 +14333,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14389,7 +14374,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14446,7 +14431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="48.75">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14503,7 +14488,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14538,7 +14523,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14573,7 +14558,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14608,7 +14593,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14643,7 +14628,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14678,7 +14663,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14713,7 +14698,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14748,7 +14733,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14783,7 +14768,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14834,7 +14819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="29.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14891,7 +14876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -14948,7 +14933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -15005,7 +14990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15062,7 +15047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15119,7 +15104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15176,7 +15161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15233,7 +15218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15290,7 +15275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="29.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15347,7 +15332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="29.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15404,7 +15389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="29.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15461,7 +15446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="29.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15518,7 +15503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="29.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15575,7 +15560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="29.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15632,7 +15617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="29.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15689,7 +15674,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="29.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15746,7 +15731,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="29.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15803,7 +15788,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="29.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15860,7 +15845,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="29.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -15917,7 +15902,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="29.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -15974,7 +15959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="29.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16025,7 +16010,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="29.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16082,7 +16067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="29.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16139,7 +16124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="29.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16190,7 +16175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="29.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16243,7 +16228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="39">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16292,7 +16277,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="39">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16341,7 +16326,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16398,7 +16383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="68.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16455,7 +16440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16512,7 +16497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16569,7 +16554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16626,7 +16611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16683,7 +16668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16740,7 +16725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16797,7 +16782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16854,7 +16839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -16911,7 +16896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -16968,7 +16953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -17007,7 +16992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17064,7 +17049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="39">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17121,7 +17106,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17178,7 +17163,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="39">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17235,7 +17220,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="39">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17292,7 +17277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17349,7 +17334,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="39">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17404,7 +17389,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="29.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17461,7 +17446,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="29.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17518,7 +17503,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="39">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17575,7 +17560,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="29.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17632,7 +17617,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17689,7 +17674,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="29.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17746,7 +17731,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17803,7 +17788,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="39">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17860,7 +17845,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="39">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -17917,7 +17902,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="68.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -17974,7 +17959,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="58.5">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18031,7 +18016,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="68.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18088,7 +18073,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="68.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18145,7 +18130,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="39">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18202,7 +18187,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="68.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18259,7 +18244,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="58.5">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18316,7 +18301,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="68.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18373,7 +18358,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="68.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18430,7 +18415,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18485,7 +18470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18540,7 +18525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18595,7 +18580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="29.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18652,7 +18637,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="29.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18709,7 +18694,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="29.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18766,7 +18751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="29.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18823,7 +18808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="29.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18880,7 +18865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="29.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -18937,7 +18922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="29.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -18987,14 +18972,14 @@
         <v>20.7</v>
       </c>
       <c r="Q340" s="4">
-        <v>1</v>
+        <v>22.5</v>
       </c>
       <c r="R340" s="3"/>
       <c r="S340" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="29.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19051,7 +19036,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="29.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19108,7 +19093,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="29.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19165,7 +19150,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="29.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19222,7 +19207,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="29.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19279,7 +19264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="29.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19336,7 +19321,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="29.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19393,7 +19378,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="29.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19450,7 +19435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="29.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19507,7 +19492,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="29.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19564,7 +19549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="29.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19621,7 +19606,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="29.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19678,7 +19663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="29.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19735,7 +19720,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="29.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19792,7 +19777,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="29.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19849,7 +19834,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="29.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -19906,7 +19891,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="29.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -19963,7 +19948,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="29.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20018,7 +20003,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="29.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20075,7 +20060,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="29.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20132,7 +20117,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="29.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20189,7 +20174,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="29.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20246,7 +20231,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="29.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20303,7 +20288,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20360,7 +20345,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20417,7 +20402,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20474,7 +20459,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20531,7 +20516,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20588,7 +20573,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20645,7 +20630,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20702,7 +20687,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20759,7 +20744,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20816,7 +20801,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20873,7 +20858,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -20930,7 +20915,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="48.75">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -20989,7 +20974,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21034,7 +21019,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21079,7 +21064,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21124,7 +21109,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21177,7 +21162,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21222,7 +21207,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21281,7 +21266,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21340,7 +21325,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="29.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21397,7 +21382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="29.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21454,7 +21439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="39">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21513,7 +21498,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="39">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21568,7 +21553,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21627,7 +21612,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="29.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21678,7 +21663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="39">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21737,7 +21722,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="48.75">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21796,7 +21781,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="48.75">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21855,7 +21840,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="58.5">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -21914,7 +21899,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="58.5">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -21969,7 +21954,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22024,7 +22009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22079,7 +22064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22136,7 +22121,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22175,7 +22160,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22208,7 +22193,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22241,7 +22226,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22274,7 +22259,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22313,7 +22298,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22352,7 +22337,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22391,7 +22376,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="29.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22450,7 +22435,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22507,7 +22492,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22566,7 +22551,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22617,7 +22602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22668,7 +22653,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22725,7 +22710,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22780,7 +22765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22839,7 +22824,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -22882,7 +22867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -22935,7 +22920,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -22980,7 +22965,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23025,7 +23010,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23070,7 +23055,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23115,7 +23100,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23160,7 +23145,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23205,7 +23190,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23250,7 +23235,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="48.75">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23295,7 +23280,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23340,7 +23325,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23385,7 +23370,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="29.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23442,7 +23427,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="29.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23497,7 +23482,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="29.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23552,7 +23537,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="29.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23607,7 +23592,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="29.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23664,7 +23649,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23721,7 +23706,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="39">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23760,7 +23745,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="39">
       <c r="A431" s="2" t="s">
         <v>485</v>
       </c>
@@ -23799,7 +23784,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="39">
       <c r="A432" s="2" t="s">
         <v>485</v>
       </c>
@@ -23838,7 +23823,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="39">
       <c r="A433" s="2" t="s">
         <v>485</v>
       </c>
@@ -23877,7 +23862,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="39">
       <c r="A434" s="2" t="s">
         <v>485</v>
       </c>
@@ -23916,7 +23901,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="39">
       <c r="A435" s="2" t="s">
         <v>485</v>
       </c>
@@ -23955,7 +23940,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="39">
       <c r="A436" s="2" t="s">
         <v>485</v>
       </c>
@@ -23994,7 +23979,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="39">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -24033,7 +24018,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="39">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
@@ -24072,7 +24057,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="39">
       <c r="A439" s="2" t="s">
         <v>485</v>
       </c>
@@ -24111,7 +24096,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="39">
       <c r="A440" s="2" t="s">
         <v>485</v>
       </c>
@@ -24150,7 +24135,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="39">
       <c r="A441" s="2" t="s">
         <v>485</v>
       </c>
@@ -24189,7 +24174,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>485</v>
       </c>
@@ -24248,7 +24233,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>485</v>
       </c>
@@ -24287,7 +24272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="29.25">
       <c r="A444" s="2" t="s">
         <v>522</v>
       </c>
@@ -24344,7 +24329,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="29.25">
       <c r="A445" s="2" t="s">
         <v>522</v>
       </c>
@@ -24401,7 +24386,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="29.25">
       <c r="A446" s="2" t="s">
         <v>522</v>
       </c>
@@ -24458,7 +24443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>522</v>
       </c>
@@ -24515,7 +24500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="48.75">
       <c r="A448" s="2" t="s">
         <v>522</v>
       </c>
@@ -24572,7 +24557,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="29.25">
       <c r="A449" s="2" t="s">
         <v>522</v>
       </c>
@@ -24629,7 +24614,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>522</v>
       </c>
@@ -24686,7 +24671,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>522</v>
       </c>
@@ -24745,7 +24730,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>522</v>
       </c>
@@ -24804,7 +24789,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>522</v>
       </c>
@@ -24863,7 +24848,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="29.25">
       <c r="A454" s="2" t="s">
         <v>522</v>
       </c>
@@ -24920,7 +24905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="29.25">
       <c r="A455" s="2" t="s">
         <v>522</v>
       </c>
@@ -24977,7 +24962,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="29.25">
       <c r="A456" s="2" t="s">
         <v>522</v>
       </c>
@@ -25034,7 +25019,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>522</v>
       </c>
@@ -25091,7 +25076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>522</v>
       </c>
@@ -25150,7 +25135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="48.75">
       <c r="A459" s="2" t="s">
         <v>522</v>
       </c>
@@ -25209,7 +25194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="29.25">
       <c r="A460" s="2" t="s">
         <v>522</v>
       </c>
@@ -25268,7 +25253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="39">
       <c r="A461" s="2" t="s">
         <v>522</v>
       </c>
@@ -25325,7 +25310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="39">
       <c r="A462" s="2" t="s">
         <v>522</v>
       </c>
@@ -25382,7 +25367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>522</v>
       </c>
@@ -25425,7 +25410,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -25484,7 +25469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>522</v>
       </c>
@@ -25543,7 +25528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>522</v>
       </c>
@@ -25594,7 +25579,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="39">
       <c r="A467" s="2" t="s">
         <v>522</v>
       </c>
@@ -25631,7 +25616,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="39">
       <c r="A468" s="2" t="s">
         <v>522</v>
       </c>
@@ -25688,7 +25673,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="39">
       <c r="A469" s="2" t="s">
         <v>522</v>
       </c>
@@ -25745,9 +25730,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>560</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1700,7 +1700,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 07-02-2023, 10:17</t>
+    <t>Last update: 07-02-2023, 13:42</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1700,13 +1705,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 07-02-2023, 13:42</t>
+    <t>Last update: 28-02-2023, 09:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1715,7 +1720,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1913,6 +1918,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1933,7 +1946,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1996,7 +2009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,9 +2041,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2062,6 +2076,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2237,15 +2252,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2257,17 +2272,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2491,7 +2506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2546,7 +2561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +2726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2766,7 +2781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2821,7 +2836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +2946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29.25">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="97.5">
+    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3137,7 +3152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="97.5">
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3192,7 +3207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="97.5">
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3247,7 +3262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29.25">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3359,7 +3374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="29.25">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3416,7 +3431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="29.25">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3461,7 +3476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +3521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3551,7 +3566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3596,7 +3611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3647,7 +3662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3704,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3761,7 +3776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3875,7 +3890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19.5">
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="29.25">
+    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="29.25">
+    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4020,7 +4035,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="29.25">
+    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4065,7 +4080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4110,7 +4125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4155,7 +4170,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4200,7 +4215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="39">
+    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4239,7 +4254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="97.5">
+    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4298,7 +4313,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="97.5">
+    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4357,7 +4372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="97.5">
+    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4416,7 +4431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="97.5">
+    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4475,7 +4490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="97.5">
+    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4534,7 +4549,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="97.5">
+    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4593,7 +4608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="48.75">
+    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4642,7 +4657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="48.75">
+    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4691,7 +4706,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4746,7 +4761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="29.25">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4797,7 +4812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4852,7 +4867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4909,7 +4924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4966,7 +4981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5023,7 +5038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5080,7 +5095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5137,7 +5152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5194,7 +5209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5251,7 +5266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="29.25">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5308,7 +5323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5365,7 +5380,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="29.25">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5422,7 +5437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="29.25">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5479,7 +5494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="29.25">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5536,7 +5551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5593,7 +5608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="29.25">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="29.25">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5707,7 +5722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="29.25">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5764,7 +5779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5811,15 +5826,17 @@
         <v>421</v>
       </c>
       <c r="P68" s="4">
-        <v>455.1</v>
-      </c>
-      <c r="Q68" s="3"/>
+        <v>457.2</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>475.8</v>
+      </c>
       <c r="R68" s="3"/>
       <c r="S68" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5866,15 +5883,17 @@
         <v>24.2</v>
       </c>
       <c r="P69" s="4">
-        <v>31.7</v>
-      </c>
-      <c r="Q69" s="3"/>
+        <v>31.9</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>28.5</v>
+      </c>
       <c r="R69" s="3"/>
       <c r="S69" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5921,15 +5940,17 @@
         <v>261.3</v>
       </c>
       <c r="P70" s="4">
-        <v>260.39999999999998</v>
-      </c>
-      <c r="Q70" s="3"/>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>246.5</v>
+      </c>
       <c r="R70" s="3"/>
       <c r="S70" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5976,15 +5997,17 @@
         <v>22.6</v>
       </c>
       <c r="P71" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="Q71" s="3"/>
+        <v>22.9</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>25.4</v>
+      </c>
       <c r="R71" s="3"/>
       <c r="S71" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6039,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6094,7 +6117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6149,7 +6172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6206,7 +6229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6263,7 +6286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6302,7 +6325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6359,7 +6382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6416,7 +6439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6473,7 +6496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6514,7 +6537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6559,7 +6582,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6604,7 +6627,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.5">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6639,7 +6662,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="29.25">
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6674,7 +6697,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6729,7 +6752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6768,7 +6791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.5">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6825,7 +6848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.5">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6882,7 +6905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.5">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6923,7 +6946,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="29.25">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6974,7 +6997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7013,7 +7036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7052,7 +7075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7091,7 +7114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7144,7 +7167,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="48.75">
+    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7181,7 +7204,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="48.75">
+    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7218,7 +7241,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="48.75">
+    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7255,7 +7278,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="48.75">
+    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7296,7 +7319,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="48.75">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7337,7 +7360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="48.75">
+    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7378,7 +7401,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="48.75">
+    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7419,7 +7442,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="48.75">
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7460,7 +7483,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="48.75">
+    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7501,7 +7524,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7538,7 +7561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7595,7 +7618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7652,7 +7675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7709,7 +7732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="19.5">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7746,7 +7769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="19.5">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7783,7 +7806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="19.5">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7820,7 +7843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="29.25">
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7865,7 +7888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="19.5">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7912,7 +7935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="39">
+    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -7959,7 +7982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="48.75">
+    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8006,7 +8029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="58.5">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8053,7 +8076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8100,7 +8123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="29.25">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8145,7 +8168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="19.5">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8192,7 +8215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="39">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8239,7 +8262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="48.75">
+    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8286,7 +8309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="58.5">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8333,7 +8356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8380,7 +8403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="48.75">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8419,7 +8442,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="48.75">
+    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8458,7 +8481,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="29.25">
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8515,7 +8538,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8550,7 +8573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8585,7 +8608,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8620,7 +8643,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8655,7 +8678,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8690,7 +8713,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8725,7 +8748,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8760,7 +8783,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8795,7 +8818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8830,7 +8853,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8865,7 +8888,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8900,7 +8923,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8935,7 +8958,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -8970,7 +8993,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9005,7 +9028,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9040,7 +9063,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9075,7 +9098,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9134,7 +9157,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="58.5">
+    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9193,7 +9216,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="58.5">
+    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9228,7 +9251,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="58.5">
+    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9263,7 +9286,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="58.5">
+    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9322,7 +9345,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="58.5">
+    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9381,7 +9404,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="58.5">
+    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9440,7 +9463,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="29.25">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9491,7 +9514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="58.5">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9546,7 +9569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="58.5">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9601,7 +9624,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="58.5">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9656,7 +9679,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="58.5">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9711,7 +9734,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="29.25">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9746,7 +9769,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="19.5">
+    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9803,7 +9826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="39">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9838,7 +9861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="39">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9873,7 +9896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="39">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9908,7 +9931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="39">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -9943,7 +9966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="39">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -9978,7 +10001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10013,7 +10036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10048,7 +10071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10083,7 +10106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10118,7 +10141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10153,7 +10176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10188,7 +10211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10223,7 +10246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10258,7 +10281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="29.25">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10297,7 +10320,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="29.25">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10336,7 +10359,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="29.25">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10393,7 +10416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="29.25">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10450,7 +10473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="29.25">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10507,7 +10530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="29.25">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10564,7 +10587,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="29.25">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10621,7 +10644,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="19.5">
+    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10666,7 +10689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="39">
+    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10711,7 +10734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="19.5">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10756,7 +10779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10801,7 +10824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10846,7 +10869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10891,7 +10914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="39">
+    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -10936,7 +10959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -10975,7 +10998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11014,7 +11037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11053,7 +11076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11092,7 +11115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11131,7 +11154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11170,7 +11193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11209,7 +11232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11248,7 +11271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11287,7 +11310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11326,7 +11349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11365,7 +11388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11404,7 +11427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="19.5">
+    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11445,7 +11468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11500,7 +11523,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11555,7 +11578,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11612,7 +11635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11669,7 +11692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11726,7 +11749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11761,7 +11784,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11796,7 +11819,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11851,7 +11874,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11906,7 +11929,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="19.5">
+    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -11951,7 +11974,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="29.25">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12006,7 +12029,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12057,7 +12080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="39">
+    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12114,7 +12137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12149,7 +12172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12204,7 +12227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="29.25">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12259,7 +12282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="29.25">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12310,7 +12333,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12367,7 +12390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12424,7 +12447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12463,7 +12486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12502,7 +12525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12541,7 +12564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12598,7 +12621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12655,7 +12678,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12712,7 +12735,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12757,7 +12780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12802,7 +12825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12847,7 +12870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="29.25">
+    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12892,7 +12915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -12937,7 +12960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -12982,7 +13005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13027,7 +13050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13072,7 +13095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13117,7 +13140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13162,7 +13185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13207,7 +13230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13252,7 +13275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13297,7 +13320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13342,7 +13365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13387,7 +13410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13432,7 +13455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13477,7 +13500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13522,7 +13545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13567,7 +13590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13624,7 +13647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13681,7 +13704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13738,7 +13761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13795,7 +13818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13852,7 +13875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -13909,7 +13932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -13966,7 +13989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14023,7 +14046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14080,7 +14103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14137,7 +14160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14194,7 +14217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14251,7 +14274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14292,7 +14315,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14333,7 +14356,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14374,7 +14397,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14431,7 +14454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="48.75">
+    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14488,7 +14511,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14523,7 +14546,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14558,7 +14581,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14593,7 +14616,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14628,7 +14651,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14663,7 +14686,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14698,7 +14721,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14733,7 +14756,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14768,7 +14791,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14819,7 +14842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="29.25">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14876,7 +14899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="29.25">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -14933,7 +14956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="29.25">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -14990,7 +15013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="29.25">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15047,7 +15070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="29.25">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15104,7 +15127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="29.25">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15161,7 +15184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="29.25">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15218,7 +15241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="29.25">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15275,7 +15298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="29.25">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15332,7 +15355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="29.25">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15389,7 +15412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="29.25">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15446,7 +15469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="29.25">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15503,7 +15526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="29.25">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15560,7 +15583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="29.25">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15617,7 +15640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="29.25">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15674,7 +15697,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="29.25">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15731,7 +15754,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="29.25">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15788,7 +15811,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="29.25">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15845,7 +15868,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="29.25">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -15902,7 +15925,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="29.25">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -15959,7 +15982,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="29.25">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16010,7 +16033,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="29.25">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16067,7 +16090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="29.25">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16124,7 +16147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="29.25">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16175,7 +16198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="29.25">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16228,7 +16251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="39">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16277,7 +16300,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="39">
+    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16326,7 +16349,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16383,7 +16406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="68.25">
+    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16440,7 +16463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16497,7 +16520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16554,7 +16577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16611,7 +16634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16668,7 +16691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16725,7 +16748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16782,7 +16805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16839,7 +16862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -16896,7 +16919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -16953,7 +16976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -16992,7 +17015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17049,7 +17072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="39">
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17106,7 +17129,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17163,7 +17186,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="39">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17220,7 +17243,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="39">
+    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17277,7 +17300,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="29.25">
+    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17334,7 +17357,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="39">
+    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17389,7 +17412,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="29.25">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17446,7 +17469,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="29.25">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17503,7 +17526,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="39">
+    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17560,7 +17583,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="29.25">
+    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17617,7 +17640,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17674,7 +17697,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="29.25">
+    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17731,7 +17754,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17788,7 +17811,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="39">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17845,7 +17868,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="39">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -17902,7 +17925,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="68.25">
+    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -17959,7 +17982,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="58.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18016,7 +18039,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="68.25">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18073,7 +18096,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="68.25">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18130,7 +18153,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="39">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18187,7 +18210,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="68.25">
+    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18244,7 +18267,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="58.5">
+    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18301,7 +18324,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="68.25">
+    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18358,7 +18381,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="68.25">
+    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18415,7 +18438,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="29.25">
+    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18470,7 +18493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="29.25">
+    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18525,7 +18548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="29.25">
+    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18580,7 +18603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="29.25">
+    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18637,7 +18660,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="29.25">
+    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18694,7 +18717,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="29.25">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18751,7 +18774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="29.25">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18808,7 +18831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="29.25">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18865,7 +18888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="29.25">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -18922,7 +18945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="29.25">
+    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -18979,7 +19002,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="29.25">
+    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19036,7 +19059,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="29.25">
+    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19093,7 +19116,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="29.25">
+    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19150,7 +19173,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="29.25">
+    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19207,7 +19230,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="29.25">
+    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19264,7 +19287,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="29.25">
+    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19321,7 +19344,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="29.25">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19378,7 +19401,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="29.25">
+    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19435,7 +19458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="29.25">
+    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19492,7 +19515,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="29.25">
+    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19549,7 +19572,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="29.25">
+    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19606,7 +19629,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="29.25">
+    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19663,7 +19686,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="29.25">
+    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19720,7 +19743,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="29.25">
+    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19777,7 +19800,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="29.25">
+    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19834,7 +19857,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="29.25">
+    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -19891,7 +19914,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="29.25">
+    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -19948,7 +19971,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="29.25">
+    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20003,7 +20026,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="29.25">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20060,7 +20083,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="29.25">
+    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20117,7 +20140,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="29.25">
+    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20174,7 +20197,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="29.25">
+    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20231,7 +20254,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="29.25">
+    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20288,7 +20311,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20345,7 +20368,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20402,7 +20425,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20459,7 +20482,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20516,7 +20539,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20573,7 +20596,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20630,7 +20653,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20687,7 +20710,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20744,7 +20767,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20801,7 +20824,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20858,7 +20881,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -20915,7 +20938,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="48.75">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -20974,7 +20997,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21019,7 +21042,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21064,7 +21087,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21109,7 +21132,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21162,7 +21185,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21207,7 +21230,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21266,7 +21289,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21325,7 +21348,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="29.25">
+    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21382,7 +21405,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="29.25">
+    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21439,7 +21462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="39">
+    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21498,7 +21521,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="39">
+    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21553,7 +21576,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21612,7 +21635,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="29.25">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21663,7 +21686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="39">
+    <row r="389" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21722,7 +21745,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="48.75">
+    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21781,7 +21804,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="48.75">
+    <row r="391" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21840,7 +21863,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="58.5">
+    <row r="392" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -21899,7 +21922,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="58.5">
+    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -21954,7 +21977,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22009,7 +22032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="19.5">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22064,7 +22087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="39">
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22121,7 +22144,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="19.5">
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22160,7 +22183,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="19.5">
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22193,7 +22216,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="19.5">
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22226,7 +22249,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="19.5">
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22259,7 +22282,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="19.5">
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22298,7 +22321,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="19.5">
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22337,7 +22360,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="19.5">
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22376,7 +22399,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="29.25">
+    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22435,7 +22458,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22492,7 +22515,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22551,7 +22574,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22602,7 +22625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22653,7 +22676,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22710,7 +22733,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22765,7 +22788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22824,7 +22847,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="29.25">
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -22867,7 +22890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -22920,7 +22943,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="29.25">
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -22965,7 +22988,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="29.25">
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23010,7 +23033,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="29.25">
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23055,7 +23078,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="29.25">
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23100,7 +23123,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="29.25">
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23145,7 +23168,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="29.25">
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23190,7 +23213,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="39">
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23235,7 +23258,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="48.75">
+    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23280,7 +23303,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="39">
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23325,7 +23348,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="39">
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23370,7 +23393,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="29.25">
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23427,7 +23450,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="29.25">
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23482,7 +23505,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="29.25">
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23537,7 +23560,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="29.25">
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23592,7 +23615,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="29.25">
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23649,7 +23672,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="29.25">
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23706,7 +23729,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="39">
+    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23745,7 +23768,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="39">
+    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>485</v>
       </c>
@@ -23784,7 +23807,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="39">
+    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>485</v>
       </c>
@@ -23823,7 +23846,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="39">
+    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>485</v>
       </c>
@@ -23862,7 +23885,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="39">
+    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>485</v>
       </c>
@@ -23901,7 +23924,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="39">
+    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>485</v>
       </c>
@@ -23940,7 +23963,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="39">
+    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>485</v>
       </c>
@@ -23979,7 +24002,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="39">
+    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -24018,7 +24041,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="39">
+    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
@@ -24057,7 +24080,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="39">
+    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>485</v>
       </c>
@@ -24096,7 +24119,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="39">
+    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>485</v>
       </c>
@@ -24135,7 +24158,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="39">
+    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>485</v>
       </c>
@@ -24174,7 +24197,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="29.25">
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>485</v>
       </c>
@@ -24233,7 +24256,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="29.25">
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>485</v>
       </c>
@@ -24272,7 +24295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="29.25">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>522</v>
       </c>
@@ -24329,7 +24352,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="29.25">
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>522</v>
       </c>
@@ -24386,7 +24409,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="29.25">
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>522</v>
       </c>
@@ -24443,7 +24466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>522</v>
       </c>
@@ -24500,7 +24523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="48.75">
+    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>522</v>
       </c>
@@ -24557,7 +24580,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="29.25">
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>522</v>
       </c>
@@ -24614,7 +24637,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>522</v>
       </c>
@@ -24671,7 +24694,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="29.25">
+    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>522</v>
       </c>
@@ -24730,7 +24753,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>522</v>
       </c>
@@ -24789,7 +24812,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>522</v>
       </c>
@@ -24848,7 +24871,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="29.25">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>522</v>
       </c>
@@ -24905,7 +24928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="29.25">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>522</v>
       </c>
@@ -24962,7 +24985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="29.25">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>522</v>
       </c>
@@ -25019,7 +25042,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="29.25">
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>522</v>
       </c>
@@ -25076,7 +25099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>522</v>
       </c>
@@ -25135,7 +25158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="48.75">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>522</v>
       </c>
@@ -25194,7 +25217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="29.25">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>522</v>
       </c>
@@ -25253,7 +25276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="39">
+    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>522</v>
       </c>
@@ -25310,7 +25333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="39">
+    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>522</v>
       </c>
@@ -25367,7 +25390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>522</v>
       </c>
@@ -25410,7 +25433,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -25469,7 +25492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>522</v>
       </c>
@@ -25528,7 +25551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>522</v>
       </c>
@@ -25579,7 +25602,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="39">
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>522</v>
       </c>
@@ -25616,7 +25639,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="39">
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>522</v>
       </c>
@@ -25673,7 +25696,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="39">
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>522</v>
       </c>
@@ -25730,9 +25753,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>560</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1705,7 +1705,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 28-02-2023, 09:55</t>
+    <t>Last update: 07-03-2023, 11:33</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1716,8 @@
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10809]0;\-0;0"/>
-    <numFmt numFmtId="167" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
-    <numFmt numFmtId="168" formatCode="[$-10809]0.000;\-0.000;0.000"/>
+    <numFmt numFmtId="167" formatCode="[$-10809]0.000;\-0.000;0.000"/>
+    <numFmt numFmtId="168" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -2255,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -2390,7 +2390,9 @@
       <c r="P4" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="4">
+        <v>0.2</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="2" t="s">
         <v>25</v>
@@ -3470,8 +3472,12 @@
       <c r="P24" s="6">
         <v>1</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
       <c r="S24" s="2" t="s">
         <v>53</v>
       </c>
@@ -3497,26 +3503,30 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="5">
+      <c r="K25" s="7">
         <v>0.8</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="7">
         <v>0.8</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>0.8</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="7">
         <v>0.85</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="7">
         <v>0.85</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="7">
         <v>0.85</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="Q25" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.875</v>
+      </c>
       <c r="S25" s="2" t="s">
         <v>53</v>
       </c>
@@ -3560,8 +3570,12 @@
       <c r="P26" s="6">
         <v>16</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="Q26" s="6">
+        <v>16</v>
+      </c>
+      <c r="R26" s="6">
+        <v>16</v>
+      </c>
       <c r="S26" s="2" t="s">
         <v>53</v>
       </c>
@@ -3605,8 +3619,12 @@
       <c r="P27" s="6">
         <v>100</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="Q27" s="6">
+        <v>100</v>
+      </c>
+      <c r="R27" s="6">
+        <v>100</v>
+      </c>
       <c r="S27" s="2" t="s">
         <v>53</v>
       </c>
@@ -3630,31 +3648,31 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="8">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="8">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="8">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="8">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="8">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="R28" s="3"/>
@@ -12221,7 +12239,9 @@
       <c r="P211" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="Q211" s="3"/>
+      <c r="Q211" s="5">
+        <v>15.62</v>
+      </c>
       <c r="R211" s="3"/>
       <c r="S211" s="2" t="s">
         <v>25</v>
@@ -12243,37 +12263,37 @@
       <c r="E212" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F212" s="8">
+      <c r="F212" s="7">
         <v>0.36799999999999999</v>
       </c>
-      <c r="G212" s="8">
+      <c r="G212" s="7">
         <v>0.35399999999999998</v>
       </c>
-      <c r="H212" s="8">
+      <c r="H212" s="7">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I212" s="8">
+      <c r="I212" s="7">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J212" s="8">
+      <c r="J212" s="7">
         <v>0.31</v>
       </c>
-      <c r="K212" s="8">
+      <c r="K212" s="7">
         <v>0.30099999999999999</v>
       </c>
-      <c r="L212" s="8">
+      <c r="L212" s="7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="M212" s="8">
+      <c r="M212" s="7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="7">
         <v>0.30299999999999999</v>
       </c>
-      <c r="O212" s="8">
+      <c r="O212" s="7">
         <v>0.28199999999999997</v>
       </c>
-      <c r="P212" s="8">
+      <c r="P212" s="7">
         <v>0.27600000000000002</v>
       </c>
       <c r="Q212" s="3"/>
@@ -22103,40 +22123,40 @@
       <c r="E396" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F396" s="8">
+      <c r="F396" s="7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G396" s="8">
+      <c r="G396" s="7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H396" s="8">
+      <c r="H396" s="7">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I396" s="8">
+      <c r="I396" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="J396" s="8">
+      <c r="J396" s="7">
         <v>0.20100000000000001</v>
       </c>
-      <c r="K396" s="8">
+      <c r="K396" s="7">
         <v>0.20300000000000001</v>
       </c>
-      <c r="L396" s="8">
+      <c r="L396" s="7">
         <v>0.20699999999999999</v>
       </c>
-      <c r="M396" s="8">
+      <c r="M396" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N396" s="8">
+      <c r="N396" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="O396" s="8">
+      <c r="O396" s="7">
         <v>0.19900000000000001</v>
       </c>
-      <c r="P396" s="8">
+      <c r="P396" s="7">
         <v>0.2</v>
       </c>
-      <c r="Q396" s="8">
+      <c r="Q396" s="7">
         <v>0.19900000000000001</v>
       </c>
       <c r="R396" s="3"/>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1705,13 +1700,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 07-03-2023, 11:33</t>
+    <t>Last update: 22-03-2023, 08:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1720,7 +1715,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1918,14 +1913,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1946,7 +1933,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2009,7 +1996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,10 +2028,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2076,7 +2062,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2252,15 +2237,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2272,17 +2257,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2453,7 +2438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2508,7 +2493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2563,7 +2548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2618,7 +2603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +2658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2728,7 +2713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2783,7 +2768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2838,7 +2823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2893,7 +2878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2948,7 +2933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +2988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3042,7 +3027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3099,7 +3084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="97.5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3154,7 +3139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="97.5">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +3194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="97.5">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3264,7 +3249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3319,7 +3304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3376,7 +3361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3433,7 +3418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3482,7 +3467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3531,7 +3516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3580,7 +3565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3629,7 +3614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3680,7 +3665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3737,7 +3722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3794,7 +3779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3851,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3908,7 +3893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.5">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3963,7 +3948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="29.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4008,7 +3993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="29.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4053,7 +4038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="29.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4098,7 +4083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4143,7 +4128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4188,7 +4173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4233,7 +4218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="39">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4272,7 +4257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4331,7 +4316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4390,7 +4375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="97.5">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4449,7 +4434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="97.5">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4508,7 +4493,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="97.5">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4567,7 +4552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="97.5">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4626,7 +4611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="48.75">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4675,7 +4660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="48.75">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4724,7 +4709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4779,7 +4764,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="29.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4830,7 +4815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4885,7 +4870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4942,7 +4927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4999,7 +4984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5056,7 +5041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5113,7 +5098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5170,7 +5155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5227,7 +5212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5284,7 +5269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="29.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5341,7 +5326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5398,7 +5383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="29.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5455,7 +5440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="29.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5512,7 +5497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="29.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5569,7 +5554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5626,7 +5611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="29.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5683,7 +5668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="29.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5740,7 +5725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="29.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5797,7 +5782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5854,7 +5839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5911,7 +5896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5968,7 +5953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -6025,7 +6010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6080,7 +6065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6135,7 +6120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6190,7 +6175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6247,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6304,7 +6289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6343,7 +6328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6400,7 +6385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6457,7 +6442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6514,7 +6499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6555,7 +6540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6600,7 +6585,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6645,7 +6630,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6680,7 +6665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6715,7 +6700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6770,7 +6755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6809,7 +6794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6866,7 +6851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6923,7 +6908,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6964,7 +6949,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -7015,7 +7000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7054,7 +7039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7093,7 +7078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7132,7 +7117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7185,7 +7170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="48.75">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7222,7 +7207,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="48.75">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7259,7 +7244,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="48.75">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7296,7 +7281,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="48.75">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7337,7 +7322,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="48.75">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7378,7 +7363,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="48.75">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7419,7 +7404,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="48.75">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7460,7 +7445,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="48.75">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7501,7 +7486,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="48.75">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7542,7 +7527,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7579,7 +7564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7636,7 +7621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7693,7 +7678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7750,7 +7735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7787,7 +7772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7824,7 +7809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7861,7 +7846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="29.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7906,7 +7891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7953,7 +7938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="39">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -8000,7 +7985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="48.75">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8047,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="58.5">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8094,7 +8079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8141,7 +8126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8186,7 +8171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8233,7 +8218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="39">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8280,7 +8265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="48.75">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8327,7 +8312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="58.5">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8374,7 +8359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8421,7 +8406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8460,7 +8445,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8499,7 +8484,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="29.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8556,7 +8541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8591,7 +8576,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8626,7 +8611,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8661,7 +8646,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8696,7 +8681,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8731,7 +8716,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8766,7 +8751,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8801,7 +8786,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8836,7 +8821,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8871,7 +8856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8906,7 +8891,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8941,7 +8926,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8976,7 +8961,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -9011,7 +8996,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9046,7 +9031,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9081,7 +9066,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9116,7 +9101,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9175,7 +9160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9234,7 +9219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9269,7 +9254,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9304,7 +9289,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9363,7 +9348,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9422,7 +9407,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9481,7 +9466,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="29.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9532,7 +9517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9587,7 +9572,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9642,7 +9627,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9697,7 +9682,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9752,7 +9737,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="29.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9787,7 +9772,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="19.5">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9844,7 +9829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="39">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9879,7 +9864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="39">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9914,7 +9899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="39">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9949,7 +9934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="39">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -9984,7 +9969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="39">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -10019,7 +10004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10054,7 +10039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10089,7 +10074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10124,7 +10109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10159,7 +10144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10194,7 +10179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10229,7 +10214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10264,7 +10249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10299,7 +10284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="29.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10338,7 +10323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="29.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10377,7 +10362,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="29.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10434,7 +10419,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="29.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10491,7 +10476,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="29.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10548,7 +10533,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="29.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10605,7 +10590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="29.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10662,7 +10647,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="19.5">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10707,7 +10692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="39">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10752,7 +10737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10797,7 +10782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10842,7 +10827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10887,7 +10872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10932,7 +10917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="39">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -10977,7 +10962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -11016,7 +11001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11055,7 +11040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11094,7 +11079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11133,7 +11118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11172,7 +11157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11211,7 +11196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11250,7 +11235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11289,7 +11274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11328,7 +11313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11367,7 +11352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11406,7 +11391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11445,7 +11430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="19.5">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11486,7 +11471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11541,7 +11526,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11596,7 +11581,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11653,7 +11638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11710,7 +11695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11767,7 +11752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11802,7 +11787,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11837,7 +11822,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11892,7 +11877,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11947,7 +11932,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="19.5">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -11992,7 +11977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12047,7 +12032,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12098,7 +12083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="39">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12155,7 +12140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12190,7 +12175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12247,7 +12232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12302,7 +12287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12353,7 +12338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12410,7 +12395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12467,7 +12452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12506,7 +12491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12545,7 +12530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12584,7 +12569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12641,7 +12626,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12698,7 +12683,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12755,7 +12740,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12800,7 +12785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12845,7 +12830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12890,7 +12875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12935,7 +12920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -12980,7 +12965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -13025,7 +13010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13070,7 +13055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13115,7 +13100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13160,7 +13145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13205,7 +13190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13250,7 +13235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13295,7 +13280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13340,7 +13325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13385,7 +13370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13430,7 +13415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13475,7 +13460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13520,7 +13505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13565,7 +13550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13610,7 +13595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13667,7 +13652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13724,7 +13709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13781,7 +13766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13838,7 +13823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13895,7 +13880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -13952,7 +13937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -14009,7 +13994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14066,7 +14051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14123,7 +14108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14180,7 +14165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14237,7 +14222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14294,7 +14279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14335,7 +14320,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14376,7 +14361,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14417,7 +14402,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14474,7 +14459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="48.75">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14531,7 +14516,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14566,7 +14551,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14601,7 +14586,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14636,7 +14621,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14671,7 +14656,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14706,7 +14691,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14741,7 +14726,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14776,7 +14761,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14811,7 +14796,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14862,7 +14847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="29.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14919,7 +14904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -14976,7 +14961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -15033,7 +15018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15090,7 +15075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15147,7 +15132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15204,7 +15189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15261,7 +15246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15318,7 +15303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="29.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15375,7 +15360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="29.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15432,7 +15417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="29.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15489,7 +15474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="29.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15546,7 +15531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="29.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15603,7 +15588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="29.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15660,7 +15645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="29.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15717,7 +15702,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="29.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15774,7 +15759,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="29.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15831,7 +15816,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="29.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15888,7 +15873,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="29.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -15945,7 +15930,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="29.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -16002,7 +15987,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="29.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16053,7 +16038,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="29.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16110,7 +16095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="29.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16167,7 +16152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="29.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16218,7 +16203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="29.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16271,7 +16256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="39">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16320,7 +16305,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="39">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16369,7 +16354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16426,7 +16411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="68.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16483,7 +16468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16540,7 +16525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16597,7 +16582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16654,7 +16639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16711,7 +16696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16768,7 +16753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16825,7 +16810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16882,7 +16867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -16939,7 +16924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -16996,7 +16981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -17035,7 +17020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17092,7 +17077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="39">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17149,7 +17134,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17206,7 +17191,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="39">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17263,7 +17248,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="39">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17320,7 +17305,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17377,7 +17362,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="39">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17432,7 +17417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="29.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17489,7 +17474,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="29.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17546,7 +17531,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="39">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17603,7 +17588,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="29.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17660,7 +17645,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17717,7 +17702,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="29.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17774,7 +17759,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17831,7 +17816,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="39">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17888,7 +17873,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="39">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -17945,7 +17930,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="68.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -18002,7 +17987,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="58.5">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18059,7 +18044,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="68.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18116,7 +18101,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="68.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18173,7 +18158,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="39">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18230,7 +18215,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="68.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18287,7 +18272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="58.5">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18344,7 +18329,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="68.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18401,7 +18386,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="68.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18458,7 +18443,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18513,7 +18498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18568,7 +18553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18623,7 +18608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="29.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18680,7 +18665,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="29.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18737,7 +18722,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="29.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18794,7 +18779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="29.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18851,7 +18836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="29.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18908,7 +18893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="29.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -18965,7 +18950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="29.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -19022,7 +19007,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="29.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19079,7 +19064,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="29.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19136,7 +19121,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="29.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19193,7 +19178,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="29.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19250,7 +19235,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="29.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19307,7 +19292,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="29.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19364,7 +19349,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="29.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19421,7 +19406,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="29.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19478,7 +19463,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="29.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19535,7 +19520,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="29.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19592,7 +19577,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="29.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19649,7 +19634,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="29.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19706,7 +19691,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="29.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19763,7 +19748,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="29.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19820,7 +19805,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="29.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19877,7 +19862,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="29.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -19934,7 +19919,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="29.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -19991,7 +19976,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="29.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20046,7 +20031,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="29.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20103,7 +20088,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="29.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20160,7 +20145,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="29.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20217,7 +20202,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="29.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20274,7 +20259,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="29.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20331,7 +20316,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20388,7 +20373,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20445,7 +20430,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20502,7 +20487,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20559,7 +20544,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20616,7 +20601,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20673,7 +20658,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20730,7 +20715,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20787,7 +20772,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20844,7 +20829,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20901,7 +20886,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -20958,7 +20943,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="48.75">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -21017,7 +21002,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21062,7 +21047,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21107,7 +21092,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21152,7 +21137,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21205,7 +21190,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21250,7 +21235,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21309,7 +21294,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21368,7 +21353,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="29.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21425,7 +21410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="29.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21482,7 +21467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="39">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21541,7 +21526,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="39">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21596,7 +21581,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21655,7 +21640,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="29.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21706,7 +21691,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="39">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21765,7 +21750,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="48.75">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21824,7 +21809,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="48.75">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21883,7 +21868,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="58.5">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -21942,7 +21927,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="58.5">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -21997,7 +21982,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22052,7 +22037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22107,7 +22092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22164,7 +22149,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22203,7 +22188,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22236,7 +22221,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22269,7 +22254,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22302,7 +22287,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22341,7 +22326,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22380,7 +22365,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22419,7 +22404,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="29.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22478,7 +22463,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22535,7 +22520,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22594,7 +22579,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22645,7 +22630,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22696,7 +22681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22753,7 +22738,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22808,7 +22793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22867,7 +22852,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -22910,7 +22895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -22963,7 +22948,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -23008,7 +22993,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23053,7 +23038,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23098,7 +23083,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23143,7 +23128,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23188,7 +23173,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23233,7 +23218,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23278,7 +23263,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="48.75">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23323,7 +23308,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23368,7 +23353,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23413,7 +23398,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="29.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23470,7 +23455,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="29.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23525,7 +23510,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="29.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23580,7 +23565,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="29.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23635,7 +23620,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="29.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23692,7 +23677,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23749,7 +23734,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="39">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23788,7 +23773,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="39">
       <c r="A431" s="2" t="s">
         <v>485</v>
       </c>
@@ -23827,7 +23812,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="39">
       <c r="A432" s="2" t="s">
         <v>485</v>
       </c>
@@ -23866,7 +23851,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="39">
       <c r="A433" s="2" t="s">
         <v>485</v>
       </c>
@@ -23905,7 +23890,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="39">
       <c r="A434" s="2" t="s">
         <v>485</v>
       </c>
@@ -23944,7 +23929,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="39">
       <c r="A435" s="2" t="s">
         <v>485</v>
       </c>
@@ -23983,7 +23968,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="39">
       <c r="A436" s="2" t="s">
         <v>485</v>
       </c>
@@ -24022,7 +24007,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="39">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -24061,7 +24046,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="39">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
@@ -24100,7 +24085,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="39">
       <c r="A439" s="2" t="s">
         <v>485</v>
       </c>
@@ -24139,7 +24124,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="39">
       <c r="A440" s="2" t="s">
         <v>485</v>
       </c>
@@ -24178,7 +24163,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="39">
       <c r="A441" s="2" t="s">
         <v>485</v>
       </c>
@@ -24217,7 +24202,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>485</v>
       </c>
@@ -24276,7 +24261,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>485</v>
       </c>
@@ -24315,7 +24300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="29.25">
       <c r="A444" s="2" t="s">
         <v>522</v>
       </c>
@@ -24372,7 +24357,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="29.25">
       <c r="A445" s="2" t="s">
         <v>522</v>
       </c>
@@ -24429,7 +24414,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="29.25">
       <c r="A446" s="2" t="s">
         <v>522</v>
       </c>
@@ -24486,7 +24471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>522</v>
       </c>
@@ -24543,7 +24528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="48.75">
       <c r="A448" s="2" t="s">
         <v>522</v>
       </c>
@@ -24600,7 +24585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="29.25">
       <c r="A449" s="2" t="s">
         <v>522</v>
       </c>
@@ -24657,7 +24642,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>522</v>
       </c>
@@ -24714,7 +24699,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>522</v>
       </c>
@@ -24773,7 +24758,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>522</v>
       </c>
@@ -24832,7 +24817,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>522</v>
       </c>
@@ -24891,7 +24876,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="29.25">
       <c r="A454" s="2" t="s">
         <v>522</v>
       </c>
@@ -24948,7 +24933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="29.25">
       <c r="A455" s="2" t="s">
         <v>522</v>
       </c>
@@ -25005,7 +24990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="29.25">
       <c r="A456" s="2" t="s">
         <v>522</v>
       </c>
@@ -25062,7 +25047,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>522</v>
       </c>
@@ -25119,7 +25104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>522</v>
       </c>
@@ -25178,7 +25163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="48.75">
       <c r="A459" s="2" t="s">
         <v>522</v>
       </c>
@@ -25237,7 +25222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="29.25">
       <c r="A460" s="2" t="s">
         <v>522</v>
       </c>
@@ -25296,7 +25281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="39">
       <c r="A461" s="2" t="s">
         <v>522</v>
       </c>
@@ -25353,7 +25338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="39">
       <c r="A462" s="2" t="s">
         <v>522</v>
       </c>
@@ -25410,7 +25395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>522</v>
       </c>
@@ -25453,7 +25438,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -25512,7 +25497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>522</v>
       </c>
@@ -25571,7 +25556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>522</v>
       </c>
@@ -25622,7 +25607,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="39">
       <c r="A467" s="2" t="s">
         <v>522</v>
       </c>
@@ -25659,7 +25644,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="39">
       <c r="A468" s="2" t="s">
         <v>522</v>
       </c>
@@ -25716,7 +25701,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="39">
       <c r="A469" s="2" t="s">
         <v>522</v>
       </c>
@@ -25773,9 +25758,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>560</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1700,13 +1705,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 22-03-2023, 08:35</t>
+    <t>Last update: 04-04-2023, 13:52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1715,7 +1720,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1913,6 +1918,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1933,7 +1946,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1996,7 +2009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,9 +2041,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2062,6 +2076,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2237,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2245,7 +2260,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2257,17 +2272,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2438,7 +2453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2493,7 +2508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2658,7 +2673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2713,7 +2728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2768,7 +2783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2823,7 +2838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2878,7 +2893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +2948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +3003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3027,7 +3042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29.25">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3084,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="97.5">
+    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="97.5">
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3194,7 +3209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="97.5">
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3249,7 +3264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3304,7 +3319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29.25">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +3376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="29.25">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="29.25">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3516,7 +3531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3565,7 +3580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3614,7 +3629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3665,7 +3680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3779,7 +3794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3836,7 +3851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3893,7 +3908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19.5">
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3948,7 +3963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="29.25">
+    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3993,7 +4008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="29.25">
+    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4038,7 +4053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="29.25">
+    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4083,7 +4098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4128,7 +4143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4173,7 +4188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="39">
+    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4257,7 +4272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="97.5">
+    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4316,7 +4331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="97.5">
+    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="97.5">
+    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4434,7 +4449,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="97.5">
+    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4493,7 +4508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="97.5">
+    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4552,7 +4567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="97.5">
+    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4611,7 +4626,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="48.75">
+    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4660,7 +4675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="48.75">
+    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4709,7 +4724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4764,7 +4779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="29.25">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4815,7 +4830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4870,7 +4885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4927,7 +4942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5098,7 +5113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5155,7 +5170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="29.25">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5326,7 +5341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5383,7 +5398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="29.25">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5440,7 +5455,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="29.25">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5497,7 +5512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="29.25">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5554,7 +5569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5611,7 +5626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="29.25">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5668,7 +5683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="29.25">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5725,7 +5740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="29.25">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5839,7 +5854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5896,7 +5911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5953,7 +5968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -6010,7 +6025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6065,7 +6080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6120,7 +6135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6175,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6232,7 +6247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6289,7 +6304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6328,7 +6343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6385,7 +6400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6442,7 +6457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6499,7 +6514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6540,7 +6555,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6585,7 +6600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6630,7 +6645,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.5">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6665,7 +6680,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="29.25">
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6700,7 +6715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6755,7 +6770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6794,7 +6809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.5">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6851,7 +6866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.5">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6908,7 +6923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.5">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6949,7 +6964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="29.25">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -7000,7 +7015,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7039,7 +7054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7078,7 +7093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7117,7 +7132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7170,7 +7185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="48.75">
+    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7207,7 +7222,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="48.75">
+    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7244,7 +7259,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="48.75">
+    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7281,7 +7296,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="48.75">
+    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7322,7 +7337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="48.75">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7363,7 +7378,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="48.75">
+    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7404,7 +7419,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="48.75">
+    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7445,7 +7460,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="48.75">
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7486,7 +7501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="48.75">
+    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7527,7 +7542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7621,7 +7636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7678,7 +7693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7735,7 +7750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="19.5">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7772,7 +7787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="19.5">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7809,7 +7824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="19.5">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7846,7 +7861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="29.25">
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7891,7 +7906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="19.5">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7938,7 +7953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="39">
+    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -7985,7 +8000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="48.75">
+    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8032,7 +8047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="58.5">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8079,7 +8094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8126,7 +8141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="29.25">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8171,7 +8186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="19.5">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8218,7 +8233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="39">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8265,7 +8280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="48.75">
+    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8312,7 +8327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="58.5">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8359,7 +8374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8406,7 +8421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="48.75">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8445,7 +8460,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="48.75">
+    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8484,7 +8499,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="29.25">
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8541,7 +8556,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8576,7 +8591,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8611,7 +8626,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8646,7 +8661,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8681,7 +8696,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8716,7 +8731,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8751,7 +8766,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8786,7 +8801,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8821,7 +8836,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8856,7 +8871,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8891,7 +8906,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8926,7 +8941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8961,7 +8976,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -8996,7 +9011,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9031,7 +9046,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9066,7 +9081,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9101,7 +9116,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9160,7 +9175,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="58.5">
+    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9219,7 +9234,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="58.5">
+    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9254,7 +9269,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="58.5">
+    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9289,7 +9304,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="58.5">
+    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9348,7 +9363,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="58.5">
+    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9407,7 +9422,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="58.5">
+    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9466,7 +9481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="29.25">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9517,7 +9532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="58.5">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9572,7 +9587,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="58.5">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9627,7 +9642,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="58.5">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9682,7 +9697,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="58.5">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9737,7 +9752,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="29.25">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9772,7 +9787,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="19.5">
+    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9829,7 +9844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="39">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9864,7 +9879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="39">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9899,7 +9914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="39">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9934,7 +9949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="39">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -9969,7 +9984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="39">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -10004,7 +10019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10039,7 +10054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10074,7 +10089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10109,7 +10124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10144,7 +10159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10179,7 +10194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10214,7 +10229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10249,7 +10264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10284,7 +10299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="29.25">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10323,7 +10338,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="29.25">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10362,7 +10377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="29.25">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10419,7 +10434,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="29.25">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10476,7 +10491,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="29.25">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10533,7 +10548,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="29.25">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10590,7 +10605,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="29.25">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10647,7 +10662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="19.5">
+    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10692,7 +10707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="39">
+    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10737,7 +10752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="19.5">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10782,7 +10797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10827,7 +10842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10872,7 +10887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10917,7 +10932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="39">
+    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -10962,7 +10977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -11001,7 +11016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11040,7 +11055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11079,7 +11094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11118,7 +11133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11157,7 +11172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11196,7 +11211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11235,7 +11250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11274,7 +11289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11313,7 +11328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11352,7 +11367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11391,7 +11406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11430,7 +11445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="19.5">
+    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11471,7 +11486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11526,7 +11541,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11581,7 +11596,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11638,7 +11653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11695,7 +11710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11752,7 +11767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11787,7 +11802,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11822,7 +11837,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11877,7 +11892,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11932,7 +11947,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="19.5">
+    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -11977,7 +11992,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="29.25">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12032,7 +12047,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12083,7 +12098,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="39">
+    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12140,7 +12155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12175,7 +12190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12232,7 +12247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="29.25">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12287,7 +12302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="29.25">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12338,7 +12353,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12395,7 +12410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12452,7 +12467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12491,7 +12506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12530,7 +12545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12569,7 +12584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12626,7 +12641,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12683,7 +12698,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12740,7 +12755,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12785,7 +12800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12830,7 +12845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12875,7 +12890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="29.25">
+    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12920,7 +12935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -12965,7 +12980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -13010,7 +13025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13055,7 +13070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13100,7 +13115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13145,7 +13160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13190,7 +13205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13235,7 +13250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13280,7 +13295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13325,7 +13340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13370,7 +13385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13415,7 +13430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13460,7 +13475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13505,7 +13520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13550,7 +13565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13595,7 +13610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13652,7 +13667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13709,7 +13724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13766,7 +13781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13823,7 +13838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13880,7 +13895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -13937,7 +13952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -13994,7 +14009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14051,7 +14066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14108,7 +14123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14165,7 +14180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14222,7 +14237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14279,7 +14294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14320,7 +14335,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14361,7 +14376,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14402,7 +14417,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14459,7 +14474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="48.75">
+    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14516,7 +14531,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14551,7 +14566,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14586,7 +14601,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14621,7 +14636,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14656,7 +14671,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14691,7 +14706,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14726,7 +14741,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14761,7 +14776,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14796,7 +14811,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14847,7 +14862,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="29.25">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14904,7 +14919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="29.25">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -14961,7 +14976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="29.25">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -15018,7 +15033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="29.25">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15075,7 +15090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="29.25">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15132,7 +15147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="29.25">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15189,7 +15204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="29.25">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15246,7 +15261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="29.25">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15303,7 +15318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="29.25">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15360,7 +15375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="29.25">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15417,7 +15432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="29.25">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15474,7 +15489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="29.25">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15531,7 +15546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="29.25">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15588,7 +15603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="29.25">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15645,7 +15660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="29.25">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15702,7 +15717,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="29.25">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15759,7 +15774,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="29.25">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15816,7 +15831,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="29.25">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15873,7 +15888,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="29.25">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -15930,7 +15945,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="29.25">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -15987,7 +16002,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="29.25">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16038,7 +16053,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="29.25">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16095,7 +16110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="29.25">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16152,7 +16167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="29.25">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16203,7 +16218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="29.25">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16256,7 +16271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="39">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16305,7 +16320,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="39">
+    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16354,7 +16369,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16411,7 +16426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="68.25">
+    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16468,7 +16483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16525,7 +16540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16582,7 +16597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16639,7 +16654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16696,7 +16711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16753,7 +16768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16810,7 +16825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16867,7 +16882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -16924,7 +16939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -16981,7 +16996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -17020,7 +17035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17077,7 +17092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="39">
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17134,7 +17149,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17191,7 +17206,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="39">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17248,7 +17263,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="39">
+    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17305,7 +17320,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="29.25">
+    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17362,7 +17377,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="39">
+    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17417,7 +17432,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="29.25">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17474,7 +17489,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="29.25">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17531,7 +17546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="39">
+    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17588,7 +17603,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="29.25">
+    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17645,7 +17660,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17702,7 +17717,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="29.25">
+    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17759,7 +17774,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17816,7 +17831,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="39">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17873,7 +17888,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="39">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -17930,7 +17945,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="68.25">
+    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -17987,7 +18002,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="58.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18044,7 +18059,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="68.25">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18101,7 +18116,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="68.25">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18158,7 +18173,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="39">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18215,7 +18230,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="68.25">
+    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18272,7 +18287,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="58.5">
+    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18329,7 +18344,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="68.25">
+    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18386,7 +18401,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="68.25">
+    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18443,7 +18458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="29.25">
+    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18498,7 +18513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="29.25">
+    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18553,7 +18568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="29.25">
+    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18608,7 +18623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="29.25">
+    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18665,7 +18680,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="29.25">
+    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18722,7 +18737,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="29.25">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18779,7 +18794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="29.25">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18836,7 +18851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="29.25">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18893,7 +18908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="29.25">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -18950,7 +18965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="29.25">
+    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -19007,7 +19022,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="29.25">
+    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19064,7 +19079,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="29.25">
+    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19121,7 +19136,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="29.25">
+    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19178,7 +19193,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="29.25">
+    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19235,7 +19250,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="29.25">
+    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19292,7 +19307,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="29.25">
+    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19349,7 +19364,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="29.25">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19406,7 +19421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="29.25">
+    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19463,7 +19478,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="29.25">
+    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19520,7 +19535,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="29.25">
+    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19577,7 +19592,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="29.25">
+    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19634,7 +19649,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="29.25">
+    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19691,7 +19706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="29.25">
+    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19748,7 +19763,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="29.25">
+    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19805,7 +19820,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="29.25">
+    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19862,7 +19877,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="29.25">
+    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -19919,7 +19934,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="29.25">
+    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -19976,7 +19991,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="29.25">
+    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20031,7 +20046,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="29.25">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20088,7 +20103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="29.25">
+    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20145,7 +20160,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="29.25">
+    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20202,7 +20217,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="29.25">
+    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20259,7 +20274,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="29.25">
+    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20316,7 +20331,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20373,7 +20388,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20430,7 +20445,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20487,7 +20502,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20544,7 +20559,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20601,7 +20616,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20658,7 +20673,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20715,7 +20730,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20772,7 +20787,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20829,7 +20844,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20886,7 +20901,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -20943,7 +20958,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="48.75">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -21002,7 +21017,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21047,7 +21062,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21092,7 +21107,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21137,7 +21152,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21190,7 +21205,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21235,7 +21250,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21294,7 +21309,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21353,7 +21368,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="29.25">
+    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21410,7 +21425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="29.25">
+    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21467,7 +21482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="39">
+    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21526,7 +21541,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="39">
+    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21581,7 +21596,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21640,7 +21655,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="29.25">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21691,7 +21706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="39">
+    <row r="389" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21750,7 +21765,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="48.75">
+    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21809,7 +21824,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="48.75">
+    <row r="391" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21868,7 +21883,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="58.5">
+    <row r="392" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -21927,7 +21942,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="58.5">
+    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -21982,7 +21997,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22037,7 +22052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="19.5">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22092,7 +22107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="39">
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22149,7 +22164,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="19.5">
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22188,7 +22203,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="19.5">
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22221,7 +22236,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="19.5">
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22254,7 +22269,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="19.5">
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22287,7 +22302,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="19.5">
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22326,7 +22341,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="19.5">
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22365,7 +22380,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="19.5">
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22404,7 +22419,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="29.25">
+    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22463,7 +22478,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22520,7 +22535,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22579,7 +22594,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22630,7 +22645,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22681,7 +22696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22738,7 +22753,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22793,7 +22808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22852,7 +22867,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="29.25">
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -22895,7 +22910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -22948,7 +22963,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="29.25">
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -22993,7 +23008,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="29.25">
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23038,7 +23053,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="29.25">
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23083,7 +23098,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="29.25">
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23128,7 +23143,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="29.25">
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23173,7 +23188,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="29.25">
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23218,7 +23233,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="39">
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23263,7 +23278,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="48.75">
+    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23308,7 +23323,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="39">
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23353,7 +23368,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="39">
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23398,7 +23413,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="29.25">
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23455,7 +23470,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="29.25">
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23510,7 +23525,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="29.25">
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23565,7 +23580,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="29.25">
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23620,7 +23635,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="29.25">
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23677,7 +23692,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="29.25">
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23734,7 +23749,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="39">
+    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23773,7 +23788,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="39">
+    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>485</v>
       </c>
@@ -23812,7 +23827,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="39">
+    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>485</v>
       </c>
@@ -23851,7 +23866,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="39">
+    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>485</v>
       </c>
@@ -23890,7 +23905,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="39">
+    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>485</v>
       </c>
@@ -23929,7 +23944,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="39">
+    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>485</v>
       </c>
@@ -23968,7 +23983,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="39">
+    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>485</v>
       </c>
@@ -24007,7 +24022,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="39">
+    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -24046,7 +24061,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="39">
+    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
@@ -24085,7 +24100,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="39">
+    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>485</v>
       </c>
@@ -24124,7 +24139,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="39">
+    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>485</v>
       </c>
@@ -24163,7 +24178,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="39">
+    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>485</v>
       </c>
@@ -24202,7 +24217,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="29.25">
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>485</v>
       </c>
@@ -24261,7 +24276,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="29.25">
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>485</v>
       </c>
@@ -24300,7 +24315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="29.25">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>522</v>
       </c>
@@ -24357,7 +24372,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="29.25">
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>522</v>
       </c>
@@ -24414,7 +24429,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="29.25">
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>522</v>
       </c>
@@ -24471,7 +24486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>522</v>
       </c>
@@ -24528,7 +24543,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="48.75">
+    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>522</v>
       </c>
@@ -24585,7 +24600,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="29.25">
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>522</v>
       </c>
@@ -24642,7 +24657,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>522</v>
       </c>
@@ -24699,7 +24714,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="29.25">
+    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>522</v>
       </c>
@@ -24758,7 +24773,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>522</v>
       </c>
@@ -24817,7 +24832,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>522</v>
       </c>
@@ -24876,7 +24891,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="29.25">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>522</v>
       </c>
@@ -24933,7 +24948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="29.25">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>522</v>
       </c>
@@ -24990,7 +25005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="29.25">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>522</v>
       </c>
@@ -25047,7 +25062,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="29.25">
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>522</v>
       </c>
@@ -25104,7 +25119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>522</v>
       </c>
@@ -25163,7 +25178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="48.75">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>522</v>
       </c>
@@ -25222,7 +25237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="29.25">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>522</v>
       </c>
@@ -25281,7 +25296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="39">
+    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>522</v>
       </c>
@@ -25338,7 +25353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="39">
+    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>522</v>
       </c>
@@ -25395,7 +25410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>522</v>
       </c>
@@ -25438,7 +25453,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -25497,7 +25512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>522</v>
       </c>
@@ -25556,7 +25571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>522</v>
       </c>
@@ -25607,7 +25622,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="39">
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>522</v>
       </c>
@@ -25644,7 +25659,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="39">
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>522</v>
       </c>
@@ -25701,7 +25716,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="39">
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>522</v>
       </c>
@@ -25758,9 +25773,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>560</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1705,7 +1705,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 04-04-2023, 13:52</t>
+    <t>Last update: 26-04-2023, 16:22</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2257,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2447,9 @@
       <c r="P5" s="4">
         <v>14.8</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="4">
+        <v>14.8</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="2" t="s">
         <v>25</v>
@@ -2502,7 +2504,9 @@
       <c r="P6" s="4">
         <v>10</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="4">
+        <v>10.6</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="2" t="s">
         <v>25</v>
@@ -2557,7 +2561,9 @@
       <c r="P7" s="4">
         <v>21.9</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="4">
+        <v>20.8</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="2" t="s">
         <v>25</v>
@@ -2612,7 +2618,9 @@
       <c r="P8" s="4">
         <v>13.9</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="4">
+        <v>14.1</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="2" t="s">
         <v>25</v>
@@ -2667,7 +2675,9 @@
       <c r="P9" s="4">
         <v>15.7</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="4">
+        <v>15.4</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="2" t="s">
         <v>25</v>
@@ -2722,7 +2732,9 @@
       <c r="P10" s="4">
         <v>12.1</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="4">
+        <v>13</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="2" t="s">
         <v>25</v>
@@ -2777,7 +2789,9 @@
       <c r="P11" s="4">
         <v>13.5</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="4">
+        <v>14.6</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="2" t="s">
         <v>25</v>
@@ -2832,7 +2846,9 @@
       <c r="P12" s="4">
         <v>19.5</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="4">
+        <v>18</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="2" t="s">
         <v>25</v>
@@ -2887,7 +2903,9 @@
       <c r="P13" s="4">
         <v>14.2</v>
       </c>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="4">
+        <v>14</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="2" t="s">
         <v>25</v>
@@ -2942,7 +2960,9 @@
       <c r="P14" s="4">
         <v>18.3</v>
       </c>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="4">
+        <v>17.8</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="2" t="s">
         <v>25</v>
@@ -2997,7 +3017,9 @@
       <c r="P15" s="4">
         <v>18.2</v>
       </c>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="4">
+        <v>17.5</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="2" t="s">
         <v>25</v>
@@ -3094,7 +3116,9 @@
       <c r="Q17" s="4">
         <v>13.3</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="4">
+        <v>14.2</v>
+      </c>
       <c r="S17" s="2" t="s">
         <v>25</v>
       </c>
@@ -4773,7 +4797,9 @@
       <c r="P49" s="5">
         <v>0.45</v>
       </c>
-      <c r="Q49" s="3"/>
+      <c r="Q49" s="5">
+        <v>0.41</v>
+      </c>
       <c r="R49" s="3"/>
       <c r="S49" s="2" t="s">
         <v>91</v>
@@ -4879,7 +4905,9 @@
       <c r="P51" s="4">
         <v>2.5</v>
       </c>
-      <c r="Q51" s="3"/>
+      <c r="Q51" s="4">
+        <v>2.1</v>
+      </c>
       <c r="R51" s="3"/>
       <c r="S51" s="2" t="s">
         <v>25</v>
@@ -5450,7 +5478,9 @@
       <c r="Q61" s="6">
         <v>15</v>
       </c>
-      <c r="R61" s="3"/>
+      <c r="R61" s="6">
+        <v>26</v>
+      </c>
       <c r="S61" s="2" t="s">
         <v>101</v>
       </c>
@@ -5507,7 +5537,9 @@
       <c r="Q62" s="6">
         <v>2</v>
       </c>
-      <c r="R62" s="3"/>
+      <c r="R62" s="6">
+        <v>11</v>
+      </c>
       <c r="S62" s="2" t="s">
         <v>101</v>
       </c>
@@ -5564,7 +5596,9 @@
       <c r="Q63" s="6">
         <v>13</v>
       </c>
-      <c r="R63" s="3"/>
+      <c r="R63" s="6">
+        <v>15</v>
+      </c>
       <c r="S63" s="2" t="s">
         <v>101</v>
       </c>
@@ -5678,7 +5712,9 @@
       <c r="Q65" s="6">
         <v>30</v>
       </c>
-      <c r="R65" s="3"/>
+      <c r="R65" s="6">
+        <v>72</v>
+      </c>
       <c r="S65" s="2" t="s">
         <v>101</v>
       </c>
@@ -5735,7 +5771,9 @@
       <c r="Q66" s="6">
         <v>21</v>
       </c>
-      <c r="R66" s="3"/>
+      <c r="R66" s="6">
+        <v>39</v>
+      </c>
       <c r="S66" s="2" t="s">
         <v>101</v>
       </c>
@@ -5792,7 +5830,9 @@
       <c r="Q67" s="6">
         <v>9</v>
       </c>
-      <c r="R67" s="3"/>
+      <c r="R67" s="6">
+        <v>33</v>
+      </c>
       <c r="S67" s="2" t="s">
         <v>101</v>
       </c>
@@ -6074,7 +6114,9 @@
       <c r="P72" s="4">
         <v>11.9</v>
       </c>
-      <c r="Q72" s="3"/>
+      <c r="Q72" s="4">
+        <v>12.1</v>
+      </c>
       <c r="R72" s="3"/>
       <c r="S72" s="2" t="s">
         <v>25</v>
@@ -6097,7 +6139,7 @@
         <v>47</v>
       </c>
       <c r="F73" s="4">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="G73" s="4">
         <v>28.7</v>
@@ -6127,9 +6169,11 @@
         <v>21.3</v>
       </c>
       <c r="P73" s="4">
-        <v>21.3</v>
-      </c>
-      <c r="Q73" s="3"/>
+        <v>21.4</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>21.4</v>
+      </c>
       <c r="R73" s="3"/>
       <c r="S73" s="2" t="s">
         <v>25</v>
@@ -6184,7 +6228,9 @@
       <c r="P74" s="4">
         <v>3</v>
       </c>
-      <c r="Q74" s="3"/>
+      <c r="Q74" s="4">
+        <v>3.3</v>
+      </c>
       <c r="R74" s="3"/>
       <c r="S74" s="2" t="s">
         <v>25</v>
@@ -6764,7 +6810,9 @@
       <c r="P86" s="4">
         <v>1.5</v>
       </c>
-      <c r="Q86" s="3"/>
+      <c r="Q86" s="4">
+        <v>1.3</v>
+      </c>
       <c r="R86" s="3"/>
       <c r="S86" s="2" t="s">
         <v>25</v>
@@ -11854,37 +11902,37 @@
         <v>255</v>
       </c>
       <c r="F204" s="4">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="G204" s="4">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="H204" s="4">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="I204" s="4">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J204" s="4">
         <v>35.5</v>
       </c>
       <c r="K204" s="4">
-        <v>37.799999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="L204" s="4">
-        <v>38.700000000000003</v>
+        <v>38.6</v>
       </c>
       <c r="M204" s="4">
         <v>42.5</v>
       </c>
       <c r="N204" s="4">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
       <c r="O204" s="4">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="P204" s="4">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
@@ -12041,8 +12089,12 @@
       <c r="P207" s="6">
         <v>152964</v>
       </c>
-      <c r="Q207" s="3"/>
-      <c r="R207" s="3"/>
+      <c r="Q207" s="6">
+        <v>152963</v>
+      </c>
+      <c r="R207" s="6">
+        <v>152963</v>
+      </c>
       <c r="S207" s="2" t="s">
         <v>263</v>
       </c>
@@ -12400,10 +12452,10 @@
         <v>4.5</v>
       </c>
       <c r="P214" s="4">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="Q214" s="4">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="R214" s="3"/>
       <c r="S214" s="2" t="s">
@@ -12460,7 +12512,7 @@
         <v>1.3</v>
       </c>
       <c r="Q215" s="4">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="R215" s="3"/>
       <c r="S215" s="2" t="s">
@@ -13630,7 +13682,7 @@
         <v>10</v>
       </c>
       <c r="G241" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H241" s="4">
         <v>10.4</v>
@@ -13662,7 +13714,9 @@
       <c r="Q241" s="4">
         <v>3.4</v>
       </c>
-      <c r="R241" s="3"/>
+      <c r="R241" s="4">
+        <v>2.9</v>
+      </c>
       <c r="S241" s="2" t="s">
         <v>25</v>
       </c>
@@ -13719,7 +13773,9 @@
       <c r="Q242" s="4">
         <v>3.3</v>
       </c>
-      <c r="R242" s="3"/>
+      <c r="R242" s="4">
+        <v>2.8</v>
+      </c>
       <c r="S242" s="2" t="s">
         <v>25</v>
       </c>
@@ -13776,7 +13832,9 @@
       <c r="Q243" s="4">
         <v>3.4</v>
       </c>
-      <c r="R243" s="3"/>
+      <c r="R243" s="4">
+        <v>2.9</v>
+      </c>
       <c r="S243" s="2" t="s">
         <v>25</v>
       </c>
@@ -13833,7 +13891,9 @@
       <c r="Q244" s="4">
         <v>11.9</v>
       </c>
-      <c r="R244" s="3"/>
+      <c r="R244" s="4">
+        <v>10.8</v>
+      </c>
       <c r="S244" s="2" t="s">
         <v>25</v>
       </c>
@@ -13890,7 +13950,9 @@
       <c r="Q245" s="4">
         <v>3.9</v>
       </c>
-      <c r="R245" s="3"/>
+      <c r="R245" s="4">
+        <v>3.3</v>
+      </c>
       <c r="S245" s="2" t="s">
         <v>25</v>
       </c>
@@ -13947,7 +14009,9 @@
       <c r="Q246" s="4">
         <v>2.7</v>
       </c>
-      <c r="R246" s="3"/>
+      <c r="R246" s="4">
+        <v>2.1</v>
+      </c>
       <c r="S246" s="2" t="s">
         <v>25</v>
       </c>
@@ -14004,7 +14068,9 @@
       <c r="Q247" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R247" s="3"/>
+      <c r="R247" s="4">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="S247" s="2" t="s">
         <v>25</v>
       </c>
@@ -14061,7 +14127,9 @@
       <c r="Q248" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R248" s="3"/>
+      <c r="R248" s="4">
+        <v>1.7</v>
+      </c>
       <c r="S248" s="2" t="s">
         <v>25</v>
       </c>
@@ -14118,7 +14186,9 @@
       <c r="Q249" s="4">
         <v>6</v>
       </c>
-      <c r="R249" s="3"/>
+      <c r="R249" s="4">
+        <v>5.5</v>
+      </c>
       <c r="S249" s="2" t="s">
         <v>25</v>
       </c>
@@ -17426,7 +17496,9 @@
       <c r="P312" s="4">
         <v>96.8</v>
       </c>
-      <c r="Q312" s="3"/>
+      <c r="Q312" s="4">
+        <v>96</v>
+      </c>
       <c r="R312" s="3"/>
       <c r="S312" s="2" t="s">
         <v>362</v>
@@ -17791,10 +17863,10 @@
         <v>24</v>
       </c>
       <c r="F319" s="5">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="G319" s="5">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="H319" s="5">
         <v>2.5</v>
@@ -17809,7 +17881,7 @@
         <v>2.86</v>
       </c>
       <c r="L319" s="5">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="M319" s="5">
         <v>3.38</v>
@@ -17821,12 +17893,14 @@
         <v>3.77</v>
       </c>
       <c r="P319" s="5">
-        <v>3.93</v>
+        <v>3.89</v>
       </c>
       <c r="Q319" s="5">
-        <v>4.01</v>
-      </c>
-      <c r="R319" s="3"/>
+        <v>3.99</v>
+      </c>
+      <c r="R319" s="5">
+        <v>4.12</v>
+      </c>
       <c r="S319" s="2" t="s">
         <v>375</v>
       </c>
@@ -17878,12 +17952,14 @@
         <v>776.56</v>
       </c>
       <c r="P320" s="5">
-        <v>829</v>
+        <v>829.27</v>
       </c>
       <c r="Q320" s="5">
         <v>983.51</v>
       </c>
-      <c r="R320" s="3"/>
+      <c r="R320" s="5">
+        <v>3378.18</v>
+      </c>
       <c r="S320" s="2" t="s">
         <v>379</v>
       </c>
@@ -17940,7 +18016,9 @@
       <c r="Q321" s="5">
         <v>296.20999999999998</v>
       </c>
-      <c r="R321" s="3"/>
+      <c r="R321" s="5">
+        <v>2558.85</v>
+      </c>
       <c r="S321" s="2" t="s">
         <v>379</v>
       </c>
@@ -17997,7 +18075,9 @@
       <c r="Q322" s="5">
         <v>34.299999999999997</v>
       </c>
-      <c r="R322" s="3"/>
+      <c r="R322" s="5">
+        <v>14.36</v>
+      </c>
       <c r="S322" s="2" t="s">
         <v>379</v>
       </c>
@@ -18054,7 +18134,9 @@
       <c r="Q323" s="5">
         <v>0.91</v>
       </c>
-      <c r="R323" s="3"/>
+      <c r="R323" s="5">
+        <v>1.25</v>
+      </c>
       <c r="S323" s="2" t="s">
         <v>379</v>
       </c>
@@ -18111,7 +18193,9 @@
       <c r="Q324" s="5">
         <v>143.81</v>
       </c>
-      <c r="R324" s="3"/>
+      <c r="R324" s="5">
+        <v>254.82</v>
+      </c>
       <c r="S324" s="2" t="s">
         <v>379</v>
       </c>
@@ -18163,12 +18247,14 @@
         <v>71.97</v>
       </c>
       <c r="P325" s="5">
-        <v>100.46</v>
+        <v>100.62</v>
       </c>
       <c r="Q325" s="5">
         <v>95.3</v>
       </c>
-      <c r="R325" s="3"/>
+      <c r="R325" s="5">
+        <v>100.34</v>
+      </c>
       <c r="S325" s="2" t="s">
         <v>379</v>
       </c>
@@ -21991,7 +22077,9 @@
       <c r="P393" s="5">
         <v>1.58</v>
       </c>
-      <c r="Q393" s="3"/>
+      <c r="Q393" s="5">
+        <v>1.58</v>
+      </c>
       <c r="R393" s="3"/>
       <c r="S393" s="2" t="s">
         <v>463</v>
@@ -22046,7 +22134,9 @@
       <c r="P394" s="4">
         <v>30.9</v>
       </c>
-      <c r="Q394" s="3"/>
+      <c r="Q394" s="4">
+        <v>30.9</v>
+      </c>
       <c r="R394" s="3"/>
       <c r="S394" s="2" t="s">
         <v>25</v>
@@ -22101,7 +22191,9 @@
       <c r="P395" s="4">
         <v>97.1</v>
       </c>
-      <c r="Q395" s="3"/>
+      <c r="Q395" s="4">
+        <v>97.5</v>
+      </c>
       <c r="R395" s="3"/>
       <c r="S395" s="2" t="s">
         <v>25</v>
@@ -22802,7 +22894,9 @@
       <c r="P410" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q410" s="3"/>
+      <c r="Q410" s="5">
+        <v>0.59</v>
+      </c>
       <c r="R410" s="3"/>
       <c r="S410" s="2" t="s">
         <v>25</v>
@@ -23519,7 +23613,9 @@
       <c r="P425" s="4">
         <v>14.8</v>
       </c>
-      <c r="Q425" s="3"/>
+      <c r="Q425" s="4">
+        <v>14.2</v>
+      </c>
       <c r="R425" s="3"/>
       <c r="S425" s="2" t="s">
         <v>504</v>
@@ -23574,7 +23670,9 @@
       <c r="P426" s="4">
         <v>12.7</v>
       </c>
-      <c r="Q426" s="3"/>
+      <c r="Q426" s="4">
+        <v>12.4</v>
+      </c>
       <c r="R426" s="3"/>
       <c r="S426" s="2" t="s">
         <v>504</v>
@@ -23629,7 +23727,9 @@
       <c r="P427" s="4">
         <v>12.2</v>
       </c>
-      <c r="Q427" s="3"/>
+      <c r="Q427" s="4">
+        <v>12.2</v>
+      </c>
       <c r="R427" s="3"/>
       <c r="S427" s="2" t="s">
         <v>504</v>
@@ -24595,7 +24695,9 @@
       <c r="Q448" s="4">
         <v>0.8</v>
       </c>
-      <c r="R448" s="3"/>
+      <c r="R448" s="4">
+        <v>3</v>
+      </c>
       <c r="S448" s="2" t="s">
         <v>529</v>
       </c>
@@ -24995,12 +25097,14 @@
         <v>776.6</v>
       </c>
       <c r="P455" s="4">
-        <v>829</v>
+        <v>829.3</v>
       </c>
       <c r="Q455" s="4">
         <v>983.5</v>
       </c>
-      <c r="R455" s="3"/>
+      <c r="R455" s="4">
+        <v>3378.2</v>
+      </c>
       <c r="S455" s="2" t="s">
         <v>94</v>
       </c>
@@ -25052,12 +25156,14 @@
         <v>1.41</v>
       </c>
       <c r="P456" s="5">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q456" s="5">
-        <v>1.43</v>
-      </c>
-      <c r="R456" s="3"/>
+        <v>1.44</v>
+      </c>
+      <c r="R456" s="5">
+        <v>1.29</v>
+      </c>
       <c r="S456" s="2" t="s">
         <v>480</v>
       </c>
@@ -25169,10 +25275,10 @@
         <v>98</v>
       </c>
       <c r="Q458" s="4">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="R458" s="4">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="S458" s="2" t="s">
         <v>25</v>
@@ -25346,9 +25452,11 @@
         <v>57.2</v>
       </c>
       <c r="Q461" s="4">
-        <v>53.8</v>
-      </c>
-      <c r="R461" s="3"/>
+        <v>53.6</v>
+      </c>
+      <c r="R461" s="4">
+        <v>49.1</v>
+      </c>
       <c r="S461" s="2" t="s">
         <v>25</v>
       </c>
@@ -25405,7 +25513,9 @@
       <c r="Q462" s="4">
         <v>-1.8</v>
       </c>
-      <c r="R462" s="3"/>
+      <c r="R462" s="4">
+        <v>-3.7</v>
+      </c>
       <c r="S462" s="2" t="s">
         <v>25</v>
       </c>
@@ -25711,7 +25821,9 @@
       <c r="Q468" s="6">
         <v>1</v>
       </c>
-      <c r="R468" s="3"/>
+      <c r="R468" s="6">
+        <v>1</v>
+      </c>
       <c r="S468" s="2" t="s">
         <v>557</v>
       </c>
@@ -25768,7 +25880,9 @@
       <c r="Q469" s="6">
         <v>1</v>
       </c>
-      <c r="R469" s="3"/>
+      <c r="R469" s="6">
+        <v>1</v>
+      </c>
       <c r="S469" s="2" t="s">
         <v>557</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1705,7 +1705,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 26-04-2023, 16:22</t>
+    <t>Last update: 09-05-2023, 13:26</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1705,13 +1700,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 09-05-2023, 13:26</t>
+    <t>Last update: 23-05-2023, 11:41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1720,7 +1715,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1918,14 +1913,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1946,7 +1933,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2009,7 +1996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,10 +2028,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2076,7 +2062,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2252,15 +2237,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2272,17 +2257,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2569,7 +2554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2626,7 +2611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2683,7 +2668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2740,7 +2725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2968,7 +2953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3123,7 +3108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="97.5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3178,7 +3163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="97.5">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="97.5">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3288,7 +3273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3343,7 +3328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3400,7 +3385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3457,7 +3442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +3491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3604,7 +3589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3653,7 +3638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3704,7 +3689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3761,7 +3746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3875,7 +3860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3932,7 +3917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.5">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3987,7 +3972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="29.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4032,7 +4017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="29.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4077,7 +4062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="29.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4122,7 +4107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4167,7 +4152,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4212,7 +4197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4257,7 +4242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="39">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4296,7 +4281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4355,7 +4340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4414,7 +4399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="97.5">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4473,7 +4458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="97.5">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4532,7 +4517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="97.5">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4591,7 +4576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="97.5">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4650,7 +4635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="48.75">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4699,7 +4684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="48.75">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4748,7 +4733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4805,7 +4790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="29.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4856,7 +4841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4913,7 +4898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4970,7 +4955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -5027,7 +5012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5084,7 +5069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5141,7 +5126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5198,7 +5183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5255,7 +5240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5312,7 +5297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="29.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5369,7 +5354,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5426,7 +5411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="29.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5485,7 +5470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="29.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5544,7 +5529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="29.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5603,7 +5588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5660,7 +5645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="29.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5719,7 +5704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="29.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5778,7 +5763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="29.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5837,7 +5822,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5894,7 +5879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5951,7 +5936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -6008,7 +5993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -6065,7 +6050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6122,7 +6107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6179,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6236,7 +6221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6293,7 +6278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6350,7 +6335,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6389,7 +6374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6446,7 +6431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6503,7 +6488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6560,7 +6545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6601,7 +6586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6646,7 +6631,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6691,7 +6676,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6726,7 +6711,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6761,7 +6746,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6818,7 +6803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6857,7 +6842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6914,7 +6899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6971,7 +6956,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -7012,7 +6997,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -7063,7 +7048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7102,7 +7087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7141,7 +7126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7180,7 +7165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7233,7 +7218,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="48.75">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7270,7 +7255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="48.75">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7307,7 +7292,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="48.75">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7344,7 +7329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="48.75">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7385,7 +7370,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="48.75">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7426,7 +7411,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="48.75">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7467,7 +7452,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="48.75">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7508,7 +7493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="48.75">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7549,7 +7534,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="48.75">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7590,7 +7575,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7627,7 +7612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7684,7 +7669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7741,7 +7726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7798,7 +7783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7835,7 +7820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7872,7 +7857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7909,7 +7894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="29.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7954,7 +7939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -8001,7 +7986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="39">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -8048,7 +8033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="48.75">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8095,7 +8080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="58.5">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8142,7 +8127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8189,7 +8174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8234,7 +8219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8281,7 +8266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="39">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8328,7 +8313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="48.75">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8375,7 +8360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="58.5">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8422,7 +8407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8469,7 +8454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8508,7 +8493,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8547,7 +8532,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="29.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8604,7 +8589,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8639,7 +8624,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8674,7 +8659,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8709,7 +8694,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8744,7 +8729,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8779,7 +8764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8814,7 +8799,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8849,7 +8834,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8884,7 +8869,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8919,7 +8904,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8954,7 +8939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8989,7 +8974,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -9024,7 +9009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -9059,7 +9044,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9094,7 +9079,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9129,7 +9114,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9164,7 +9149,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9223,7 +9208,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9282,7 +9267,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9317,7 +9302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9352,7 +9337,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9411,7 +9396,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9470,7 +9455,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9529,7 +9514,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="29.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9580,7 +9565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9635,7 +9620,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9690,7 +9675,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9745,7 +9730,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9800,7 +9785,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="29.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9835,7 +9820,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="19.5">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9892,7 +9877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="39">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9927,7 +9912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="39">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9962,7 +9947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="39">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9997,7 +9982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="39">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -10032,7 +10017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="39">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -10067,7 +10052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10102,7 +10087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10137,7 +10122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10172,7 +10157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10207,7 +10192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10242,7 +10227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10277,7 +10262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10312,7 +10297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10347,7 +10332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="29.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10386,7 +10371,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="29.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10425,7 +10410,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="29.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10482,7 +10467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="29.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10539,7 +10524,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="29.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10596,7 +10581,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="29.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10653,7 +10638,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="29.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10710,7 +10695,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="19.5">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10755,7 +10740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="39">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10800,7 +10785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10845,7 +10830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10890,7 +10875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10935,7 +10920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10980,7 +10965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="39">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -11025,7 +11010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -11064,7 +11049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11103,7 +11088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11142,7 +11127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11181,7 +11166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11220,7 +11205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11259,7 +11244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11298,7 +11283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11337,7 +11322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11376,7 +11361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11415,7 +11400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11454,7 +11439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11493,7 +11478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="19.5">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11534,7 +11519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11589,7 +11574,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11644,7 +11629,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11701,7 +11686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11758,7 +11743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11815,7 +11800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11850,7 +11835,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11885,7 +11870,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11940,7 +11925,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11995,7 +11980,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="19.5">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -12040,7 +12025,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12099,7 +12084,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12150,7 +12135,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="39">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12207,7 +12192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12242,7 +12227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12299,7 +12284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12354,7 +12339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12405,7 +12390,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12462,7 +12447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12519,7 +12504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12558,7 +12543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12597,7 +12582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12636,7 +12621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12693,7 +12678,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12750,7 +12735,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12807,7 +12792,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12852,7 +12837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12897,7 +12882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12942,7 +12927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12987,7 +12972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -13032,7 +13017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -13077,7 +13062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13122,7 +13107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13167,7 +13152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13212,7 +13197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13257,7 +13242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13302,7 +13287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13347,7 +13332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13392,7 +13377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13437,7 +13422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13482,7 +13467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13527,7 +13512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13572,7 +13557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13617,7 +13602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13662,7 +13647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13721,7 +13706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13780,7 +13765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13839,7 +13824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13898,7 +13883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13957,7 +13942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -14016,7 +14001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -14075,7 +14060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14134,7 +14119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14193,7 +14178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14250,7 +14235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14307,7 +14292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14364,7 +14349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14405,7 +14390,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14446,7 +14431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14487,7 +14472,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14544,7 +14529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="48.75">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14601,7 +14586,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14636,7 +14621,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14671,7 +14656,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14706,7 +14691,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14741,7 +14726,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14776,7 +14761,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14811,7 +14796,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14846,7 +14831,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14881,7 +14866,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14932,7 +14917,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="29.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14989,7 +14974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -15046,7 +15031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -15103,7 +15088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15160,7 +15145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15217,7 +15202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15274,7 +15259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15331,7 +15316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15388,7 +15373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="29.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15445,7 +15430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="29.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15502,7 +15487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="29.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15559,7 +15544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="29.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15616,7 +15601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="29.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15673,7 +15658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="29.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15730,7 +15715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="29.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15787,7 +15772,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="29.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15844,7 +15829,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="29.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15901,7 +15886,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="29.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15958,7 +15943,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="29.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -16015,7 +16000,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="29.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -16072,7 +16057,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="29.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16123,7 +16108,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="29.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16180,7 +16165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="29.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16237,7 +16222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="29.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16288,7 +16273,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="29.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16341,7 +16326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="39">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16390,7 +16375,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="39">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16439,7 +16424,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16496,7 +16481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="68.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16553,7 +16538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16610,7 +16595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16667,7 +16652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16724,7 +16709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16781,7 +16766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16838,7 +16823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16895,7 +16880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16952,7 +16937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -17009,7 +16994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -17066,7 +17051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -17105,7 +17090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17162,7 +17147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="39">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17219,7 +17204,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17276,7 +17261,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="39">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17333,7 +17318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="39">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17390,7 +17375,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17447,7 +17432,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="39">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17504,7 +17489,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="29.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17561,7 +17546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="29.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17618,7 +17603,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="39">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17675,7 +17660,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="29.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17732,7 +17717,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17789,7 +17774,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="29.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17846,7 +17831,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17905,7 +17890,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="39">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17964,7 +17949,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="39">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -18023,7 +18008,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="68.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -18082,7 +18067,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="58.5">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18141,7 +18126,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="68.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18200,7 +18185,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="68.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18259,7 +18244,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="39">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18316,7 +18301,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="68.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18373,7 +18358,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="58.5">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18430,7 +18415,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="68.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18487,7 +18472,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="68.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18544,7 +18529,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18599,7 +18584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18654,7 +18639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18709,7 +18694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="29.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18766,7 +18751,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="29.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18823,7 +18808,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="29.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18880,7 +18865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="29.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18937,7 +18922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="29.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18994,7 +18979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="29.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -19051,7 +19036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="29.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -19108,7 +19093,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="29.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19165,7 +19150,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="29.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19222,7 +19207,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="29.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19279,7 +19264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="29.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19336,7 +19321,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="29.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19393,7 +19378,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="29.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19450,7 +19435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="29.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19507,7 +19492,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="29.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19564,7 +19549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="29.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19621,7 +19606,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="29.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19678,7 +19663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="29.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19735,7 +19720,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="29.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19792,7 +19777,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="29.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19849,7 +19834,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="29.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19906,7 +19891,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="29.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19963,7 +19948,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="29.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -20020,7 +20005,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="29.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -20077,7 +20062,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="29.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20132,7 +20117,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="29.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20189,7 +20174,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="29.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20246,7 +20231,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="29.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20303,7 +20288,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="29.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20360,7 +20345,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="29.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20417,7 +20402,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20474,7 +20459,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20531,7 +20516,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20588,7 +20573,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20645,7 +20630,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20702,7 +20687,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20759,7 +20744,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20816,7 +20801,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20873,7 +20858,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20930,7 +20915,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20987,7 +20972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -21044,7 +21029,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="48.75">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -21103,7 +21088,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21148,7 +21133,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21193,7 +21178,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21238,7 +21223,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21291,7 +21276,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21336,7 +21321,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21395,7 +21380,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21454,7 +21439,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="29.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21511,7 +21496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="29.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21568,7 +21553,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="39">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21627,7 +21612,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="39">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21682,7 +21667,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21741,7 +21726,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="29.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21792,7 +21777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="39">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21851,7 +21836,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="48.75">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21910,7 +21895,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="48.75">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21969,7 +21954,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="58.5">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -22028,7 +22013,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="58.5">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -22085,7 +22070,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22142,7 +22127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22199,7 +22184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22256,7 +22241,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22295,7 +22280,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22328,7 +22313,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22361,7 +22346,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22394,7 +22379,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22433,7 +22418,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22472,7 +22457,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22511,7 +22496,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="29.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22570,7 +22555,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22627,7 +22612,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22686,7 +22671,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22737,7 +22722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22788,7 +22773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22845,7 +22830,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22902,7 +22887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22961,7 +22946,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -23004,7 +22989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -23057,7 +23042,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -23102,7 +23087,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23147,7 +23132,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23192,7 +23177,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23237,7 +23222,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23282,7 +23267,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23327,7 +23312,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23372,7 +23357,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="48.75">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23417,7 +23402,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23462,7 +23447,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23507,7 +23492,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="29.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23564,7 +23549,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="29.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23621,7 +23606,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="29.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23678,7 +23663,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="29.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23735,7 +23720,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="29.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23792,7 +23777,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23849,7 +23834,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="39">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23888,7 +23873,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="39">
       <c r="A431" s="2" t="s">
         <v>485</v>
       </c>
@@ -23927,7 +23912,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="39">
       <c r="A432" s="2" t="s">
         <v>485</v>
       </c>
@@ -23966,7 +23951,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="39">
       <c r="A433" s="2" t="s">
         <v>485</v>
       </c>
@@ -24005,7 +23990,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="39">
       <c r="A434" s="2" t="s">
         <v>485</v>
       </c>
@@ -24044,7 +24029,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="39">
       <c r="A435" s="2" t="s">
         <v>485</v>
       </c>
@@ -24083,7 +24068,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="39">
       <c r="A436" s="2" t="s">
         <v>485</v>
       </c>
@@ -24122,7 +24107,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="39">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -24161,7 +24146,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="39">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
@@ -24200,7 +24185,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="39">
       <c r="A439" s="2" t="s">
         <v>485</v>
       </c>
@@ -24239,7 +24224,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="39">
       <c r="A440" s="2" t="s">
         <v>485</v>
       </c>
@@ -24278,7 +24263,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="39">
       <c r="A441" s="2" t="s">
         <v>485</v>
       </c>
@@ -24317,7 +24302,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>485</v>
       </c>
@@ -24376,7 +24361,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>485</v>
       </c>
@@ -24415,7 +24400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="29.25">
       <c r="A444" s="2" t="s">
         <v>522</v>
       </c>
@@ -24472,7 +24457,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="29.25">
       <c r="A445" s="2" t="s">
         <v>522</v>
       </c>
@@ -24529,7 +24514,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="29.25">
       <c r="A446" s="2" t="s">
         <v>522</v>
       </c>
@@ -24586,7 +24571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>522</v>
       </c>
@@ -24643,7 +24628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="48.75">
       <c r="A448" s="2" t="s">
         <v>522</v>
       </c>
@@ -24702,7 +24687,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="29.25">
       <c r="A449" s="2" t="s">
         <v>522</v>
       </c>
@@ -24759,7 +24744,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>522</v>
       </c>
@@ -24816,7 +24801,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>522</v>
       </c>
@@ -24875,7 +24860,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>522</v>
       </c>
@@ -24934,7 +24919,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>522</v>
       </c>
@@ -24993,7 +24978,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="29.25">
       <c r="A454" s="2" t="s">
         <v>522</v>
       </c>
@@ -25050,7 +25035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="29.25">
       <c r="A455" s="2" t="s">
         <v>522</v>
       </c>
@@ -25109,7 +25094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="29.25">
       <c r="A456" s="2" t="s">
         <v>522</v>
       </c>
@@ -25168,7 +25153,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>522</v>
       </c>
@@ -25225,7 +25210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>522</v>
       </c>
@@ -25284,7 +25269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="48.75">
       <c r="A459" s="2" t="s">
         <v>522</v>
       </c>
@@ -25343,7 +25328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="29.25">
       <c r="A460" s="2" t="s">
         <v>522</v>
       </c>
@@ -25402,7 +25387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="39">
       <c r="A461" s="2" t="s">
         <v>522</v>
       </c>
@@ -25461,7 +25446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="39">
       <c r="A462" s="2" t="s">
         <v>522</v>
       </c>
@@ -25520,7 +25505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>522</v>
       </c>
@@ -25563,7 +25548,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -25622,7 +25607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>522</v>
       </c>
@@ -25681,7 +25666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>522</v>
       </c>
@@ -25732,7 +25717,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="39">
       <c r="A467" s="2" t="s">
         <v>522</v>
       </c>
@@ -25769,7 +25754,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="39">
       <c r="A468" s="2" t="s">
         <v>522</v>
       </c>
@@ -25828,7 +25813,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="39">
       <c r="A469" s="2" t="s">
         <v>522</v>
       </c>
@@ -25887,9 +25872,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>560</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1391,21 +1396,21 @@
     <t>by exploitation level</t>
   </si>
   <si>
+    <t>proportion of stocks within sustainable biological limits on the Baltic Sea</t>
+  </si>
+  <si>
+    <t>Ministry of Agriculture and Rural Development</t>
+  </si>
+  <si>
     <t>proportion of stocks fully exploited on the Baltic Sea</t>
   </si>
   <si>
-    <t>Ministry of Agriculture and Rural Development</t>
-  </si>
-  <si>
     <t>proportion of stocks non-fully exploited on the Baltic Sea</t>
   </si>
   <si>
     <t>proportion of stocks overexploited on the Baltic Sea</t>
   </si>
   <si>
-    <t>proportion of stocks within sustainable biological limits on the Baltic Sea</t>
-  </si>
-  <si>
     <t>14.5.1 Coverage of protected areas in relation to marine areas</t>
   </si>
   <si>
@@ -1700,13 +1705,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 23-05-2023, 11:41</t>
+    <t>Last update: 06-06-2023, 11:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1715,7 +1720,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1913,6 +1918,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1933,7 +1946,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1996,7 +2009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,9 +2041,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2062,6 +2076,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2237,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2245,7 +2260,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2257,17 +2272,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2440,7 +2455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2497,7 +2512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2611,7 +2626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +2683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +2968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3049,7 +3064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29.25">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="97.5">
+    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3163,7 +3178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="97.5">
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3218,7 +3233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="97.5">
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3328,7 +3343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29.25">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="29.25">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3442,7 +3457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="29.25">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3491,7 +3506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3540,7 +3555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3746,7 +3761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3803,7 +3818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3860,7 +3875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3917,7 +3932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19.5">
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3972,7 +3987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="29.25">
+    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4017,7 +4032,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="29.25">
+    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4062,7 +4077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="29.25">
+    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4107,7 +4122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4197,7 +4212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4242,7 +4257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="39">
+    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4281,7 +4296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="97.5">
+    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4340,7 +4355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="97.5">
+    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4399,7 +4414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="97.5">
+    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4458,7 +4473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="97.5">
+    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4517,7 +4532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="97.5">
+    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="97.5">
+    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4635,7 +4650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="48.75">
+    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="48.75">
+    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4733,7 +4748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4790,7 +4805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="29.25">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4841,7 +4856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4898,7 +4913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -5012,7 +5027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5069,7 +5084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5126,7 +5141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5183,7 +5198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5240,7 +5255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5297,7 +5312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="29.25">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5354,7 +5369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5411,7 +5426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="29.25">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5470,7 +5485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="29.25">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5529,7 +5544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="29.25">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5588,7 +5603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5645,7 +5660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="29.25">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5704,7 +5719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="29.25">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5763,7 +5778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="29.25">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5822,7 +5837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5936,7 +5951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5993,7 +6008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -6050,7 +6065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6164,7 +6179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6221,7 +6236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6278,7 +6293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6335,7 +6350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6374,7 +6389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6431,7 +6446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6488,7 +6503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6545,7 +6560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6586,7 +6601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6631,7 +6646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6676,7 +6691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.5">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6711,7 +6726,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="29.25">
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6746,7 +6761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6803,7 +6818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6842,7 +6857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.5">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6899,7 +6914,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.5">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6956,7 +6971,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.5">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6997,7 +7012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="29.25">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -7048,7 +7063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7087,7 +7102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7126,7 +7141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7218,7 +7233,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="48.75">
+    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7255,7 +7270,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="48.75">
+    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7292,7 +7307,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="48.75">
+    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7329,7 +7344,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="48.75">
+    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7370,7 +7385,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="48.75">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7411,7 +7426,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="48.75">
+    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7452,7 +7467,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="48.75">
+    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7493,7 +7508,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="48.75">
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7534,7 +7549,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="48.75">
+    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7575,7 +7590,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7612,7 +7627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7669,7 +7684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7726,7 +7741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7783,7 +7798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="19.5">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7820,7 +7835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="19.5">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7857,7 +7872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="19.5">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7894,7 +7909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="29.25">
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7939,7 +7954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="19.5">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7986,7 +8001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="39">
+    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -8033,7 +8048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="48.75">
+    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8080,7 +8095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="58.5">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8127,7 +8142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8174,7 +8189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="29.25">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8219,7 +8234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="19.5">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8266,7 +8281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="39">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8313,7 +8328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="48.75">
+    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8360,7 +8375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="58.5">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8407,7 +8422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8454,7 +8469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="48.75">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8493,7 +8508,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="48.75">
+    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8532,7 +8547,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="29.25">
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8589,7 +8604,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8624,7 +8639,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8659,7 +8674,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8694,7 +8709,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8729,7 +8744,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8764,7 +8779,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8799,7 +8814,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8834,7 +8849,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8869,7 +8884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8904,7 +8919,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8939,7 +8954,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8974,7 +8989,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -9009,7 +9024,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -9044,7 +9059,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9079,7 +9094,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9114,7 +9129,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9149,7 +9164,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9208,7 +9223,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="58.5">
+    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9267,7 +9282,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="58.5">
+    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9302,7 +9317,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="58.5">
+    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9337,7 +9352,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="58.5">
+    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9396,7 +9411,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="58.5">
+    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9455,7 +9470,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="58.5">
+    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9514,7 +9529,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="29.25">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9565,7 +9580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="58.5">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9620,7 +9635,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="58.5">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9675,7 +9690,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="58.5">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9730,7 +9745,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="58.5">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9785,7 +9800,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="29.25">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9820,7 +9835,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="19.5">
+    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9877,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="39">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9912,7 +9927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="39">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9947,7 +9962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="39">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9982,7 +9997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="39">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -10017,7 +10032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="39">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -10052,7 +10067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10087,7 +10102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10122,7 +10137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10157,7 +10172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10192,7 +10207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10227,7 +10242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10262,7 +10277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10297,7 +10312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10332,7 +10347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="29.25">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10371,7 +10386,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="29.25">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10410,7 +10425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="29.25">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10467,7 +10482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="29.25">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10524,7 +10539,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="29.25">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10581,7 +10596,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="29.25">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10638,7 +10653,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="29.25">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10695,7 +10710,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="19.5">
+    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10740,7 +10755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="39">
+    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10785,7 +10800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="19.5">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10830,7 +10845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10875,7 +10890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10920,7 +10935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10965,7 +10980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="39">
+    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -11010,7 +11025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -11049,7 +11064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11088,7 +11103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11127,7 +11142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11166,7 +11181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11205,7 +11220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11244,7 +11259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11283,7 +11298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11322,7 +11337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11361,7 +11376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11400,7 +11415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11439,7 +11454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11478,7 +11493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="19.5">
+    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11519,7 +11534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11574,7 +11589,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11629,7 +11644,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11686,7 +11701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11743,7 +11758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11800,7 +11815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11835,7 +11850,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11870,7 +11885,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11925,7 +11940,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11980,7 +11995,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="19.5">
+    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -12025,7 +12040,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="29.25">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12084,7 +12099,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12135,7 +12150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="39">
+    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12192,7 +12207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12227,7 +12242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12284,7 +12299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="29.25">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12339,7 +12354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="29.25">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12390,7 +12405,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12447,7 +12462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12504,7 +12519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12543,7 +12558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12582,7 +12597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12621,7 +12636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12678,7 +12693,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12735,7 +12750,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12792,7 +12807,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12837,7 +12852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12882,7 +12897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12927,7 +12942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="29.25">
+    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12972,7 +12987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -13017,7 +13032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -13062,7 +13077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13107,7 +13122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13152,7 +13167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13197,7 +13212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13242,7 +13257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13287,7 +13302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13332,7 +13347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13377,7 +13392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13422,7 +13437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13467,7 +13482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13512,7 +13527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13557,7 +13572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13602,7 +13617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13647,7 +13662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13706,7 +13721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13765,7 +13780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13824,7 +13839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13883,7 +13898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13942,7 +13957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -14001,7 +14016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -14060,7 +14075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14119,7 +14134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14178,7 +14193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14235,7 +14250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14292,7 +14307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14349,7 +14364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14390,7 +14405,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14431,7 +14446,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14472,7 +14487,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14529,7 +14544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="48.75">
+    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14586,7 +14601,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14621,7 +14636,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14656,7 +14671,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14691,7 +14706,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14726,7 +14741,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14761,7 +14776,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14796,7 +14811,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14831,7 +14846,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14866,7 +14881,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14917,7 +14932,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="29.25">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14974,7 +14989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="29.25">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -15031,7 +15046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="29.25">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -15088,7 +15103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="29.25">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15145,7 +15160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="29.25">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15202,7 +15217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="29.25">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15259,7 +15274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="29.25">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15316,7 +15331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="29.25">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15373,7 +15388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="29.25">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15430,7 +15445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="29.25">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15487,7 +15502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="29.25">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15544,7 +15559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="29.25">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15601,7 +15616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="29.25">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15658,7 +15673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="29.25">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15715,7 +15730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="29.25">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15772,7 +15787,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="29.25">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15829,7 +15844,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="29.25">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15886,7 +15901,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="29.25">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15943,7 +15958,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="29.25">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -16000,7 +16015,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="29.25">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -16057,7 +16072,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="29.25">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16108,7 +16123,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="29.25">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16165,7 +16180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="29.25">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16222,7 +16237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="29.25">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16273,7 +16288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="29.25">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16326,7 +16341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="39">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16375,7 +16390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="39">
+    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16424,7 +16439,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16481,7 +16496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="68.25">
+    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16538,7 +16553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16595,7 +16610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16652,7 +16667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16709,7 +16724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16766,7 +16781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16823,7 +16838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16880,7 +16895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16937,7 +16952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -16994,7 +17009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -17051,7 +17066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -17090,7 +17105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17147,7 +17162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="39">
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17204,7 +17219,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17261,7 +17276,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="39">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17318,7 +17333,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="39">
+    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17375,7 +17390,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="29.25">
+    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17432,7 +17447,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="39">
+    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17489,7 +17504,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="29.25">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17546,7 +17561,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="29.25">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17603,7 +17618,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="39">
+    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17660,7 +17675,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="29.25">
+    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17717,7 +17732,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17774,7 +17789,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="29.25">
+    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17831,7 +17846,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17890,7 +17905,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="39">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17949,7 +17964,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="39">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -18008,7 +18023,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="68.25">
+    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -18067,7 +18082,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="58.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18126,7 +18141,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="68.25">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18185,7 +18200,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="68.25">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18244,7 +18259,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="39">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18301,7 +18316,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="68.25">
+    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18358,7 +18373,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="58.5">
+    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18415,7 +18430,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="68.25">
+    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18472,7 +18487,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="68.25">
+    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18529,7 +18544,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="29.25">
+    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18584,7 +18599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="29.25">
+    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18639,7 +18654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="29.25">
+    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18694,7 +18709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="29.25">
+    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18751,7 +18766,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="29.25">
+    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18808,7 +18823,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="29.25">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18865,7 +18880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="29.25">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18922,7 +18937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="29.25">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18979,7 +18994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="29.25">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -19036,7 +19051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="29.25">
+    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -19093,7 +19108,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="29.25">
+    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19150,7 +19165,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="29.25">
+    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19207,7 +19222,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="29.25">
+    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19264,7 +19279,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="29.25">
+    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19321,7 +19336,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="29.25">
+    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19378,7 +19393,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="29.25">
+    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19435,7 +19450,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="29.25">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19492,7 +19507,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="29.25">
+    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19549,7 +19564,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="29.25">
+    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19606,7 +19621,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="29.25">
+    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19663,7 +19678,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="29.25">
+    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19720,7 +19735,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="29.25">
+    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19777,7 +19792,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="29.25">
+    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19834,7 +19849,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="29.25">
+    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19891,7 +19906,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="29.25">
+    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19948,7 +19963,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="29.25">
+    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -20005,7 +20020,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="29.25">
+    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -20062,7 +20077,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="29.25">
+    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20117,7 +20132,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="29.25">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20174,7 +20189,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="29.25">
+    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20231,7 +20246,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="29.25">
+    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20288,7 +20303,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="29.25">
+    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20345,7 +20360,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="29.25">
+    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20402,7 +20417,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20459,7 +20474,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20516,7 +20531,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20573,7 +20588,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20630,7 +20645,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20687,7 +20702,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20744,7 +20759,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20801,7 +20816,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20858,7 +20873,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20915,7 +20930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20972,7 +20987,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -21029,7 +21044,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="48.75">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -21088,7 +21103,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21133,7 +21148,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21178,7 +21193,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21223,7 +21238,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21276,7 +21291,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21321,7 +21336,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21380,7 +21395,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21439,7 +21454,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="29.25">
+    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21496,7 +21511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="29.25">
+    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21553,7 +21568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="39">
+    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21612,7 +21627,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="39">
+    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21667,7 +21682,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21726,7 +21741,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="29.25">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21777,7 +21792,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="39">
+    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21836,7 +21851,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="48.75">
+    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21895,7 +21910,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="48.75">
+    <row r="391" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21954,7 +21969,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="58.5">
+    <row r="392" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -22013,7 +22028,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="58.5">
+    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -22070,7 +22085,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22127,7 +22142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="19.5">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22184,7 +22199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="39">
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22241,7 +22256,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="19.5">
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22280,7 +22295,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="19.5">
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22313,7 +22328,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="19.5">
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22346,7 +22361,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="19.5">
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22379,7 +22394,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="19.5">
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22418,7 +22433,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="19.5">
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22457,7 +22472,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="19.5">
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22496,7 +22511,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="29.25">
+    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22555,7 +22570,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22612,7 +22627,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22671,7 +22686,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22722,7 +22737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22773,7 +22788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22830,7 +22845,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22887,7 +22902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22946,7 +22961,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="29.25">
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -22989,7 +23004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -23042,7 +23057,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="29.25">
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -23087,7 +23102,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="29.25">
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23132,7 +23147,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="29.25">
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23177,7 +23192,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="29.25">
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23222,7 +23237,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="29.25">
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23267,7 +23282,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="29.25">
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23312,7 +23327,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="39">
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23357,7 +23372,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="48.75">
+    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23402,7 +23417,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="39">
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23447,7 +23462,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="39">
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23492,7 +23507,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="29.25">
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23549,7 +23564,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="29.25">
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23606,7 +23621,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="29.25">
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23663,7 +23678,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="29.25">
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23720,7 +23735,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="29.25">
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23777,7 +23792,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="29.25">
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23834,7 +23849,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="39">
+    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23873,7 +23888,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="39">
+    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>485</v>
       </c>
@@ -23912,7 +23927,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="39">
+    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>485</v>
       </c>
@@ -23951,7 +23966,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="39">
+    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>485</v>
       </c>
@@ -23990,7 +24005,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="39">
+    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>485</v>
       </c>
@@ -24029,7 +24044,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="39">
+    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>485</v>
       </c>
@@ -24068,7 +24083,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="39">
+    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>485</v>
       </c>
@@ -24107,7 +24122,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="39">
+    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -24146,7 +24161,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="39">
+    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
@@ -24185,7 +24200,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="39">
+    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>485</v>
       </c>
@@ -24224,7 +24239,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="39">
+    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>485</v>
       </c>
@@ -24263,7 +24278,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="39">
+    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>485</v>
       </c>
@@ -24302,7 +24317,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="29.25">
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>485</v>
       </c>
@@ -24361,7 +24376,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="29.25">
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>485</v>
       </c>
@@ -24400,7 +24415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="29.25">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>522</v>
       </c>
@@ -24457,7 +24472,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="29.25">
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>522</v>
       </c>
@@ -24514,7 +24529,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="29.25">
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>522</v>
       </c>
@@ -24571,7 +24586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>522</v>
       </c>
@@ -24628,7 +24643,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="48.75">
+    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>522</v>
       </c>
@@ -24687,7 +24702,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="29.25">
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>522</v>
       </c>
@@ -24744,7 +24759,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>522</v>
       </c>
@@ -24801,7 +24816,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="29.25">
+    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>522</v>
       </c>
@@ -24860,7 +24875,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>522</v>
       </c>
@@ -24919,7 +24934,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>522</v>
       </c>
@@ -24978,7 +24993,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="29.25">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>522</v>
       </c>
@@ -25035,7 +25050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="29.25">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>522</v>
       </c>
@@ -25094,7 +25109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="29.25">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>522</v>
       </c>
@@ -25153,7 +25168,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="29.25">
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>522</v>
       </c>
@@ -25210,7 +25225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>522</v>
       </c>
@@ -25269,7 +25284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="48.75">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>522</v>
       </c>
@@ -25328,7 +25343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="29.25">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>522</v>
       </c>
@@ -25387,7 +25402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="39">
+    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>522</v>
       </c>
@@ -25446,7 +25461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="39">
+    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>522</v>
       </c>
@@ -25505,7 +25520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>522</v>
       </c>
@@ -25548,7 +25563,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -25607,7 +25622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>522</v>
       </c>
@@ -25666,7 +25681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>522</v>
       </c>
@@ -25717,7 +25732,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="39">
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>522</v>
       </c>
@@ -25754,7 +25769,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="39">
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>522</v>
       </c>
@@ -25813,7 +25828,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="39">
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>522</v>
       </c>
@@ -25872,9 +25887,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>560</v>
       </c>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1705,7 +1705,7 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 06-06-2023, 11:45</t>
+    <t>Last update: 20-06-2023, 09:32</t>
   </si>
 </sst>
 </file>
@@ -2255,9 +2255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25906,7 +25906,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1705,13 +1700,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 20-06-2023, 09:32</t>
+    <t>Last update: 04-07-2023, 11:49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1720,7 +1715,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1918,14 +1913,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1946,7 +1933,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2009,7 +1996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,10 +2028,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2076,7 +2062,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2252,15 +2237,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2272,17 +2257,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2569,7 +2554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2626,7 +2611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2683,7 +2668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2740,7 +2725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2968,7 +2953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3123,7 +3108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="97.5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3178,7 +3163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="97.5">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="97.5">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3288,7 +3273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3343,7 +3328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3400,7 +3385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3457,7 +3442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +3491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3604,7 +3589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3653,7 +3638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3704,7 +3689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3761,7 +3746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3875,7 +3860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3932,7 +3917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.5">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3987,7 +3972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="29.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4032,7 +4017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="29.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4077,7 +4062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="29.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4122,7 +4107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4167,7 +4152,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4212,7 +4197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4257,7 +4242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="39">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4296,7 +4281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4355,7 +4340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4414,7 +4399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="97.5">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4473,7 +4458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="97.5">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4532,7 +4517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="97.5">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4591,7 +4576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="97.5">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4650,7 +4635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="48.75">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4699,7 +4684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="48.75">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4748,7 +4733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4805,7 +4790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="29.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4856,7 +4841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4913,7 +4898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4970,7 +4955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -5027,7 +5012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5084,7 +5069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5141,7 +5126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5198,7 +5183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5255,7 +5240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5312,7 +5297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="29.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5369,7 +5354,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5426,7 +5411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="29.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5485,7 +5470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="29.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5544,7 +5529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="29.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5603,7 +5588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5660,7 +5645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="29.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5719,7 +5704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="29.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5778,7 +5763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="29.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5837,7 +5822,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5894,7 +5879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5951,7 +5936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -6008,7 +5993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -6065,7 +6050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6122,7 +6107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6179,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6236,7 +6221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6293,7 +6278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6350,7 +6335,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6389,7 +6374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6446,7 +6431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6503,7 +6488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6560,7 +6545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6601,7 +6586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6646,7 +6631,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6691,7 +6676,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6726,7 +6711,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6761,7 +6746,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6818,7 +6803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6857,7 +6842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6914,7 +6899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6971,7 +6956,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -7012,7 +6997,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -7063,7 +7048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7102,7 +7087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7141,7 +7126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7180,7 +7165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7233,7 +7218,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="48.75">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7270,7 +7255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="48.75">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7307,7 +7292,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="48.75">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7344,7 +7329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="48.75">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7385,7 +7370,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="48.75">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7426,7 +7411,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="48.75">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7467,7 +7452,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="48.75">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7508,7 +7493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="48.75">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7549,7 +7534,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="48.75">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7590,7 +7575,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7627,7 +7612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7684,7 +7669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7741,7 +7726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7798,7 +7783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7835,7 +7820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7872,7 +7857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7909,7 +7894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="29.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7954,7 +7939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -8001,7 +7986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="39">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -8048,7 +8033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="48.75">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8095,7 +8080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="58.5">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8142,7 +8127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8189,7 +8174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8234,7 +8219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8281,7 +8266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="39">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8328,7 +8313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="48.75">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8375,7 +8360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="58.5">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8422,7 +8407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8469,7 +8454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8508,7 +8493,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8547,7 +8532,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="29.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8604,7 +8589,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8639,7 +8624,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8674,7 +8659,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8709,7 +8694,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8744,7 +8729,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8779,7 +8764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8814,7 +8799,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8849,7 +8834,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8884,7 +8869,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8919,7 +8904,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8954,7 +8939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8989,7 +8974,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -9024,7 +9009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -9059,7 +9044,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9094,7 +9079,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9129,7 +9114,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9164,7 +9149,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9223,7 +9208,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9282,7 +9267,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9317,7 +9302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9352,7 +9337,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9411,7 +9396,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9470,7 +9455,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9529,7 +9514,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="29.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9580,7 +9565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9635,7 +9620,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9690,7 +9675,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9745,7 +9730,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9800,7 +9785,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="29.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9835,7 +9820,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="19.5">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9892,7 +9877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="39">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9927,7 +9912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="39">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9962,7 +9947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="39">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9997,7 +9982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="39">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -10032,7 +10017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="39">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -10067,7 +10052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10102,7 +10087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10137,7 +10122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10172,7 +10157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10207,7 +10192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10242,7 +10227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10277,7 +10262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10312,7 +10297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10347,7 +10332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="29.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10386,7 +10371,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="29.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10425,7 +10410,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="29.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10482,7 +10467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="29.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10539,7 +10524,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="29.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10596,7 +10581,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="29.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10653,7 +10638,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="29.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10710,7 +10695,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="19.5">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10755,7 +10740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="39">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10800,7 +10785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10845,7 +10830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10890,7 +10875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10935,7 +10920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10980,7 +10965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="39">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -11025,7 +11010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -11064,7 +11049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11103,7 +11088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11142,7 +11127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11181,7 +11166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11220,7 +11205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11259,7 +11244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11298,7 +11283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11337,7 +11322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11376,7 +11361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11415,7 +11400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11454,7 +11439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11493,7 +11478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="19.5">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11534,7 +11519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11589,7 +11574,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11644,7 +11629,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11701,7 +11686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11758,7 +11743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11815,7 +11800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11850,7 +11835,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11885,7 +11870,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11940,7 +11925,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11995,7 +11980,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="19.5">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -12040,7 +12025,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12099,7 +12084,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12150,7 +12135,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="39">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12207,7 +12192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12242,7 +12227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12299,7 +12284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12354,7 +12339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12405,7 +12390,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12462,7 +12447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12519,7 +12504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12558,7 +12543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12597,7 +12582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12636,7 +12621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12693,7 +12678,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12750,7 +12735,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12807,7 +12792,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12852,7 +12837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12897,7 +12882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12942,7 +12927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12987,7 +12972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -13032,7 +13017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -13077,7 +13062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13122,7 +13107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13167,7 +13152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13212,7 +13197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13257,7 +13242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13302,7 +13287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13347,7 +13332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13392,7 +13377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13437,7 +13422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13482,7 +13467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13527,7 +13512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13572,7 +13557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13617,7 +13602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13662,7 +13647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13721,7 +13706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13780,7 +13765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13839,7 +13824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13898,7 +13883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13957,7 +13942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -14016,7 +14001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -14075,7 +14060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14134,7 +14119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14193,7 +14178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14250,7 +14235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14307,7 +14292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14364,7 +14349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14405,7 +14390,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14446,7 +14431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14487,7 +14472,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14544,7 +14529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="48.75">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14601,7 +14586,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14636,7 +14621,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14671,7 +14656,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14706,7 +14691,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14741,7 +14726,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14776,7 +14761,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14811,7 +14796,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14846,7 +14831,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14881,7 +14866,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14932,7 +14917,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="29.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14989,7 +14974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -15046,7 +15031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -15103,7 +15088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15160,7 +15145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15217,7 +15202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15274,7 +15259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15331,7 +15316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15388,7 +15373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="29.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15445,7 +15430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="29.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15502,7 +15487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="29.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15559,7 +15544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="29.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15616,7 +15601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="29.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15673,7 +15658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="29.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15730,7 +15715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="29.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15787,7 +15772,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="29.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15844,7 +15829,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="29.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15901,7 +15886,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="29.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15958,7 +15943,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="29.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -16015,7 +16000,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="29.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -16072,7 +16057,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="29.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16123,7 +16108,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="29.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16180,7 +16165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="29.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16237,7 +16222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="29.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16288,7 +16273,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="29.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16341,7 +16326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="39">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16390,7 +16375,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="39">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16439,7 +16424,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16496,7 +16481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="68.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16553,7 +16538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16610,7 +16595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16667,7 +16652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16724,7 +16709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16781,7 +16766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16838,7 +16823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16895,7 +16880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16952,7 +16937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -17009,7 +16994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -17066,7 +17051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -17105,7 +17090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17162,7 +17147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="39">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17219,7 +17204,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17276,7 +17261,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="39">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17333,7 +17318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="39">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17390,7 +17375,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17447,7 +17432,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="39">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17504,7 +17489,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="29.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17561,7 +17546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="29.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17618,7 +17603,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="39">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17675,7 +17660,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="29.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17732,7 +17717,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17789,7 +17774,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="29.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17846,7 +17831,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17905,7 +17890,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="39">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17964,7 +17949,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="39">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -18023,7 +18008,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="68.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -18082,7 +18067,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="58.5">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18141,7 +18126,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="68.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18200,7 +18185,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="68.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18259,7 +18244,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="39">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18316,7 +18301,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="68.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18373,7 +18358,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="58.5">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18430,7 +18415,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="68.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18487,7 +18472,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="68.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18544,7 +18529,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18599,7 +18584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18654,7 +18639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18709,7 +18694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="29.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18766,7 +18751,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="29.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18823,7 +18808,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="29.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18880,7 +18865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="29.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18937,7 +18922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="29.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18994,7 +18979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="29.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -19051,7 +19036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="29.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -19108,7 +19093,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="29.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19165,7 +19150,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="29.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19222,7 +19207,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="29.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19279,7 +19264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="29.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19336,7 +19321,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="29.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19393,7 +19378,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="29.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19450,7 +19435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="29.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19507,7 +19492,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="29.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19564,7 +19549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="29.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19621,7 +19606,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="29.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19678,7 +19663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="29.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19735,7 +19720,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="29.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19792,7 +19777,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="29.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19849,7 +19834,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="29.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19906,7 +19891,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="29.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19963,7 +19948,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="29.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -20020,7 +20005,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="29.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -20077,7 +20062,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="29.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20132,7 +20117,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="29.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20189,7 +20174,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="29.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20246,7 +20231,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="29.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20303,7 +20288,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="29.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20360,7 +20345,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="29.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20417,7 +20402,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20474,7 +20459,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20531,7 +20516,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20588,7 +20573,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20645,7 +20630,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20702,7 +20687,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20759,7 +20744,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20816,7 +20801,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20873,7 +20858,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20930,7 +20915,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20987,7 +20972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -21044,7 +21029,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="48.75">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -21103,7 +21088,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21148,7 +21133,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21193,7 +21178,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21238,7 +21223,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21291,7 +21276,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21336,7 +21321,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21395,7 +21380,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21454,7 +21439,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="29.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21511,7 +21496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="29.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21568,7 +21553,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="39">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21627,7 +21612,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="39">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21682,7 +21667,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21741,7 +21726,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="29.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21792,7 +21777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="58.5">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21851,7 +21836,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="39">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21910,7 +21895,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="48.75">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21969,7 +21954,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="48.75">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -22028,7 +22013,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="58.5">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -22085,7 +22070,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22142,7 +22127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22199,7 +22184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22256,7 +22241,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22295,7 +22280,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22328,7 +22313,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22361,7 +22346,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22394,7 +22379,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22433,7 +22418,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22472,7 +22457,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22511,7 +22496,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="29.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22570,7 +22555,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22627,7 +22612,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22686,7 +22671,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22737,7 +22722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22788,7 +22773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22845,7 +22830,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22902,7 +22887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22961,7 +22946,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -23004,7 +22989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -23057,7 +23042,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -23102,7 +23087,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23147,7 +23132,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23192,7 +23177,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23237,7 +23222,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23282,7 +23267,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23327,7 +23312,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23372,7 +23357,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="48.75">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23417,7 +23402,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23462,7 +23447,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23507,7 +23492,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="29.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23564,7 +23549,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="29.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23621,7 +23606,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="29.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23678,7 +23663,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="29.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23735,7 +23720,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="29.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23792,7 +23777,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23849,7 +23834,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="39">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23888,7 +23873,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="39">
       <c r="A431" s="2" t="s">
         <v>485</v>
       </c>
@@ -23927,7 +23912,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="39">
       <c r="A432" s="2" t="s">
         <v>485</v>
       </c>
@@ -23966,7 +23951,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="39">
       <c r="A433" s="2" t="s">
         <v>485</v>
       </c>
@@ -24005,7 +23990,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="39">
       <c r="A434" s="2" t="s">
         <v>485</v>
       </c>
@@ -24044,7 +24029,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="39">
       <c r="A435" s="2" t="s">
         <v>485</v>
       </c>
@@ -24083,7 +24068,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="39">
       <c r="A436" s="2" t="s">
         <v>485</v>
       </c>
@@ -24122,7 +24107,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="39">
       <c r="A437" s="2" t="s">
         <v>485</v>
       </c>
@@ -24161,7 +24146,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="39">
       <c r="A438" s="2" t="s">
         <v>485</v>
       </c>
@@ -24200,7 +24185,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="39">
       <c r="A439" s="2" t="s">
         <v>485</v>
       </c>
@@ -24239,7 +24224,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="39">
       <c r="A440" s="2" t="s">
         <v>485</v>
       </c>
@@ -24278,7 +24263,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="39">
       <c r="A441" s="2" t="s">
         <v>485</v>
       </c>
@@ -24317,7 +24302,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>485</v>
       </c>
@@ -24376,7 +24361,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>485</v>
       </c>
@@ -24415,7 +24400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="29.25">
       <c r="A444" s="2" t="s">
         <v>522</v>
       </c>
@@ -24472,7 +24457,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="29.25">
       <c r="A445" s="2" t="s">
         <v>522</v>
       </c>
@@ -24529,7 +24514,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="29.25">
       <c r="A446" s="2" t="s">
         <v>522</v>
       </c>
@@ -24586,7 +24571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>522</v>
       </c>
@@ -24643,7 +24628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="48.75">
       <c r="A448" s="2" t="s">
         <v>522</v>
       </c>
@@ -24702,7 +24687,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="29.25">
       <c r="A449" s="2" t="s">
         <v>522</v>
       </c>
@@ -24759,7 +24744,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>522</v>
       </c>
@@ -24816,7 +24801,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>522</v>
       </c>
@@ -24875,7 +24860,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>522</v>
       </c>
@@ -24934,7 +24919,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>522</v>
       </c>
@@ -24993,7 +24978,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="29.25">
       <c r="A454" s="2" t="s">
         <v>522</v>
       </c>
@@ -25050,7 +25035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="29.25">
       <c r="A455" s="2" t="s">
         <v>522</v>
       </c>
@@ -25109,7 +25094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="29.25">
       <c r="A456" s="2" t="s">
         <v>522</v>
       </c>
@@ -25168,7 +25153,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>522</v>
       </c>
@@ -25225,7 +25210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>522</v>
       </c>
@@ -25284,7 +25269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="48.75">
       <c r="A459" s="2" t="s">
         <v>522</v>
       </c>
@@ -25343,7 +25328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="29.25">
       <c r="A460" s="2" t="s">
         <v>522</v>
       </c>
@@ -25402,7 +25387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="39">
       <c r="A461" s="2" t="s">
         <v>522</v>
       </c>
@@ -25461,7 +25446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="39">
       <c r="A462" s="2" t="s">
         <v>522</v>
       </c>
@@ -25520,7 +25505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>522</v>
       </c>
@@ -25563,7 +25548,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -25622,7 +25607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>522</v>
       </c>
@@ -25681,7 +25666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>522</v>
       </c>
@@ -25732,7 +25717,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="39">
       <c r="A467" s="2" t="s">
         <v>522</v>
       </c>
@@ -25769,7 +25754,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="39">
       <c r="A468" s="2" t="s">
         <v>522</v>
       </c>
@@ -25828,7 +25813,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="39">
       <c r="A469" s="2" t="s">
         <v>522</v>
       </c>
@@ -25887,9 +25872,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>560</v>
       </c>
@@ -25906,7 +25891,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/global_sdg_indicators.xlsx
+++ b/assets/excel/en/global_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1700,13 +1705,13 @@
     <t>100% deaths registration</t>
   </si>
   <si>
-    <t>Last update: 04-07-2023, 11:49</t>
+    <t>Last update: 25-07-2023, 10:38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
@@ -1715,7 +1720,7 @@
     <numFmt numFmtId="168" formatCode="[$-10809]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10809]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1913,6 +1918,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1933,7 +1946,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1996,7 +2009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,9 +2041,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2062,6 +2076,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2237,15 +2252,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2257,17 +2272,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2440,7 +2455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2497,7 +2512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2611,7 +2626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +2683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +2968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3049,7 +3064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29.25">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="97.5">
+    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3163,7 +3178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="97.5">
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3218,7 +3233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="97.5">
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3328,7 +3343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29.25">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="29.25">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3442,7 +3457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="29.25">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3491,7 +3506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3540,7 +3555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3746,7 +3761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3803,7 +3818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3860,7 +3875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3917,7 +3932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19.5">
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3972,7 +3987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="29.25">
+    <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4017,7 +4032,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="29.25">
+    <row r="35" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4062,7 +4077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="29.25">
+    <row r="36" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4107,7 +4122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4197,7 +4212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4242,7 +4257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="39">
+    <row r="40" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4281,7 +4296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="97.5">
+    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4340,7 +4355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="97.5">
+    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4399,7 +4414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="97.5">
+    <row r="43" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4458,7 +4473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="97.5">
+    <row r="44" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4517,7 +4532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="97.5">
+    <row r="45" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="97.5">
+    <row r="46" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4635,7 +4650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="48.75">
+    <row r="47" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="48.75">
+    <row r="48" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4733,7 +4748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4790,7 +4805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="29.25">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4836,12 +4851,14 @@
       <c r="Q50" s="5">
         <v>3.36</v>
       </c>
-      <c r="R50" s="3"/>
+      <c r="R50" s="5">
+        <v>3.93</v>
+      </c>
       <c r="S50" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4898,7 +4915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4950,12 +4967,14 @@
       <c r="Q52" s="4">
         <v>99.6</v>
       </c>
-      <c r="R52" s="3"/>
+      <c r="R52" s="4">
+        <v>99.6</v>
+      </c>
       <c r="S52" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -5007,12 +5026,14 @@
       <c r="Q53" s="4">
         <v>4.7</v>
       </c>
-      <c r="R53" s="3"/>
+      <c r="R53" s="4">
+        <v>4.8</v>
+      </c>
       <c r="S53" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -5064,12 +5085,14 @@
       <c r="Q54" s="4">
         <v>4.2</v>
       </c>
-      <c r="R54" s="3"/>
+      <c r="R54" s="4">
+        <v>4.2</v>
+      </c>
       <c r="S54" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -5121,12 +5144,14 @@
       <c r="Q55" s="4">
         <v>5.2</v>
       </c>
-      <c r="R55" s="3"/>
+      <c r="R55" s="4">
+        <v>5.3</v>
+      </c>
       <c r="S55" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -5178,12 +5203,14 @@
       <c r="Q56" s="4">
         <v>2.9</v>
       </c>
-      <c r="R56" s="3"/>
+      <c r="R56" s="4">
+        <v>2.6</v>
+      </c>
       <c r="S56" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5235,12 +5262,14 @@
       <c r="Q57" s="4">
         <v>2.5</v>
       </c>
-      <c r="R57" s="3"/>
+      <c r="R57" s="4">
+        <v>2.4</v>
+      </c>
       <c r="S57" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5292,12 +5321,14 @@
       <c r="Q58" s="4">
         <v>3.3</v>
       </c>
-      <c r="R58" s="3"/>
+      <c r="R58" s="4">
+        <v>2.8</v>
+      </c>
       <c r="S58" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="29.25">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5354,7 +5385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5411,7 +5442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="29.25">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5470,7 +5501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="29.25">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5529,7 +5560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="29.25">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5588,7 +5619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5645,7 +5676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="29.25">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5704,7 +5735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="29.25">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5763,7 +5794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="29.25">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5822,7 +5853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5879,7 +5910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5936,7 +5967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5993,7 +6024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -6050,7 +6081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -6164,7 +6195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6221,7 +6252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -6278,7 +6309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6335,7 +6366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6374,7 +6405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6426,12 +6457,14 @@
       <c r="Q78" s="4">
         <v>3.1</v>
       </c>
-      <c r="R78" s="3"/>
+      <c r="R78" s="4">
+        <v>2.8</v>
+      </c>
       <c r="S78" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6483,12 +6516,14 @@
       <c r="Q79" s="4">
         <v>0</v>
       </c>
-      <c r="R79" s="3"/>
+      <c r="R79" s="4">
+        <v>0</v>
+      </c>
       <c r="S79" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6540,12 +6575,14 @@
       <c r="Q80" s="4">
         <v>6.7</v>
       </c>
-      <c r="R80" s="3"/>
+      <c r="R80" s="4">
+        <v>5.9</v>
+      </c>
       <c r="S80" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6562,31 +6599,33 @@
         <v>124</v>
       </c>
       <c r="F81" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="6">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="6">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="6">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
+      <c r="Q81" s="6">
+        <v>82</v>
+      </c>
       <c r="R81" s="3"/>
       <c r="S81" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6602,7 +6641,9 @@
       <c r="E82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="5">
+        <v>13.46</v>
+      </c>
       <c r="G82" s="5">
         <v>13.9</v>
       </c>
@@ -6613,25 +6654,35 @@
         <v>13.29</v>
       </c>
       <c r="J82" s="5">
-        <v>12.61</v>
+        <v>13.54</v>
       </c>
       <c r="K82" s="5">
-        <v>13.73</v>
+        <v>14.77</v>
       </c>
       <c r="L82" s="5">
-        <v>14.11</v>
-      </c>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
+        <v>15.04</v>
+      </c>
+      <c r="M82" s="5">
+        <v>15.51</v>
+      </c>
+      <c r="N82" s="5">
+        <v>14.35</v>
+      </c>
+      <c r="O82" s="5">
+        <v>14.86</v>
+      </c>
+      <c r="P82" s="5">
+        <v>15.24</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>16.09</v>
+      </c>
       <c r="R82" s="3"/>
       <c r="S82" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6647,7 +6698,9 @@
       <c r="E83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="5">
+        <v>1.44</v>
+      </c>
       <c r="G83" s="5">
         <v>1.42</v>
       </c>
@@ -6658,25 +6711,35 @@
         <v>1.36</v>
       </c>
       <c r="J83" s="5">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="K83" s="5">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="L83" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
+        <v>1.61</v>
+      </c>
+      <c r="M83" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="N83" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="O83" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="P83" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>1.96</v>
+      </c>
       <c r="R83" s="3"/>
       <c r="S83" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.5">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6711,7 +6774,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="29.25">
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6746,7 +6809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6803,7 +6866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6842,7 +6905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.5">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6899,7 +6962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.5">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6956,7 +7019,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.5">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6997,7 +7060,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="29.25">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -7043,12 +7106,14 @@
       <c r="Q91" s="5">
         <v>56.63</v>
       </c>
-      <c r="R91" s="3"/>
+      <c r="R91" s="5">
+        <v>14.77</v>
+      </c>
       <c r="S91" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -7087,7 +7152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7126,7 +7191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -7165,7 +7230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -7213,12 +7278,14 @@
       <c r="Q95" s="4">
         <v>69</v>
       </c>
-      <c r="R95" s="3"/>
+      <c r="R95" s="4">
+        <v>83</v>
+      </c>
       <c r="S95" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="48.75">
+    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7255,7 +7322,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="48.75">
+    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7292,7 +7359,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="48.75">
+    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7329,7 +7396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="48.75">
+    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7370,7 +7437,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="48.75">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7411,7 +7478,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="48.75">
+    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7452,7 +7519,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="48.75">
+    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7493,7 +7560,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="48.75">
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7534,7 +7601,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="48.75">
+    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7575,7 +7642,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7612,7 +7679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7669,7 +7736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7726,7 +7793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7783,7 +7850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="19.5">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7820,7 +7887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="19.5">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7857,7 +7924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="19.5">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7894,7 +7961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="29.25">
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7939,7 +8006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="19.5">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7986,7 +8053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="39">
+    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -8033,7 +8100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="48.75">
+    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -8080,7 +8147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="58.5">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8127,7 +8194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8174,7 +8241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="29.25">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8219,7 +8286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="19.5">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8266,7 +8333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="39">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8313,7 +8380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="48.75">
+    <row r="121" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8360,7 +8427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="58.5">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8407,7 +8474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8454,7 +8521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="48.75">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8493,7 +8560,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="48.75">
+    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8532,7 +8599,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="29.25">
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8589,7 +8656,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8624,7 +8691,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8659,7 +8726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8694,7 +8761,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8729,7 +8796,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8764,7 +8831,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8799,7 +8866,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8834,7 +8901,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8869,7 +8936,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8904,7 +8971,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8939,7 +9006,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8974,7 +9041,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -9009,7 +9076,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -9044,7 +9111,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -9079,7 +9146,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9114,7 +9181,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9149,7 +9216,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9208,7 +9275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="58.5">
+    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9267,7 +9334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="58.5">
+    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9302,7 +9369,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="58.5">
+    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9337,7 +9404,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="58.5">
+    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9396,7 +9463,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="58.5">
+    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9455,7 +9522,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="58.5">
+    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9514,7 +9581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="29.25">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9560,12 +9627,14 @@
       <c r="Q150" s="5">
         <v>11.48</v>
       </c>
-      <c r="R150" s="3"/>
+      <c r="R150" s="5">
+        <v>7</v>
+      </c>
       <c r="S150" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="58.5">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9620,7 +9689,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="58.5">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9675,7 +9744,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="58.5">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9730,7 +9799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="58.5">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9785,7 +9854,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="29.25">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>205</v>
       </c>
@@ -9820,7 +9889,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="19.5">
+    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>205</v>
       </c>
@@ -9877,7 +9946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="39">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -9912,7 +9981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="39">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -9947,7 +10016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="39">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>205</v>
       </c>
@@ -9982,7 +10051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="39">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>205</v>
       </c>
@@ -10017,7 +10086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="39">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>205</v>
       </c>
@@ -10052,7 +10121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>205</v>
       </c>
@@ -10087,7 +10156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>205</v>
       </c>
@@ -10122,7 +10191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
@@ -10157,7 +10226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
@@ -10192,7 +10261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>205</v>
       </c>
@@ -10227,7 +10296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>205</v>
       </c>
@@ -10262,7 +10331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>205</v>
       </c>
@@ -10297,7 +10366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>205</v>
       </c>
@@ -10332,7 +10401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="29.25">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>205</v>
       </c>
@@ -10371,7 +10440,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="29.25">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>205</v>
       </c>
@@ -10410,7 +10479,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="29.25">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>205</v>
       </c>
@@ -10462,12 +10531,14 @@
       <c r="Q172" s="4">
         <v>12.4</v>
       </c>
-      <c r="R172" s="3"/>
+      <c r="R172" s="4">
+        <v>12.2</v>
+      </c>
       <c r="S172" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="29.25">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>205</v>
       </c>
@@ -10519,12 +10590,14 @@
       <c r="Q173" s="4">
         <v>31.2</v>
       </c>
-      <c r="R173" s="3"/>
+      <c r="R173" s="4">
+        <v>31.3</v>
+      </c>
       <c r="S173" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="29.25">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>205</v>
       </c>
@@ -10576,12 +10649,14 @@
       <c r="Q174" s="4">
         <v>32.9</v>
       </c>
-      <c r="R174" s="3"/>
+      <c r="R174" s="4">
+        <v>33.299999999999997</v>
+      </c>
       <c r="S174" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="29.25">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>205</v>
       </c>
@@ -10633,12 +10708,14 @@
       <c r="Q175" s="4">
         <v>24.6</v>
       </c>
-      <c r="R175" s="3"/>
+      <c r="R175" s="4">
+        <v>24.8</v>
+      </c>
       <c r="S175" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="29.25">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -10690,12 +10767,14 @@
       <c r="Q176" s="4">
         <v>29.5</v>
       </c>
-      <c r="R176" s="3"/>
+      <c r="R176" s="4">
+        <v>29.8</v>
+      </c>
       <c r="S176" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="19.5">
+    <row r="177" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>205</v>
       </c>
@@ -10740,7 +10819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="39">
+    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>205</v>
       </c>
@@ -10785,7 +10864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="19.5">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>205</v>
       </c>
@@ -10830,7 +10909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>205</v>
       </c>
@@ -10875,7 +10954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>205</v>
       </c>
@@ -10920,7 +10999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>205</v>
       </c>
@@ -10965,7 +11044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="39">
+    <row r="183" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -11010,7 +11089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>205</v>
       </c>
@@ -11049,7 +11128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -11088,7 +11167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -11127,7 +11206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -11166,7 +11245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -11205,7 +11284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11244,7 +11323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11283,7 +11362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -11322,7 +11401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -11361,7 +11440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -11400,7 +11479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>205</v>
       </c>
@@ -11439,7 +11518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>205</v>
       </c>
@@ -11478,7 +11557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="19.5">
+    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>205</v>
       </c>
@@ -11519,7 +11598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -11574,7 +11653,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -11629,7 +11708,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -11686,7 +11765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -11743,7 +11822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>245</v>
       </c>
@@ -11800,7 +11879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>245</v>
       </c>
@@ -11829,13 +11908,15 @@
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
-      <c r="Q202" s="3"/>
+      <c r="Q202" s="6">
+        <v>1</v>
+      </c>
       <c r="R202" s="3"/>
       <c r="S202" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>245</v>
       </c>
@@ -11856,7 +11937,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="6">
+      <c r="K203" s="4">
         <v>20</v>
       </c>
       <c r="L203" s="3"/>
@@ -11864,13 +11945,15 @@
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
-      <c r="Q203" s="3"/>
+      <c r="Q203" s="4">
+        <v>0.5</v>
+      </c>
       <c r="R203" s="3"/>
       <c r="S203" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
@@ -11925,7 +12008,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>245</v>
       </c>
@@ -11980,7 +12063,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="19.5">
+    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>245</v>
       </c>
@@ -12025,7 +12108,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="29.25">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>245</v>
       </c>
@@ -12084,7 +12167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>245</v>
       </c>
@@ -12130,12 +12213,14 @@
       <c r="Q208" s="5">
         <v>0.26</v>
       </c>
-      <c r="R208" s="3"/>
+      <c r="R208" s="5">
+        <v>0.46</v>
+      </c>
       <c r="S208" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="39">
+    <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -12192,7 +12277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>266</v>
       </c>
@@ -12227,7 +12312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
@@ -12284,7 +12369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="29.25">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>266</v>
       </c>
@@ -12339,7 +12424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="29.25">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -12383,14 +12468,16 @@
         <v>6.64</v>
       </c>
       <c r="Q213" s="5">
-        <v>3.34</v>
-      </c>
-      <c r="R213" s="3"/>
+        <v>3.65</v>
+      </c>
+      <c r="R213" s="5">
+        <v>9.59</v>
+      </c>
       <c r="S213" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12447,7 +12534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>272</v>
       </c>
@@ -12504,7 +12591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -12543,7 +12630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>272</v>
       </c>
@@ -12582,7 +12669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>272</v>
       </c>
@@ -12621,7 +12708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>272</v>
       </c>
@@ -12678,7 +12765,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
@@ -12735,7 +12822,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>272</v>
       </c>
@@ -12792,7 +12879,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>272</v>
       </c>
@@ -12837,7 +12924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>272</v>
       </c>
@@ -12882,7 +12969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>272</v>
       </c>
@@ -12927,7 +13014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="29.25">
+    <row r="225" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>272</v>
       </c>
@@ -12972,7 +13059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
@@ -13017,7 +13104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>272</v>
       </c>
@@ -13062,7 +13149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -13107,7 +13194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>272</v>
       </c>
@@ -13152,7 +13239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>272</v>
       </c>
@@ -13197,7 +13284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
@@ -13242,7 +13329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>272</v>
       </c>
@@ -13287,7 +13374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>272</v>
       </c>
@@ -13332,7 +13419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>272</v>
       </c>
@@ -13377,7 +13464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -13422,7 +13509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>272</v>
       </c>
@@ -13467,7 +13554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>272</v>
       </c>
@@ -13512,7 +13599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>272</v>
       </c>
@@ -13557,7 +13644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>272</v>
       </c>
@@ -13602,7 +13689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>272</v>
       </c>
@@ -13647,7 +13734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>272</v>
       </c>
@@ -13706,7 +13793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>272</v>
       </c>
@@ -13765,7 +13852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>272</v>
       </c>
@@ -13824,7 +13911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>272</v>
       </c>
@@ -13883,7 +13970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -13942,7 +14029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>272</v>
       </c>
@@ -14001,7 +14088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>272</v>
       </c>
@@ -14060,7 +14147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>272</v>
       </c>
@@ -14119,7 +14206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>272</v>
       </c>
@@ -14178,7 +14265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>272</v>
       </c>
@@ -14230,12 +14317,14 @@
       <c r="Q250" s="4">
         <v>11.2</v>
       </c>
-      <c r="R250" s="3"/>
+      <c r="R250" s="4">
+        <v>8</v>
+      </c>
       <c r="S250" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>272</v>
       </c>
@@ -14292,7 +14381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -14349,7 +14438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14390,7 +14479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -14431,7 +14520,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -14472,7 +14561,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -14529,7 +14618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="48.75">
+    <row r="257" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -14586,7 +14675,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -14621,7 +14710,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -14656,7 +14745,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -14691,7 +14780,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -14726,7 +14815,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>272</v>
       </c>
@@ -14761,7 +14850,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>272</v>
       </c>
@@ -14796,7 +14885,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>272</v>
       </c>
@@ -14831,7 +14920,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -14866,7 +14955,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>272</v>
       </c>
@@ -14917,7 +15006,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="29.25">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>318</v>
       </c>
@@ -14974,7 +15063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="29.25">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>318</v>
       </c>
@@ -15031,7 +15120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="29.25">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>318</v>
       </c>
@@ -15088,7 +15177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="29.25">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>318</v>
       </c>
@@ -15145,7 +15234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="29.25">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>318</v>
       </c>
@@ -15202,7 +15291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="29.25">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>318</v>
       </c>
@@ -15259,7 +15348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="29.25">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>318</v>
       </c>
@@ -15316,7 +15405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="29.25">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>318</v>
       </c>
@@ -15373,7 +15462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="29.25">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>318</v>
       </c>
@@ -15430,7 +15519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="29.25">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>318</v>
       </c>
@@ -15487,7 +15576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="29.25">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
@@ -15544,7 +15633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="29.25">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>318</v>
       </c>
@@ -15601,7 +15690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="29.25">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>318</v>
       </c>
@@ -15658,7 +15747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="29.25">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>318</v>
       </c>
@@ -15715,7 +15804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="29.25">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>318</v>
       </c>
@@ -15772,7 +15861,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="29.25">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>318</v>
       </c>
@@ -15829,7 +15918,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="29.25">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>318</v>
       </c>
@@ -15886,7 +15975,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="29.25">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>318</v>
       </c>
@@ -15943,7 +16032,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="29.25">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>318</v>
       </c>
@@ -16000,7 +16089,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="29.25">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>318</v>
       </c>
@@ -16057,7 +16146,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="29.25">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>318</v>
       </c>
@@ -16108,7 +16197,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="29.25">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>318</v>
       </c>
@@ -16165,7 +16254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="29.25">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>318</v>
       </c>
@@ -16222,7 +16311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="29.25">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -16268,12 +16357,14 @@
       <c r="Q290" s="5">
         <v>10.5</v>
       </c>
-      <c r="R290" s="3"/>
+      <c r="R290" s="5">
+        <v>24.51</v>
+      </c>
       <c r="S290" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="29.25">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
@@ -16326,7 +16417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="39">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>318</v>
       </c>
@@ -16370,12 +16461,14 @@
       <c r="Q292" s="4">
         <v>100</v>
       </c>
-      <c r="R292" s="3"/>
+      <c r="R292" s="4">
+        <v>100</v>
+      </c>
       <c r="S292" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="39">
+    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
@@ -16419,12 +16512,14 @@
       <c r="Q293" s="4">
         <v>100</v>
       </c>
-      <c r="R293" s="3"/>
+      <c r="R293" s="4">
+        <v>100</v>
+      </c>
       <c r="S293" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>350</v>
       </c>
@@ -16481,7 +16576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="68.25">
+    <row r="295" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>350</v>
       </c>
@@ -16538,7 +16633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>350</v>
       </c>
@@ -16595,7 +16690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>350</v>
       </c>
@@ -16652,7 +16747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -16709,7 +16804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>350</v>
       </c>
@@ -16766,7 +16861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>350</v>
       </c>
@@ -16823,7 +16918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>350</v>
       </c>
@@ -16880,7 +16975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>350</v>
       </c>
@@ -16937,7 +17032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>350</v>
       </c>
@@ -16994,7 +17089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>350</v>
       </c>
@@ -17051,7 +17146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>350</v>
       </c>
@@ -17090,7 +17185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>350</v>
       </c>
@@ -17147,7 +17242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="39">
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>350</v>
       </c>
@@ -17204,7 +17299,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -17261,7 +17356,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="39">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
@@ -17318,7 +17413,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="39">
+    <row r="310" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>350</v>
       </c>
@@ -17375,7 +17470,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="29.25">
+    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>350</v>
       </c>
@@ -17432,7 +17527,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="39">
+    <row r="312" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>350</v>
       </c>
@@ -17489,7 +17584,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="29.25">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
@@ -17546,7 +17641,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="29.25">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>350</v>
       </c>
@@ -17603,7 +17698,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="39">
+    <row r="315" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>350</v>
       </c>
@@ -17660,7 +17755,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="29.25">
+    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>350</v>
       </c>
@@ -17717,7 +17812,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>350</v>
       </c>
@@ -17774,7 +17869,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="29.25">
+    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>350</v>
       </c>
@@ -17831,7 +17926,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>350</v>
       </c>
@@ -17890,7 +17985,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="39">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>350</v>
       </c>
@@ -17949,7 +18044,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="39">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>350</v>
       </c>
@@ -18008,7 +18103,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="68.25">
+    <row r="322" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>350</v>
       </c>
@@ -18067,7 +18162,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="58.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>350</v>
       </c>
@@ -18126,7 +18221,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="68.25">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>350</v>
       </c>
@@ -18185,7 +18280,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="68.25">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -18244,7 +18339,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="39">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>350</v>
       </c>
@@ -18301,7 +18396,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="68.25">
+    <row r="327" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>350</v>
       </c>
@@ -18358,7 +18453,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="58.5">
+    <row r="328" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>350</v>
       </c>
@@ -18415,7 +18510,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="68.25">
+    <row r="329" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>350</v>
       </c>
@@ -18472,7 +18567,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="68.25">
+    <row r="330" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -18529,7 +18624,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="29.25">
+    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>391</v>
       </c>
@@ -18584,7 +18679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="29.25">
+    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>391</v>
       </c>
@@ -18639,7 +18734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="29.25">
+    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -18694,7 +18789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="29.25">
+    <row r="334" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>391</v>
       </c>
@@ -18751,7 +18846,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="29.25">
+    <row r="335" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>391</v>
       </c>
@@ -18808,7 +18903,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="29.25">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>391</v>
       </c>
@@ -18865,7 +18960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="29.25">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>391</v>
       </c>
@@ -18922,7 +19017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="29.25">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>391</v>
       </c>
@@ -18979,7 +19074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="29.25">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>391</v>
       </c>
@@ -19036,7 +19131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="29.25">
+    <row r="340" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>391</v>
       </c>
@@ -19093,7 +19188,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="29.25">
+    <row r="341" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>391</v>
       </c>
@@ -19150,7 +19245,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="29.25">
+    <row r="342" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>391</v>
       </c>
@@ -19207,7 +19302,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="29.25">
+    <row r="343" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>391</v>
       </c>
@@ -19264,7 +19359,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="29.25">
+    <row r="344" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>391</v>
       </c>
@@ -19321,7 +19416,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="29.25">
+    <row r="345" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>391</v>
       </c>
@@ -19378,7 +19473,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="29.25">
+    <row r="346" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>391</v>
       </c>
@@ -19435,7 +19530,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="29.25">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>391</v>
       </c>
@@ -19492,7 +19587,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="29.25">
+    <row r="348" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>391</v>
       </c>
@@ -19549,7 +19644,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="29.25">
+    <row r="349" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -19606,7 +19701,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="29.25">
+    <row r="350" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
@@ -19663,7 +19758,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="29.25">
+    <row r="351" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>391</v>
       </c>
@@ -19720,7 +19815,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="29.25">
+    <row r="352" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>391</v>
       </c>
@@ -19777,7 +19872,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="29.25">
+    <row r="353" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>391</v>
       </c>
@@ -19834,7 +19929,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="29.25">
+    <row r="354" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>391</v>
       </c>
@@ -19891,7 +19986,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="29.25">
+    <row r="355" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>391</v>
       </c>
@@ -19948,7 +20043,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="29.25">
+    <row r="356" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>391</v>
       </c>
@@ -20005,7 +20100,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="29.25">
+    <row r="357" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>391</v>
       </c>
@@ -20062,7 +20157,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="29.25">
+    <row r="358" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>391</v>
       </c>
@@ -20117,7 +20212,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="29.25">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>391</v>
       </c>
@@ -20174,7 +20269,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="29.25">
+    <row r="360" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>391</v>
       </c>
@@ -20231,7 +20326,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="29.25">
+    <row r="361" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>391</v>
       </c>
@@ -20288,7 +20383,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="29.25">
+    <row r="362" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>391</v>
       </c>
@@ -20345,7 +20440,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="29.25">
+    <row r="363" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>391</v>
       </c>
@@ -20402,7 +20497,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>391</v>
       </c>
@@ -20459,7 +20554,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>391</v>
       </c>
@@ -20516,7 +20611,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>391</v>
       </c>
@@ -20573,7 +20668,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
@@ -20630,7 +20725,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -20687,7 +20782,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>391</v>
       </c>
@@ -20744,7 +20839,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -20801,7 +20896,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>391</v>
       </c>
@@ -20858,7 +20953,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>424</v>
       </c>
@@ -20915,7 +21010,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>424</v>
       </c>
@@ -20972,7 +21067,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
@@ -21029,7 +21124,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="48.75">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -21088,7 +21183,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>424</v>
       </c>
@@ -21133,7 +21228,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>424</v>
       </c>
@@ -21178,7 +21273,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>424</v>
       </c>
@@ -21223,7 +21318,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>424</v>
       </c>
@@ -21276,7 +21371,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>424</v>
       </c>
@@ -21321,7 +21416,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>424</v>
       </c>
@@ -21380,7 +21475,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>424</v>
       </c>
@@ -21439,7 +21534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="29.25">
+    <row r="383" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>444</v>
       </c>
@@ -21496,7 +21591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="29.25">
+    <row r="384" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>444</v>
       </c>
@@ -21553,7 +21648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="39">
+    <row r="385" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>444</v>
       </c>
@@ -21612,7 +21707,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="39">
+    <row r="386" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -21667,7 +21762,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>444</v>
       </c>
@@ -21726,7 +21821,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="29.25">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>444</v>
       </c>
@@ -21772,12 +21867,14 @@
       <c r="Q388" s="5">
         <v>3.65</v>
       </c>
-      <c r="R388" s="3"/>
+      <c r="R388" s="5">
+        <v>9.59</v>
+      </c>
       <c r="S388" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="58.5">
+    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>454</v>
       </c>
@@ -21836,7 +21933,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="39">
+    <row r="390" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>454</v>
       </c>
@@ -21895,7 +21992,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="48.75">
+    <row r="391" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>454</v>
       </c>
@@ -21954,7 +22051,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="48.75">
+    <row r="392" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>454</v>
       </c>
@@ -22013,7 +22110,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="58.5">
+    <row r="393" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>454</v>
       </c>
@@ -22070,7 +22167,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>464</v>
       </c>
@@ -22122,12 +22219,14 @@
       <c r="Q394" s="4">
         <v>30.9</v>
       </c>
-      <c r="R394" s="3"/>
+      <c r="R394" s="4">
+        <v>31</v>
+      </c>
       <c r="S394" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="19.5">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>464</v>
       </c>
@@ -22179,12 +22278,14 @@
       <c r="Q395" s="4">
         <v>97.5</v>
       </c>
-      <c r="R395" s="3"/>
+      <c r="R395" s="4">
+        <v>98</v>
+      </c>
       <c r="S395" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="39">
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>464</v>
       </c>
@@ -22241,7 +22342,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="19.5">
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>464</v>
       </c>
@@ -22275,12 +22376,14 @@
       <c r="Q397" s="6">
         <v>95</v>
       </c>
-      <c r="R397" s="3"/>
+      <c r="R397" s="6">
+        <v>95</v>
+      </c>
       <c r="S397" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="19.5">
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>464</v>
       </c>
@@ -22313,7 +22416,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="19.5">
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>464</v>
       </c>
@@ -22346,7 +22449,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="19.5">
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>464</v>
       </c>
@@ -22379,7 +22482,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="19.5">
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>464</v>
       </c>
@@ -22413,12 +22516,14 @@
       <c r="Q401" s="4">
         <v>66.599999999999994</v>
       </c>
-      <c r="R401" s="3"/>
+      <c r="R401" s="4">
+        <v>66.599999999999994</v>
+      </c>
       <c r="S401" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="19.5">
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>464</v>
       </c>
@@ -22452,12 +22557,14 @@
       <c r="Q402" s="4">
         <v>99.2</v>
       </c>
-      <c r="R402" s="3"/>
+      <c r="R402" s="4">
+        <v>99.2</v>
+      </c>
       <c r="S402" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="19.5">
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>464</v>
       </c>
@@ -22491,12 +22598,14 @@
       <c r="Q403" s="4">
         <v>94.4</v>
       </c>
-      <c r="R403" s="3"/>
+      <c r="R403" s="4">
+        <v>94.4</v>
+      </c>
       <c r="S403" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="29.25">
+    <row r="404" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>464</v>
       </c>
@@ -22555,7 +22664,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>464</v>
       </c>
@@ -22612,7 +22721,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -22671,7 +22780,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>464</v>
       </c>
@@ -22717,12 +22826,14 @@
       <c r="Q407" s="5">
         <v>0.88</v>
       </c>
-      <c r="R407" s="3"/>
+      <c r="R407" s="5">
+        <v>1.86</v>
+      </c>
       <c r="S407" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
@@ -22768,12 +22879,14 @@
       <c r="Q408" s="5">
         <v>0.88</v>
       </c>
-      <c r="R408" s="3"/>
+      <c r="R408" s="5">
+        <v>1.86</v>
+      </c>
       <c r="S408" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>464</v>
       </c>
@@ -22830,7 +22943,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>485</v>
       </c>
@@ -22887,7 +23000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>485</v>
       </c>
@@ -22946,7 +23059,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="29.25">
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>485</v>
       </c>
@@ -22989,7 +23102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>485</v>
       </c>
@@ -23042,7 +23155,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="29.25">
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>485</v>
       </c>
@@ -23082,12 +23195,14 @@
       <c r="Q414" s="6">
         <v>1527</v>
       </c>
-      <c r="R414" s="3"/>
+      <c r="R414" s="6">
+        <v>1604</v>
+      </c>
       <c r="S414" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="29.25">
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>485</v>
       </c>
@@ -23127,12 +23242,14 @@
       <c r="Q415" s="6">
         <v>196</v>
       </c>
-      <c r="R415" s="3"/>
+      <c r="R415" s="6">
+        <v>221</v>
+      </c>
       <c r="S415" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="29.25">
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -23172,12 +23289,14 @@
       <c r="Q416" s="6">
         <v>1331</v>
       </c>
-      <c r="R416" s="3"/>
+      <c r="R416" s="6">
+        <v>1352</v>
+      </c>
       <c r="S416" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="29.25">
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>485</v>
       </c>
@@ -23217,12 +23336,14 @@
       <c r="Q417" s="6">
         <v>1306</v>
       </c>
-      <c r="R417" s="3"/>
+      <c r="R417" s="6">
+        <v>1314</v>
+      </c>
       <c r="S417" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="29.25">
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>485</v>
       </c>
@@ -23260,14 +23381,16 @@
         <v>163</v>
       </c>
       <c r="Q418" s="6">
-        <v>1136</v>
-      </c>
-      <c r="R418" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="R418" s="6">
+        <v>190</v>
+      </c>
       <c r="S418" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="29.25">
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>485</v>
       </c>
@@ -23305,14 +23428,16 @@
         <v>1043</v>
       </c>
       <c r="Q419" s="6">
-        <v>170</v>
-      </c>
-      <c r="R419" s="3"/>
+        <v>1136</v>
+      </c>
+      <c r="R419" s="6">
+        <v>1124</v>
+      </c>
       <c r="S419" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="39">
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>485</v>
       </c>
@@ -23352,12 +23477,14 @@
       <c r="Q420" s="6">
         <v>147</v>
       </c>
-      <c r="R420" s="3"/>
+      <c r="R420" s="6">
+        <v>132</v>
+      </c>
       <c r="S420" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="48.75">
+    <row r="421" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>485</v>
       </c>
@@ -23397,12 +23524,14 @@
       <c r="Q421" s="6">
         <v>0</v>
       </c>
-      <c r="R421" s="3"/>
+      <c r="R421" s="6">
+        <v>2</v>
+      </c>
       <c r="S421" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="39">
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>485</v>
       </c>
@@ -23442,12 +23571,14 @@
       <c r="Q422" s="6">
         <v>1297</v>
       </c>
-      <c r="R422" s="3"/>
+      <c r="R422" s="6">
+        <v>1410</v>
+      </c>
       <c r="S422" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="39">
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>485</v>
       </c>
@@ -23487,12 +23618,14 @@
       <c r="Q423" s="6">
         <v>83</v>
       </c>
-      <c r="R423" s="3"/>
+      <c r="R423" s="6">
+        <v>62</v>
+      </c>
       <c r="S423" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="29.25">
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>485</v>
       </c>
@@ -23549,7 +23682,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="29.25">
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>485</v>
       </c>
@@ -23606,7 +23739,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="29.25">
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>485</v>
       </c>
@@ -23663,7 +23796,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="29.25">
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -23720,7 +23853,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="29.25">
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>485</v>
       </c>
@@ -23777,7 +23910,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="29.25">
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>485</v>
       </c>
@@ -23829,12 +23962,14 @@
       <c r="Q429" s="6">
         <v>8340</v>
       </c>
-      <c r="R429" s="3"/>
+      <c r="R429" s="6">
+        <v>7491</v>
+      </c>
       <c r="S429" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="39">
+    <row r="430" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>485</v>
       </c>
@@ -23873,7 +24008,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="39">
+    <row r="431" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A43